--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ02_BaselineAgency.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ02_BaselineAgency.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="3" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="4" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED01_DealSetup" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,16 +14,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMCH10_ChangeAgencyFee" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV01A_LoanDrawdown" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MTAM07_FacilityShareAdjustment" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORIG03_Customer" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV05_SBLCIssuance" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV23_PaperclipTransaction" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV40_BreakFunding" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV20_UnschedPrincipalPayments" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV33_RecurringFee" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV21_InterestPayments" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV08_ComprehensiveRepricing" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV30_AdminFeePayment" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV29_PaymentFees" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV29_PaymentFees" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORIG03_Customer" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV05_SBLCIssuance" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV23_PaperclipTransaction" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV40_BreakFunding" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV20_UnschedPrincipalPayments" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV33_RecurringFee" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV21_InterestPayments" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV08_ComprehensiveRepricing" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV30_AdminFeePayment" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED11_EventDrivenFeeAdvanced" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED02_FacilitySetup" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_PartyUpdate" sheetId="21" state="visible" r:id="rId21"/>
@@ -605,7 +605,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B23" sqref="B23"/>
+      <selection pane="topRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1339,17 +1339,17 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>S206082020230823LYH</t>
+          <t>S210082020000320TJN</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="I2" s="23" t="inlineStr">
@@ -1705,12 +1705,12 @@
       </c>
       <c r="CD2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2021</t>
+          <t>07-Jul-2021</t>
         </is>
       </c>
       <c r="CE2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="CG2" s="27" t="inlineStr">
@@ -1755,12 +1755,12 @@
       </c>
       <c r="CO2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="CP2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="CQ2" s="27" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="DC2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="DF2" s="27" t="inlineStr">
@@ -1887,6 +1887,1560 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:EO2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="6.140625" customWidth="1" style="49" min="1" max="1"/>
+    <col width="60.28515625" customWidth="1" style="49" min="2" max="2"/>
+    <col width="30" customWidth="1" style="49" min="3" max="5"/>
+    <col width="46.28515625" customWidth="1" style="49" min="6" max="7"/>
+    <col width="45.5703125" customWidth="1" style="49" min="8" max="9"/>
+    <col width="47.5703125" customWidth="1" style="49" min="10" max="11"/>
+    <col width="20.5703125" customWidth="1" style="49" min="12" max="12"/>
+    <col width="24.28515625" customWidth="1" style="49" min="13" max="13"/>
+    <col width="24.5703125" customWidth="1" style="49" min="14" max="14"/>
+    <col width="15.7109375" customWidth="1" style="49" min="15" max="15"/>
+    <col width="18.42578125" customWidth="1" style="49" min="16" max="16"/>
+    <col width="18" customWidth="1" style="49" min="17" max="17"/>
+    <col width="21.140625" customWidth="1" style="49" min="18" max="18"/>
+    <col width="20.7109375" customWidth="1" style="49" min="19" max="19"/>
+    <col width="18.42578125" customWidth="1" style="49" min="20" max="20"/>
+    <col width="18" customWidth="1" style="49" min="21" max="21"/>
+    <col width="40.5703125" customWidth="1" style="49" min="22" max="24"/>
+    <col width="34.42578125" customWidth="1" style="49" min="25" max="25"/>
+    <col width="40.5703125" customWidth="1" style="49" min="26" max="26"/>
+    <col width="43" customWidth="1" style="49" min="27" max="27"/>
+    <col width="40.5703125" customWidth="1" style="49" min="28" max="28"/>
+    <col width="41.28515625" customWidth="1" style="49" min="29" max="30"/>
+    <col width="14.28515625" customWidth="1" style="49" min="31" max="32"/>
+    <col width="12.5703125" customWidth="1" style="49" min="33" max="33"/>
+    <col width="16.28515625" customWidth="1" style="49" min="34" max="34"/>
+    <col width="12.85546875" customWidth="1" style="49" min="35" max="35"/>
+    <col width="21.85546875" customWidth="1" style="49" min="36" max="36"/>
+    <col width="14" customWidth="1" style="49" min="37" max="37"/>
+    <col width="22.5703125" customWidth="1" style="49" min="38" max="38"/>
+    <col width="17.28515625" customWidth="1" style="49" min="39" max="39"/>
+    <col width="33" customWidth="1" style="49" min="40" max="40"/>
+    <col width="12.42578125" customWidth="1" style="49" min="41" max="41"/>
+    <col width="14.5703125" customWidth="1" style="49" min="42" max="42"/>
+    <col width="37.140625" customWidth="1" style="49" min="43" max="43"/>
+    <col width="16.85546875" customWidth="1" style="49" min="44" max="44"/>
+    <col width="28" customWidth="1" style="49" min="45" max="45"/>
+    <col width="19" customWidth="1" style="49" min="46" max="46"/>
+    <col width="36.7109375" customWidth="1" style="49" min="47" max="48"/>
+    <col width="18.5703125" customWidth="1" style="49" min="49" max="49"/>
+    <col width="22" customWidth="1" style="49" min="50" max="51"/>
+    <col width="36.7109375" customWidth="1" style="49" min="52" max="52"/>
+    <col width="20" customWidth="1" style="49" min="53" max="53"/>
+    <col width="10" customWidth="1" style="49" min="54" max="54"/>
+    <col width="16.7109375" customWidth="1" style="49" min="55" max="55"/>
+    <col width="12.5703125" customWidth="1" style="49" min="56" max="56"/>
+    <col width="13.7109375" customWidth="1" style="49" min="57" max="57"/>
+    <col width="15.7109375" customWidth="1" style="49" min="58" max="58"/>
+    <col width="16.7109375" customWidth="1" style="49" min="59" max="59"/>
+    <col width="18.28515625" customWidth="1" style="49" min="60" max="60"/>
+    <col width="19.28515625" customWidth="1" style="49" min="61" max="61"/>
+    <col width="18.140625" customWidth="1" style="49" min="62" max="63"/>
+    <col width="27.140625" customWidth="1" style="49" min="64" max="64"/>
+    <col width="22.28515625" customWidth="1" style="49" min="65" max="65"/>
+    <col width="23.28515625" customWidth="1" style="49" min="66" max="66"/>
+    <col width="25.85546875" customWidth="1" style="49" min="67" max="67"/>
+    <col width="30.85546875" customWidth="1" style="49" min="68" max="68"/>
+    <col width="21" customWidth="1" style="49" min="69" max="69"/>
+    <col width="25.5703125" customWidth="1" style="49" min="70" max="70"/>
+    <col width="21.7109375" customWidth="1" style="49" min="71" max="71"/>
+    <col width="18.7109375" customWidth="1" style="49" min="72" max="72"/>
+    <col width="20.42578125" customWidth="1" style="49" min="73" max="73"/>
+    <col width="14.5703125" customWidth="1" style="49" min="74" max="74"/>
+    <col width="15.5703125" customWidth="1" style="49" min="75" max="75"/>
+    <col width="37.5703125" customWidth="1" style="49" min="76" max="76"/>
+    <col width="33" customWidth="1" style="49" min="77" max="77"/>
+    <col width="39.140625" customWidth="1" style="49" min="78" max="78"/>
+    <col width="41" customWidth="1" style="49" min="79" max="79"/>
+    <col width="38.5703125" customWidth="1" style="49" min="80" max="81"/>
+    <col width="42.85546875" customWidth="1" style="49" min="82" max="82"/>
+    <col width="34.140625" customWidth="1" style="49" min="83" max="83"/>
+    <col width="38.42578125" customWidth="1" style="49" min="84" max="84"/>
+    <col width="32.42578125" customWidth="1" style="49" min="85" max="85"/>
+    <col width="40.5703125" customWidth="1" style="49" min="86" max="87"/>
+    <col width="38" customWidth="1" style="49" min="88" max="88"/>
+    <col width="18.140625" customWidth="1" style="49" min="89" max="89"/>
+    <col width="31.140625" customWidth="1" style="49" min="90" max="90"/>
+    <col width="39.28515625" customWidth="1" style="49" min="91" max="92"/>
+    <col width="33.42578125" customWidth="1" style="49" min="93" max="93"/>
+    <col width="46.42578125" customWidth="1" style="49" min="94" max="94"/>
+    <col width="43.85546875" customWidth="1" style="49" min="95" max="95"/>
+    <col width="48.85546875" customWidth="1" style="49" min="96" max="96"/>
+    <col width="34.85546875" customWidth="1" style="49" min="97" max="97"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="8" thickBot="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>rowid</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>Test_Case</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>LIQCustomerShortName_Prefix</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>LIQCustomerLegalName_Prefix</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Remittance_Instruction</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDADescriptionAUDPrefix</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDADescriptionAUDPrefix2</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_IMTDescriptionUSDPrefix</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_IMTDescriptionUSDPrefix2</t>
+        </is>
+      </c>
+      <c r="J1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_RTGSDescriptionAUDPrefix</t>
+        </is>
+      </c>
+      <c r="K1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_RTGSDescriptionAUDPrefix2</t>
+        </is>
+      </c>
+      <c r="L1" s="9" t="inlineStr">
+        <is>
+          <t>Customer_Search</t>
+        </is>
+      </c>
+      <c r="M1" s="9" t="inlineStr">
+        <is>
+          <t>LIQCustomer_ShortName</t>
+        </is>
+      </c>
+      <c r="N1" s="9" t="inlineStr">
+        <is>
+          <t>LIQCustomer_LegalName</t>
+        </is>
+      </c>
+      <c r="O1" s="9" t="inlineStr">
+        <is>
+          <t>LIQCustomer_ID</t>
+        </is>
+      </c>
+      <c r="P1" s="9" t="inlineStr">
+        <is>
+          <t>Inputter_Username</t>
+        </is>
+      </c>
+      <c r="Q1" s="9" t="inlineStr">
+        <is>
+          <t>Inputter_Password</t>
+        </is>
+      </c>
+      <c r="R1" s="9" t="inlineStr">
+        <is>
+          <t>Supervisor_Username</t>
+        </is>
+      </c>
+      <c r="S1" s="9" t="inlineStr">
+        <is>
+          <t>Supervisor_Password</t>
+        </is>
+      </c>
+      <c r="T1" s="9" t="inlineStr">
+        <is>
+          <t>Manager_Username</t>
+        </is>
+      </c>
+      <c r="U1" s="9" t="inlineStr">
+        <is>
+          <t>Manager_Password</t>
+        </is>
+      </c>
+      <c r="V1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDADescriptionAUD</t>
+        </is>
+      </c>
+      <c r="W1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDADescriptionAUD2</t>
+        </is>
+      </c>
+      <c r="X1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDADescriptionUSD</t>
+        </is>
+      </c>
+      <c r="Y1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_RTGSMethod</t>
+        </is>
+      </c>
+      <c r="Z1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_RTGSDescriptionAUD</t>
+        </is>
+      </c>
+      <c r="AA1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_RTGSDescriptionAUD2</t>
+        </is>
+      </c>
+      <c r="AB1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_RTGSCurrencyAUD</t>
+        </is>
+      </c>
+      <c r="AC1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_SIMTDescriptionAUD</t>
+        </is>
+      </c>
+      <c r="AD1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_SIMTDescriptionUSD</t>
+        </is>
+      </c>
+      <c r="AE1" s="9" t="inlineStr">
+        <is>
+          <t>Address_Line1</t>
+        </is>
+      </c>
+      <c r="AF1" s="9" t="inlineStr">
+        <is>
+          <t>Address_Line2</t>
+        </is>
+      </c>
+      <c r="AG1" s="9" t="inlineStr">
+        <is>
+          <t>Address_City</t>
+        </is>
+      </c>
+      <c r="AH1" s="9" t="inlineStr">
+        <is>
+          <t>Address_Country</t>
+        </is>
+      </c>
+      <c r="AI1" s="9" t="inlineStr">
+        <is>
+          <t>Address_TRA</t>
+        </is>
+      </c>
+      <c r="AJ1" s="9" t="inlineStr">
+        <is>
+          <t>Address_DefaultPhone</t>
+        </is>
+      </c>
+      <c r="AK1" s="9" t="inlineStr">
+        <is>
+          <t>Address_State</t>
+        </is>
+      </c>
+      <c r="AL1" s="9" t="inlineStr">
+        <is>
+          <t>Address_ZipPostalCode</t>
+        </is>
+      </c>
+      <c r="AM1" s="9" t="inlineStr">
+        <is>
+          <t>Primary_SICCode</t>
+        </is>
+      </c>
+      <c r="AN1" s="9" t="inlineStr">
+        <is>
+          <t>PrimarySICCode_Description</t>
+        </is>
+      </c>
+      <c r="AO1" s="9" t="inlineStr">
+        <is>
+          <t>Profile_Type</t>
+        </is>
+      </c>
+      <c r="AP1" s="9" t="inlineStr">
+        <is>
+          <t>Expense_Code</t>
+        </is>
+      </c>
+      <c r="AQ1" s="9" t="inlineStr">
+        <is>
+          <t>ExpenseCode_Description</t>
+        </is>
+      </c>
+      <c r="AR1" s="9" t="inlineStr">
+        <is>
+          <t>Deparment_Code</t>
+        </is>
+      </c>
+      <c r="AS1" s="9" t="inlineStr">
+        <is>
+          <t>DepartmentCode_Description</t>
+        </is>
+      </c>
+      <c r="AT1" s="9" t="inlineStr">
+        <is>
+          <t>Classification_Code</t>
+        </is>
+      </c>
+      <c r="AU1" s="9" t="inlineStr">
+        <is>
+          <t>ClassificationCode_Description</t>
+        </is>
+      </c>
+      <c r="AV1" s="9" t="inlineStr">
+        <is>
+          <t>Taxpayer_ID</t>
+        </is>
+      </c>
+      <c r="AW1" s="9" t="inlineStr">
+        <is>
+          <t>CreditReview_Date</t>
+        </is>
+      </c>
+      <c r="AX1" s="9" t="inlineStr">
+        <is>
+          <t>Customer_Location</t>
+        </is>
+      </c>
+      <c r="AY1" s="9" t="inlineStr">
+        <is>
+          <t>Customer_Location2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="9" t="inlineStr">
+        <is>
+          <t>External_ID</t>
+        </is>
+      </c>
+      <c r="BA1" s="9" t="inlineStr">
+        <is>
+          <t>Preferred_Language</t>
+        </is>
+      </c>
+      <c r="BB1" s="9" t="inlineStr">
+        <is>
+          <t>MEI_Code</t>
+        </is>
+      </c>
+      <c r="BC1" s="9" t="inlineStr">
+        <is>
+          <t>Address_Code</t>
+        </is>
+      </c>
+      <c r="BD1" s="9" t="inlineStr">
+        <is>
+          <t>Fax_Number</t>
+        </is>
+      </c>
+      <c r="BE1" s="9" t="inlineStr">
+        <is>
+          <t>Fax_Number2</t>
+        </is>
+      </c>
+      <c r="BF1" s="9" t="inlineStr">
+        <is>
+          <t>Fax_Description</t>
+        </is>
+      </c>
+      <c r="BG1" s="9" t="inlineStr">
+        <is>
+          <t>Fax_Description2</t>
+        </is>
+      </c>
+      <c r="BH1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_FirstName</t>
+        </is>
+      </c>
+      <c r="BI1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_FirstName2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_LastName</t>
+        </is>
+      </c>
+      <c r="BK1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_LastName2</t>
+        </is>
+      </c>
+      <c r="BL1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_PreferredLanguage</t>
+        </is>
+      </c>
+      <c r="BM1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_PrimaryPhone</t>
+        </is>
+      </c>
+      <c r="BN1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_PrimaryPhone2</t>
+        </is>
+      </c>
+      <c r="BO1" s="10" t="inlineStr">
+        <is>
+          <t>Contact_ProductSelected</t>
+        </is>
+      </c>
+      <c r="BP1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_BalanceTypeSelected</t>
+        </is>
+      </c>
+      <c r="BQ1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_PurposeType</t>
+        </is>
+      </c>
+      <c r="BR1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_PurposeTypeArea</t>
+        </is>
+      </c>
+      <c r="BS1" s="9" t="inlineStr">
+        <is>
+          <t>ContactNotice_Method</t>
+        </is>
+      </c>
+      <c r="BT1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_Email</t>
+        </is>
+      </c>
+      <c r="BU1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_Email2</t>
+        </is>
+      </c>
+      <c r="BV1" s="9" t="inlineStr">
+        <is>
+          <t>Group_Contact</t>
+        </is>
+      </c>
+      <c r="BW1" s="9" t="inlineStr">
+        <is>
+          <t>Group_Contact2</t>
+        </is>
+      </c>
+      <c r="BX1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_MethodType</t>
+        </is>
+      </c>
+      <c r="BY1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDAMethod</t>
+        </is>
+      </c>
+      <c r="BZ1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDAAccountName</t>
+        </is>
+      </c>
+      <c r="CA1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDAAccountNumber</t>
+        </is>
+      </c>
+      <c r="CB1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDACurrencyAUD</t>
+        </is>
+      </c>
+      <c r="CC1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDACurrencyUSD</t>
+        </is>
+      </c>
+      <c r="CD1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DirectionSelected</t>
+        </is>
+      </c>
+      <c r="CE1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstructionDDA_AutoDoIt</t>
+        </is>
+      </c>
+      <c r="CF1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_SIMTMethodType</t>
+        </is>
+      </c>
+      <c r="CG1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_IMTMethod</t>
+        </is>
+      </c>
+      <c r="CH1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_IMTDescriptionUSD</t>
+        </is>
+      </c>
+      <c r="CI1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_IMTDescriptionUSD2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_IMTCurrencyUSD</t>
+        </is>
+      </c>
+      <c r="CK1" s="9" t="inlineStr">
+        <is>
+          <t>IMT_MessageCode</t>
+        </is>
+      </c>
+      <c r="CL1" s="9" t="inlineStr">
+        <is>
+          <t>BOC_Level</t>
+        </is>
+      </c>
+      <c r="CM1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_SIMTCurrencyAUD</t>
+        </is>
+      </c>
+      <c r="CN1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_SIMTCurrencyUSD</t>
+        </is>
+      </c>
+      <c r="CO1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_SIMTSwiftID</t>
+        </is>
+      </c>
+      <c r="CP1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_SIMTSwiftIDBank</t>
+        </is>
+      </c>
+      <c r="CQ1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstructionSIMT_
+ProductSelected</t>
+        </is>
+      </c>
+      <c r="CR1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstructionSIMT_
+BalanceTypeSelected</t>
+        </is>
+      </c>
+      <c r="CS1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstructionSIMT_AutoDoIt</t>
+        </is>
+      </c>
+      <c r="CT1" s="9" t="inlineStr">
+        <is>
+          <t>GST_ID</t>
+        </is>
+      </c>
+      <c r="CU1" s="9" t="inlineStr">
+        <is>
+          <t>InternalRiskRating_Type</t>
+        </is>
+      </c>
+      <c r="CV1" s="9" t="inlineStr">
+        <is>
+          <t>InternalRisk_Rating</t>
+        </is>
+      </c>
+      <c r="CW1" s="9" t="inlineStr">
+        <is>
+          <t>InternalRisk_Percent</t>
+        </is>
+      </c>
+      <c r="CX1" s="9" t="inlineStr">
+        <is>
+          <t>ExternalRiskRating_Type1</t>
+        </is>
+      </c>
+      <c r="CY1" s="9" t="inlineStr">
+        <is>
+          <t>ExternalRisk_Rating1</t>
+        </is>
+      </c>
+      <c r="CZ1" s="9" t="inlineStr">
+        <is>
+          <t>ExternalRiskRating_Type2</t>
+        </is>
+      </c>
+      <c r="DA1" s="9" t="inlineStr">
+        <is>
+          <t>ExternalRisk_Rating2</t>
+        </is>
+      </c>
+      <c r="DB1" s="9" t="inlineStr">
+        <is>
+          <t>ExternalRiskRating_Type3</t>
+        </is>
+      </c>
+      <c r="DC1" s="9" t="inlineStr">
+        <is>
+          <t>ExternalRisk_Rating3</t>
+        </is>
+      </c>
+      <c r="DD1" s="9" t="inlineStr">
+        <is>
+          <t>MailingAddress_Code</t>
+        </is>
+      </c>
+      <c r="DE1" s="9" t="inlineStr">
+        <is>
+          <t>MailingAddress_Line1</t>
+        </is>
+      </c>
+      <c r="DF1" s="9" t="inlineStr">
+        <is>
+          <t>MailingAddress_Line2</t>
+        </is>
+      </c>
+      <c r="DG1" s="9" t="inlineStr">
+        <is>
+          <t>MailingAddress_DefaultPhone</t>
+        </is>
+      </c>
+      <c r="DH1" s="9" t="inlineStr">
+        <is>
+          <t>BorrowerContact_Phone</t>
+        </is>
+      </c>
+      <c r="DI1" s="9" t="inlineStr">
+        <is>
+          <t>SwiftRole_BC</t>
+        </is>
+      </c>
+      <c r="DJ1" s="9" t="inlineStr">
+        <is>
+          <t>SwiftRole_OC</t>
+        </is>
+      </c>
+      <c r="DK1" s="9" t="inlineStr">
+        <is>
+          <t>SwiftRole_AWI</t>
+        </is>
+      </c>
+      <c r="DL1" s="9" t="inlineStr">
+        <is>
+          <t>AWI_SwiftID</t>
+        </is>
+      </c>
+      <c r="DM1" s="9" t="inlineStr">
+        <is>
+          <t>AWI_Description</t>
+        </is>
+      </c>
+      <c r="DN1" s="9" t="inlineStr">
+        <is>
+          <t>AWI_AccountNumber</t>
+        </is>
+      </c>
+      <c r="DO1" s="8" t="inlineStr">
+        <is>
+          <t>DOC_Type</t>
+        </is>
+      </c>
+      <c r="DP1" s="9" t="inlineStr">
+        <is>
+          <t>IMT_MessageCode2</t>
+        </is>
+      </c>
+      <c r="DQ1" s="9" t="inlineStr">
+        <is>
+          <t>SwiftRole_BI</t>
+        </is>
+      </c>
+      <c r="DR1" s="9" t="inlineStr">
+        <is>
+          <t>BC_Description</t>
+        </is>
+      </c>
+      <c r="DS1" s="9" t="inlineStr">
+        <is>
+          <t>BC_AccountNumber</t>
+        </is>
+      </c>
+      <c r="DT1" s="9" t="inlineStr">
+        <is>
+          <t>OC_Description</t>
+        </is>
+      </c>
+      <c r="DU1" s="9" t="inlineStr">
+        <is>
+          <t>OC_AccountNumber</t>
+        </is>
+      </c>
+      <c r="DV1" s="9" t="inlineStr">
+        <is>
+          <t>InternalRiskRating_EffectiveDate</t>
+        </is>
+      </c>
+      <c r="DW1" s="9" t="inlineStr">
+        <is>
+          <t>InternalRiskRating_ExpiryDate</t>
+        </is>
+      </c>
+      <c r="DX1" s="9" t="inlineStr">
+        <is>
+          <t>ExternalRiskRating_StartDate</t>
+        </is>
+      </c>
+      <c r="DY1" s="9" t="inlineStr">
+        <is>
+          <t>ProductSBLC_Checkbox</t>
+        </is>
+      </c>
+      <c r="DZ1" s="9" t="inlineStr">
+        <is>
+          <t>ProductLoan_Checkbox</t>
+        </is>
+      </c>
+      <c r="EA1" s="9" t="inlineStr">
+        <is>
+          <t>BalanceType_Principal_Checkbox</t>
+        </is>
+      </c>
+      <c r="EB1" s="9" t="inlineStr">
+        <is>
+          <t>BalanceType_Interest_Checkbox</t>
+        </is>
+      </c>
+      <c r="EC1" s="9" t="inlineStr">
+        <is>
+          <t>BalanceType_Fees_Checkbox</t>
+        </is>
+      </c>
+      <c r="ED1" s="9" t="inlineStr">
+        <is>
+          <t>RI_ProductLoan_Checkbox</t>
+        </is>
+      </c>
+      <c r="EE1" s="9" t="inlineStr">
+        <is>
+          <t>RI_ProductSBLC_Checkbox</t>
+        </is>
+      </c>
+      <c r="EF1" s="9" t="inlineStr">
+        <is>
+          <t>RI_FromCust_Checkbox</t>
+        </is>
+      </c>
+      <c r="EG1" s="9" t="inlineStr">
+        <is>
+          <t>RI_ToCust_Checkbox</t>
+        </is>
+      </c>
+      <c r="EH1" s="9" t="inlineStr">
+        <is>
+          <t>RI_BalanceType_Principal_Checkbox</t>
+        </is>
+      </c>
+      <c r="EI1" s="9" t="inlineStr">
+        <is>
+          <t>RI_BalanceType_Interest_Checkbox</t>
+        </is>
+      </c>
+      <c r="EJ1" s="9" t="inlineStr">
+        <is>
+          <t>RI_BalanceType_Fees_Checkbox</t>
+        </is>
+      </c>
+      <c r="EK1" s="9" t="inlineStr">
+        <is>
+          <t>RI_AutoDoIt_Checkbox</t>
+        </is>
+      </c>
+      <c r="EL1" s="9" t="inlineStr">
+        <is>
+          <t>RI_SendersCorrespondent_Checkbox</t>
+        </is>
+      </c>
+      <c r="EM1" s="9" t="inlineStr">
+        <is>
+          <t>CustomerNotice_TypeMethod</t>
+        </is>
+      </c>
+      <c r="EN1" s="59" t="inlineStr">
+        <is>
+          <t>Entity</t>
+        </is>
+      </c>
+      <c r="EO1" s="59" t="inlineStr">
+        <is>
+          <t>CustomerSourceApp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="49">
+      <c r="A2" s="49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="49" t="inlineStr">
+        <is>
+          <t>EVG_PTYLIQ03 Scenario3 Baseline SBLC</t>
+        </is>
+      </c>
+      <c r="C2" s="49" t="inlineStr">
+        <is>
+          <t>CUSTSHORT</t>
+        </is>
+      </c>
+      <c r="D2" s="49" t="inlineStr">
+        <is>
+          <t>CUSTLEGAL</t>
+        </is>
+      </c>
+      <c r="E2" s="49" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="F2" s="49" t="inlineStr">
+        <is>
+          <t>DDAAUD1-</t>
+        </is>
+      </c>
+      <c r="G2" s="49" t="inlineStr">
+        <is>
+          <t>DDAAUD2-</t>
+        </is>
+      </c>
+      <c r="H2" s="49" t="inlineStr">
+        <is>
+          <t>IMTUSD1-</t>
+        </is>
+      </c>
+      <c r="I2" s="49" t="inlineStr">
+        <is>
+          <t>IMTUSD2-</t>
+        </is>
+      </c>
+      <c r="J2" s="49" t="inlineStr">
+        <is>
+          <t>RTGSAUD1-</t>
+        </is>
+      </c>
+      <c r="K2" s="49" t="inlineStr">
+        <is>
+          <t>RTGSAUD2-</t>
+        </is>
+      </c>
+      <c r="L2" s="49" t="inlineStr">
+        <is>
+          <t>Search by Customer ID</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>ESPS11413431</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTLEGAL39121</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="P2" s="50" t="inlineStr">
+        <is>
+          <t>TRUSERGE</t>
+        </is>
+      </c>
+      <c r="Q2" s="50" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="R2" s="50" t="inlineStr">
+        <is>
+          <t>TRAPPVGE</t>
+        </is>
+      </c>
+      <c r="S2" s="50" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="T2" s="50" t="inlineStr">
+        <is>
+          <t>TRUSERG3</t>
+        </is>
+      </c>
+      <c r="U2" s="50" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>DDAAUD1-4344</t>
+        </is>
+      </c>
+      <c r="W2" s="49" t="inlineStr">
+        <is>
+          <t>DDA-AUD2518</t>
+        </is>
+      </c>
+      <c r="X2" s="49" t="inlineStr">
+        <is>
+          <t>DDA2-USD3750</t>
+        </is>
+      </c>
+      <c r="Y2" s="50" t="inlineStr">
+        <is>
+          <t>High Value Local RTGS (AUD)</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>RTGSAUD1-4345</t>
+        </is>
+      </c>
+      <c r="AA2" s="49" t="inlineStr">
+        <is>
+          <t>RTGS-AUD2525</t>
+        </is>
+      </c>
+      <c r="AB2" s="49" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="AC2" s="49" t="inlineStr">
+        <is>
+          <t>SIMT1-AUD3750</t>
+        </is>
+      </c>
+      <c r="AD2" s="49" t="inlineStr">
+        <is>
+          <t>SIMT2-USD4504</t>
+        </is>
+      </c>
+      <c r="AE2" s="50" t="inlineStr">
+        <is>
+          <t>George St.</t>
+        </is>
+      </c>
+      <c r="AF2" s="50" t="inlineStr">
+        <is>
+          <t>Beverly Hills</t>
+        </is>
+      </c>
+      <c r="AG2" s="50" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="AH2" s="50" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="AI2" s="50" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="AJ2" s="50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">412345678
+ </t>
+        </is>
+      </c>
+      <c r="AK2" s="50" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="AL2" s="50" t="inlineStr">
+        <is>
+          <t>4061</t>
+        </is>
+      </c>
+      <c r="AM2" s="50" t="inlineStr">
+        <is>
+          <t>3620</t>
+        </is>
+      </c>
+      <c r="AN2" s="50" t="inlineStr">
+        <is>
+          <t>AU / Gas Supply</t>
+        </is>
+      </c>
+      <c r="AO2" s="50" t="inlineStr">
+        <is>
+          <t>Borrower</t>
+        </is>
+      </c>
+      <c r="AP2" s="50" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="AQ2" s="50" t="inlineStr">
+        <is>
+          <t>CFS QLD Brisbane Corporate (Dept 003346)</t>
+        </is>
+      </c>
+      <c r="AR2" s="50" t="inlineStr">
+        <is>
+          <t>GLB</t>
+        </is>
+      </c>
+      <c r="AS2" s="50" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="AT2" s="50" t="inlineStr">
+        <is>
+          <t>FORG</t>
+        </is>
+      </c>
+      <c r="AU2" s="50" t="inlineStr">
+        <is>
+          <t>Foreign Government, Foreign Government</t>
+        </is>
+      </c>
+      <c r="AV2" s="50" t="inlineStr">
+        <is>
+          <t>&lt;This is randomly generated in the script&gt;</t>
+        </is>
+      </c>
+      <c r="AW2" s="50" t="inlineStr">
+        <is>
+          <t>16-Feb-2017</t>
+        </is>
+      </c>
+      <c r="AX2" s="50" t="inlineStr">
+        <is>
+          <t>Melbourne, VIC,Australia</t>
+        </is>
+      </c>
+      <c r="AY2" s="50" t="inlineStr">
+        <is>
+          <t>Sydney, NSW,Australia</t>
+        </is>
+      </c>
+      <c r="AZ2" s="50" t="inlineStr">
+        <is>
+          <t>&lt;This is randomly generated in the script&gt;</t>
+        </is>
+      </c>
+      <c r="BA2" s="50" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="BB2" s="50" t="inlineStr">
+        <is>
+          <t>CBA</t>
+        </is>
+      </c>
+      <c r="BC2" s="50" t="inlineStr">
+        <is>
+          <t>LEGAL ADDRESS</t>
+        </is>
+      </c>
+      <c r="BD2" s="50" t="inlineStr">
+        <is>
+          <t>1917472</t>
+        </is>
+      </c>
+      <c r="BE2" s="50" t="inlineStr">
+        <is>
+          <t>1917472</t>
+        </is>
+      </c>
+      <c r="BF2" s="50" t="inlineStr">
+        <is>
+          <t>Work Fax</t>
+        </is>
+      </c>
+      <c r="BG2" s="50" t="inlineStr">
+        <is>
+          <t>Work Fax 2</t>
+        </is>
+      </c>
+      <c r="BH2" s="50" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="BI2" s="50" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="BJ2" s="50" t="inlineStr">
+        <is>
+          <t>Bloggs</t>
+        </is>
+      </c>
+      <c r="BK2" s="50" t="inlineStr">
+        <is>
+          <t>Baker</t>
+        </is>
+      </c>
+      <c r="BL2" s="50" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="BM2" s="50" t="inlineStr">
+        <is>
+          <t>1928727188</t>
+        </is>
+      </c>
+      <c r="BN2" s="50" t="inlineStr">
+        <is>
+          <t>1928143143</t>
+        </is>
+      </c>
+      <c r="BO2" s="50" t="inlineStr">
+        <is>
+          <t>SBLC, Loan</t>
+        </is>
+      </c>
+      <c r="BP2" s="50" t="inlineStr">
+        <is>
+          <t>Principal, Interest, Fees</t>
+        </is>
+      </c>
+      <c r="BQ2" s="50" t="inlineStr">
+        <is>
+          <t>Servicing</t>
+        </is>
+      </c>
+      <c r="BR2" s="50" t="inlineStr">
+        <is>
+          <t>SERV</t>
+        </is>
+      </c>
+      <c r="BS2" s="50" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="BT2" s="11" t="inlineStr">
+        <is>
+          <t>john.blogg@abc.com</t>
+        </is>
+      </c>
+      <c r="BU2" s="11" t="inlineStr">
+        <is>
+          <t>james.baker@abc.com</t>
+        </is>
+      </c>
+      <c r="BV2" s="50" t="inlineStr">
+        <is>
+          <t>Bloggs</t>
+        </is>
+      </c>
+      <c r="BW2" s="50" t="inlineStr">
+        <is>
+          <t>Baker</t>
+        </is>
+      </c>
+      <c r="BX2" s="50" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="BY2" s="50" t="inlineStr">
+        <is>
+          <t>DDA (Demand Deposit Acct)</t>
+        </is>
+      </c>
+      <c r="BZ2" s="50" t="inlineStr">
+        <is>
+          <t>CBA Domestic Account</t>
+        </is>
+      </c>
+      <c r="CA2" s="11" t="inlineStr">
+        <is>
+          <t>1020188515</t>
+        </is>
+      </c>
+      <c r="CB2" s="11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="CC2" s="11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="CD2" s="50" t="inlineStr">
+        <is>
+          <t>From Cust</t>
+        </is>
+      </c>
+      <c r="CE2" s="50" t="inlineStr">
+        <is>
+          <t>&lt;Selected&gt;</t>
+        </is>
+      </c>
+      <c r="CF2" s="50" t="inlineStr">
+        <is>
+          <t>Simplified</t>
+        </is>
+      </c>
+      <c r="CG2" s="50" t="inlineStr">
+        <is>
+          <t>International Money Transfer</t>
+        </is>
+      </c>
+      <c r="CH2" s="1" t="inlineStr">
+        <is>
+          <t>IMTUSD1-4344</t>
+        </is>
+      </c>
+      <c r="CI2" s="49" t="inlineStr">
+        <is>
+          <t>IMT-USD2519</t>
+        </is>
+      </c>
+      <c r="CJ2" s="11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="CK2" s="11" t="inlineStr">
+        <is>
+          <t>MT103</t>
+        </is>
+      </c>
+      <c r="CL2" s="11" t="inlineStr">
+        <is>
+          <t>Credit transfer - Service Level: None</t>
+        </is>
+      </c>
+      <c r="CM2" s="11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="CN2" s="11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="CO2" s="50" t="inlineStr">
+        <is>
+          <t>CTBAAU2S600</t>
+        </is>
+      </c>
+      <c r="CP2" s="50" t="inlineStr">
+        <is>
+          <t>COMMONWEALTH BANK OF AUSTRALIA SYDNEY</t>
+        </is>
+      </c>
+      <c r="CQ2" s="50" t="inlineStr">
+        <is>
+          <t>All Loan Types, SBLC/BA</t>
+        </is>
+      </c>
+      <c r="CR2" s="50" t="inlineStr">
+        <is>
+          <t>Principal, Interest, Fees</t>
+        </is>
+      </c>
+      <c r="CS2" s="50" t="inlineStr">
+        <is>
+          <t>&lt;Selected&gt;</t>
+        </is>
+      </c>
+      <c r="CT2" s="50" t="inlineStr">
+        <is>
+          <t>02568049389</t>
+        </is>
+      </c>
+      <c r="CU2" s="50" t="inlineStr">
+        <is>
+          <t>Internal Rating</t>
+        </is>
+      </c>
+      <c r="CV2" s="50" t="inlineStr">
+        <is>
+          <t>D1 Good</t>
+        </is>
+      </c>
+      <c r="CW2" s="50" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CX2" s="50" t="inlineStr">
+        <is>
+          <t>Standard &amp; Poors</t>
+        </is>
+      </c>
+      <c r="CY2" s="50" t="inlineStr">
+        <is>
+          <t>BBB+</t>
+        </is>
+      </c>
+      <c r="CZ2" s="50" t="inlineStr">
+        <is>
+          <t>Moody's Investor Services Inc</t>
+        </is>
+      </c>
+      <c r="DA2" s="50" t="inlineStr">
+        <is>
+          <t>Aa2</t>
+        </is>
+      </c>
+      <c r="DB2" s="50" t="inlineStr">
+        <is>
+          <t>Fitch</t>
+        </is>
+      </c>
+      <c r="DC2" s="50" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DD2" s="50" t="inlineStr">
+        <is>
+          <t>Mailing Address</t>
+        </is>
+      </c>
+      <c r="DE2" s="50" t="inlineStr">
+        <is>
+          <t>PO Box 861</t>
+        </is>
+      </c>
+      <c r="DF2" s="50" t="inlineStr">
+        <is>
+          <t>Almond, Victoria 3211</t>
+        </is>
+      </c>
+      <c r="DG2" s="12" t="inlineStr">
+        <is>
+          <t>03 5029 9445</t>
+        </is>
+      </c>
+      <c r="DH2" s="50" t="inlineStr">
+        <is>
+          <t>03 5029 9445</t>
+        </is>
+      </c>
+      <c r="DI2" s="11" t="inlineStr">
+        <is>
+          <t>Beneficiary Customer</t>
+        </is>
+      </c>
+      <c r="DJ2" s="11" t="inlineStr">
+        <is>
+          <t>Ordering Customer</t>
+        </is>
+      </c>
+      <c r="DK2" s="11" t="inlineStr">
+        <is>
+          <t>Account With Institution</t>
+        </is>
+      </c>
+      <c r="DL2" s="11" t="inlineStr">
+        <is>
+          <t>CITIUS33XXX</t>
+        </is>
+      </c>
+      <c r="DM2" s="11" t="n"/>
+      <c r="DN2" s="11" t="n"/>
+      <c r="DO2" s="11" t="inlineStr">
+        <is>
+          <t>Beneficiary Customer</t>
+        </is>
+      </c>
+      <c r="DP2" s="11" t="inlineStr">
+        <is>
+          <t>MT202</t>
+        </is>
+      </c>
+      <c r="DQ2" s="11" t="inlineStr">
+        <is>
+          <t>Beneficiary Institution</t>
+        </is>
+      </c>
+      <c r="DR2" s="11" t="inlineStr">
+        <is>
+          <t>XYZ 1234</t>
+        </is>
+      </c>
+      <c r="DS2" s="11" t="inlineStr">
+        <is>
+          <t>4561234789</t>
+        </is>
+      </c>
+      <c r="DT2" s="11" t="inlineStr">
+        <is>
+          <t>XYZ 1234 PARTNERS</t>
+        </is>
+      </c>
+      <c r="DU2" s="11" t="inlineStr">
+        <is>
+          <t>5558882223</t>
+        </is>
+      </c>
+      <c r="DV2" s="11" t="inlineStr">
+        <is>
+          <t>03-Jan-2019</t>
+        </is>
+      </c>
+      <c r="DW2" s="13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DX2" s="11" t="inlineStr">
+        <is>
+          <t>03-Jan-2019</t>
+        </is>
+      </c>
+      <c r="DY2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="DZ2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EA2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EB2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EC2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="ED2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EE2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EF2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EG2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EH2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EI2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EJ2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EK2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EL2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EM2" s="11" t="inlineStr">
+        <is>
+          <t>External Message</t>
+        </is>
+      </c>
+      <c r="EN2" s="49" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="EO2" s="49" t="inlineStr">
+        <is>
+          <t>LIQ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2107,7 +3661,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="50" t="inlineStr">
@@ -2117,7 +3671,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -2283,7 +3837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2555,7 +4109,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr">
@@ -2570,7 +4124,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="G2" s="22" t="inlineStr">
@@ -2754,7 +4308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3003,7 +4557,7 @@
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="50" t="inlineStr">
@@ -3018,7 +4572,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="G2" s="1" t="n">
@@ -3248,7 +4802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3616,7 +5170,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="50" t="inlineStr">
@@ -3626,7 +5180,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="F2" s="50" t="inlineStr">
@@ -4003,7 +5557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4174,12 +5728,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="E2" s="50" t="inlineStr">
@@ -4290,7 +5844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4609,7 +6163,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="50" t="inlineStr">
@@ -4619,7 +6173,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -4634,7 +6188,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>60000122</t>
+          <t>60000127</t>
         </is>
       </c>
       <c r="I2" s="11" t="inlineStr">
@@ -4845,7 +6399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5063,7 +6617,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr">
@@ -5073,12 +6627,12 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>60000122</t>
+          <t>60000127</t>
         </is>
       </c>
       <c r="G2" s="11" t="inlineStr">
@@ -5254,7 +6808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5263,7 +6817,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -5381,22 +6935,22 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>06-Jun-2020</t>
+          <t>07-Jun-2020</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>05-Aug-2020</t>
+          <t>06-Aug-2020</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -5446,7 +7000,7 @@
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
-          <t>AFE000000000071</t>
+          <t>AFE000000000079</t>
         </is>
       </c>
       <c r="Q2" s="1" t="inlineStr">
@@ -5459,792 +7013,6 @@
           <t>CUSTSHORT11107</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:BR19"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="6.140625" customWidth="1" style="49" min="1" max="1"/>
-    <col width="50.140625" customWidth="1" style="49" min="2" max="2"/>
-    <col width="26.5703125" customWidth="1" style="49" min="3" max="3"/>
-    <col width="27.140625" customWidth="1" style="49" min="4" max="4"/>
-    <col width="29.42578125" customWidth="1" style="49" min="5" max="5"/>
-    <col width="34.85546875" customWidth="1" style="49" min="6" max="6"/>
-    <col width="25.28515625" customWidth="1" style="49" min="7" max="7"/>
-    <col width="26.7109375" customWidth="1" style="49" min="8" max="8"/>
-    <col width="22.85546875" customWidth="1" style="49" min="9" max="9"/>
-    <col width="23.85546875" customWidth="1" style="49" min="10" max="11"/>
-    <col width="18.42578125" customWidth="1" style="49" min="12" max="12"/>
-    <col width="22.140625" customWidth="1" style="49" min="13" max="13"/>
-    <col width="23.140625" customWidth="1" style="49" min="14" max="15"/>
-    <col width="18.140625" customWidth="1" style="49" min="16" max="16"/>
-    <col width="20.85546875" customWidth="1" style="49" min="17" max="17"/>
-    <col width="21.140625" customWidth="1" style="49" min="18" max="19"/>
-    <col width="21.140625" customWidth="1" style="15" min="20" max="20"/>
-    <col width="18" customWidth="1" style="49" min="21" max="21"/>
-    <col width="16.85546875" customWidth="1" style="49" min="22" max="23"/>
-    <col width="40.7109375" customWidth="1" style="49" min="24" max="24"/>
-    <col width="14.85546875" customWidth="1" style="49" min="25" max="25"/>
-    <col width="15.7109375" customWidth="1" style="49" min="26" max="26"/>
-    <col width="16.5703125" customWidth="1" style="49" min="27" max="27"/>
-    <col width="17.85546875" customWidth="1" style="49" min="28" max="29"/>
-    <col width="19.42578125" customWidth="1" style="49" min="30" max="30"/>
-    <col width="19" customWidth="1" style="49" min="31" max="31"/>
-    <col width="21.140625" customWidth="1" style="49" min="32" max="32"/>
-    <col width="20.7109375" customWidth="1" style="49" min="33" max="33"/>
-    <col width="18.42578125" customWidth="1" style="49" min="34" max="34"/>
-    <col width="18" customWidth="1" style="49" min="35" max="35"/>
-    <col width="26.85546875" customWidth="1" style="49" min="36" max="36"/>
-    <col width="17.42578125" customWidth="1" style="49" min="37" max="37"/>
-    <col width="15.42578125" customWidth="1" style="49" min="38" max="38"/>
-    <col width="27.140625" customWidth="1" style="49" min="39" max="39"/>
-    <col width="17.5703125" customWidth="1" style="49" min="40" max="40"/>
-    <col width="18.5703125" customWidth="1" style="49" min="41" max="41"/>
-    <col width="23" customWidth="1" style="49" min="42" max="42"/>
-    <col width="24" customWidth="1" style="49" min="43" max="43"/>
-    <col width="25.85546875" customWidth="1" style="49" min="44" max="44"/>
-    <col width="26.85546875" customWidth="1" style="49" min="45" max="45"/>
-    <col width="10.42578125" customWidth="1" style="49" min="46" max="46"/>
-    <col width="29.140625" customWidth="1" style="49" min="47" max="47"/>
-    <col width="30.28515625" customWidth="1" style="49" min="48" max="48"/>
-    <col width="18.85546875" customWidth="1" style="49" min="49" max="50"/>
-    <col width="16.28515625" customWidth="1" style="49" min="51" max="51"/>
-    <col width="17.42578125" customWidth="1" style="49" min="52" max="52"/>
-    <col width="9.85546875" customWidth="1" style="49" min="53" max="53"/>
-    <col width="10.85546875" customWidth="1" style="49" min="54" max="54"/>
-    <col width="13.28515625" customWidth="1" style="49" min="55" max="55"/>
-    <col width="14.28515625" customWidth="1" style="49" min="56" max="56"/>
-    <col width="20.5703125" customWidth="1" style="49" min="57" max="58"/>
-    <col width="21.7109375" customWidth="1" style="49" min="59" max="59"/>
-    <col width="13.5703125" customWidth="1" style="49" min="60" max="60"/>
-    <col width="13.28515625" customWidth="1" style="49" min="61" max="61"/>
-    <col width="18.7109375" customWidth="1" style="49" min="62" max="62"/>
-    <col width="29" customWidth="1" style="49" min="63" max="63"/>
-    <col width="20" customWidth="1" style="49" min="64" max="64"/>
-    <col width="17.5703125" customWidth="1" style="49" min="65" max="65"/>
-    <col width="14.7109375" customWidth="1" style="49" min="66" max="66"/>
-    <col width="21" customWidth="1" style="49" min="67" max="67"/>
-    <col width="36.5703125" customWidth="1" style="49" min="68" max="68"/>
-    <col width="21.42578125" customWidth="1" style="49" min="69" max="69"/>
-    <col width="23.5703125" customWidth="1" style="49" min="70" max="70"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="25" thickBot="1">
-      <c r="A1" s="9" t="inlineStr">
-        <is>
-          <t>rowid</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="inlineStr">
-        <is>
-          <t>Test_Case</t>
-        </is>
-      </c>
-      <c r="C1" s="21" t="inlineStr">
-        <is>
-          <t>ScheduleActivity_FromDate</t>
-        </is>
-      </c>
-      <c r="D1" s="21" t="inlineStr">
-        <is>
-          <t>ScheduledActivity_ThruDate</t>
-        </is>
-      </c>
-      <c r="E1" s="25" t="inlineStr">
-        <is>
-          <t>ScheduledActivity_Department</t>
-        </is>
-      </c>
-      <c r="F1" s="21" t="inlineStr">
-        <is>
-          <t>ScheduledActivity_Branch</t>
-        </is>
-      </c>
-      <c r="G1" s="21" t="inlineStr">
-        <is>
-          <t>Deal_Name</t>
-        </is>
-      </c>
-      <c r="H1" s="25" t="inlineStr">
-        <is>
-          <t>ScheduledActivity_FeeAlias</t>
-        </is>
-      </c>
-      <c r="I1" s="21" t="inlineStr">
-        <is>
-          <t>Remittance_Description</t>
-        </is>
-      </c>
-      <c r="J1" s="21" t="inlineStr">
-        <is>
-          <t>Remittance_Description2</t>
-        </is>
-      </c>
-      <c r="K1" s="21" t="inlineStr">
-        <is>
-          <t>Remittance_Description3</t>
-        </is>
-      </c>
-      <c r="L1" s="21" t="inlineStr">
-        <is>
-          <t>Loan_Alias</t>
-        </is>
-      </c>
-      <c r="M1" s="21" t="inlineStr">
-        <is>
-          <t>Remittance_Instruction</t>
-        </is>
-      </c>
-      <c r="N1" s="21" t="inlineStr">
-        <is>
-          <t>Remittance_Instruction2</t>
-        </is>
-      </c>
-      <c r="O1" s="21" t="inlineStr">
-        <is>
-          <t>Remittance_Instruction3</t>
-        </is>
-      </c>
-      <c r="P1" s="25" t="inlineStr">
-        <is>
-          <t>Remittance_Status</t>
-        </is>
-      </c>
-      <c r="Q1" s="21" t="inlineStr">
-        <is>
-          <t>Borrower_ShortName</t>
-        </is>
-      </c>
-      <c r="R1" s="21" t="inlineStr">
-        <is>
-          <t>Lender1_ShortName</t>
-        </is>
-      </c>
-      <c r="S1" s="21" t="inlineStr">
-        <is>
-          <t>Lender2_ShortName</t>
-        </is>
-      </c>
-      <c r="T1" s="28" t="inlineStr">
-        <is>
-          <t>Borrower_LegalName</t>
-        </is>
-      </c>
-      <c r="U1" s="25" t="inlineStr">
-        <is>
-          <t>HostBankSharePct</t>
-        </is>
-      </c>
-      <c r="V1" s="25" t="inlineStr">
-        <is>
-          <t>LenderSharePct1</t>
-        </is>
-      </c>
-      <c r="W1" s="25" t="inlineStr">
-        <is>
-          <t>LenderSharePct2</t>
-        </is>
-      </c>
-      <c r="X1" s="21" t="inlineStr">
-        <is>
-          <t>Host_Bank</t>
-        </is>
-      </c>
-      <c r="Y1" s="25" t="inlineStr">
-        <is>
-          <t>Loan_Currency</t>
-        </is>
-      </c>
-      <c r="Z1" s="21" t="inlineStr">
-        <is>
-          <t>LIQCustomer_ID</t>
-        </is>
-      </c>
-      <c r="AA1" s="25" t="inlineStr">
-        <is>
-          <t>Borrower_Profile</t>
-        </is>
-      </c>
-      <c r="AB1" s="25" t="inlineStr">
-        <is>
-          <t>Customer_Profile2</t>
-        </is>
-      </c>
-      <c r="AC1" s="25" t="inlineStr">
-        <is>
-          <t>Customer_Profile3</t>
-        </is>
-      </c>
-      <c r="AD1" s="25" t="inlineStr">
-        <is>
-          <t>Manager_Username</t>
-        </is>
-      </c>
-      <c r="AE1" s="25" t="inlineStr">
-        <is>
-          <t>Manager_Password</t>
-        </is>
-      </c>
-      <c r="AF1" s="25" t="inlineStr">
-        <is>
-          <t>Supervisor_Username</t>
-        </is>
-      </c>
-      <c r="AG1" s="25" t="inlineStr">
-        <is>
-          <t>Supervisor_Password</t>
-        </is>
-      </c>
-      <c r="AH1" s="25" t="inlineStr">
-        <is>
-          <t>Inputter_Username</t>
-        </is>
-      </c>
-      <c r="AI1" s="25" t="inlineStr">
-        <is>
-          <t>Inputter_Password</t>
-        </is>
-      </c>
-      <c r="AJ1" s="14" t="inlineStr">
-        <is>
-          <t>Facility_Name</t>
-        </is>
-      </c>
-      <c r="AK1" s="9" t="inlineStr">
-        <is>
-          <t>Fee_Alias</t>
-        </is>
-      </c>
-      <c r="AL1" s="9" t="inlineStr">
-        <is>
-          <t>Fee_Type1</t>
-        </is>
-      </c>
-      <c r="AM1" s="9" t="inlineStr">
-        <is>
-          <t>Fee_Type2</t>
-        </is>
-      </c>
-      <c r="AN1" s="14" t="inlineStr">
-        <is>
-          <t>Fee_EffectiveDate</t>
-        </is>
-      </c>
-      <c r="AO1" s="14" t="inlineStr">
-        <is>
-          <t>Fee_EffectiveDate2</t>
-        </is>
-      </c>
-      <c r="AP1" s="14" t="inlineStr">
-        <is>
-          <t>Fee_FloatRateStartDate</t>
-        </is>
-      </c>
-      <c r="AQ1" s="14" t="inlineStr">
-        <is>
-          <t>Fee_FloatRateStartDate2</t>
-        </is>
-      </c>
-      <c r="AR1" s="14" t="inlineStr">
-        <is>
-          <t>FeePayment_EffectiveDate</t>
-        </is>
-      </c>
-      <c r="AS1" s="14" t="inlineStr">
-        <is>
-          <t>FeePayment_EffectiveDate2</t>
-        </is>
-      </c>
-      <c r="AT1" s="9" t="inlineStr">
-        <is>
-          <t>Fee_Cycle</t>
-        </is>
-      </c>
-      <c r="AU1" s="21" t="inlineStr">
-        <is>
-          <t>Computed_ProjectedCycleDue</t>
-        </is>
-      </c>
-      <c r="AV1" s="21" t="inlineStr">
-        <is>
-          <t>Computed_ProjectedCycleDue2</t>
-        </is>
-      </c>
-      <c r="AW1" s="25" t="inlineStr">
-        <is>
-          <t>RequestedAmount1</t>
-        </is>
-      </c>
-      <c r="AX1" s="25" t="inlineStr">
-        <is>
-          <t>RequestedAmount2</t>
-        </is>
-      </c>
-      <c r="AY1" s="25" t="inlineStr">
-        <is>
-          <t>PrincipalAmount</t>
-        </is>
-      </c>
-      <c r="AZ1" s="25" t="inlineStr">
-        <is>
-          <t>PrincipalAmount2</t>
-        </is>
-      </c>
-      <c r="BA1" s="25" t="inlineStr">
-        <is>
-          <t>RateBasis</t>
-        </is>
-      </c>
-      <c r="BB1" s="25" t="inlineStr">
-        <is>
-          <t>RateBasis2</t>
-        </is>
-      </c>
-      <c r="BC1" s="25" t="inlineStr">
-        <is>
-          <t>CycleNumber</t>
-        </is>
-      </c>
-      <c r="BD1" s="25" t="inlineStr">
-        <is>
-          <t>CycleNumber2</t>
-        </is>
-      </c>
-      <c r="BE1" s="25" t="inlineStr">
-        <is>
-          <t>HostBank_GLAccount</t>
-        </is>
-      </c>
-      <c r="BF1" s="25" t="inlineStr">
-        <is>
-          <t>Borrower_GLAccount</t>
-        </is>
-      </c>
-      <c r="BG1" s="25" t="inlineStr">
-        <is>
-          <t>Borrower_GLAccount2</t>
-        </is>
-      </c>
-      <c r="BH1" s="25" t="inlineStr">
-        <is>
-          <t>FeeType1</t>
-        </is>
-      </c>
-      <c r="BI1" s="25" t="inlineStr">
-        <is>
-          <t>FeeType2</t>
-        </is>
-      </c>
-      <c r="BJ1" s="21" t="inlineStr">
-        <is>
-          <t>Contact_Email</t>
-        </is>
-      </c>
-      <c r="BK1" s="25" t="inlineStr">
-        <is>
-          <t>ScheduledActivityReport_Date</t>
-        </is>
-      </c>
-      <c r="BL1" s="25" t="inlineStr">
-        <is>
-          <t>Customer_Borrower</t>
-        </is>
-      </c>
-      <c r="BM1" s="25" t="inlineStr">
-        <is>
-          <t>Borrower_Contact</t>
-        </is>
-      </c>
-      <c r="BN1" s="25" t="inlineStr">
-        <is>
-          <t>NoticeStatus</t>
-        </is>
-      </c>
-      <c r="BO1" s="25" t="inlineStr">
-        <is>
-          <t>WIP_TransactionType</t>
-        </is>
-      </c>
-      <c r="BP1" s="25" t="inlineStr">
-        <is>
-          <t>WIP_AwaitingReleaseCashflowsStatus</t>
-        </is>
-      </c>
-      <c r="BQ1" s="25" t="inlineStr">
-        <is>
-          <t>WIP_OutstandingType</t>
-        </is>
-      </c>
-      <c r="BR1" s="25" t="inlineStr">
-        <is>
-          <t>Loan_RequestedAmount</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="12.75" customFormat="1" customHeight="1" s="11">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>EVG_PTYLIQ02 Scenario2 Baseline Agency (Syndicated)</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>15-Dec-2018</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>13-Feb-2019</t>
-        </is>
-      </c>
-      <c r="E2" s="50" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F2" s="50" t="inlineStr">
-        <is>
-          <t>Commonwealth Bank of Australia - DBU</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>BNS2SYN_06082020230821OPK</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>DDAAUD1-4344</t>
-        </is>
-      </c>
-      <c r="J2" s="49" t="inlineStr">
-        <is>
-          <t>RTGSAUD1-1342</t>
-        </is>
-      </c>
-      <c r="K2" s="49" t="inlineStr">
-        <is>
-          <t>RTGSAUD1-3148</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>60000122</t>
-        </is>
-      </c>
-      <c r="M2" s="22" t="inlineStr">
-        <is>
-          <t>DDA</t>
-        </is>
-      </c>
-      <c r="N2" s="22" t="inlineStr">
-        <is>
-          <t>RTGS</t>
-        </is>
-      </c>
-      <c r="O2" s="22" t="inlineStr">
-        <is>
-          <t>RTGS</t>
-        </is>
-      </c>
-      <c r="P2" s="11" t="inlineStr">
-        <is>
-          <t>DOIT</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT39121</t>
-        </is>
-      </c>
-      <c r="R2" s="11" t="inlineStr">
-        <is>
-          <t>LENDSHORT04114</t>
-        </is>
-      </c>
-      <c r="S2" s="11" t="inlineStr">
-        <is>
-          <t>LENDSHORT16107</t>
-        </is>
-      </c>
-      <c r="T2" s="49" t="inlineStr">
-        <is>
-          <t>ESPS11713819</t>
-        </is>
-      </c>
-      <c r="U2" s="11" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="V2" s="11" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="W2" s="11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="X2" s="49" t="inlineStr">
-        <is>
-          <t>CB001/Hold for Investment - Australia/NR_COL</t>
-        </is>
-      </c>
-      <c r="Y2" s="11" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AA2" s="11" t="inlineStr">
-        <is>
-          <t>Borrower</t>
-        </is>
-      </c>
-      <c r="AB2" s="11" t="inlineStr">
-        <is>
-          <t>Lender</t>
-        </is>
-      </c>
-      <c r="AC2" s="11" t="inlineStr">
-        <is>
-          <t>Lender</t>
-        </is>
-      </c>
-      <c r="AD2" s="11" t="inlineStr">
-        <is>
-          <t>TRUSER14</t>
-        </is>
-      </c>
-      <c r="AE2" s="11" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="AF2" s="11" t="inlineStr">
-        <is>
-          <t>TRUSER12</t>
-        </is>
-      </c>
-      <c r="AG2" s="11" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="AH2" s="11" t="inlineStr">
-        <is>
-          <t>TRUSER6</t>
-        </is>
-      </c>
-      <c r="AI2" s="11" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="AJ2" s="1" t="inlineStr">
-        <is>
-          <t>S2TERM06082020232156ZJX</t>
-        </is>
-      </c>
-      <c r="AK2" s="11" t="inlineStr">
-        <is>
-          <t>ONG000000000730</t>
-        </is>
-      </c>
-      <c r="AL2" s="11" t="inlineStr">
-        <is>
-          <t>Commitment Fee</t>
-        </is>
-      </c>
-      <c r="AM2" s="11" t="inlineStr">
-        <is>
-          <t>Indemnity Fee - Usage (SFBG)</t>
-        </is>
-      </c>
-      <c r="AN2" s="11" t="inlineStr">
-        <is>
-          <t>12-Nov-2020</t>
-        </is>
-      </c>
-      <c r="AO2" s="11" t="inlineStr">
-        <is>
-          <t>12-Nov-2020</t>
-        </is>
-      </c>
-      <c r="AP2" s="11" t="inlineStr">
-        <is>
-          <t>12-Nov-2020</t>
-        </is>
-      </c>
-      <c r="AQ2" s="11" t="inlineStr">
-        <is>
-          <t>12-Nov-2020</t>
-        </is>
-      </c>
-      <c r="AR2" s="1" t="inlineStr">
-        <is>
-          <t>09-Jan-2019</t>
-        </is>
-      </c>
-      <c r="AS2" s="1" t="inlineStr">
-        <is>
-          <t>09-Jan-2019</t>
-        </is>
-      </c>
-      <c r="AT2" s="11" t="inlineStr">
-        <is>
-          <t>Weekly</t>
-        </is>
-      </c>
-      <c r="AU2" s="1" t="n">
-        <v>36821.92</v>
-      </c>
-      <c r="AV2" s="1" t="n">
-        <v>38355.78</v>
-      </c>
-      <c r="AY2" s="11" t="inlineStr">
-        <is>
-          <t>99,999,000.00</t>
-        </is>
-      </c>
-      <c r="AZ2" s="11" t="inlineStr">
-        <is>
-          <t>1,000.00</t>
-        </is>
-      </c>
-      <c r="BA2" s="11" t="inlineStr">
-        <is>
-          <t>Actual/365</t>
-        </is>
-      </c>
-      <c r="BB2" s="11" t="inlineStr">
-        <is>
-          <t>Actual/365</t>
-        </is>
-      </c>
-      <c r="BC2" s="11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BD2" s="11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BE2" s="11" t="inlineStr">
-        <is>
-          <t>18565001838</t>
-        </is>
-      </c>
-      <c r="BF2" s="11" t="inlineStr">
-        <is>
-          <t>18567000000</t>
-        </is>
-      </c>
-      <c r="BG2" s="11" t="inlineStr">
-        <is>
-          <t>18567000000</t>
-        </is>
-      </c>
-      <c r="BH2" s="11" t="inlineStr">
-        <is>
-          <t>UNUT Fee Due</t>
-        </is>
-      </c>
-      <c r="BI2" s="23" t="inlineStr">
-        <is>
-          <t>IPFEI Fee Due</t>
-        </is>
-      </c>
-      <c r="BJ2" s="1" t="inlineStr">
-        <is>
-          <t>john.blogg@abc.com</t>
-        </is>
-      </c>
-      <c r="BK2" s="1" t="inlineStr">
-        <is>
-          <t>09-Jan-2019</t>
-        </is>
-      </c>
-      <c r="BL2" s="11" t="inlineStr">
-        <is>
-          <t>IEEBRW7642S223130</t>
-        </is>
-      </c>
-      <c r="BM2" s="11" t="inlineStr">
-        <is>
-          <t>John Bloggs</t>
-        </is>
-      </c>
-      <c r="BN2" s="11" t="inlineStr">
-        <is>
-          <t>Awaiting release</t>
-        </is>
-      </c>
-      <c r="BO2" s="11" t="inlineStr">
-        <is>
-          <t>Payments</t>
-        </is>
-      </c>
-      <c r="BP2" s="11" t="inlineStr">
-        <is>
-          <t>Awaiting Release Cashflows</t>
-        </is>
-      </c>
-      <c r="BQ2" s="11" t="inlineStr">
-        <is>
-          <t>Ongoing Fee Payment</t>
-        </is>
-      </c>
-      <c r="BR2" s="11" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="BL14" s="13" t="n"/>
-    </row>
-    <row r="15">
-      <c r="BO15" s="34" t="n"/>
-    </row>
-    <row r="16">
-      <c r="BP16" s="34" t="n"/>
-    </row>
-    <row r="18">
-      <c r="BP18" s="34" t="n"/>
-    </row>
-    <row r="19">
-      <c r="BO19" s="34" t="n"/>
-      <c r="BP19" s="34" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -6593,7 +7361,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="23" t="inlineStr">
@@ -6609,7 +7377,7 @@
       <c r="F2" s="23" t="n"/>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="H2" s="50" t="inlineStr">
@@ -6619,7 +7387,7 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>05-Aug-2020</t>
+          <t>06-Aug-2020</t>
         </is>
       </c>
       <c r="J2" s="23" t="inlineStr">
@@ -6657,7 +7425,7 @@
       </c>
       <c r="Q2" s="1" t="inlineStr">
         <is>
-          <t>AFE000000000071</t>
+          <t>AFE000000000079</t>
         </is>
       </c>
     </row>
@@ -6835,12 +7603,12 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="G2" s="49" t="inlineStr">
@@ -6865,12 +7633,12 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="M2" s="23" t="inlineStr">
@@ -7474,7 +8242,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B32" sqref="B32"/>
+      <selection pane="topRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -7598,12 +8366,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -7631,7 +8399,7 @@
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="K2" s="50" t="n">
@@ -7644,7 +8412,7 @@
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2021</t>
+          <t>07-Jul-2021</t>
         </is>
       </c>
       <c r="N2" s="50" t="inlineStr">
@@ -7687,7 +8455,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -7913,7 +8681,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="D2" s="23" t="inlineStr">
@@ -8090,8 +8858,8 @@
   <dimension ref="A1:BH2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB2" sqref="AB2"/>
+      <pane xSplit="2" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BA30" sqref="BA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -8465,12 +9233,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="E2" s="49" t="inlineStr">
@@ -8592,12 +9360,12 @@
       </c>
       <c r="AD2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2021</t>
+          <t>07-Jul-2021</t>
         </is>
       </c>
       <c r="AE2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="AF2" s="11" t="n"/>
@@ -8644,7 +9412,7 @@
       </c>
       <c r="AP2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="AQ2" s="50" t="inlineStr">
@@ -8719,7 +9487,7 @@
       </c>
       <c r="BF2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="BG2" s="27" t="inlineStr">
@@ -8749,7 +9517,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -8824,27 +9592,27 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>AFE000000000071</t>
+          <t>AFE000000000079</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="G2" s="11" t="inlineStr">
         <is>
-          <t>06-Jul-2021</t>
+          <t>07-Jul-2021</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -8873,8 +9641,8 @@
   </sheetPr>
   <dimension ref="A1:BA15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -9120,7 +9888,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="36" t="inlineStr">
@@ -9130,7 +9898,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="F2" s="36" t="inlineStr">
@@ -9140,7 +9908,7 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>60000122</t>
+          <t>60000127</t>
         </is>
       </c>
       <c r="H2" s="36" t="inlineStr">
@@ -9160,12 +9928,12 @@
       </c>
       <c r="K2" s="11" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>05-Aug-2021</t>
+          <t>06-Aug-2021</t>
         </is>
       </c>
       <c r="M2" s="36" t="inlineStr">
@@ -9338,8 +10106,8 @@
   </sheetPr>
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -9508,12 +10276,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_05082020002651HEU</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM05082020004018RIC</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -9631,99 +10399,81 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO2"/>
+  <dimension ref="A1:BU19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6.140625" customWidth="1" style="49" min="1" max="1"/>
-    <col width="60.28515625" customWidth="1" style="49" min="2" max="2"/>
-    <col width="30" customWidth="1" style="49" min="3" max="5"/>
-    <col width="46.28515625" customWidth="1" style="49" min="6" max="7"/>
-    <col width="45.5703125" customWidth="1" style="49" min="8" max="9"/>
-    <col width="47.5703125" customWidth="1" style="49" min="10" max="11"/>
-    <col width="20.5703125" customWidth="1" style="49" min="12" max="12"/>
-    <col width="24.28515625" customWidth="1" style="49" min="13" max="13"/>
-    <col width="24.5703125" customWidth="1" style="49" min="14" max="14"/>
-    <col width="15.7109375" customWidth="1" style="49" min="15" max="15"/>
-    <col width="18.42578125" customWidth="1" style="49" min="16" max="16"/>
-    <col width="18" customWidth="1" style="49" min="17" max="17"/>
-    <col width="21.140625" customWidth="1" style="49" min="18" max="18"/>
-    <col width="20.7109375" customWidth="1" style="49" min="19" max="19"/>
-    <col width="18.42578125" customWidth="1" style="49" min="20" max="20"/>
+    <col width="50.140625" customWidth="1" style="49" min="2" max="2"/>
+    <col width="26.5703125" customWidth="1" style="49" min="3" max="3"/>
+    <col width="27.140625" customWidth="1" style="49" min="4" max="4"/>
+    <col width="29.42578125" customWidth="1" style="49" min="5" max="5"/>
+    <col width="34.85546875" customWidth="1" style="49" min="6" max="6"/>
+    <col width="25.28515625" customWidth="1" style="49" min="7" max="7"/>
+    <col width="26.7109375" customWidth="1" style="49" min="8" max="8"/>
+    <col width="22.85546875" customWidth="1" style="49" min="9" max="9"/>
+    <col width="23.85546875" customWidth="1" style="49" min="10" max="11"/>
+    <col width="18.42578125" customWidth="1" style="49" min="12" max="12"/>
+    <col width="22.140625" customWidth="1" style="49" min="13" max="13"/>
+    <col width="23.140625" customWidth="1" style="49" min="14" max="15"/>
+    <col width="18.140625" customWidth="1" style="49" min="16" max="16"/>
+    <col width="20.85546875" customWidth="1" style="49" min="17" max="17"/>
+    <col width="21.140625" customWidth="1" style="49" min="18" max="19"/>
+    <col width="21.140625" customWidth="1" style="15" min="20" max="20"/>
     <col width="18" customWidth="1" style="49" min="21" max="21"/>
-    <col width="40.5703125" customWidth="1" style="49" min="22" max="24"/>
-    <col width="34.42578125" customWidth="1" style="49" min="25" max="25"/>
-    <col width="40.5703125" customWidth="1" style="49" min="26" max="26"/>
-    <col width="43" customWidth="1" style="49" min="27" max="27"/>
-    <col width="40.5703125" customWidth="1" style="49" min="28" max="28"/>
-    <col width="41.28515625" customWidth="1" style="49" min="29" max="30"/>
-    <col width="14.28515625" customWidth="1" style="49" min="31" max="32"/>
-    <col width="12.5703125" customWidth="1" style="49" min="33" max="33"/>
-    <col width="16.28515625" customWidth="1" style="49" min="34" max="34"/>
-    <col width="12.85546875" customWidth="1" style="49" min="35" max="35"/>
-    <col width="21.85546875" customWidth="1" style="49" min="36" max="36"/>
-    <col width="14" customWidth="1" style="49" min="37" max="37"/>
-    <col width="22.5703125" customWidth="1" style="49" min="38" max="38"/>
-    <col width="17.28515625" customWidth="1" style="49" min="39" max="39"/>
-    <col width="33" customWidth="1" style="49" min="40" max="40"/>
-    <col width="12.42578125" customWidth="1" style="49" min="41" max="41"/>
-    <col width="14.5703125" customWidth="1" style="49" min="42" max="42"/>
-    <col width="37.140625" customWidth="1" style="49" min="43" max="43"/>
-    <col width="16.85546875" customWidth="1" style="49" min="44" max="44"/>
-    <col width="28" customWidth="1" style="49" min="45" max="45"/>
-    <col width="19" customWidth="1" style="49" min="46" max="46"/>
-    <col width="36.7109375" customWidth="1" style="49" min="47" max="48"/>
-    <col width="18.5703125" customWidth="1" style="49" min="49" max="49"/>
-    <col width="22" customWidth="1" style="49" min="50" max="51"/>
-    <col width="36.7109375" customWidth="1" style="49" min="52" max="52"/>
-    <col width="20" customWidth="1" style="49" min="53" max="53"/>
-    <col width="10" customWidth="1" style="49" min="54" max="54"/>
-    <col width="16.7109375" customWidth="1" style="49" min="55" max="55"/>
-    <col width="12.5703125" customWidth="1" style="49" min="56" max="56"/>
-    <col width="13.7109375" customWidth="1" style="49" min="57" max="57"/>
-    <col width="15.7109375" customWidth="1" style="49" min="58" max="58"/>
-    <col width="16.7109375" customWidth="1" style="49" min="59" max="59"/>
-    <col width="18.28515625" customWidth="1" style="49" min="60" max="60"/>
-    <col width="19.28515625" customWidth="1" style="49" min="61" max="61"/>
-    <col width="18.140625" customWidth="1" style="49" min="62" max="63"/>
-    <col width="27.140625" customWidth="1" style="49" min="64" max="64"/>
-    <col width="22.28515625" customWidth="1" style="49" min="65" max="65"/>
-    <col width="23.28515625" customWidth="1" style="49" min="66" max="66"/>
-    <col width="25.85546875" customWidth="1" style="49" min="67" max="67"/>
-    <col width="30.85546875" customWidth="1" style="49" min="68" max="68"/>
-    <col width="21" customWidth="1" style="49" min="69" max="69"/>
-    <col width="25.5703125" customWidth="1" style="49" min="70" max="70"/>
-    <col width="21.7109375" customWidth="1" style="49" min="71" max="71"/>
-    <col width="18.7109375" customWidth="1" style="49" min="72" max="72"/>
-    <col width="20.42578125" customWidth="1" style="49" min="73" max="73"/>
-    <col width="14.5703125" customWidth="1" style="49" min="74" max="74"/>
-    <col width="15.5703125" customWidth="1" style="49" min="75" max="75"/>
-    <col width="37.5703125" customWidth="1" style="49" min="76" max="76"/>
-    <col width="33" customWidth="1" style="49" min="77" max="77"/>
-    <col width="39.140625" customWidth="1" style="49" min="78" max="78"/>
-    <col width="41" customWidth="1" style="49" min="79" max="79"/>
-    <col width="38.5703125" customWidth="1" style="49" min="80" max="81"/>
-    <col width="42.85546875" customWidth="1" style="49" min="82" max="82"/>
-    <col width="34.140625" customWidth="1" style="49" min="83" max="83"/>
-    <col width="38.42578125" customWidth="1" style="49" min="84" max="84"/>
-    <col width="32.42578125" customWidth="1" style="49" min="85" max="85"/>
-    <col width="40.5703125" customWidth="1" style="49" min="86" max="87"/>
-    <col width="38" customWidth="1" style="49" min="88" max="88"/>
-    <col width="18.140625" customWidth="1" style="49" min="89" max="89"/>
-    <col width="31.140625" customWidth="1" style="49" min="90" max="90"/>
-    <col width="39.28515625" customWidth="1" style="49" min="91" max="92"/>
-    <col width="33.42578125" customWidth="1" style="49" min="93" max="93"/>
-    <col width="46.42578125" customWidth="1" style="49" min="94" max="94"/>
-    <col width="43.85546875" customWidth="1" style="49" min="95" max="95"/>
-    <col width="48.85546875" customWidth="1" style="49" min="96" max="96"/>
-    <col width="34.85546875" customWidth="1" style="49" min="97" max="97"/>
+    <col width="16.85546875" customWidth="1" style="49" min="22" max="23"/>
+    <col width="40.7109375" customWidth="1" style="49" min="24" max="24"/>
+    <col width="14.85546875" customWidth="1" style="49" min="25" max="25"/>
+    <col width="15.7109375" customWidth="1" style="49" min="26" max="26"/>
+    <col width="16.5703125" customWidth="1" style="49" min="27" max="27"/>
+    <col width="17.85546875" customWidth="1" style="49" min="28" max="29"/>
+    <col width="19.42578125" customWidth="1" style="49" min="30" max="30"/>
+    <col width="19" customWidth="1" style="49" min="31" max="31"/>
+    <col width="21.140625" customWidth="1" style="49" min="32" max="32"/>
+    <col width="20.7109375" customWidth="1" style="49" min="33" max="33"/>
+    <col width="18.42578125" customWidth="1" style="49" min="34" max="34"/>
+    <col width="18" customWidth="1" style="49" min="35" max="35"/>
+    <col width="26.85546875" customWidth="1" style="49" min="36" max="36"/>
+    <col width="17.42578125" customWidth="1" style="49" min="37" max="37"/>
+    <col width="15.42578125" customWidth="1" style="49" min="38" max="38"/>
+    <col width="27.140625" customWidth="1" style="49" min="39" max="39"/>
+    <col width="17.5703125" customWidth="1" style="49" min="40" max="40"/>
+    <col width="18.5703125" customWidth="1" style="49" min="41" max="41"/>
+    <col width="23" customWidth="1" style="49" min="42" max="42"/>
+    <col width="24" customWidth="1" style="49" min="43" max="43"/>
+    <col width="25.85546875" customWidth="1" style="49" min="44" max="44"/>
+    <col width="26.85546875" customWidth="1" style="49" min="45" max="45"/>
+    <col width="10.42578125" customWidth="1" style="49" min="46" max="46"/>
+    <col width="29.140625" customWidth="1" style="49" min="47" max="47"/>
+    <col width="30.28515625" customWidth="1" style="49" min="48" max="48"/>
+    <col width="18.85546875" customWidth="1" style="49" min="49" max="50"/>
+    <col width="16.28515625" customWidth="1" style="49" min="51" max="51"/>
+    <col width="17.42578125" customWidth="1" style="49" min="52" max="52"/>
+    <col width="9.85546875" customWidth="1" style="49" min="53" max="53"/>
+    <col width="10.85546875" customWidth="1" style="49" min="54" max="54"/>
+    <col width="13.28515625" customWidth="1" style="49" min="55" max="55"/>
+    <col width="14.28515625" customWidth="1" style="49" min="56" max="56"/>
+    <col width="20.5703125" customWidth="1" style="49" min="57" max="58"/>
+    <col width="21.7109375" customWidth="1" style="49" min="59" max="59"/>
+    <col width="13.5703125" customWidth="1" style="49" min="60" max="60"/>
+    <col width="13.28515625" customWidth="1" style="49" min="61" max="61"/>
+    <col width="18.7109375" customWidth="1" style="49" min="62" max="62"/>
+    <col width="29" customWidth="1" style="49" min="63" max="63"/>
+    <col width="20" customWidth="1" style="49" min="64" max="64"/>
+    <col width="17.5703125" customWidth="1" style="49" min="65" max="65"/>
+    <col width="14.7109375" customWidth="1" style="49" min="66" max="66"/>
+    <col width="21" customWidth="1" style="49" min="67" max="67"/>
+    <col width="36.5703125" customWidth="1" style="49" min="68" max="68"/>
+    <col width="21.42578125" customWidth="1" style="49" min="69" max="69"/>
+    <col width="23.5703125" customWidth="1" style="49" min="70" max="70"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="8" thickBot="1">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="25" thickBot="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
           <t>rowid</t>
@@ -9734,1443 +10484,735 @@
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
-        <is>
-          <t>LIQCustomerShortName_Prefix</t>
-        </is>
-      </c>
-      <c r="D1" s="9" t="inlineStr">
-        <is>
-          <t>LIQCustomerLegalName_Prefix</t>
-        </is>
-      </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="C1" s="21" t="inlineStr">
+        <is>
+          <t>ScheduleActivity_FromDate</t>
+        </is>
+      </c>
+      <c r="D1" s="21" t="inlineStr">
+        <is>
+          <t>ScheduledActivity_ThruDate</t>
+        </is>
+      </c>
+      <c r="E1" s="25" t="inlineStr">
+        <is>
+          <t>ScheduledActivity_Department</t>
+        </is>
+      </c>
+      <c r="F1" s="21" t="inlineStr">
+        <is>
+          <t>ScheduledActivity_Branch</t>
+        </is>
+      </c>
+      <c r="G1" s="21" t="inlineStr">
+        <is>
+          <t>Deal_Name</t>
+        </is>
+      </c>
+      <c r="H1" s="25" t="inlineStr">
+        <is>
+          <t>ScheduledActivity_FeeAlias</t>
+        </is>
+      </c>
+      <c r="I1" s="21" t="inlineStr">
+        <is>
+          <t>Remittance_Description</t>
+        </is>
+      </c>
+      <c r="J1" s="21" t="inlineStr">
+        <is>
+          <t>Remittance_Description2</t>
+        </is>
+      </c>
+      <c r="K1" s="21" t="inlineStr">
+        <is>
+          <t>Remittance_Description3</t>
+        </is>
+      </c>
+      <c r="L1" s="21" t="inlineStr">
+        <is>
+          <t>Loan_Alias</t>
+        </is>
+      </c>
+      <c r="M1" s="21" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDADescriptionAUDPrefix</t>
-        </is>
-      </c>
-      <c r="G1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDADescriptionAUDPrefix2</t>
-        </is>
-      </c>
-      <c r="H1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_IMTDescriptionUSDPrefix</t>
-        </is>
-      </c>
-      <c r="I1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_IMTDescriptionUSDPrefix2</t>
-        </is>
-      </c>
-      <c r="J1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_RTGSDescriptionAUDPrefix</t>
-        </is>
-      </c>
-      <c r="K1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_RTGSDescriptionAUDPrefix2</t>
-        </is>
-      </c>
-      <c r="L1" s="9" t="inlineStr">
-        <is>
-          <t>Customer_Search</t>
-        </is>
-      </c>
-      <c r="M1" s="9" t="inlineStr">
-        <is>
-          <t>LIQCustomer_ShortName</t>
-        </is>
-      </c>
-      <c r="N1" s="9" t="inlineStr">
-        <is>
-          <t>LIQCustomer_LegalName</t>
-        </is>
-      </c>
-      <c r="O1" s="9" t="inlineStr">
+      <c r="N1" s="21" t="inlineStr">
+        <is>
+          <t>Remittance_Instruction2</t>
+        </is>
+      </c>
+      <c r="O1" s="21" t="inlineStr">
+        <is>
+          <t>Remittance_Instruction3</t>
+        </is>
+      </c>
+      <c r="P1" s="25" t="inlineStr">
+        <is>
+          <t>Remittance_Status</t>
+        </is>
+      </c>
+      <c r="Q1" s="21" t="inlineStr">
+        <is>
+          <t>Borrower_ShortName</t>
+        </is>
+      </c>
+      <c r="R1" s="21" t="inlineStr">
+        <is>
+          <t>Lender1_ShortName</t>
+        </is>
+      </c>
+      <c r="S1" s="21" t="inlineStr">
+        <is>
+          <t>Lender2_ShortName</t>
+        </is>
+      </c>
+      <c r="T1" s="28" t="inlineStr">
+        <is>
+          <t>Borrower_LegalName</t>
+        </is>
+      </c>
+      <c r="U1" s="25" t="inlineStr">
+        <is>
+          <t>HostBankSharePct</t>
+        </is>
+      </c>
+      <c r="V1" s="25" t="inlineStr">
+        <is>
+          <t>LenderSharePct1</t>
+        </is>
+      </c>
+      <c r="W1" s="25" t="inlineStr">
+        <is>
+          <t>LenderSharePct2</t>
+        </is>
+      </c>
+      <c r="X1" s="21" t="inlineStr">
+        <is>
+          <t>Host_Bank</t>
+        </is>
+      </c>
+      <c r="Y1" s="25" t="inlineStr">
+        <is>
+          <t>Loan_Currency</t>
+        </is>
+      </c>
+      <c r="Z1" s="21" t="inlineStr">
         <is>
           <t>LIQCustomer_ID</t>
         </is>
       </c>
-      <c r="P1" s="9" t="inlineStr">
+      <c r="AA1" s="25" t="inlineStr">
+        <is>
+          <t>Borrower_Profile</t>
+        </is>
+      </c>
+      <c r="AB1" s="25" t="inlineStr">
+        <is>
+          <t>Customer_Profile2</t>
+        </is>
+      </c>
+      <c r="AC1" s="25" t="inlineStr">
+        <is>
+          <t>Customer_Profile3</t>
+        </is>
+      </c>
+      <c r="AD1" s="25" t="inlineStr">
+        <is>
+          <t>Manager_Username</t>
+        </is>
+      </c>
+      <c r="AE1" s="25" t="inlineStr">
+        <is>
+          <t>Manager_Password</t>
+        </is>
+      </c>
+      <c r="AF1" s="25" t="inlineStr">
+        <is>
+          <t>Supervisor_Username</t>
+        </is>
+      </c>
+      <c r="AG1" s="25" t="inlineStr">
+        <is>
+          <t>Supervisor_Password</t>
+        </is>
+      </c>
+      <c r="AH1" s="25" t="inlineStr">
         <is>
           <t>Inputter_Username</t>
         </is>
       </c>
-      <c r="Q1" s="9" t="inlineStr">
+      <c r="AI1" s="25" t="inlineStr">
         <is>
           <t>Inputter_Password</t>
         </is>
       </c>
-      <c r="R1" s="9" t="inlineStr">
-        <is>
-          <t>Supervisor_Username</t>
-        </is>
-      </c>
-      <c r="S1" s="9" t="inlineStr">
-        <is>
-          <t>Supervisor_Password</t>
-        </is>
-      </c>
-      <c r="T1" s="9" t="inlineStr">
-        <is>
-          <t>Manager_Username</t>
-        </is>
-      </c>
-      <c r="U1" s="9" t="inlineStr">
-        <is>
-          <t>Manager_Password</t>
-        </is>
-      </c>
-      <c r="V1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDADescriptionAUD</t>
-        </is>
-      </c>
-      <c r="W1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDADescriptionAUD2</t>
-        </is>
-      </c>
-      <c r="X1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDADescriptionUSD</t>
-        </is>
-      </c>
-      <c r="Y1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_RTGSMethod</t>
-        </is>
-      </c>
-      <c r="Z1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_RTGSDescriptionAUD</t>
-        </is>
-      </c>
-      <c r="AA1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_RTGSDescriptionAUD2</t>
-        </is>
-      </c>
-      <c r="AB1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_RTGSCurrencyAUD</t>
-        </is>
-      </c>
-      <c r="AC1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_SIMTDescriptionAUD</t>
-        </is>
-      </c>
-      <c r="AD1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_SIMTDescriptionUSD</t>
-        </is>
-      </c>
-      <c r="AE1" s="9" t="inlineStr">
-        <is>
-          <t>Address_Line1</t>
-        </is>
-      </c>
-      <c r="AF1" s="9" t="inlineStr">
-        <is>
-          <t>Address_Line2</t>
-        </is>
-      </c>
-      <c r="AG1" s="9" t="inlineStr">
-        <is>
-          <t>Address_City</t>
-        </is>
-      </c>
-      <c r="AH1" s="9" t="inlineStr">
-        <is>
-          <t>Address_Country</t>
-        </is>
-      </c>
-      <c r="AI1" s="9" t="inlineStr">
-        <is>
-          <t>Address_TRA</t>
-        </is>
-      </c>
-      <c r="AJ1" s="9" t="inlineStr">
-        <is>
-          <t>Address_DefaultPhone</t>
+      <c r="AJ1" s="14" t="inlineStr">
+        <is>
+          <t>Facility_Name</t>
         </is>
       </c>
       <c r="AK1" s="9" t="inlineStr">
         <is>
-          <t>Address_State</t>
+          <t>Fee_Alias</t>
         </is>
       </c>
       <c r="AL1" s="9" t="inlineStr">
         <is>
-          <t>Address_ZipPostalCode</t>
+          <t>Fee_Type1</t>
         </is>
       </c>
       <c r="AM1" s="9" t="inlineStr">
         <is>
-          <t>Primary_SICCode</t>
-        </is>
-      </c>
-      <c r="AN1" s="9" t="inlineStr">
-        <is>
-          <t>PrimarySICCode_Description</t>
-        </is>
-      </c>
-      <c r="AO1" s="9" t="inlineStr">
-        <is>
-          <t>Profile_Type</t>
-        </is>
-      </c>
-      <c r="AP1" s="9" t="inlineStr">
-        <is>
-          <t>Expense_Code</t>
-        </is>
-      </c>
-      <c r="AQ1" s="9" t="inlineStr">
-        <is>
-          <t>ExpenseCode_Description</t>
-        </is>
-      </c>
-      <c r="AR1" s="9" t="inlineStr">
-        <is>
-          <t>Deparment_Code</t>
-        </is>
-      </c>
-      <c r="AS1" s="9" t="inlineStr">
-        <is>
-          <t>DepartmentCode_Description</t>
+          <t>Fee_Type2</t>
+        </is>
+      </c>
+      <c r="AN1" s="14" t="inlineStr">
+        <is>
+          <t>Fee_EffectiveDate</t>
+        </is>
+      </c>
+      <c r="AO1" s="14" t="inlineStr">
+        <is>
+          <t>Fee_EffectiveDate2</t>
+        </is>
+      </c>
+      <c r="AP1" s="14" t="inlineStr">
+        <is>
+          <t>Fee_FloatRateStartDate</t>
+        </is>
+      </c>
+      <c r="AQ1" s="14" t="inlineStr">
+        <is>
+          <t>Fee_FloatRateStartDate2</t>
+        </is>
+      </c>
+      <c r="AR1" s="14" t="inlineStr">
+        <is>
+          <t>FeePayment_EffectiveDate</t>
+        </is>
+      </c>
+      <c r="AS1" s="14" t="inlineStr">
+        <is>
+          <t>FeePayment_EffectiveDate2</t>
         </is>
       </c>
       <c r="AT1" s="9" t="inlineStr">
         <is>
-          <t>Classification_Code</t>
-        </is>
-      </c>
-      <c r="AU1" s="9" t="inlineStr">
-        <is>
-          <t>ClassificationCode_Description</t>
-        </is>
-      </c>
-      <c r="AV1" s="9" t="inlineStr">
-        <is>
-          <t>Taxpayer_ID</t>
-        </is>
-      </c>
-      <c r="AW1" s="9" t="inlineStr">
-        <is>
-          <t>CreditReview_Date</t>
-        </is>
-      </c>
-      <c r="AX1" s="9" t="inlineStr">
-        <is>
-          <t>Customer_Location</t>
-        </is>
-      </c>
-      <c r="AY1" s="9" t="inlineStr">
-        <is>
-          <t>Customer_Location2</t>
-        </is>
-      </c>
-      <c r="AZ1" s="9" t="inlineStr">
-        <is>
-          <t>External_ID</t>
-        </is>
-      </c>
-      <c r="BA1" s="9" t="inlineStr">
-        <is>
-          <t>Preferred_Language</t>
-        </is>
-      </c>
-      <c r="BB1" s="9" t="inlineStr">
-        <is>
-          <t>MEI_Code</t>
-        </is>
-      </c>
-      <c r="BC1" s="9" t="inlineStr">
-        <is>
-          <t>Address_Code</t>
-        </is>
-      </c>
-      <c r="BD1" s="9" t="inlineStr">
-        <is>
-          <t>Fax_Number</t>
-        </is>
-      </c>
-      <c r="BE1" s="9" t="inlineStr">
-        <is>
-          <t>Fax_Number2</t>
-        </is>
-      </c>
-      <c r="BF1" s="9" t="inlineStr">
-        <is>
-          <t>Fax_Description</t>
-        </is>
-      </c>
-      <c r="BG1" s="9" t="inlineStr">
-        <is>
-          <t>Fax_Description2</t>
-        </is>
-      </c>
-      <c r="BH1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_FirstName</t>
-        </is>
-      </c>
-      <c r="BI1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_FirstName2</t>
-        </is>
-      </c>
-      <c r="BJ1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_LastName</t>
-        </is>
-      </c>
-      <c r="BK1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_LastName2</t>
-        </is>
-      </c>
-      <c r="BL1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_PreferredLanguage</t>
-        </is>
-      </c>
-      <c r="BM1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_PrimaryPhone</t>
-        </is>
-      </c>
-      <c r="BN1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_PrimaryPhone2</t>
-        </is>
-      </c>
-      <c r="BO1" s="10" t="inlineStr">
-        <is>
-          <t>Contact_ProductSelected</t>
-        </is>
-      </c>
-      <c r="BP1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_BalanceTypeSelected</t>
-        </is>
-      </c>
-      <c r="BQ1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_PurposeType</t>
-        </is>
-      </c>
-      <c r="BR1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_PurposeTypeArea</t>
-        </is>
-      </c>
-      <c r="BS1" s="9" t="inlineStr">
-        <is>
-          <t>ContactNotice_Method</t>
-        </is>
-      </c>
-      <c r="BT1" s="9" t="inlineStr">
+          <t>Fee_Cycle</t>
+        </is>
+      </c>
+      <c r="AU1" s="21" t="inlineStr">
+        <is>
+          <t>Computed_ProjectedCycleDue</t>
+        </is>
+      </c>
+      <c r="AV1" s="21" t="inlineStr">
+        <is>
+          <t>Computed_ProjectedCycleDue2</t>
+        </is>
+      </c>
+      <c r="AW1" s="25" t="inlineStr">
+        <is>
+          <t>RequestedAmount1</t>
+        </is>
+      </c>
+      <c r="AX1" s="25" t="inlineStr">
+        <is>
+          <t>RequestedAmount2</t>
+        </is>
+      </c>
+      <c r="AY1" s="25" t="inlineStr">
+        <is>
+          <t>PrincipalAmount</t>
+        </is>
+      </c>
+      <c r="AZ1" s="25" t="inlineStr">
+        <is>
+          <t>PrincipalAmount2</t>
+        </is>
+      </c>
+      <c r="BA1" s="25" t="inlineStr">
+        <is>
+          <t>RateBasis</t>
+        </is>
+      </c>
+      <c r="BB1" s="25" t="inlineStr">
+        <is>
+          <t>RateBasis2</t>
+        </is>
+      </c>
+      <c r="BC1" s="25" t="inlineStr">
+        <is>
+          <t>CycleNumber</t>
+        </is>
+      </c>
+      <c r="BD1" s="25" t="inlineStr">
+        <is>
+          <t>CycleNumber2</t>
+        </is>
+      </c>
+      <c r="BE1" s="25" t="inlineStr">
+        <is>
+          <t>HostBank_GLAccount</t>
+        </is>
+      </c>
+      <c r="BF1" s="25" t="inlineStr">
+        <is>
+          <t>Borrower_GLAccount</t>
+        </is>
+      </c>
+      <c r="BG1" s="25" t="inlineStr">
+        <is>
+          <t>Borrower_GLAccount2</t>
+        </is>
+      </c>
+      <c r="BH1" s="25" t="inlineStr">
+        <is>
+          <t>FeeType1</t>
+        </is>
+      </c>
+      <c r="BI1" s="25" t="inlineStr">
+        <is>
+          <t>FeeType2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="21" t="inlineStr">
         <is>
           <t>Contact_Email</t>
         </is>
       </c>
-      <c r="BU1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_Email2</t>
-        </is>
-      </c>
-      <c r="BV1" s="9" t="inlineStr">
-        <is>
-          <t>Group_Contact</t>
-        </is>
-      </c>
-      <c r="BW1" s="9" t="inlineStr">
-        <is>
-          <t>Group_Contact2</t>
-        </is>
-      </c>
-      <c r="BX1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_MethodType</t>
-        </is>
-      </c>
-      <c r="BY1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDAMethod</t>
-        </is>
-      </c>
-      <c r="BZ1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDAAccountName</t>
-        </is>
-      </c>
-      <c r="CA1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDAAccountNumber</t>
-        </is>
-      </c>
-      <c r="CB1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDACurrencyAUD</t>
-        </is>
-      </c>
-      <c r="CC1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDACurrencyUSD</t>
-        </is>
-      </c>
-      <c r="CD1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DirectionSelected</t>
-        </is>
-      </c>
-      <c r="CE1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstructionDDA_AutoDoIt</t>
-        </is>
-      </c>
-      <c r="CF1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_SIMTMethodType</t>
-        </is>
-      </c>
-      <c r="CG1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_IMTMethod</t>
-        </is>
-      </c>
-      <c r="CH1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_IMTDescriptionUSD</t>
-        </is>
-      </c>
-      <c r="CI1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_IMTDescriptionUSD2</t>
-        </is>
-      </c>
-      <c r="CJ1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_IMTCurrencyUSD</t>
-        </is>
-      </c>
-      <c r="CK1" s="9" t="inlineStr">
-        <is>
-          <t>IMT_MessageCode</t>
-        </is>
-      </c>
-      <c r="CL1" s="9" t="inlineStr">
-        <is>
-          <t>BOC_Level</t>
-        </is>
-      </c>
-      <c r="CM1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_SIMTCurrencyAUD</t>
-        </is>
-      </c>
-      <c r="CN1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_SIMTCurrencyUSD</t>
-        </is>
-      </c>
-      <c r="CO1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_SIMTSwiftID</t>
-        </is>
-      </c>
-      <c r="CP1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_SIMTSwiftIDBank</t>
-        </is>
-      </c>
-      <c r="CQ1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstructionSIMT_
-ProductSelected</t>
-        </is>
-      </c>
-      <c r="CR1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstructionSIMT_
-BalanceTypeSelected</t>
-        </is>
-      </c>
-      <c r="CS1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstructionSIMT_AutoDoIt</t>
-        </is>
-      </c>
-      <c r="CT1" s="9" t="inlineStr">
-        <is>
-          <t>GST_ID</t>
-        </is>
-      </c>
-      <c r="CU1" s="9" t="inlineStr">
-        <is>
-          <t>InternalRiskRating_Type</t>
-        </is>
-      </c>
-      <c r="CV1" s="9" t="inlineStr">
-        <is>
-          <t>InternalRisk_Rating</t>
-        </is>
-      </c>
-      <c r="CW1" s="9" t="inlineStr">
-        <is>
-          <t>InternalRisk_Percent</t>
-        </is>
-      </c>
-      <c r="CX1" s="9" t="inlineStr">
-        <is>
-          <t>ExternalRiskRating_Type1</t>
-        </is>
-      </c>
-      <c r="CY1" s="9" t="inlineStr">
-        <is>
-          <t>ExternalRisk_Rating1</t>
-        </is>
-      </c>
-      <c r="CZ1" s="9" t="inlineStr">
-        <is>
-          <t>ExternalRiskRating_Type2</t>
-        </is>
-      </c>
-      <c r="DA1" s="9" t="inlineStr">
-        <is>
-          <t>ExternalRisk_Rating2</t>
-        </is>
-      </c>
-      <c r="DB1" s="9" t="inlineStr">
-        <is>
-          <t>ExternalRiskRating_Type3</t>
-        </is>
-      </c>
-      <c r="DC1" s="9" t="inlineStr">
-        <is>
-          <t>ExternalRisk_Rating3</t>
-        </is>
-      </c>
-      <c r="DD1" s="9" t="inlineStr">
-        <is>
-          <t>MailingAddress_Code</t>
-        </is>
-      </c>
-      <c r="DE1" s="9" t="inlineStr">
-        <is>
-          <t>MailingAddress_Line1</t>
-        </is>
-      </c>
-      <c r="DF1" s="9" t="inlineStr">
-        <is>
-          <t>MailingAddress_Line2</t>
-        </is>
-      </c>
-      <c r="DG1" s="9" t="inlineStr">
-        <is>
-          <t>MailingAddress_DefaultPhone</t>
-        </is>
-      </c>
-      <c r="DH1" s="9" t="inlineStr">
-        <is>
-          <t>BorrowerContact_Phone</t>
-        </is>
-      </c>
-      <c r="DI1" s="9" t="inlineStr">
-        <is>
-          <t>SwiftRole_BC</t>
-        </is>
-      </c>
-      <c r="DJ1" s="9" t="inlineStr">
-        <is>
-          <t>SwiftRole_OC</t>
-        </is>
-      </c>
-      <c r="DK1" s="9" t="inlineStr">
-        <is>
-          <t>SwiftRole_AWI</t>
-        </is>
-      </c>
-      <c r="DL1" s="9" t="inlineStr">
-        <is>
-          <t>AWI_SwiftID</t>
-        </is>
-      </c>
-      <c r="DM1" s="9" t="inlineStr">
-        <is>
-          <t>AWI_Description</t>
-        </is>
-      </c>
-      <c r="DN1" s="9" t="inlineStr">
-        <is>
-          <t>AWI_AccountNumber</t>
-        </is>
-      </c>
-      <c r="DO1" s="8" t="inlineStr">
-        <is>
-          <t>DOC_Type</t>
-        </is>
-      </c>
-      <c r="DP1" s="9" t="inlineStr">
-        <is>
-          <t>IMT_MessageCode2</t>
-        </is>
-      </c>
-      <c r="DQ1" s="9" t="inlineStr">
-        <is>
-          <t>SwiftRole_BI</t>
-        </is>
-      </c>
-      <c r="DR1" s="9" t="inlineStr">
-        <is>
-          <t>BC_Description</t>
-        </is>
-      </c>
-      <c r="DS1" s="9" t="inlineStr">
-        <is>
-          <t>BC_AccountNumber</t>
-        </is>
-      </c>
-      <c r="DT1" s="9" t="inlineStr">
-        <is>
-          <t>OC_Description</t>
-        </is>
-      </c>
-      <c r="DU1" s="9" t="inlineStr">
-        <is>
-          <t>OC_AccountNumber</t>
-        </is>
-      </c>
-      <c r="DV1" s="9" t="inlineStr">
-        <is>
-          <t>InternalRiskRating_EffectiveDate</t>
-        </is>
-      </c>
-      <c r="DW1" s="9" t="inlineStr">
-        <is>
-          <t>InternalRiskRating_ExpiryDate</t>
-        </is>
-      </c>
-      <c r="DX1" s="9" t="inlineStr">
-        <is>
-          <t>ExternalRiskRating_StartDate</t>
-        </is>
-      </c>
-      <c r="DY1" s="9" t="inlineStr">
-        <is>
-          <t>ProductSBLC_Checkbox</t>
-        </is>
-      </c>
-      <c r="DZ1" s="9" t="inlineStr">
-        <is>
-          <t>ProductLoan_Checkbox</t>
-        </is>
-      </c>
-      <c r="EA1" s="9" t="inlineStr">
-        <is>
-          <t>BalanceType_Principal_Checkbox</t>
-        </is>
-      </c>
-      <c r="EB1" s="9" t="inlineStr">
-        <is>
-          <t>BalanceType_Interest_Checkbox</t>
-        </is>
-      </c>
-      <c r="EC1" s="9" t="inlineStr">
-        <is>
-          <t>BalanceType_Fees_Checkbox</t>
-        </is>
-      </c>
-      <c r="ED1" s="9" t="inlineStr">
-        <is>
-          <t>RI_ProductLoan_Checkbox</t>
-        </is>
-      </c>
-      <c r="EE1" s="9" t="inlineStr">
-        <is>
-          <t>RI_ProductSBLC_Checkbox</t>
-        </is>
-      </c>
-      <c r="EF1" s="9" t="inlineStr">
-        <is>
-          <t>RI_FromCust_Checkbox</t>
-        </is>
-      </c>
-      <c r="EG1" s="9" t="inlineStr">
-        <is>
-          <t>RI_ToCust_Checkbox</t>
-        </is>
-      </c>
-      <c r="EH1" s="9" t="inlineStr">
-        <is>
-          <t>RI_BalanceType_Principal_Checkbox</t>
-        </is>
-      </c>
-      <c r="EI1" s="9" t="inlineStr">
-        <is>
-          <t>RI_BalanceType_Interest_Checkbox</t>
-        </is>
-      </c>
-      <c r="EJ1" s="9" t="inlineStr">
-        <is>
-          <t>RI_BalanceType_Fees_Checkbox</t>
-        </is>
-      </c>
-      <c r="EK1" s="9" t="inlineStr">
-        <is>
-          <t>RI_AutoDoIt_Checkbox</t>
-        </is>
-      </c>
-      <c r="EL1" s="9" t="inlineStr">
-        <is>
-          <t>RI_SendersCorrespondent_Checkbox</t>
-        </is>
-      </c>
-      <c r="EM1" s="9" t="inlineStr">
-        <is>
-          <t>CustomerNotice_TypeMethod</t>
-        </is>
-      </c>
-      <c r="EN1" s="59" t="inlineStr">
-        <is>
-          <t>Entity</t>
-        </is>
-      </c>
-      <c r="EO1" s="59" t="inlineStr">
-        <is>
-          <t>CustomerSourceApp</t>
+      <c r="BK1" s="25" t="inlineStr">
+        <is>
+          <t>ScheduledActivityReport_Date</t>
+        </is>
+      </c>
+      <c r="BL1" s="25" t="inlineStr">
+        <is>
+          <t>Customer_Borrower</t>
+        </is>
+      </c>
+      <c r="BM1" s="25" t="inlineStr">
+        <is>
+          <t>Borrower_Contact</t>
+        </is>
+      </c>
+      <c r="BN1" s="25" t="inlineStr">
+        <is>
+          <t>NoticeStatus</t>
+        </is>
+      </c>
+      <c r="BO1" s="25" t="inlineStr">
+        <is>
+          <t>WIP_TransactionType</t>
+        </is>
+      </c>
+      <c r="BP1" s="25" t="inlineStr">
+        <is>
+          <t>WIP_AwaitingReleaseCashflowsStatus</t>
+        </is>
+      </c>
+      <c r="BQ1" s="25" t="inlineStr">
+        <is>
+          <t>WIP_OutstandingType</t>
+        </is>
+      </c>
+      <c r="BR1" s="25" t="inlineStr">
+        <is>
+          <t>Loan_RequestedAmount</t>
+        </is>
+      </c>
+      <c r="BS1" s="30" t="inlineStr">
+        <is>
+          <t>Cashflow_DataType</t>
+        </is>
+      </c>
+      <c r="BT1" s="25" t="inlineStr">
+        <is>
+          <t>NoticeMethod</t>
+        </is>
+      </c>
+      <c r="BU1" s="25" t="inlineStr">
+        <is>
+          <t>days</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="49">
-      <c r="A2" s="49" t="inlineStr">
+    <row r="2" ht="12.75" customFormat="1" customHeight="1" s="11">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="49" t="inlineStr">
-        <is>
-          <t>EVG_PTYLIQ03 Scenario3 Baseline SBLC</t>
-        </is>
-      </c>
-      <c r="C2" s="49" t="inlineStr">
-        <is>
-          <t>CUSTSHORT</t>
-        </is>
-      </c>
-      <c r="D2" s="49" t="inlineStr">
-        <is>
-          <t>CUSTLEGAL</t>
-        </is>
-      </c>
-      <c r="E2" s="49" t="inlineStr">
-        <is>
-          <t>DDA</t>
-        </is>
-      </c>
-      <c r="F2" s="49" t="inlineStr">
-        <is>
-          <t>DDAAUD1-</t>
-        </is>
-      </c>
-      <c r="G2" s="49" t="inlineStr">
-        <is>
-          <t>DDAAUD2-</t>
-        </is>
-      </c>
-      <c r="H2" s="49" t="inlineStr">
-        <is>
-          <t>IMTUSD1-</t>
-        </is>
-      </c>
-      <c r="I2" s="49" t="inlineStr">
-        <is>
-          <t>IMTUSD2-</t>
-        </is>
-      </c>
-      <c r="J2" s="49" t="inlineStr">
-        <is>
-          <t>RTGSAUD1-</t>
-        </is>
-      </c>
-      <c r="K2" s="49" t="inlineStr">
-        <is>
-          <t>RTGSAUD2-</t>
-        </is>
-      </c>
-      <c r="L2" s="49" t="inlineStr">
-        <is>
-          <t>Search by Customer ID</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>EVG_PTYLIQ02 Scenario2 Baseline Agency (Syndicated)</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>07-Jun-2020</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>06-Aug-2020</t>
+        </is>
+      </c>
+      <c r="E2" s="50" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F2" s="50" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia - DBU</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>BNS2SYN_06082020200906QIX</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>60000127</t>
+        </is>
+      </c>
+      <c r="M2" s="22" t="inlineStr">
+        <is>
+          <t>RTGS</t>
+        </is>
+      </c>
+      <c r="N2" s="22" t="inlineStr">
+        <is>
+          <t>RTGS</t>
+        </is>
+      </c>
+      <c r="O2" s="22" t="inlineStr">
+        <is>
+          <t>RTGS</t>
+        </is>
+      </c>
+      <c r="P2" s="11" t="inlineStr">
+        <is>
+          <t>DOIT</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
         <is>
           <t>ESPS11413431</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTLEGAL39121</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="R2" s="11" t="inlineStr">
+        <is>
+          <t>LEND01292020</t>
+        </is>
+      </c>
+      <c r="S2" s="11" t="inlineStr">
+        <is>
+          <t>LENDSHORT0414</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>ESPS11413431</t>
+        </is>
+      </c>
+      <c r="U2" s="11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V2" s="11" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="W2" s="11" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>CB001/Hold for Investment - Australia/BP_CML</t>
+        </is>
+      </c>
+      <c r="Y2" s="11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="P2" s="50" t="inlineStr">
-        <is>
-          <t>TRUSERGE</t>
-        </is>
-      </c>
-      <c r="Q2" s="50" t="inlineStr">
+      <c r="AA2" s="11" t="inlineStr">
+        <is>
+          <t>Borrower</t>
+        </is>
+      </c>
+      <c r="AB2" s="11" t="inlineStr">
+        <is>
+          <t>Lender</t>
+        </is>
+      </c>
+      <c r="AC2" s="11" t="inlineStr">
+        <is>
+          <t>Lender</t>
+        </is>
+      </c>
+      <c r="AD2" s="11" t="inlineStr">
+        <is>
+          <t>TRUSER14</t>
+        </is>
+      </c>
+      <c r="AE2" s="11" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="R2" s="50" t="inlineStr">
-        <is>
-          <t>TRAPPVGE</t>
-        </is>
-      </c>
-      <c r="S2" s="50" t="inlineStr">
+      <c r="AF2" s="11" t="inlineStr">
+        <is>
+          <t>TRUSER12</t>
+        </is>
+      </c>
+      <c r="AG2" s="11" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="T2" s="50" t="inlineStr">
-        <is>
-          <t>TRUSERG3</t>
-        </is>
-      </c>
-      <c r="U2" s="50" t="inlineStr">
+      <c r="AH2" s="11" t="inlineStr">
+        <is>
+          <t>TRUSER6</t>
+        </is>
+      </c>
+      <c r="AI2" s="11" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="V2" s="1" t="inlineStr">
-        <is>
-          <t>DDAAUD1-4344</t>
-        </is>
-      </c>
-      <c r="W2" s="49" t="inlineStr">
-        <is>
-          <t>DDA-AUD2518</t>
-        </is>
-      </c>
-      <c r="X2" s="49" t="inlineStr">
-        <is>
-          <t>DDA2-USD3750</t>
-        </is>
-      </c>
-      <c r="Y2" s="50" t="inlineStr">
-        <is>
-          <t>High Value Local RTGS (AUD)</t>
-        </is>
-      </c>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>RTGSAUD1-4345</t>
-        </is>
-      </c>
-      <c r="AA2" s="49" t="inlineStr">
-        <is>
-          <t>RTGS-AUD2525</t>
-        </is>
-      </c>
-      <c r="AB2" s="49" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="AC2" s="49" t="inlineStr">
-        <is>
-          <t>SIMT1-AUD3750</t>
-        </is>
-      </c>
-      <c r="AD2" s="49" t="inlineStr">
-        <is>
-          <t>SIMT2-USD4504</t>
-        </is>
-      </c>
-      <c r="AE2" s="50" t="inlineStr">
-        <is>
-          <t>George St.</t>
-        </is>
-      </c>
-      <c r="AF2" s="50" t="inlineStr">
-        <is>
-          <t>Beverly Hills</t>
-        </is>
-      </c>
-      <c r="AG2" s="50" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="AH2" s="50" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="AI2" s="50" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="AJ2" s="50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">412345678
- </t>
-        </is>
-      </c>
-      <c r="AK2" s="50" t="inlineStr">
-        <is>
-          <t>Victoria</t>
-        </is>
-      </c>
-      <c r="AL2" s="50" t="inlineStr">
-        <is>
-          <t>4061</t>
-        </is>
-      </c>
-      <c r="AM2" s="50" t="inlineStr">
-        <is>
-          <t>3620</t>
-        </is>
-      </c>
-      <c r="AN2" s="50" t="inlineStr">
-        <is>
-          <t>AU / Gas Supply</t>
-        </is>
-      </c>
-      <c r="AO2" s="50" t="inlineStr">
-        <is>
-          <t>Borrower</t>
-        </is>
-      </c>
-      <c r="AP2" s="50" t="inlineStr">
-        <is>
-          <t>003346</t>
-        </is>
-      </c>
-      <c r="AQ2" s="50" t="inlineStr">
-        <is>
-          <t>CFS QLD Brisbane Corporate (Dept 003346)</t>
-        </is>
-      </c>
-      <c r="AR2" s="50" t="inlineStr">
-        <is>
-          <t>GLB</t>
-        </is>
-      </c>
-      <c r="AS2" s="50" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="AT2" s="50" t="inlineStr">
-        <is>
-          <t>FORG</t>
-        </is>
-      </c>
-      <c r="AU2" s="50" t="inlineStr">
-        <is>
-          <t>Foreign Government, Foreign Government</t>
-        </is>
-      </c>
-      <c r="AV2" s="50" t="inlineStr">
-        <is>
-          <t>&lt;This is randomly generated in the script&gt;</t>
-        </is>
-      </c>
-      <c r="AW2" s="50" t="inlineStr">
-        <is>
-          <t>16-Feb-2017</t>
-        </is>
-      </c>
-      <c r="AX2" s="50" t="inlineStr">
-        <is>
-          <t>Melbourne, VIC,Australia</t>
-        </is>
-      </c>
-      <c r="AY2" s="50" t="inlineStr">
-        <is>
-          <t>Sydney, NSW,Australia</t>
-        </is>
-      </c>
-      <c r="AZ2" s="50" t="inlineStr">
-        <is>
-          <t>&lt;This is randomly generated in the script&gt;</t>
-        </is>
-      </c>
-      <c r="BA2" s="50" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="BB2" s="50" t="inlineStr">
-        <is>
-          <t>CBA</t>
-        </is>
-      </c>
-      <c r="BC2" s="50" t="inlineStr">
-        <is>
-          <t>LEGAL ADDRESS</t>
-        </is>
-      </c>
-      <c r="BD2" s="50" t="inlineStr">
-        <is>
-          <t>1917472</t>
-        </is>
-      </c>
-      <c r="BE2" s="50" t="inlineStr">
-        <is>
-          <t>1917472</t>
-        </is>
-      </c>
-      <c r="BF2" s="50" t="inlineStr">
-        <is>
-          <t>Work Fax</t>
-        </is>
-      </c>
-      <c r="BG2" s="50" t="inlineStr">
-        <is>
-          <t>Work Fax 2</t>
-        </is>
-      </c>
-      <c r="BH2" s="50" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="BI2" s="50" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="BJ2" s="50" t="inlineStr">
-        <is>
-          <t>Bloggs</t>
-        </is>
-      </c>
-      <c r="BK2" s="50" t="inlineStr">
-        <is>
-          <t>Baker</t>
-        </is>
-      </c>
-      <c r="BL2" s="50" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="BM2" s="50" t="inlineStr">
-        <is>
-          <t>1928727188</t>
-        </is>
-      </c>
-      <c r="BN2" s="50" t="inlineStr">
-        <is>
-          <t>1928143143</t>
-        </is>
-      </c>
-      <c r="BO2" s="50" t="inlineStr">
-        <is>
-          <t>SBLC, Loan</t>
-        </is>
-      </c>
-      <c r="BP2" s="50" t="inlineStr">
-        <is>
-          <t>Principal, Interest, Fees</t>
-        </is>
-      </c>
-      <c r="BQ2" s="50" t="inlineStr">
-        <is>
-          <t>Servicing</t>
-        </is>
-      </c>
-      <c r="BR2" s="50" t="inlineStr">
-        <is>
-          <t>SERV</t>
-        </is>
-      </c>
-      <c r="BS2" s="50" t="inlineStr">
-        <is>
-          <t>Email</t>
+      <c r="AJ2" s="49" t="inlineStr">
+        <is>
+          <t>S2TERM06082020202350MQX</t>
+        </is>
+      </c>
+      <c r="AK2" s="11" t="inlineStr">
+        <is>
+          <t>ONG000000000271</t>
+        </is>
+      </c>
+      <c r="AL2" s="11" t="inlineStr">
+        <is>
+          <t>Commitment Fee</t>
+        </is>
+      </c>
+      <c r="AM2" s="11" t="inlineStr">
+        <is>
+          <t>Indemnity Fee - Usage (SFBG)</t>
+        </is>
+      </c>
+      <c r="AN2" s="11" t="inlineStr">
+        <is>
+          <t>12-Nov-2020</t>
+        </is>
+      </c>
+      <c r="AO2" s="11" t="inlineStr">
+        <is>
+          <t>12-Nov-2020</t>
+        </is>
+      </c>
+      <c r="AP2" s="11" t="inlineStr">
+        <is>
+          <t>12-Nov-2020</t>
+        </is>
+      </c>
+      <c r="AQ2" s="11" t="inlineStr">
+        <is>
+          <t>12-Nov-2020</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>07-Jul-2020</t>
+        </is>
+      </c>
+      <c r="AS2" s="1" t="inlineStr">
+        <is>
+          <t>09-Jan-2019</t>
+        </is>
+      </c>
+      <c r="AT2" s="11" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="AU2" s="1" t="n">
+        <v>5424.66</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>38355.78</v>
+      </c>
+      <c r="AY2" s="11" t="inlineStr">
+        <is>
+          <t>88,888,000.00</t>
+        </is>
+      </c>
+      <c r="AZ2" s="11" t="inlineStr">
+        <is>
+          <t>1,000.00</t>
+        </is>
+      </c>
+      <c r="BA2" s="11" t="inlineStr">
+        <is>
+          <t>Actual/365</t>
+        </is>
+      </c>
+      <c r="BB2" s="11" t="inlineStr">
+        <is>
+          <t>Actual/365</t>
+        </is>
+      </c>
+      <c r="BC2" s="11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BD2" s="11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BE2" s="11" t="inlineStr">
+        <is>
+          <t>18565001838</t>
+        </is>
+      </c>
+      <c r="BF2" s="11" t="inlineStr">
+        <is>
+          <t>18567000000</t>
+        </is>
+      </c>
+      <c r="BG2" s="11" t="inlineStr">
+        <is>
+          <t>18567000000</t>
+        </is>
+      </c>
+      <c r="BH2" s="11" t="inlineStr">
+        <is>
+          <t>UNUT Fee Due</t>
+        </is>
+      </c>
+      <c r="BI2" s="23" t="inlineStr">
+        <is>
+          <t>IPFEI Fee Due</t>
+        </is>
+      </c>
+      <c r="BJ2" s="1" t="inlineStr">
+        <is>
+          <t>john.blogg@abc.com</t>
+        </is>
+      </c>
+      <c r="BK2" s="11" t="inlineStr">
+        <is>
+          <t>13-Jul-2020</t>
+        </is>
+      </c>
+      <c r="BL2" s="11" t="inlineStr">
+        <is>
+          <t>IEEBRW7642S223130</t>
+        </is>
+      </c>
+      <c r="BM2" s="11" t="inlineStr">
+        <is>
+          <t>John Bloggs</t>
+        </is>
+      </c>
+      <c r="BN2" s="11" t="inlineStr">
+        <is>
+          <t>Awaiting release</t>
+        </is>
+      </c>
+      <c r="BO2" s="11" t="inlineStr">
+        <is>
+          <t>Payments</t>
+        </is>
+      </c>
+      <c r="BP2" s="11" t="inlineStr">
+        <is>
+          <t>Awaiting Release Cashflows</t>
+        </is>
+      </c>
+      <c r="BQ2" s="11" t="inlineStr">
+        <is>
+          <t>Ongoing Fee Payment</t>
+        </is>
+      </c>
+      <c r="BR2" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BS2" s="49" t="inlineStr">
+        <is>
+          <t>default</t>
         </is>
       </c>
       <c r="BT2" s="11" t="inlineStr">
         <is>
-          <t>john.blogg@abc.com</t>
+          <t>CBA Email with PDF Attachment</t>
         </is>
       </c>
       <c r="BU2" s="11" t="inlineStr">
         <is>
-          <t>james.baker@abc.com</t>
-        </is>
-      </c>
-      <c r="BV2" s="50" t="inlineStr">
-        <is>
-          <t>Bloggs</t>
-        </is>
-      </c>
-      <c r="BW2" s="50" t="inlineStr">
-        <is>
-          <t>Baker</t>
-        </is>
-      </c>
-      <c r="BX2" s="50" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="BY2" s="50" t="inlineStr">
-        <is>
-          <t>DDA (Demand Deposit Acct)</t>
-        </is>
-      </c>
-      <c r="BZ2" s="50" t="inlineStr">
-        <is>
-          <t>CBA Domestic Account</t>
-        </is>
-      </c>
-      <c r="CA2" s="11" t="inlineStr">
-        <is>
-          <t>1020188515</t>
-        </is>
-      </c>
-      <c r="CB2" s="11" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="CC2" s="11" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="CD2" s="50" t="inlineStr">
-        <is>
-          <t>From Cust</t>
-        </is>
-      </c>
-      <c r="CE2" s="50" t="inlineStr">
-        <is>
-          <t>&lt;Selected&gt;</t>
-        </is>
-      </c>
-      <c r="CF2" s="50" t="inlineStr">
-        <is>
-          <t>Simplified</t>
-        </is>
-      </c>
-      <c r="CG2" s="50" t="inlineStr">
-        <is>
-          <t>International Money Transfer</t>
-        </is>
-      </c>
-      <c r="CH2" s="1" t="inlineStr">
-        <is>
-          <t>IMTUSD1-4344</t>
-        </is>
-      </c>
-      <c r="CI2" s="49" t="inlineStr">
-        <is>
-          <t>IMT-USD2519</t>
-        </is>
-      </c>
-      <c r="CJ2" s="11" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="CK2" s="11" t="inlineStr">
-        <is>
-          <t>MT103</t>
-        </is>
-      </c>
-      <c r="CL2" s="11" t="inlineStr">
-        <is>
-          <t>Credit transfer - Service Level: None</t>
-        </is>
-      </c>
-      <c r="CM2" s="11" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="CN2" s="11" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="CO2" s="50" t="inlineStr">
-        <is>
-          <t>CTBAAU2S600</t>
-        </is>
-      </c>
-      <c r="CP2" s="50" t="inlineStr">
-        <is>
-          <t>COMMONWEALTH BANK OF AUSTRALIA SYDNEY</t>
-        </is>
-      </c>
-      <c r="CQ2" s="50" t="inlineStr">
-        <is>
-          <t>All Loan Types, SBLC/BA</t>
-        </is>
-      </c>
-      <c r="CR2" s="50" t="inlineStr">
-        <is>
-          <t>Principal, Interest, Fees</t>
-        </is>
-      </c>
-      <c r="CS2" s="50" t="inlineStr">
-        <is>
-          <t>&lt;Selected&gt;</t>
-        </is>
-      </c>
-      <c r="CT2" s="50" t="inlineStr">
-        <is>
-          <t>02568049389</t>
-        </is>
-      </c>
-      <c r="CU2" s="50" t="inlineStr">
-        <is>
-          <t>Internal Rating</t>
-        </is>
-      </c>
-      <c r="CV2" s="50" t="inlineStr">
-        <is>
-          <t>D1 Good</t>
-        </is>
-      </c>
-      <c r="CW2" s="50" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="CX2" s="50" t="inlineStr">
-        <is>
-          <t>Standard &amp; Poors</t>
-        </is>
-      </c>
-      <c r="CY2" s="50" t="inlineStr">
-        <is>
-          <t>BBB+</t>
-        </is>
-      </c>
-      <c r="CZ2" s="50" t="inlineStr">
-        <is>
-          <t>Moody's Investor Services Inc</t>
-        </is>
-      </c>
-      <c r="DA2" s="50" t="inlineStr">
-        <is>
-          <t>Aa2</t>
-        </is>
-      </c>
-      <c r="DB2" s="50" t="inlineStr">
-        <is>
-          <t>Fitch</t>
-        </is>
-      </c>
-      <c r="DC2" s="50" t="inlineStr">
-        <is>
-          <t>A+</t>
-        </is>
-      </c>
-      <c r="DD2" s="50" t="inlineStr">
-        <is>
-          <t>Mailing Address</t>
-        </is>
-      </c>
-      <c r="DE2" s="50" t="inlineStr">
-        <is>
-          <t>PO Box 861</t>
-        </is>
-      </c>
-      <c r="DF2" s="50" t="inlineStr">
-        <is>
-          <t>Almond, Victoria 3211</t>
-        </is>
-      </c>
-      <c r="DG2" s="12" t="inlineStr">
-        <is>
-          <t>03 5029 9445</t>
-        </is>
-      </c>
-      <c r="DH2" s="50" t="inlineStr">
-        <is>
-          <t>03 5029 9445</t>
-        </is>
-      </c>
-      <c r="DI2" s="11" t="inlineStr">
-        <is>
-          <t>Beneficiary Customer</t>
-        </is>
-      </c>
-      <c r="DJ2" s="11" t="inlineStr">
-        <is>
-          <t>Ordering Customer</t>
-        </is>
-      </c>
-      <c r="DK2" s="11" t="inlineStr">
-        <is>
-          <t>Account With Institution</t>
-        </is>
-      </c>
-      <c r="DL2" s="11" t="inlineStr">
-        <is>
-          <t>CITIUS33XXX</t>
-        </is>
-      </c>
-      <c r="DM2" s="11" t="n"/>
-      <c r="DN2" s="11" t="n"/>
-      <c r="DO2" s="11" t="inlineStr">
-        <is>
-          <t>Beneficiary Customer</t>
-        </is>
-      </c>
-      <c r="DP2" s="11" t="inlineStr">
-        <is>
-          <t>MT202</t>
-        </is>
-      </c>
-      <c r="DQ2" s="11" t="inlineStr">
-        <is>
-          <t>Beneficiary Institution</t>
-        </is>
-      </c>
-      <c r="DR2" s="11" t="inlineStr">
-        <is>
-          <t>XYZ 1234</t>
-        </is>
-      </c>
-      <c r="DS2" s="11" t="inlineStr">
-        <is>
-          <t>4561234789</t>
-        </is>
-      </c>
-      <c r="DT2" s="11" t="inlineStr">
-        <is>
-          <t>XYZ 1234 PARTNERS</t>
-        </is>
-      </c>
-      <c r="DU2" s="11" t="inlineStr">
-        <is>
-          <t>5558882223</t>
-        </is>
-      </c>
-      <c r="DV2" s="11" t="inlineStr">
-        <is>
-          <t>03-Jan-2019</t>
-        </is>
-      </c>
-      <c r="DW2" s="13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX2" s="11" t="inlineStr">
-        <is>
-          <t>03-Jan-2019</t>
-        </is>
-      </c>
-      <c r="DY2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="DZ2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EA2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EB2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EC2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="ED2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EE2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EF2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EG2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EH2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EI2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EJ2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EK2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EL2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EM2" s="11" t="inlineStr">
-        <is>
-          <t>External Message</t>
-        </is>
-      </c>
-      <c r="EN2" s="49" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="EO2" s="49" t="inlineStr">
-        <is>
-          <t>LIQ</t>
-        </is>
-      </c>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14">
+      <c r="BL14" s="13" t="n"/>
+    </row>
+    <row r="15">
+      <c r="BO15" s="34" t="n"/>
+    </row>
+    <row r="16">
+      <c r="BP16" s="34" t="n"/>
+    </row>
+    <row r="17"/>
+    <row r="18">
+      <c r="BP18" s="34" t="n"/>
+    </row>
+    <row r="19">
+      <c r="BO19" s="34" t="n"/>
+      <c r="BP19" s="34" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ02_BaselineAgency.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ02_BaselineAgency.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="3" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="6" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED01_DealSetup" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,16 +14,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMCH10_ChangeAgencyFee" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV01A_LoanDrawdown" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MTAM07_FacilityShareAdjustment" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORIG03_Customer" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV05_SBLCIssuance" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV23_PaperclipTransaction" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV40_BreakFunding" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV20_UnschedPrincipalPayments" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV33_RecurringFee" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV21_InterestPayments" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV08_ComprehensiveRepricing" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV30_AdminFeePayment" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV29_PaymentFees" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV29_PaymentFees" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV08_ComprehensiveRepricing" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORIG03_Customer" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV05_SBLCIssuance" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV23_PaperclipTransaction" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV40_BreakFunding" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV20_UnschedPrincipalPayments" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV33_RecurringFee" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV21_InterestPayments" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV30_AdminFeePayment" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED11_EventDrivenFeeAdvanced" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED02_FacilitySetup" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_PartyUpdate" sheetId="21" state="visible" r:id="rId21"/>
@@ -36,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -90,6 +90,17 @@
       <color indexed="30"/>
       <sz val="10"/>
       <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="8">
@@ -208,10 +219,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -292,9 +304,14 @@
     <xf numFmtId="49" fontId="4" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -605,7 +622,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B23" sqref="B23"/>
+      <selection pane="topRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1339,17 +1356,17 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>S206082020230823LYH</t>
+          <t>S210082020000320TJN</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="I2" s="23" t="inlineStr">
@@ -1705,12 +1722,12 @@
       </c>
       <c r="CD2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2021</t>
+          <t>07-Jul-2021</t>
         </is>
       </c>
       <c r="CE2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="CG2" s="27" t="inlineStr">
@@ -1755,12 +1772,12 @@
       </c>
       <c r="CO2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="CP2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="CQ2" s="27" t="inlineStr">
@@ -1825,7 +1842,7 @@
       </c>
       <c r="DC2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="DF2" s="27" t="inlineStr">
@@ -1887,6 +1904,1988 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AM15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="6.140625" customWidth="1" style="11" min="1" max="1"/>
+    <col width="50.140625" customWidth="1" style="11" min="2" max="2"/>
+    <col width="26.5703125" customWidth="1" style="11" min="3" max="3"/>
+    <col width="23.42578125" customWidth="1" style="11" min="4" max="4"/>
+    <col width="26.85546875" customWidth="1" style="11" min="5" max="5"/>
+    <col width="18.42578125" customWidth="1" style="11" min="6" max="6"/>
+    <col width="22.28515625" customWidth="1" style="11" min="7" max="7"/>
+    <col width="15" customWidth="1" style="11" min="8" max="8"/>
+    <col width="21.7109375" customWidth="1" style="11" min="9" max="9"/>
+    <col width="28.140625" customWidth="1" style="11" min="10" max="10"/>
+    <col width="14.5703125" customWidth="1" style="11" min="11" max="11"/>
+    <col width="20.85546875" customWidth="1" style="49" min="12" max="12"/>
+    <col width="21.140625" customWidth="1" style="49" min="13" max="14"/>
+    <col width="22.140625" customWidth="1" style="49" min="15" max="15"/>
+    <col width="23.140625" customWidth="1" style="49" min="16" max="17"/>
+    <col width="22.85546875" customWidth="1" style="49" min="18" max="18"/>
+    <col width="23.85546875" customWidth="1" style="49" min="19" max="20"/>
+    <col width="14.85546875" customWidth="1" style="11" min="21" max="21"/>
+    <col width="18.140625" customWidth="1" style="11" min="22" max="22"/>
+    <col width="10.5703125" customWidth="1" style="11" min="23" max="23"/>
+    <col width="22.42578125" customWidth="1" style="11" min="24" max="24"/>
+    <col width="14.7109375" customWidth="1" style="11" min="25" max="25"/>
+    <col width="16.28515625" customWidth="1" style="49" min="26" max="28"/>
+    <col width="34.85546875" customWidth="1" style="49" min="29" max="29"/>
+    <col width="16.7109375" customWidth="1" style="11" min="30" max="30"/>
+    <col width="20.5703125" customWidth="1" style="11" min="31" max="31"/>
+    <col width="16.140625" customWidth="1" style="1" min="32" max="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="25" thickBot="1">
+      <c r="A1" s="25" t="inlineStr">
+        <is>
+          <t>rowid</t>
+        </is>
+      </c>
+      <c r="B1" s="25" t="inlineStr">
+        <is>
+          <t>Test_Case</t>
+        </is>
+      </c>
+      <c r="C1" s="21" t="inlineStr">
+        <is>
+          <t>Deal_Name</t>
+        </is>
+      </c>
+      <c r="D1" s="25" t="inlineStr">
+        <is>
+          <t>OutstandingSelect_Type</t>
+        </is>
+      </c>
+      <c r="E1" s="21" t="inlineStr">
+        <is>
+          <t>Facility_Name</t>
+        </is>
+      </c>
+      <c r="F1" s="21" t="inlineStr">
+        <is>
+          <t>Loan_Alias</t>
+        </is>
+      </c>
+      <c r="G1" s="25" t="inlineStr">
+        <is>
+          <t>Repricing_Type</t>
+        </is>
+      </c>
+      <c r="H1" s="21" t="inlineStr">
+        <is>
+          <t>Repricing_Date</t>
+        </is>
+      </c>
+      <c r="I1" s="25" t="inlineStr">
+        <is>
+          <t>Repricing_Add_Option</t>
+        </is>
+      </c>
+      <c r="J1" s="25" t="inlineStr">
+        <is>
+          <t>Repricing_Add_Option_Setup</t>
+        </is>
+      </c>
+      <c r="K1" s="25" t="inlineStr">
+        <is>
+          <t>Pricing_Option</t>
+        </is>
+      </c>
+      <c r="L1" s="28" t="inlineStr">
+        <is>
+          <t>Borrower_ShortName</t>
+        </is>
+      </c>
+      <c r="M1" s="32" t="inlineStr">
+        <is>
+          <t>Lender1_ShortName</t>
+        </is>
+      </c>
+      <c r="N1" s="32" t="inlineStr">
+        <is>
+          <t>Lender2_ShortName</t>
+        </is>
+      </c>
+      <c r="O1" s="33" t="inlineStr">
+        <is>
+          <t>Remittance_Instruction</t>
+        </is>
+      </c>
+      <c r="P1" s="33" t="inlineStr">
+        <is>
+          <t>Remittance1_Instruction</t>
+        </is>
+      </c>
+      <c r="Q1" s="33" t="inlineStr">
+        <is>
+          <t>Remittance2_Instruction</t>
+        </is>
+      </c>
+      <c r="R1" s="32" t="inlineStr">
+        <is>
+          <t>Remittance_Description</t>
+        </is>
+      </c>
+      <c r="S1" s="32" t="inlineStr">
+        <is>
+          <t>Remittance1_Description</t>
+        </is>
+      </c>
+      <c r="T1" s="32" t="inlineStr">
+        <is>
+          <t>Remittance2_Description</t>
+        </is>
+      </c>
+      <c r="U1" s="25" t="inlineStr">
+        <is>
+          <t>Loan_Currency</t>
+        </is>
+      </c>
+      <c r="V1" s="25" t="inlineStr">
+        <is>
+          <t>Remittance_Status</t>
+        </is>
+      </c>
+      <c r="W1" s="25" t="inlineStr">
+        <is>
+          <t>Base_Rate</t>
+        </is>
+      </c>
+      <c r="X1" s="21" t="inlineStr">
+        <is>
+          <t>Customer_Legal_Name</t>
+        </is>
+      </c>
+      <c r="Y1" s="25" t="inlineStr">
+        <is>
+          <t>NoticeStatus</t>
+        </is>
+      </c>
+      <c r="Z1" s="30" t="inlineStr">
+        <is>
+          <t>LenderSharePc1</t>
+        </is>
+      </c>
+      <c r="AA1" s="30" t="inlineStr">
+        <is>
+          <t>LenderSharePc2</t>
+        </is>
+      </c>
+      <c r="AB1" s="30" t="inlineStr">
+        <is>
+          <t>LenderSharePc3</t>
+        </is>
+      </c>
+      <c r="AC1" s="30" t="inlineStr">
+        <is>
+          <t>Host_Bank</t>
+        </is>
+      </c>
+      <c r="AD1" s="25" t="inlineStr">
+        <is>
+          <t>Rollover_Amount</t>
+        </is>
+      </c>
+      <c r="AE1" s="25" t="inlineStr">
+        <is>
+          <t>Repricing_Frequency</t>
+        </is>
+      </c>
+      <c r="AF1" s="25" t="inlineStr">
+        <is>
+          <t>New_Loan_Alias</t>
+        </is>
+      </c>
+      <c r="AG1" s="25" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="AH1" s="25" t="inlineStr">
+        <is>
+          <t>Days</t>
+        </is>
+      </c>
+      <c r="AI1" s="61" t="inlineStr">
+        <is>
+          <t>Loan_RequestedAmount</t>
+        </is>
+      </c>
+      <c r="AJ1" s="25" t="inlineStr">
+        <is>
+          <t>NewRequestedAmt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="49">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>EVG_PTYLIQ02 Scenario2 Baseline Agency (Syndicated)</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>BNS2SYN_06082020200906QIX</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="E2" s="49" t="inlineStr">
+        <is>
+          <t>S2TERM06082020202350MQX</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>60000262</t>
+        </is>
+      </c>
+      <c r="G2" s="11" t="inlineStr">
+        <is>
+          <t>Comprehensive Repricing</t>
+        </is>
+      </c>
+      <c r="H2" s="22" t="inlineStr">
+        <is>
+          <t>19-Jun-2018</t>
+        </is>
+      </c>
+      <c r="I2" s="22" t="inlineStr">
+        <is>
+          <t>Principal Payment</t>
+        </is>
+      </c>
+      <c r="J2" s="22" t="inlineStr">
+        <is>
+          <t>Rollover/Conversion to Existing:</t>
+        </is>
+      </c>
+      <c r="K2" s="60" t="inlineStr">
+        <is>
+          <t>BBSY - Bid</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>ESPS11413431</t>
+        </is>
+      </c>
+      <c r="M2" s="11" t="inlineStr">
+        <is>
+          <t>LEND01292020</t>
+        </is>
+      </c>
+      <c r="N2" s="11" t="inlineStr">
+        <is>
+          <t>LENDSHORT0414</t>
+        </is>
+      </c>
+      <c r="O2" s="22" t="inlineStr">
+        <is>
+          <t>RTGS</t>
+        </is>
+      </c>
+      <c r="P2" s="22" t="inlineStr">
+        <is>
+          <t>RTGS</t>
+        </is>
+      </c>
+      <c r="Q2" s="22" t="inlineStr">
+        <is>
+          <t>RTGS</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="S2" s="49" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="T2" s="49" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="U2" s="50" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="V2" s="50" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="W2" s="23" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="X2" s="1" t="inlineStr">
+        <is>
+          <t>John Bloggs</t>
+        </is>
+      </c>
+      <c r="Y2" s="50" t="inlineStr">
+        <is>
+          <t>Awaiting release</t>
+        </is>
+      </c>
+      <c r="Z2" s="49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="49" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="49" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC2" s="49" t="inlineStr">
+        <is>
+          <t>COMMONWEALTH BANK AUST - DBU</t>
+        </is>
+      </c>
+      <c r="AD2" s="31" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AE2" s="49" t="inlineStr">
+        <is>
+          <t>1 Months</t>
+        </is>
+      </c>
+      <c r="AG2" s="1" t="inlineStr">
+        <is>
+          <t>1,000,000.00</t>
+        </is>
+      </c>
+      <c r="AH2" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI2" s="1" t="inlineStr">
+        <is>
+          <t>`,000,000.00</t>
+        </is>
+      </c>
+      <c r="AJ2" s="1" t="inlineStr">
+        <is>
+          <t>1,000,000.00</t>
+        </is>
+      </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>1,000,000.00</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>1,000,000.00</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>1,000,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="AG9" s="49" t="n"/>
+    </row>
+    <row r="13">
+      <c r="P13" s="34" t="n"/>
+    </row>
+    <row r="14">
+      <c r="O14" s="34" t="n"/>
+      <c r="P14" s="34" t="n"/>
+    </row>
+    <row r="15">
+      <c r="O15" s="34" t="n"/>
+      <c r="P15" s="34" t="n"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:EO2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="6.140625" customWidth="1" style="49" min="1" max="1"/>
+    <col width="60.28515625" customWidth="1" style="49" min="2" max="2"/>
+    <col width="30" customWidth="1" style="49" min="3" max="5"/>
+    <col width="46.28515625" customWidth="1" style="49" min="6" max="7"/>
+    <col width="45.5703125" customWidth="1" style="49" min="8" max="9"/>
+    <col width="47.5703125" customWidth="1" style="49" min="10" max="11"/>
+    <col width="20.5703125" customWidth="1" style="49" min="12" max="12"/>
+    <col width="24.28515625" customWidth="1" style="49" min="13" max="13"/>
+    <col width="24.5703125" customWidth="1" style="49" min="14" max="14"/>
+    <col width="15.7109375" customWidth="1" style="49" min="15" max="15"/>
+    <col width="18.42578125" customWidth="1" style="49" min="16" max="16"/>
+    <col width="18" customWidth="1" style="49" min="17" max="17"/>
+    <col width="21.140625" customWidth="1" style="49" min="18" max="18"/>
+    <col width="20.7109375" customWidth="1" style="49" min="19" max="19"/>
+    <col width="18.42578125" customWidth="1" style="49" min="20" max="20"/>
+    <col width="18" customWidth="1" style="49" min="21" max="21"/>
+    <col width="40.5703125" customWidth="1" style="49" min="22" max="24"/>
+    <col width="34.42578125" customWidth="1" style="49" min="25" max="25"/>
+    <col width="40.5703125" customWidth="1" style="49" min="26" max="26"/>
+    <col width="43" customWidth="1" style="49" min="27" max="27"/>
+    <col width="40.5703125" customWidth="1" style="49" min="28" max="28"/>
+    <col width="41.28515625" customWidth="1" style="49" min="29" max="30"/>
+    <col width="14.28515625" customWidth="1" style="49" min="31" max="32"/>
+    <col width="12.5703125" customWidth="1" style="49" min="33" max="33"/>
+    <col width="16.28515625" customWidth="1" style="49" min="34" max="34"/>
+    <col width="12.85546875" customWidth="1" style="49" min="35" max="35"/>
+    <col width="21.85546875" customWidth="1" style="49" min="36" max="36"/>
+    <col width="14" customWidth="1" style="49" min="37" max="37"/>
+    <col width="22.5703125" customWidth="1" style="49" min="38" max="38"/>
+    <col width="17.28515625" customWidth="1" style="49" min="39" max="39"/>
+    <col width="33" customWidth="1" style="49" min="40" max="40"/>
+    <col width="12.42578125" customWidth="1" style="49" min="41" max="41"/>
+    <col width="14.5703125" customWidth="1" style="49" min="42" max="42"/>
+    <col width="37.140625" customWidth="1" style="49" min="43" max="43"/>
+    <col width="16.85546875" customWidth="1" style="49" min="44" max="44"/>
+    <col width="28" customWidth="1" style="49" min="45" max="45"/>
+    <col width="19" customWidth="1" style="49" min="46" max="46"/>
+    <col width="36.7109375" customWidth="1" style="49" min="47" max="48"/>
+    <col width="18.5703125" customWidth="1" style="49" min="49" max="49"/>
+    <col width="22" customWidth="1" style="49" min="50" max="51"/>
+    <col width="36.7109375" customWidth="1" style="49" min="52" max="52"/>
+    <col width="20" customWidth="1" style="49" min="53" max="53"/>
+    <col width="10" customWidth="1" style="49" min="54" max="54"/>
+    <col width="16.7109375" customWidth="1" style="49" min="55" max="55"/>
+    <col width="12.5703125" customWidth="1" style="49" min="56" max="56"/>
+    <col width="13.7109375" customWidth="1" style="49" min="57" max="57"/>
+    <col width="15.7109375" customWidth="1" style="49" min="58" max="58"/>
+    <col width="16.7109375" customWidth="1" style="49" min="59" max="59"/>
+    <col width="18.28515625" customWidth="1" style="49" min="60" max="60"/>
+    <col width="19.28515625" customWidth="1" style="49" min="61" max="61"/>
+    <col width="18.140625" customWidth="1" style="49" min="62" max="63"/>
+    <col width="27.140625" customWidth="1" style="49" min="64" max="64"/>
+    <col width="22.28515625" customWidth="1" style="49" min="65" max="65"/>
+    <col width="23.28515625" customWidth="1" style="49" min="66" max="66"/>
+    <col width="25.85546875" customWidth="1" style="49" min="67" max="67"/>
+    <col width="30.85546875" customWidth="1" style="49" min="68" max="68"/>
+    <col width="21" customWidth="1" style="49" min="69" max="69"/>
+    <col width="25.5703125" customWidth="1" style="49" min="70" max="70"/>
+    <col width="21.7109375" customWidth="1" style="49" min="71" max="71"/>
+    <col width="18.7109375" customWidth="1" style="49" min="72" max="72"/>
+    <col width="20.42578125" customWidth="1" style="49" min="73" max="73"/>
+    <col width="14.5703125" customWidth="1" style="49" min="74" max="74"/>
+    <col width="15.5703125" customWidth="1" style="49" min="75" max="75"/>
+    <col width="37.5703125" customWidth="1" style="49" min="76" max="76"/>
+    <col width="33" customWidth="1" style="49" min="77" max="77"/>
+    <col width="39.140625" customWidth="1" style="49" min="78" max="78"/>
+    <col width="41" customWidth="1" style="49" min="79" max="79"/>
+    <col width="38.5703125" customWidth="1" style="49" min="80" max="81"/>
+    <col width="42.85546875" customWidth="1" style="49" min="82" max="82"/>
+    <col width="34.140625" customWidth="1" style="49" min="83" max="83"/>
+    <col width="38.42578125" customWidth="1" style="49" min="84" max="84"/>
+    <col width="32.42578125" customWidth="1" style="49" min="85" max="85"/>
+    <col width="40.5703125" customWidth="1" style="49" min="86" max="87"/>
+    <col width="38" customWidth="1" style="49" min="88" max="88"/>
+    <col width="18.140625" customWidth="1" style="49" min="89" max="89"/>
+    <col width="31.140625" customWidth="1" style="49" min="90" max="90"/>
+    <col width="39.28515625" customWidth="1" style="49" min="91" max="92"/>
+    <col width="33.42578125" customWidth="1" style="49" min="93" max="93"/>
+    <col width="46.42578125" customWidth="1" style="49" min="94" max="94"/>
+    <col width="43.85546875" customWidth="1" style="49" min="95" max="95"/>
+    <col width="48.85546875" customWidth="1" style="49" min="96" max="96"/>
+    <col width="34.85546875" customWidth="1" style="49" min="97" max="97"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="8" thickBot="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>rowid</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>Test_Case</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>LIQCustomerShortName_Prefix</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>LIQCustomerLegalName_Prefix</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Remittance_Instruction</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDADescriptionAUDPrefix</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDADescriptionAUDPrefix2</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_IMTDescriptionUSDPrefix</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_IMTDescriptionUSDPrefix2</t>
+        </is>
+      </c>
+      <c r="J1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_RTGSDescriptionAUDPrefix</t>
+        </is>
+      </c>
+      <c r="K1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_RTGSDescriptionAUDPrefix2</t>
+        </is>
+      </c>
+      <c r="L1" s="9" t="inlineStr">
+        <is>
+          <t>Customer_Search</t>
+        </is>
+      </c>
+      <c r="M1" s="9" t="inlineStr">
+        <is>
+          <t>LIQCustomer_ShortName</t>
+        </is>
+      </c>
+      <c r="N1" s="9" t="inlineStr">
+        <is>
+          <t>LIQCustomer_LegalName</t>
+        </is>
+      </c>
+      <c r="O1" s="9" t="inlineStr">
+        <is>
+          <t>LIQCustomer_ID</t>
+        </is>
+      </c>
+      <c r="P1" s="9" t="inlineStr">
+        <is>
+          <t>Inputter_Username</t>
+        </is>
+      </c>
+      <c r="Q1" s="9" t="inlineStr">
+        <is>
+          <t>Inputter_Password</t>
+        </is>
+      </c>
+      <c r="R1" s="9" t="inlineStr">
+        <is>
+          <t>Supervisor_Username</t>
+        </is>
+      </c>
+      <c r="S1" s="9" t="inlineStr">
+        <is>
+          <t>Supervisor_Password</t>
+        </is>
+      </c>
+      <c r="T1" s="9" t="inlineStr">
+        <is>
+          <t>Manager_Username</t>
+        </is>
+      </c>
+      <c r="U1" s="9" t="inlineStr">
+        <is>
+          <t>Manager_Password</t>
+        </is>
+      </c>
+      <c r="V1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDADescriptionAUD</t>
+        </is>
+      </c>
+      <c r="W1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDADescriptionAUD2</t>
+        </is>
+      </c>
+      <c r="X1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDADescriptionUSD</t>
+        </is>
+      </c>
+      <c r="Y1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_RTGSMethod</t>
+        </is>
+      </c>
+      <c r="Z1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_RTGSDescriptionAUD</t>
+        </is>
+      </c>
+      <c r="AA1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_RTGSDescriptionAUD2</t>
+        </is>
+      </c>
+      <c r="AB1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_RTGSCurrencyAUD</t>
+        </is>
+      </c>
+      <c r="AC1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_SIMTDescriptionAUD</t>
+        </is>
+      </c>
+      <c r="AD1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_SIMTDescriptionUSD</t>
+        </is>
+      </c>
+      <c r="AE1" s="9" t="inlineStr">
+        <is>
+          <t>Address_Line1</t>
+        </is>
+      </c>
+      <c r="AF1" s="9" t="inlineStr">
+        <is>
+          <t>Address_Line2</t>
+        </is>
+      </c>
+      <c r="AG1" s="9" t="inlineStr">
+        <is>
+          <t>Address_City</t>
+        </is>
+      </c>
+      <c r="AH1" s="9" t="inlineStr">
+        <is>
+          <t>Address_Country</t>
+        </is>
+      </c>
+      <c r="AI1" s="9" t="inlineStr">
+        <is>
+          <t>Address_TRA</t>
+        </is>
+      </c>
+      <c r="AJ1" s="9" t="inlineStr">
+        <is>
+          <t>Address_DefaultPhone</t>
+        </is>
+      </c>
+      <c r="AK1" s="9" t="inlineStr">
+        <is>
+          <t>Address_State</t>
+        </is>
+      </c>
+      <c r="AL1" s="9" t="inlineStr">
+        <is>
+          <t>Address_ZipPostalCode</t>
+        </is>
+      </c>
+      <c r="AM1" s="9" t="inlineStr">
+        <is>
+          <t>Primary_SICCode</t>
+        </is>
+      </c>
+      <c r="AN1" s="9" t="inlineStr">
+        <is>
+          <t>PrimarySICCode_Description</t>
+        </is>
+      </c>
+      <c r="AO1" s="9" t="inlineStr">
+        <is>
+          <t>Profile_Type</t>
+        </is>
+      </c>
+      <c r="AP1" s="9" t="inlineStr">
+        <is>
+          <t>Expense_Code</t>
+        </is>
+      </c>
+      <c r="AQ1" s="9" t="inlineStr">
+        <is>
+          <t>ExpenseCode_Description</t>
+        </is>
+      </c>
+      <c r="AR1" s="9" t="inlineStr">
+        <is>
+          <t>Deparment_Code</t>
+        </is>
+      </c>
+      <c r="AS1" s="9" t="inlineStr">
+        <is>
+          <t>DepartmentCode_Description</t>
+        </is>
+      </c>
+      <c r="AT1" s="9" t="inlineStr">
+        <is>
+          <t>Classification_Code</t>
+        </is>
+      </c>
+      <c r="AU1" s="9" t="inlineStr">
+        <is>
+          <t>ClassificationCode_Description</t>
+        </is>
+      </c>
+      <c r="AV1" s="9" t="inlineStr">
+        <is>
+          <t>Taxpayer_ID</t>
+        </is>
+      </c>
+      <c r="AW1" s="9" t="inlineStr">
+        <is>
+          <t>CreditReview_Date</t>
+        </is>
+      </c>
+      <c r="AX1" s="9" t="inlineStr">
+        <is>
+          <t>Customer_Location</t>
+        </is>
+      </c>
+      <c r="AY1" s="9" t="inlineStr">
+        <is>
+          <t>Customer_Location2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="9" t="inlineStr">
+        <is>
+          <t>External_ID</t>
+        </is>
+      </c>
+      <c r="BA1" s="9" t="inlineStr">
+        <is>
+          <t>Preferred_Language</t>
+        </is>
+      </c>
+      <c r="BB1" s="9" t="inlineStr">
+        <is>
+          <t>MEI_Code</t>
+        </is>
+      </c>
+      <c r="BC1" s="9" t="inlineStr">
+        <is>
+          <t>Address_Code</t>
+        </is>
+      </c>
+      <c r="BD1" s="9" t="inlineStr">
+        <is>
+          <t>Fax_Number</t>
+        </is>
+      </c>
+      <c r="BE1" s="9" t="inlineStr">
+        <is>
+          <t>Fax_Number2</t>
+        </is>
+      </c>
+      <c r="BF1" s="9" t="inlineStr">
+        <is>
+          <t>Fax_Description</t>
+        </is>
+      </c>
+      <c r="BG1" s="9" t="inlineStr">
+        <is>
+          <t>Fax_Description2</t>
+        </is>
+      </c>
+      <c r="BH1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_FirstName</t>
+        </is>
+      </c>
+      <c r="BI1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_FirstName2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_LastName</t>
+        </is>
+      </c>
+      <c r="BK1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_LastName2</t>
+        </is>
+      </c>
+      <c r="BL1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_PreferredLanguage</t>
+        </is>
+      </c>
+      <c r="BM1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_PrimaryPhone</t>
+        </is>
+      </c>
+      <c r="BN1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_PrimaryPhone2</t>
+        </is>
+      </c>
+      <c r="BO1" s="10" t="inlineStr">
+        <is>
+          <t>Contact_ProductSelected</t>
+        </is>
+      </c>
+      <c r="BP1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_BalanceTypeSelected</t>
+        </is>
+      </c>
+      <c r="BQ1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_PurposeType</t>
+        </is>
+      </c>
+      <c r="BR1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_PurposeTypeArea</t>
+        </is>
+      </c>
+      <c r="BS1" s="9" t="inlineStr">
+        <is>
+          <t>ContactNotice_Method</t>
+        </is>
+      </c>
+      <c r="BT1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_Email</t>
+        </is>
+      </c>
+      <c r="BU1" s="9" t="inlineStr">
+        <is>
+          <t>Contact_Email2</t>
+        </is>
+      </c>
+      <c r="BV1" s="9" t="inlineStr">
+        <is>
+          <t>Group_Contact</t>
+        </is>
+      </c>
+      <c r="BW1" s="9" t="inlineStr">
+        <is>
+          <t>Group_Contact2</t>
+        </is>
+      </c>
+      <c r="BX1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_MethodType</t>
+        </is>
+      </c>
+      <c r="BY1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDAMethod</t>
+        </is>
+      </c>
+      <c r="BZ1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDAAccountName</t>
+        </is>
+      </c>
+      <c r="CA1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDAAccountNumber</t>
+        </is>
+      </c>
+      <c r="CB1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDACurrencyAUD</t>
+        </is>
+      </c>
+      <c r="CC1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DDACurrencyUSD</t>
+        </is>
+      </c>
+      <c r="CD1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_DirectionSelected</t>
+        </is>
+      </c>
+      <c r="CE1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstructionDDA_AutoDoIt</t>
+        </is>
+      </c>
+      <c r="CF1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_SIMTMethodType</t>
+        </is>
+      </c>
+      <c r="CG1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_IMTMethod</t>
+        </is>
+      </c>
+      <c r="CH1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_IMTDescriptionUSD</t>
+        </is>
+      </c>
+      <c r="CI1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_IMTDescriptionUSD2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_IMTCurrencyUSD</t>
+        </is>
+      </c>
+      <c r="CK1" s="9" t="inlineStr">
+        <is>
+          <t>IMT_MessageCode</t>
+        </is>
+      </c>
+      <c r="CL1" s="9" t="inlineStr">
+        <is>
+          <t>BOC_Level</t>
+        </is>
+      </c>
+      <c r="CM1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_SIMTCurrencyAUD</t>
+        </is>
+      </c>
+      <c r="CN1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_SIMTCurrencyUSD</t>
+        </is>
+      </c>
+      <c r="CO1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_SIMTSwiftID</t>
+        </is>
+      </c>
+      <c r="CP1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstruction_SIMTSwiftIDBank</t>
+        </is>
+      </c>
+      <c r="CQ1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstructionSIMT_
+ProductSelected</t>
+        </is>
+      </c>
+      <c r="CR1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstructionSIMT_
+BalanceTypeSelected</t>
+        </is>
+      </c>
+      <c r="CS1" s="9" t="inlineStr">
+        <is>
+          <t>RemittanceInstructionSIMT_AutoDoIt</t>
+        </is>
+      </c>
+      <c r="CT1" s="9" t="inlineStr">
+        <is>
+          <t>GST_ID</t>
+        </is>
+      </c>
+      <c r="CU1" s="9" t="inlineStr">
+        <is>
+          <t>InternalRiskRating_Type</t>
+        </is>
+      </c>
+      <c r="CV1" s="9" t="inlineStr">
+        <is>
+          <t>InternalRisk_Rating</t>
+        </is>
+      </c>
+      <c r="CW1" s="9" t="inlineStr">
+        <is>
+          <t>InternalRisk_Percent</t>
+        </is>
+      </c>
+      <c r="CX1" s="9" t="inlineStr">
+        <is>
+          <t>ExternalRiskRating_Type1</t>
+        </is>
+      </c>
+      <c r="CY1" s="9" t="inlineStr">
+        <is>
+          <t>ExternalRisk_Rating1</t>
+        </is>
+      </c>
+      <c r="CZ1" s="9" t="inlineStr">
+        <is>
+          <t>ExternalRiskRating_Type2</t>
+        </is>
+      </c>
+      <c r="DA1" s="9" t="inlineStr">
+        <is>
+          <t>ExternalRisk_Rating2</t>
+        </is>
+      </c>
+      <c r="DB1" s="9" t="inlineStr">
+        <is>
+          <t>ExternalRiskRating_Type3</t>
+        </is>
+      </c>
+      <c r="DC1" s="9" t="inlineStr">
+        <is>
+          <t>ExternalRisk_Rating3</t>
+        </is>
+      </c>
+      <c r="DD1" s="9" t="inlineStr">
+        <is>
+          <t>MailingAddress_Code</t>
+        </is>
+      </c>
+      <c r="DE1" s="9" t="inlineStr">
+        <is>
+          <t>MailingAddress_Line1</t>
+        </is>
+      </c>
+      <c r="DF1" s="9" t="inlineStr">
+        <is>
+          <t>MailingAddress_Line2</t>
+        </is>
+      </c>
+      <c r="DG1" s="9" t="inlineStr">
+        <is>
+          <t>MailingAddress_DefaultPhone</t>
+        </is>
+      </c>
+      <c r="DH1" s="9" t="inlineStr">
+        <is>
+          <t>BorrowerContact_Phone</t>
+        </is>
+      </c>
+      <c r="DI1" s="9" t="inlineStr">
+        <is>
+          <t>SwiftRole_BC</t>
+        </is>
+      </c>
+      <c r="DJ1" s="9" t="inlineStr">
+        <is>
+          <t>SwiftRole_OC</t>
+        </is>
+      </c>
+      <c r="DK1" s="9" t="inlineStr">
+        <is>
+          <t>SwiftRole_AWI</t>
+        </is>
+      </c>
+      <c r="DL1" s="9" t="inlineStr">
+        <is>
+          <t>AWI_SwiftID</t>
+        </is>
+      </c>
+      <c r="DM1" s="9" t="inlineStr">
+        <is>
+          <t>AWI_Description</t>
+        </is>
+      </c>
+      <c r="DN1" s="9" t="inlineStr">
+        <is>
+          <t>AWI_AccountNumber</t>
+        </is>
+      </c>
+      <c r="DO1" s="8" t="inlineStr">
+        <is>
+          <t>DOC_Type</t>
+        </is>
+      </c>
+      <c r="DP1" s="9" t="inlineStr">
+        <is>
+          <t>IMT_MessageCode2</t>
+        </is>
+      </c>
+      <c r="DQ1" s="9" t="inlineStr">
+        <is>
+          <t>SwiftRole_BI</t>
+        </is>
+      </c>
+      <c r="DR1" s="9" t="inlineStr">
+        <is>
+          <t>BC_Description</t>
+        </is>
+      </c>
+      <c r="DS1" s="9" t="inlineStr">
+        <is>
+          <t>BC_AccountNumber</t>
+        </is>
+      </c>
+      <c r="DT1" s="9" t="inlineStr">
+        <is>
+          <t>OC_Description</t>
+        </is>
+      </c>
+      <c r="DU1" s="9" t="inlineStr">
+        <is>
+          <t>OC_AccountNumber</t>
+        </is>
+      </c>
+      <c r="DV1" s="9" t="inlineStr">
+        <is>
+          <t>InternalRiskRating_EffectiveDate</t>
+        </is>
+      </c>
+      <c r="DW1" s="9" t="inlineStr">
+        <is>
+          <t>InternalRiskRating_ExpiryDate</t>
+        </is>
+      </c>
+      <c r="DX1" s="9" t="inlineStr">
+        <is>
+          <t>ExternalRiskRating_StartDate</t>
+        </is>
+      </c>
+      <c r="DY1" s="9" t="inlineStr">
+        <is>
+          <t>ProductSBLC_Checkbox</t>
+        </is>
+      </c>
+      <c r="DZ1" s="9" t="inlineStr">
+        <is>
+          <t>ProductLoan_Checkbox</t>
+        </is>
+      </c>
+      <c r="EA1" s="9" t="inlineStr">
+        <is>
+          <t>BalanceType_Principal_Checkbox</t>
+        </is>
+      </c>
+      <c r="EB1" s="9" t="inlineStr">
+        <is>
+          <t>BalanceType_Interest_Checkbox</t>
+        </is>
+      </c>
+      <c r="EC1" s="9" t="inlineStr">
+        <is>
+          <t>BalanceType_Fees_Checkbox</t>
+        </is>
+      </c>
+      <c r="ED1" s="9" t="inlineStr">
+        <is>
+          <t>RI_ProductLoan_Checkbox</t>
+        </is>
+      </c>
+      <c r="EE1" s="9" t="inlineStr">
+        <is>
+          <t>RI_ProductSBLC_Checkbox</t>
+        </is>
+      </c>
+      <c r="EF1" s="9" t="inlineStr">
+        <is>
+          <t>RI_FromCust_Checkbox</t>
+        </is>
+      </c>
+      <c r="EG1" s="9" t="inlineStr">
+        <is>
+          <t>RI_ToCust_Checkbox</t>
+        </is>
+      </c>
+      <c r="EH1" s="9" t="inlineStr">
+        <is>
+          <t>RI_BalanceType_Principal_Checkbox</t>
+        </is>
+      </c>
+      <c r="EI1" s="9" t="inlineStr">
+        <is>
+          <t>RI_BalanceType_Interest_Checkbox</t>
+        </is>
+      </c>
+      <c r="EJ1" s="9" t="inlineStr">
+        <is>
+          <t>RI_BalanceType_Fees_Checkbox</t>
+        </is>
+      </c>
+      <c r="EK1" s="9" t="inlineStr">
+        <is>
+          <t>RI_AutoDoIt_Checkbox</t>
+        </is>
+      </c>
+      <c r="EL1" s="9" t="inlineStr">
+        <is>
+          <t>RI_SendersCorrespondent_Checkbox</t>
+        </is>
+      </c>
+      <c r="EM1" s="9" t="inlineStr">
+        <is>
+          <t>CustomerNotice_TypeMethod</t>
+        </is>
+      </c>
+      <c r="EN1" s="59" t="inlineStr">
+        <is>
+          <t>Entity</t>
+        </is>
+      </c>
+      <c r="EO1" s="59" t="inlineStr">
+        <is>
+          <t>CustomerSourceApp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="49">
+      <c r="A2" s="49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="49" t="inlineStr">
+        <is>
+          <t>EVG_PTYLIQ03 Scenario3 Baseline SBLC</t>
+        </is>
+      </c>
+      <c r="C2" s="49" t="inlineStr">
+        <is>
+          <t>CUSTSHORT</t>
+        </is>
+      </c>
+      <c r="D2" s="49" t="inlineStr">
+        <is>
+          <t>CUSTLEGAL</t>
+        </is>
+      </c>
+      <c r="E2" s="49" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="F2" s="49" t="inlineStr">
+        <is>
+          <t>DDAAUD1-</t>
+        </is>
+      </c>
+      <c r="G2" s="49" t="inlineStr">
+        <is>
+          <t>DDAAUD2-</t>
+        </is>
+      </c>
+      <c r="H2" s="49" t="inlineStr">
+        <is>
+          <t>IMTUSD1-</t>
+        </is>
+      </c>
+      <c r="I2" s="49" t="inlineStr">
+        <is>
+          <t>IMTUSD2-</t>
+        </is>
+      </c>
+      <c r="J2" s="49" t="inlineStr">
+        <is>
+          <t>RTGSAUD1-</t>
+        </is>
+      </c>
+      <c r="K2" s="49" t="inlineStr">
+        <is>
+          <t>RTGSAUD2-</t>
+        </is>
+      </c>
+      <c r="L2" s="49" t="inlineStr">
+        <is>
+          <t>Search by Customer ID</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>ESPS11413431</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTLEGAL39121</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="P2" s="50" t="inlineStr">
+        <is>
+          <t>TRUSERGE</t>
+        </is>
+      </c>
+      <c r="Q2" s="50" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="R2" s="50" t="inlineStr">
+        <is>
+          <t>TRAPPVGE</t>
+        </is>
+      </c>
+      <c r="S2" s="50" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="T2" s="50" t="inlineStr">
+        <is>
+          <t>TRUSERG3</t>
+        </is>
+      </c>
+      <c r="U2" s="50" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>DDAAUD1-4344</t>
+        </is>
+      </c>
+      <c r="W2" s="49" t="inlineStr">
+        <is>
+          <t>DDA-AUD2518</t>
+        </is>
+      </c>
+      <c r="X2" s="49" t="inlineStr">
+        <is>
+          <t>DDA2-USD3750</t>
+        </is>
+      </c>
+      <c r="Y2" s="50" t="inlineStr">
+        <is>
+          <t>High Value Local RTGS (AUD)</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>RTGSAUD1-4345</t>
+        </is>
+      </c>
+      <c r="AA2" s="49" t="inlineStr">
+        <is>
+          <t>RTGS-AUD2525</t>
+        </is>
+      </c>
+      <c r="AB2" s="49" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="AC2" s="49" t="inlineStr">
+        <is>
+          <t>SIMT1-AUD3750</t>
+        </is>
+      </c>
+      <c r="AD2" s="49" t="inlineStr">
+        <is>
+          <t>SIMT2-USD4504</t>
+        </is>
+      </c>
+      <c r="AE2" s="50" t="inlineStr">
+        <is>
+          <t>George St.</t>
+        </is>
+      </c>
+      <c r="AF2" s="50" t="inlineStr">
+        <is>
+          <t>Beverly Hills</t>
+        </is>
+      </c>
+      <c r="AG2" s="50" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="AH2" s="50" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="AI2" s="50" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="AJ2" s="50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">412345678
+ </t>
+        </is>
+      </c>
+      <c r="AK2" s="50" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="AL2" s="50" t="inlineStr">
+        <is>
+          <t>4061</t>
+        </is>
+      </c>
+      <c r="AM2" s="50" t="inlineStr">
+        <is>
+          <t>3620</t>
+        </is>
+      </c>
+      <c r="AN2" s="50" t="inlineStr">
+        <is>
+          <t>AU / Gas Supply</t>
+        </is>
+      </c>
+      <c r="AO2" s="50" t="inlineStr">
+        <is>
+          <t>Borrower</t>
+        </is>
+      </c>
+      <c r="AP2" s="50" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="AQ2" s="50" t="inlineStr">
+        <is>
+          <t>CFS QLD Brisbane Corporate (Dept 003346)</t>
+        </is>
+      </c>
+      <c r="AR2" s="50" t="inlineStr">
+        <is>
+          <t>GLB</t>
+        </is>
+      </c>
+      <c r="AS2" s="50" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="AT2" s="50" t="inlineStr">
+        <is>
+          <t>FORG</t>
+        </is>
+      </c>
+      <c r="AU2" s="50" t="inlineStr">
+        <is>
+          <t>Foreign Government, Foreign Government</t>
+        </is>
+      </c>
+      <c r="AV2" s="50" t="inlineStr">
+        <is>
+          <t>&lt;This is randomly generated in the script&gt;</t>
+        </is>
+      </c>
+      <c r="AW2" s="50" t="inlineStr">
+        <is>
+          <t>16-Feb-2017</t>
+        </is>
+      </c>
+      <c r="AX2" s="50" t="inlineStr">
+        <is>
+          <t>Melbourne, VIC,Australia</t>
+        </is>
+      </c>
+      <c r="AY2" s="50" t="inlineStr">
+        <is>
+          <t>Sydney, NSW,Australia</t>
+        </is>
+      </c>
+      <c r="AZ2" s="50" t="inlineStr">
+        <is>
+          <t>&lt;This is randomly generated in the script&gt;</t>
+        </is>
+      </c>
+      <c r="BA2" s="50" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="BB2" s="50" t="inlineStr">
+        <is>
+          <t>CBA</t>
+        </is>
+      </c>
+      <c r="BC2" s="50" t="inlineStr">
+        <is>
+          <t>LEGAL ADDRESS</t>
+        </is>
+      </c>
+      <c r="BD2" s="50" t="inlineStr">
+        <is>
+          <t>1917472</t>
+        </is>
+      </c>
+      <c r="BE2" s="50" t="inlineStr">
+        <is>
+          <t>1917472</t>
+        </is>
+      </c>
+      <c r="BF2" s="50" t="inlineStr">
+        <is>
+          <t>Work Fax</t>
+        </is>
+      </c>
+      <c r="BG2" s="50" t="inlineStr">
+        <is>
+          <t>Work Fax 2</t>
+        </is>
+      </c>
+      <c r="BH2" s="50" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="BI2" s="50" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="BJ2" s="50" t="inlineStr">
+        <is>
+          <t>Bloggs</t>
+        </is>
+      </c>
+      <c r="BK2" s="50" t="inlineStr">
+        <is>
+          <t>Baker</t>
+        </is>
+      </c>
+      <c r="BL2" s="50" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="BM2" s="50" t="inlineStr">
+        <is>
+          <t>1928727188</t>
+        </is>
+      </c>
+      <c r="BN2" s="50" t="inlineStr">
+        <is>
+          <t>1928143143</t>
+        </is>
+      </c>
+      <c r="BO2" s="50" t="inlineStr">
+        <is>
+          <t>SBLC, Loan</t>
+        </is>
+      </c>
+      <c r="BP2" s="50" t="inlineStr">
+        <is>
+          <t>Principal, Interest, Fees</t>
+        </is>
+      </c>
+      <c r="BQ2" s="50" t="inlineStr">
+        <is>
+          <t>Servicing</t>
+        </is>
+      </c>
+      <c r="BR2" s="50" t="inlineStr">
+        <is>
+          <t>SERV</t>
+        </is>
+      </c>
+      <c r="BS2" s="50" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="BT2" s="11" t="inlineStr">
+        <is>
+          <t>john.blogg@abc.com</t>
+        </is>
+      </c>
+      <c r="BU2" s="11" t="inlineStr">
+        <is>
+          <t>james.baker@abc.com</t>
+        </is>
+      </c>
+      <c r="BV2" s="50" t="inlineStr">
+        <is>
+          <t>Bloggs</t>
+        </is>
+      </c>
+      <c r="BW2" s="50" t="inlineStr">
+        <is>
+          <t>Baker</t>
+        </is>
+      </c>
+      <c r="BX2" s="50" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="BY2" s="50" t="inlineStr">
+        <is>
+          <t>DDA (Demand Deposit Acct)</t>
+        </is>
+      </c>
+      <c r="BZ2" s="50" t="inlineStr">
+        <is>
+          <t>CBA Domestic Account</t>
+        </is>
+      </c>
+      <c r="CA2" s="11" t="inlineStr">
+        <is>
+          <t>1020188515</t>
+        </is>
+      </c>
+      <c r="CB2" s="11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="CC2" s="11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="CD2" s="50" t="inlineStr">
+        <is>
+          <t>From Cust</t>
+        </is>
+      </c>
+      <c r="CE2" s="50" t="inlineStr">
+        <is>
+          <t>&lt;Selected&gt;</t>
+        </is>
+      </c>
+      <c r="CF2" s="50" t="inlineStr">
+        <is>
+          <t>Simplified</t>
+        </is>
+      </c>
+      <c r="CG2" s="50" t="inlineStr">
+        <is>
+          <t>International Money Transfer</t>
+        </is>
+      </c>
+      <c r="CH2" s="1" t="inlineStr">
+        <is>
+          <t>IMTUSD1-4344</t>
+        </is>
+      </c>
+      <c r="CI2" s="49" t="inlineStr">
+        <is>
+          <t>IMT-USD2519</t>
+        </is>
+      </c>
+      <c r="CJ2" s="11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="CK2" s="11" t="inlineStr">
+        <is>
+          <t>MT103</t>
+        </is>
+      </c>
+      <c r="CL2" s="11" t="inlineStr">
+        <is>
+          <t>Credit transfer - Service Level: None</t>
+        </is>
+      </c>
+      <c r="CM2" s="11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="CN2" s="11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="CO2" s="50" t="inlineStr">
+        <is>
+          <t>CTBAAU2S600</t>
+        </is>
+      </c>
+      <c r="CP2" s="50" t="inlineStr">
+        <is>
+          <t>COMMONWEALTH BANK OF AUSTRALIA SYDNEY</t>
+        </is>
+      </c>
+      <c r="CQ2" s="50" t="inlineStr">
+        <is>
+          <t>All Loan Types, SBLC/BA</t>
+        </is>
+      </c>
+      <c r="CR2" s="50" t="inlineStr">
+        <is>
+          <t>Principal, Interest, Fees</t>
+        </is>
+      </c>
+      <c r="CS2" s="50" t="inlineStr">
+        <is>
+          <t>&lt;Selected&gt;</t>
+        </is>
+      </c>
+      <c r="CT2" s="50" t="inlineStr">
+        <is>
+          <t>02568049389</t>
+        </is>
+      </c>
+      <c r="CU2" s="50" t="inlineStr">
+        <is>
+          <t>Internal Rating</t>
+        </is>
+      </c>
+      <c r="CV2" s="50" t="inlineStr">
+        <is>
+          <t>D1 Good</t>
+        </is>
+      </c>
+      <c r="CW2" s="50" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CX2" s="50" t="inlineStr">
+        <is>
+          <t>Standard &amp; Poors</t>
+        </is>
+      </c>
+      <c r="CY2" s="50" t="inlineStr">
+        <is>
+          <t>BBB+</t>
+        </is>
+      </c>
+      <c r="CZ2" s="50" t="inlineStr">
+        <is>
+          <t>Moody's Investor Services Inc</t>
+        </is>
+      </c>
+      <c r="DA2" s="50" t="inlineStr">
+        <is>
+          <t>Aa2</t>
+        </is>
+      </c>
+      <c r="DB2" s="50" t="inlineStr">
+        <is>
+          <t>Fitch</t>
+        </is>
+      </c>
+      <c r="DC2" s="50" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="DD2" s="50" t="inlineStr">
+        <is>
+          <t>Mailing Address</t>
+        </is>
+      </c>
+      <c r="DE2" s="50" t="inlineStr">
+        <is>
+          <t>PO Box 861</t>
+        </is>
+      </c>
+      <c r="DF2" s="50" t="inlineStr">
+        <is>
+          <t>Almond, Victoria 3211</t>
+        </is>
+      </c>
+      <c r="DG2" s="12" t="inlineStr">
+        <is>
+          <t>03 5029 9445</t>
+        </is>
+      </c>
+      <c r="DH2" s="50" t="inlineStr">
+        <is>
+          <t>03 5029 9445</t>
+        </is>
+      </c>
+      <c r="DI2" s="11" t="inlineStr">
+        <is>
+          <t>Beneficiary Customer</t>
+        </is>
+      </c>
+      <c r="DJ2" s="11" t="inlineStr">
+        <is>
+          <t>Ordering Customer</t>
+        </is>
+      </c>
+      <c r="DK2" s="11" t="inlineStr">
+        <is>
+          <t>Account With Institution</t>
+        </is>
+      </c>
+      <c r="DL2" s="11" t="inlineStr">
+        <is>
+          <t>CITIUS33XXX</t>
+        </is>
+      </c>
+      <c r="DM2" s="11" t="n"/>
+      <c r="DN2" s="11" t="n"/>
+      <c r="DO2" s="11" t="inlineStr">
+        <is>
+          <t>Beneficiary Customer</t>
+        </is>
+      </c>
+      <c r="DP2" s="11" t="inlineStr">
+        <is>
+          <t>MT202</t>
+        </is>
+      </c>
+      <c r="DQ2" s="11" t="inlineStr">
+        <is>
+          <t>Beneficiary Institution</t>
+        </is>
+      </c>
+      <c r="DR2" s="11" t="inlineStr">
+        <is>
+          <t>XYZ 1234</t>
+        </is>
+      </c>
+      <c r="DS2" s="11" t="inlineStr">
+        <is>
+          <t>4561234789</t>
+        </is>
+      </c>
+      <c r="DT2" s="11" t="inlineStr">
+        <is>
+          <t>XYZ 1234 PARTNERS</t>
+        </is>
+      </c>
+      <c r="DU2" s="11" t="inlineStr">
+        <is>
+          <t>5558882223</t>
+        </is>
+      </c>
+      <c r="DV2" s="11" t="inlineStr">
+        <is>
+          <t>03-Jan-2019</t>
+        </is>
+      </c>
+      <c r="DW2" s="13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="DX2" s="11" t="inlineStr">
+        <is>
+          <t>03-Jan-2019</t>
+        </is>
+      </c>
+      <c r="DY2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="DZ2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EA2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EB2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EC2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="ED2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EE2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EF2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EG2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EH2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EI2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EJ2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EK2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EL2" s="11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="EM2" s="11" t="inlineStr">
+        <is>
+          <t>External Message</t>
+        </is>
+      </c>
+      <c r="EN2" s="49" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="EO2" s="49" t="inlineStr">
+        <is>
+          <t>LIQ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2107,7 +4106,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="50" t="inlineStr">
@@ -2117,7 +4116,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -2283,7 +4282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2555,7 +4554,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr">
@@ -2570,7 +4569,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="G2" s="22" t="inlineStr">
@@ -2754,7 +4753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3003,7 +5002,7 @@
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="50" t="inlineStr">
@@ -3018,11 +5017,13 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>60000425</v>
+          <t>S2TERM10082020001922ALF</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>60000262</t>
+        </is>
       </c>
       <c r="H2" s="50" t="inlineStr">
         <is>
@@ -3248,7 +5249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3616,7 +5617,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="50" t="inlineStr">
@@ -3626,7 +5627,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="F2" s="50" t="inlineStr">
@@ -3646,7 +5647,7 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>60000241</t>
+          <t>60000262</t>
         </is>
       </c>
       <c r="J2" s="11" t="inlineStr">
@@ -4003,7 +6004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4174,12 +6175,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="E2" s="50" t="inlineStr">
@@ -4290,7 +6291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4609,7 +6610,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="50" t="inlineStr">
@@ -4619,7 +6620,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -4634,7 +6635,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>60000122</t>
+          <t>60000262</t>
         </is>
       </c>
       <c r="I2" s="11" t="inlineStr">
@@ -4644,7 +6645,7 @@
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>31-Mar-2019</t>
+          <t>06-Sep-2020</t>
         </is>
       </c>
       <c r="K2" s="11" t="inlineStr">
@@ -4845,416 +6846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AM15"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
-  <cols>
-    <col width="6.140625" customWidth="1" style="11" min="1" max="1"/>
-    <col width="50.140625" customWidth="1" style="11" min="2" max="2"/>
-    <col width="26.5703125" customWidth="1" style="11" min="3" max="3"/>
-    <col width="23.42578125" customWidth="1" style="11" min="4" max="4"/>
-    <col width="26.85546875" customWidth="1" style="11" min="5" max="5"/>
-    <col width="18.42578125" customWidth="1" style="11" min="6" max="6"/>
-    <col width="22.28515625" customWidth="1" style="11" min="7" max="7"/>
-    <col width="15" customWidth="1" style="11" min="8" max="8"/>
-    <col width="21.7109375" customWidth="1" style="11" min="9" max="9"/>
-    <col width="28.140625" customWidth="1" style="11" min="10" max="10"/>
-    <col width="14.5703125" customWidth="1" style="11" min="11" max="11"/>
-    <col width="20.85546875" customWidth="1" style="49" min="12" max="12"/>
-    <col width="21.140625" customWidth="1" style="49" min="13" max="14"/>
-    <col width="22.140625" customWidth="1" style="49" min="15" max="15"/>
-    <col width="23.140625" customWidth="1" style="49" min="16" max="17"/>
-    <col width="22.85546875" customWidth="1" style="49" min="18" max="18"/>
-    <col width="23.85546875" customWidth="1" style="49" min="19" max="20"/>
-    <col width="14.85546875" customWidth="1" style="11" min="21" max="21"/>
-    <col width="18.140625" customWidth="1" style="11" min="22" max="22"/>
-    <col width="10.5703125" customWidth="1" style="11" min="23" max="23"/>
-    <col width="22.42578125" customWidth="1" style="11" min="24" max="24"/>
-    <col width="14.7109375" customWidth="1" style="11" min="25" max="25"/>
-    <col width="16.28515625" customWidth="1" style="49" min="26" max="28"/>
-    <col width="34.85546875" customWidth="1" style="49" min="29" max="29"/>
-    <col width="16.7109375" customWidth="1" style="11" min="30" max="30"/>
-    <col width="20.5703125" customWidth="1" style="11" min="31" max="31"/>
-    <col width="16.140625" customWidth="1" style="1" min="32" max="32"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="25" thickBot="1">
-      <c r="A1" s="25" t="inlineStr">
-        <is>
-          <t>rowid</t>
-        </is>
-      </c>
-      <c r="B1" s="25" t="inlineStr">
-        <is>
-          <t>Test_Case</t>
-        </is>
-      </c>
-      <c r="C1" s="21" t="inlineStr">
-        <is>
-          <t>Deal_Name</t>
-        </is>
-      </c>
-      <c r="D1" s="25" t="inlineStr">
-        <is>
-          <t>OutstandingSelect_Type</t>
-        </is>
-      </c>
-      <c r="E1" s="21" t="inlineStr">
-        <is>
-          <t>Facility_Name</t>
-        </is>
-      </c>
-      <c r="F1" s="21" t="inlineStr">
-        <is>
-          <t>Loan_Alias</t>
-        </is>
-      </c>
-      <c r="G1" s="25" t="inlineStr">
-        <is>
-          <t>Repricing_Type</t>
-        </is>
-      </c>
-      <c r="H1" s="21" t="inlineStr">
-        <is>
-          <t>Repricing_Date</t>
-        </is>
-      </c>
-      <c r="I1" s="25" t="inlineStr">
-        <is>
-          <t>Repricing_Add_Option</t>
-        </is>
-      </c>
-      <c r="J1" s="25" t="inlineStr">
-        <is>
-          <t>Repricing_Add_Option_Setup</t>
-        </is>
-      </c>
-      <c r="K1" s="25" t="inlineStr">
-        <is>
-          <t>Pricing_Option</t>
-        </is>
-      </c>
-      <c r="L1" s="28" t="inlineStr">
-        <is>
-          <t>Borrower_ShortName</t>
-        </is>
-      </c>
-      <c r="M1" s="32" t="inlineStr">
-        <is>
-          <t>Lender1_ShortName</t>
-        </is>
-      </c>
-      <c r="N1" s="32" t="inlineStr">
-        <is>
-          <t>Lender2_ShortName</t>
-        </is>
-      </c>
-      <c r="O1" s="33" t="inlineStr">
-        <is>
-          <t>Remittance_Instruction</t>
-        </is>
-      </c>
-      <c r="P1" s="33" t="inlineStr">
-        <is>
-          <t>Remittance1_Instruction</t>
-        </is>
-      </c>
-      <c r="Q1" s="33" t="inlineStr">
-        <is>
-          <t>Remittance2_Instruction</t>
-        </is>
-      </c>
-      <c r="R1" s="32" t="inlineStr">
-        <is>
-          <t>Remittance_Description</t>
-        </is>
-      </c>
-      <c r="S1" s="32" t="inlineStr">
-        <is>
-          <t>Remittance1_Description</t>
-        </is>
-      </c>
-      <c r="T1" s="32" t="inlineStr">
-        <is>
-          <t>Remittance2_Description</t>
-        </is>
-      </c>
-      <c r="U1" s="25" t="inlineStr">
-        <is>
-          <t>Loan_Currency</t>
-        </is>
-      </c>
-      <c r="V1" s="25" t="inlineStr">
-        <is>
-          <t>Remittance_Status</t>
-        </is>
-      </c>
-      <c r="W1" s="25" t="inlineStr">
-        <is>
-          <t>Base_Rate</t>
-        </is>
-      </c>
-      <c r="X1" s="21" t="inlineStr">
-        <is>
-          <t>Customer_Legal_Name</t>
-        </is>
-      </c>
-      <c r="Y1" s="25" t="inlineStr">
-        <is>
-          <t>NoticeStatus</t>
-        </is>
-      </c>
-      <c r="Z1" s="30" t="inlineStr">
-        <is>
-          <t>LenderSharePc1</t>
-        </is>
-      </c>
-      <c r="AA1" s="30" t="inlineStr">
-        <is>
-          <t>LenderSharePc2</t>
-        </is>
-      </c>
-      <c r="AB1" s="30" t="inlineStr">
-        <is>
-          <t>LenderSharePc3</t>
-        </is>
-      </c>
-      <c r="AC1" s="30" t="inlineStr">
-        <is>
-          <t>Host_Bank</t>
-        </is>
-      </c>
-      <c r="AD1" s="25" t="inlineStr">
-        <is>
-          <t>Rollover_Amount</t>
-        </is>
-      </c>
-      <c r="AE1" s="25" t="inlineStr">
-        <is>
-          <t>Repricing_Frequency</t>
-        </is>
-      </c>
-      <c r="AF1" s="25" t="inlineStr">
-        <is>
-          <t>New_Loan_Alias</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" customFormat="1" s="49">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>EVG_PTYLIQ02 Scenario2 Baseline Agency (Syndicated)</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>BNS2SYN_06082020230821OPK</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr">
-        <is>
-          <t>Loan</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>S2TERM06082020232156ZJX</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>60000122</t>
-        </is>
-      </c>
-      <c r="G2" s="11" t="inlineStr">
-        <is>
-          <t>Comprehensive Repricing</t>
-        </is>
-      </c>
-      <c r="H2" s="22" t="inlineStr">
-        <is>
-          <t>19-Jun-2018</t>
-        </is>
-      </c>
-      <c r="I2" s="22" t="inlineStr">
-        <is>
-          <t>Principal Payment</t>
-        </is>
-      </c>
-      <c r="J2" s="22" t="inlineStr">
-        <is>
-          <t>Rollover/Conversion to Existing:</t>
-        </is>
-      </c>
-      <c r="K2" s="22" t="inlineStr">
-        <is>
-          <t>BBSW - Mid</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT39121</t>
-        </is>
-      </c>
-      <c r="M2" s="11" t="inlineStr">
-        <is>
-          <t>LENDLEGAL04114</t>
-        </is>
-      </c>
-      <c r="N2" s="11" t="inlineStr">
-        <is>
-          <t>LENDLEGAL16107</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>DDA</t>
-        </is>
-      </c>
-      <c r="P2" s="22" t="inlineStr">
-        <is>
-          <t>RTGS</t>
-        </is>
-      </c>
-      <c r="Q2" s="22" t="inlineStr">
-        <is>
-          <t>RTGS</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>DDAAUD1-4344</t>
-        </is>
-      </c>
-      <c r="S2" s="49" t="inlineStr">
-        <is>
-          <t>RTGSAUD1-1342</t>
-        </is>
-      </c>
-      <c r="T2" s="49" t="inlineStr">
-        <is>
-          <t>RTGSAUD1-3148</t>
-        </is>
-      </c>
-      <c r="U2" s="50" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="V2" s="50" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="W2" s="23" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="X2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTLEGAL39121</t>
-        </is>
-      </c>
-      <c r="Y2" s="50" t="inlineStr">
-        <is>
-          <t>Awaiting release</t>
-        </is>
-      </c>
-      <c r="Z2" s="49" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA2" s="49" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="49" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC2" s="49" t="inlineStr">
-        <is>
-          <t>COMMONWEALTH BANK AUST - DBU</t>
-        </is>
-      </c>
-      <c r="AD2" s="31" t="inlineStr">
-        <is>
-          <t>500,000.00</t>
-        </is>
-      </c>
-      <c r="AE2" s="49" t="inlineStr">
-        <is>
-          <t>1 Months</t>
-        </is>
-      </c>
-      <c r="AG2" s="1" t="inlineStr">
-        <is>
-          <t>1,000,000.00</t>
-        </is>
-      </c>
-      <c r="AH2" s="1" t="inlineStr">
-        <is>
-          <t>1,000,000.00</t>
-        </is>
-      </c>
-      <c r="AI2" s="1" t="inlineStr">
-        <is>
-          <t>1,000,000.00</t>
-        </is>
-      </c>
-      <c r="AJ2" s="1" t="inlineStr">
-        <is>
-          <t>1,000,000.00</t>
-        </is>
-      </c>
-      <c r="AK2" s="1" t="inlineStr">
-        <is>
-          <t>1,000,000.00</t>
-        </is>
-      </c>
-      <c r="AL2" s="1" t="inlineStr">
-        <is>
-          <t>1,000,000.00</t>
-        </is>
-      </c>
-      <c r="AM2" s="1" t="inlineStr">
-        <is>
-          <t>1,000,000.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="P13" s="34" t="n"/>
-    </row>
-    <row r="14">
-      <c r="O14" s="34" t="n"/>
-      <c r="P14" s="34" t="n"/>
-    </row>
-    <row r="15">
-      <c r="O15" s="34" t="n"/>
-      <c r="P15" s="34" t="n"/>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5263,7 +6855,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -5381,22 +6973,22 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>06-Jun-2020</t>
+          <t>07-Jun-2020</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>05-Aug-2020</t>
+          <t>06-Aug-2020</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -5446,7 +7038,7 @@
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
-          <t>AFE000000000071</t>
+          <t>AFE000000000079</t>
         </is>
       </c>
       <c r="Q2" s="1" t="inlineStr">
@@ -5459,792 +7051,6 @@
           <t>CUSTSHORT11107</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:BR19"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="6.140625" customWidth="1" style="49" min="1" max="1"/>
-    <col width="50.140625" customWidth="1" style="49" min="2" max="2"/>
-    <col width="26.5703125" customWidth="1" style="49" min="3" max="3"/>
-    <col width="27.140625" customWidth="1" style="49" min="4" max="4"/>
-    <col width="29.42578125" customWidth="1" style="49" min="5" max="5"/>
-    <col width="34.85546875" customWidth="1" style="49" min="6" max="6"/>
-    <col width="25.28515625" customWidth="1" style="49" min="7" max="7"/>
-    <col width="26.7109375" customWidth="1" style="49" min="8" max="8"/>
-    <col width="22.85546875" customWidth="1" style="49" min="9" max="9"/>
-    <col width="23.85546875" customWidth="1" style="49" min="10" max="11"/>
-    <col width="18.42578125" customWidth="1" style="49" min="12" max="12"/>
-    <col width="22.140625" customWidth="1" style="49" min="13" max="13"/>
-    <col width="23.140625" customWidth="1" style="49" min="14" max="15"/>
-    <col width="18.140625" customWidth="1" style="49" min="16" max="16"/>
-    <col width="20.85546875" customWidth="1" style="49" min="17" max="17"/>
-    <col width="21.140625" customWidth="1" style="49" min="18" max="19"/>
-    <col width="21.140625" customWidth="1" style="15" min="20" max="20"/>
-    <col width="18" customWidth="1" style="49" min="21" max="21"/>
-    <col width="16.85546875" customWidth="1" style="49" min="22" max="23"/>
-    <col width="40.7109375" customWidth="1" style="49" min="24" max="24"/>
-    <col width="14.85546875" customWidth="1" style="49" min="25" max="25"/>
-    <col width="15.7109375" customWidth="1" style="49" min="26" max="26"/>
-    <col width="16.5703125" customWidth="1" style="49" min="27" max="27"/>
-    <col width="17.85546875" customWidth="1" style="49" min="28" max="29"/>
-    <col width="19.42578125" customWidth="1" style="49" min="30" max="30"/>
-    <col width="19" customWidth="1" style="49" min="31" max="31"/>
-    <col width="21.140625" customWidth="1" style="49" min="32" max="32"/>
-    <col width="20.7109375" customWidth="1" style="49" min="33" max="33"/>
-    <col width="18.42578125" customWidth="1" style="49" min="34" max="34"/>
-    <col width="18" customWidth="1" style="49" min="35" max="35"/>
-    <col width="26.85546875" customWidth="1" style="49" min="36" max="36"/>
-    <col width="17.42578125" customWidth="1" style="49" min="37" max="37"/>
-    <col width="15.42578125" customWidth="1" style="49" min="38" max="38"/>
-    <col width="27.140625" customWidth="1" style="49" min="39" max="39"/>
-    <col width="17.5703125" customWidth="1" style="49" min="40" max="40"/>
-    <col width="18.5703125" customWidth="1" style="49" min="41" max="41"/>
-    <col width="23" customWidth="1" style="49" min="42" max="42"/>
-    <col width="24" customWidth="1" style="49" min="43" max="43"/>
-    <col width="25.85546875" customWidth="1" style="49" min="44" max="44"/>
-    <col width="26.85546875" customWidth="1" style="49" min="45" max="45"/>
-    <col width="10.42578125" customWidth="1" style="49" min="46" max="46"/>
-    <col width="29.140625" customWidth="1" style="49" min="47" max="47"/>
-    <col width="30.28515625" customWidth="1" style="49" min="48" max="48"/>
-    <col width="18.85546875" customWidth="1" style="49" min="49" max="50"/>
-    <col width="16.28515625" customWidth="1" style="49" min="51" max="51"/>
-    <col width="17.42578125" customWidth="1" style="49" min="52" max="52"/>
-    <col width="9.85546875" customWidth="1" style="49" min="53" max="53"/>
-    <col width="10.85546875" customWidth="1" style="49" min="54" max="54"/>
-    <col width="13.28515625" customWidth="1" style="49" min="55" max="55"/>
-    <col width="14.28515625" customWidth="1" style="49" min="56" max="56"/>
-    <col width="20.5703125" customWidth="1" style="49" min="57" max="58"/>
-    <col width="21.7109375" customWidth="1" style="49" min="59" max="59"/>
-    <col width="13.5703125" customWidth="1" style="49" min="60" max="60"/>
-    <col width="13.28515625" customWidth="1" style="49" min="61" max="61"/>
-    <col width="18.7109375" customWidth="1" style="49" min="62" max="62"/>
-    <col width="29" customWidth="1" style="49" min="63" max="63"/>
-    <col width="20" customWidth="1" style="49" min="64" max="64"/>
-    <col width="17.5703125" customWidth="1" style="49" min="65" max="65"/>
-    <col width="14.7109375" customWidth="1" style="49" min="66" max="66"/>
-    <col width="21" customWidth="1" style="49" min="67" max="67"/>
-    <col width="36.5703125" customWidth="1" style="49" min="68" max="68"/>
-    <col width="21.42578125" customWidth="1" style="49" min="69" max="69"/>
-    <col width="23.5703125" customWidth="1" style="49" min="70" max="70"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="25" thickBot="1">
-      <c r="A1" s="9" t="inlineStr">
-        <is>
-          <t>rowid</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="inlineStr">
-        <is>
-          <t>Test_Case</t>
-        </is>
-      </c>
-      <c r="C1" s="21" t="inlineStr">
-        <is>
-          <t>ScheduleActivity_FromDate</t>
-        </is>
-      </c>
-      <c r="D1" s="21" t="inlineStr">
-        <is>
-          <t>ScheduledActivity_ThruDate</t>
-        </is>
-      </c>
-      <c r="E1" s="25" t="inlineStr">
-        <is>
-          <t>ScheduledActivity_Department</t>
-        </is>
-      </c>
-      <c r="F1" s="21" t="inlineStr">
-        <is>
-          <t>ScheduledActivity_Branch</t>
-        </is>
-      </c>
-      <c r="G1" s="21" t="inlineStr">
-        <is>
-          <t>Deal_Name</t>
-        </is>
-      </c>
-      <c r="H1" s="25" t="inlineStr">
-        <is>
-          <t>ScheduledActivity_FeeAlias</t>
-        </is>
-      </c>
-      <c r="I1" s="21" t="inlineStr">
-        <is>
-          <t>Remittance_Description</t>
-        </is>
-      </c>
-      <c r="J1" s="21" t="inlineStr">
-        <is>
-          <t>Remittance_Description2</t>
-        </is>
-      </c>
-      <c r="K1" s="21" t="inlineStr">
-        <is>
-          <t>Remittance_Description3</t>
-        </is>
-      </c>
-      <c r="L1" s="21" t="inlineStr">
-        <is>
-          <t>Loan_Alias</t>
-        </is>
-      </c>
-      <c r="M1" s="21" t="inlineStr">
-        <is>
-          <t>Remittance_Instruction</t>
-        </is>
-      </c>
-      <c r="N1" s="21" t="inlineStr">
-        <is>
-          <t>Remittance_Instruction2</t>
-        </is>
-      </c>
-      <c r="O1" s="21" t="inlineStr">
-        <is>
-          <t>Remittance_Instruction3</t>
-        </is>
-      </c>
-      <c r="P1" s="25" t="inlineStr">
-        <is>
-          <t>Remittance_Status</t>
-        </is>
-      </c>
-      <c r="Q1" s="21" t="inlineStr">
-        <is>
-          <t>Borrower_ShortName</t>
-        </is>
-      </c>
-      <c r="R1" s="21" t="inlineStr">
-        <is>
-          <t>Lender1_ShortName</t>
-        </is>
-      </c>
-      <c r="S1" s="21" t="inlineStr">
-        <is>
-          <t>Lender2_ShortName</t>
-        </is>
-      </c>
-      <c r="T1" s="28" t="inlineStr">
-        <is>
-          <t>Borrower_LegalName</t>
-        </is>
-      </c>
-      <c r="U1" s="25" t="inlineStr">
-        <is>
-          <t>HostBankSharePct</t>
-        </is>
-      </c>
-      <c r="V1" s="25" t="inlineStr">
-        <is>
-          <t>LenderSharePct1</t>
-        </is>
-      </c>
-      <c r="W1" s="25" t="inlineStr">
-        <is>
-          <t>LenderSharePct2</t>
-        </is>
-      </c>
-      <c r="X1" s="21" t="inlineStr">
-        <is>
-          <t>Host_Bank</t>
-        </is>
-      </c>
-      <c r="Y1" s="25" t="inlineStr">
-        <is>
-          <t>Loan_Currency</t>
-        </is>
-      </c>
-      <c r="Z1" s="21" t="inlineStr">
-        <is>
-          <t>LIQCustomer_ID</t>
-        </is>
-      </c>
-      <c r="AA1" s="25" t="inlineStr">
-        <is>
-          <t>Borrower_Profile</t>
-        </is>
-      </c>
-      <c r="AB1" s="25" t="inlineStr">
-        <is>
-          <t>Customer_Profile2</t>
-        </is>
-      </c>
-      <c r="AC1" s="25" t="inlineStr">
-        <is>
-          <t>Customer_Profile3</t>
-        </is>
-      </c>
-      <c r="AD1" s="25" t="inlineStr">
-        <is>
-          <t>Manager_Username</t>
-        </is>
-      </c>
-      <c r="AE1" s="25" t="inlineStr">
-        <is>
-          <t>Manager_Password</t>
-        </is>
-      </c>
-      <c r="AF1" s="25" t="inlineStr">
-        <is>
-          <t>Supervisor_Username</t>
-        </is>
-      </c>
-      <c r="AG1" s="25" t="inlineStr">
-        <is>
-          <t>Supervisor_Password</t>
-        </is>
-      </c>
-      <c r="AH1" s="25" t="inlineStr">
-        <is>
-          <t>Inputter_Username</t>
-        </is>
-      </c>
-      <c r="AI1" s="25" t="inlineStr">
-        <is>
-          <t>Inputter_Password</t>
-        </is>
-      </c>
-      <c r="AJ1" s="14" t="inlineStr">
-        <is>
-          <t>Facility_Name</t>
-        </is>
-      </c>
-      <c r="AK1" s="9" t="inlineStr">
-        <is>
-          <t>Fee_Alias</t>
-        </is>
-      </c>
-      <c r="AL1" s="9" t="inlineStr">
-        <is>
-          <t>Fee_Type1</t>
-        </is>
-      </c>
-      <c r="AM1" s="9" t="inlineStr">
-        <is>
-          <t>Fee_Type2</t>
-        </is>
-      </c>
-      <c r="AN1" s="14" t="inlineStr">
-        <is>
-          <t>Fee_EffectiveDate</t>
-        </is>
-      </c>
-      <c r="AO1" s="14" t="inlineStr">
-        <is>
-          <t>Fee_EffectiveDate2</t>
-        </is>
-      </c>
-      <c r="AP1" s="14" t="inlineStr">
-        <is>
-          <t>Fee_FloatRateStartDate</t>
-        </is>
-      </c>
-      <c r="AQ1" s="14" t="inlineStr">
-        <is>
-          <t>Fee_FloatRateStartDate2</t>
-        </is>
-      </c>
-      <c r="AR1" s="14" t="inlineStr">
-        <is>
-          <t>FeePayment_EffectiveDate</t>
-        </is>
-      </c>
-      <c r="AS1" s="14" t="inlineStr">
-        <is>
-          <t>FeePayment_EffectiveDate2</t>
-        </is>
-      </c>
-      <c r="AT1" s="9" t="inlineStr">
-        <is>
-          <t>Fee_Cycle</t>
-        </is>
-      </c>
-      <c r="AU1" s="21" t="inlineStr">
-        <is>
-          <t>Computed_ProjectedCycleDue</t>
-        </is>
-      </c>
-      <c r="AV1" s="21" t="inlineStr">
-        <is>
-          <t>Computed_ProjectedCycleDue2</t>
-        </is>
-      </c>
-      <c r="AW1" s="25" t="inlineStr">
-        <is>
-          <t>RequestedAmount1</t>
-        </is>
-      </c>
-      <c r="AX1" s="25" t="inlineStr">
-        <is>
-          <t>RequestedAmount2</t>
-        </is>
-      </c>
-      <c r="AY1" s="25" t="inlineStr">
-        <is>
-          <t>PrincipalAmount</t>
-        </is>
-      </c>
-      <c r="AZ1" s="25" t="inlineStr">
-        <is>
-          <t>PrincipalAmount2</t>
-        </is>
-      </c>
-      <c r="BA1" s="25" t="inlineStr">
-        <is>
-          <t>RateBasis</t>
-        </is>
-      </c>
-      <c r="BB1" s="25" t="inlineStr">
-        <is>
-          <t>RateBasis2</t>
-        </is>
-      </c>
-      <c r="BC1" s="25" t="inlineStr">
-        <is>
-          <t>CycleNumber</t>
-        </is>
-      </c>
-      <c r="BD1" s="25" t="inlineStr">
-        <is>
-          <t>CycleNumber2</t>
-        </is>
-      </c>
-      <c r="BE1" s="25" t="inlineStr">
-        <is>
-          <t>HostBank_GLAccount</t>
-        </is>
-      </c>
-      <c r="BF1" s="25" t="inlineStr">
-        <is>
-          <t>Borrower_GLAccount</t>
-        </is>
-      </c>
-      <c r="BG1" s="25" t="inlineStr">
-        <is>
-          <t>Borrower_GLAccount2</t>
-        </is>
-      </c>
-      <c r="BH1" s="25" t="inlineStr">
-        <is>
-          <t>FeeType1</t>
-        </is>
-      </c>
-      <c r="BI1" s="25" t="inlineStr">
-        <is>
-          <t>FeeType2</t>
-        </is>
-      </c>
-      <c r="BJ1" s="21" t="inlineStr">
-        <is>
-          <t>Contact_Email</t>
-        </is>
-      </c>
-      <c r="BK1" s="25" t="inlineStr">
-        <is>
-          <t>ScheduledActivityReport_Date</t>
-        </is>
-      </c>
-      <c r="BL1" s="25" t="inlineStr">
-        <is>
-          <t>Customer_Borrower</t>
-        </is>
-      </c>
-      <c r="BM1" s="25" t="inlineStr">
-        <is>
-          <t>Borrower_Contact</t>
-        </is>
-      </c>
-      <c r="BN1" s="25" t="inlineStr">
-        <is>
-          <t>NoticeStatus</t>
-        </is>
-      </c>
-      <c r="BO1" s="25" t="inlineStr">
-        <is>
-          <t>WIP_TransactionType</t>
-        </is>
-      </c>
-      <c r="BP1" s="25" t="inlineStr">
-        <is>
-          <t>WIP_AwaitingReleaseCashflowsStatus</t>
-        </is>
-      </c>
-      <c r="BQ1" s="25" t="inlineStr">
-        <is>
-          <t>WIP_OutstandingType</t>
-        </is>
-      </c>
-      <c r="BR1" s="25" t="inlineStr">
-        <is>
-          <t>Loan_RequestedAmount</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="12.75" customFormat="1" customHeight="1" s="11">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>EVG_PTYLIQ02 Scenario2 Baseline Agency (Syndicated)</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>15-Dec-2018</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>13-Feb-2019</t>
-        </is>
-      </c>
-      <c r="E2" s="50" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F2" s="50" t="inlineStr">
-        <is>
-          <t>Commonwealth Bank of Australia - DBU</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>BNS2SYN_06082020230821OPK</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>DDAAUD1-4344</t>
-        </is>
-      </c>
-      <c r="J2" s="49" t="inlineStr">
-        <is>
-          <t>RTGSAUD1-1342</t>
-        </is>
-      </c>
-      <c r="K2" s="49" t="inlineStr">
-        <is>
-          <t>RTGSAUD1-3148</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>60000122</t>
-        </is>
-      </c>
-      <c r="M2" s="22" t="inlineStr">
-        <is>
-          <t>DDA</t>
-        </is>
-      </c>
-      <c r="N2" s="22" t="inlineStr">
-        <is>
-          <t>RTGS</t>
-        </is>
-      </c>
-      <c r="O2" s="22" t="inlineStr">
-        <is>
-          <t>RTGS</t>
-        </is>
-      </c>
-      <c r="P2" s="11" t="inlineStr">
-        <is>
-          <t>DOIT</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT39121</t>
-        </is>
-      </c>
-      <c r="R2" s="11" t="inlineStr">
-        <is>
-          <t>LENDSHORT04114</t>
-        </is>
-      </c>
-      <c r="S2" s="11" t="inlineStr">
-        <is>
-          <t>LENDSHORT16107</t>
-        </is>
-      </c>
-      <c r="T2" s="49" t="inlineStr">
-        <is>
-          <t>ESPS11713819</t>
-        </is>
-      </c>
-      <c r="U2" s="11" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="V2" s="11" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="W2" s="11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="X2" s="49" t="inlineStr">
-        <is>
-          <t>CB001/Hold for Investment - Australia/NR_COL</t>
-        </is>
-      </c>
-      <c r="Y2" s="11" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AA2" s="11" t="inlineStr">
-        <is>
-          <t>Borrower</t>
-        </is>
-      </c>
-      <c r="AB2" s="11" t="inlineStr">
-        <is>
-          <t>Lender</t>
-        </is>
-      </c>
-      <c r="AC2" s="11" t="inlineStr">
-        <is>
-          <t>Lender</t>
-        </is>
-      </c>
-      <c r="AD2" s="11" t="inlineStr">
-        <is>
-          <t>TRUSER14</t>
-        </is>
-      </c>
-      <c r="AE2" s="11" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="AF2" s="11" t="inlineStr">
-        <is>
-          <t>TRUSER12</t>
-        </is>
-      </c>
-      <c r="AG2" s="11" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="AH2" s="11" t="inlineStr">
-        <is>
-          <t>TRUSER6</t>
-        </is>
-      </c>
-      <c r="AI2" s="11" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="AJ2" s="1" t="inlineStr">
-        <is>
-          <t>S2TERM06082020232156ZJX</t>
-        </is>
-      </c>
-      <c r="AK2" s="11" t="inlineStr">
-        <is>
-          <t>ONG000000000730</t>
-        </is>
-      </c>
-      <c r="AL2" s="11" t="inlineStr">
-        <is>
-          <t>Commitment Fee</t>
-        </is>
-      </c>
-      <c r="AM2" s="11" t="inlineStr">
-        <is>
-          <t>Indemnity Fee - Usage (SFBG)</t>
-        </is>
-      </c>
-      <c r="AN2" s="11" t="inlineStr">
-        <is>
-          <t>12-Nov-2020</t>
-        </is>
-      </c>
-      <c r="AO2" s="11" t="inlineStr">
-        <is>
-          <t>12-Nov-2020</t>
-        </is>
-      </c>
-      <c r="AP2" s="11" t="inlineStr">
-        <is>
-          <t>12-Nov-2020</t>
-        </is>
-      </c>
-      <c r="AQ2" s="11" t="inlineStr">
-        <is>
-          <t>12-Nov-2020</t>
-        </is>
-      </c>
-      <c r="AR2" s="1" t="inlineStr">
-        <is>
-          <t>09-Jan-2019</t>
-        </is>
-      </c>
-      <c r="AS2" s="1" t="inlineStr">
-        <is>
-          <t>09-Jan-2019</t>
-        </is>
-      </c>
-      <c r="AT2" s="11" t="inlineStr">
-        <is>
-          <t>Weekly</t>
-        </is>
-      </c>
-      <c r="AU2" s="1" t="n">
-        <v>36821.92</v>
-      </c>
-      <c r="AV2" s="1" t="n">
-        <v>38355.78</v>
-      </c>
-      <c r="AY2" s="11" t="inlineStr">
-        <is>
-          <t>99,999,000.00</t>
-        </is>
-      </c>
-      <c r="AZ2" s="11" t="inlineStr">
-        <is>
-          <t>1,000.00</t>
-        </is>
-      </c>
-      <c r="BA2" s="11" t="inlineStr">
-        <is>
-          <t>Actual/365</t>
-        </is>
-      </c>
-      <c r="BB2" s="11" t="inlineStr">
-        <is>
-          <t>Actual/365</t>
-        </is>
-      </c>
-      <c r="BC2" s="11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BD2" s="11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BE2" s="11" t="inlineStr">
-        <is>
-          <t>18565001838</t>
-        </is>
-      </c>
-      <c r="BF2" s="11" t="inlineStr">
-        <is>
-          <t>18567000000</t>
-        </is>
-      </c>
-      <c r="BG2" s="11" t="inlineStr">
-        <is>
-          <t>18567000000</t>
-        </is>
-      </c>
-      <c r="BH2" s="11" t="inlineStr">
-        <is>
-          <t>UNUT Fee Due</t>
-        </is>
-      </c>
-      <c r="BI2" s="23" t="inlineStr">
-        <is>
-          <t>IPFEI Fee Due</t>
-        </is>
-      </c>
-      <c r="BJ2" s="1" t="inlineStr">
-        <is>
-          <t>john.blogg@abc.com</t>
-        </is>
-      </c>
-      <c r="BK2" s="1" t="inlineStr">
-        <is>
-          <t>09-Jan-2019</t>
-        </is>
-      </c>
-      <c r="BL2" s="11" t="inlineStr">
-        <is>
-          <t>IEEBRW7642S223130</t>
-        </is>
-      </c>
-      <c r="BM2" s="11" t="inlineStr">
-        <is>
-          <t>John Bloggs</t>
-        </is>
-      </c>
-      <c r="BN2" s="11" t="inlineStr">
-        <is>
-          <t>Awaiting release</t>
-        </is>
-      </c>
-      <c r="BO2" s="11" t="inlineStr">
-        <is>
-          <t>Payments</t>
-        </is>
-      </c>
-      <c r="BP2" s="11" t="inlineStr">
-        <is>
-          <t>Awaiting Release Cashflows</t>
-        </is>
-      </c>
-      <c r="BQ2" s="11" t="inlineStr">
-        <is>
-          <t>Ongoing Fee Payment</t>
-        </is>
-      </c>
-      <c r="BR2" s="11" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="BL14" s="13" t="n"/>
-    </row>
-    <row r="15">
-      <c r="BO15" s="34" t="n"/>
-    </row>
-    <row r="16">
-      <c r="BP16" s="34" t="n"/>
-    </row>
-    <row r="18">
-      <c r="BP18" s="34" t="n"/>
-    </row>
-    <row r="19">
-      <c r="BO19" s="34" t="n"/>
-      <c r="BP19" s="34" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -6593,7 +7399,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="23" t="inlineStr">
@@ -6609,7 +7415,7 @@
       <c r="F2" s="23" t="n"/>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="H2" s="50" t="inlineStr">
@@ -6619,7 +7425,7 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>05-Aug-2020</t>
+          <t>06-Aug-2020</t>
         </is>
       </c>
       <c r="J2" s="23" t="inlineStr">
@@ -6657,7 +7463,7 @@
       </c>
       <c r="Q2" s="1" t="inlineStr">
         <is>
-          <t>AFE000000000071</t>
+          <t>AFE000000000079</t>
         </is>
       </c>
     </row>
@@ -6835,12 +7641,12 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="G2" s="49" t="inlineStr">
@@ -6865,12 +7671,12 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="M2" s="23" t="inlineStr">
@@ -7474,7 +8280,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B32" sqref="B32"/>
+      <selection pane="topRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -7598,12 +8404,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -7631,7 +8437,7 @@
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="K2" s="50" t="n">
@@ -7644,7 +8450,7 @@
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2021</t>
+          <t>07-Jul-2021</t>
         </is>
       </c>
       <c r="N2" s="50" t="inlineStr">
@@ -7687,7 +8493,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -7913,7 +8719,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="D2" s="23" t="inlineStr">
@@ -8090,8 +8896,8 @@
   <dimension ref="A1:BH2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB2" sqref="AB2"/>
+      <pane xSplit="2" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BA30" sqref="BA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -8465,12 +9271,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="E2" s="49" t="inlineStr">
@@ -8592,12 +9398,12 @@
       </c>
       <c r="AD2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2021</t>
+          <t>07-Jul-2021</t>
         </is>
       </c>
       <c r="AE2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="AF2" s="11" t="n"/>
@@ -8644,7 +9450,7 @@
       </c>
       <c r="AP2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="AQ2" s="50" t="inlineStr">
@@ -8719,7 +9525,7 @@
       </c>
       <c r="BF2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="BG2" s="27" t="inlineStr">
@@ -8749,7 +9555,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -8824,27 +9630,27 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>AFE000000000071</t>
+          <t>AFE000000000079</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="G2" s="11" t="inlineStr">
         <is>
-          <t>06-Jul-2021</t>
+          <t>07-Jul-2021</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -8873,8 +9679,8 @@
   </sheetPr>
   <dimension ref="A1:BA15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -9120,7 +9926,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_06082020230821OPK</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="36" t="inlineStr">
@@ -9130,7 +9936,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM06082020232156ZJX</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="F2" s="36" t="inlineStr">
@@ -9140,7 +9946,7 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>60000122</t>
+          <t>60000127</t>
         </is>
       </c>
       <c r="H2" s="36" t="inlineStr">
@@ -9160,12 +9966,12 @@
       </c>
       <c r="K2" s="11" t="inlineStr">
         <is>
-          <t>06-Jul-2020</t>
+          <t>07-Jul-2020</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>05-Aug-2021</t>
+          <t>06-Aug-2021</t>
         </is>
       </c>
       <c r="M2" s="36" t="inlineStr">
@@ -9338,8 +10144,8 @@
   </sheetPr>
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -9508,12 +10314,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_05082020002651HEU</t>
+          <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM05082020004018RIC</t>
+          <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -9631,99 +10437,81 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO2"/>
+  <dimension ref="A1:BU19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6.140625" customWidth="1" style="49" min="1" max="1"/>
-    <col width="60.28515625" customWidth="1" style="49" min="2" max="2"/>
-    <col width="30" customWidth="1" style="49" min="3" max="5"/>
-    <col width="46.28515625" customWidth="1" style="49" min="6" max="7"/>
-    <col width="45.5703125" customWidth="1" style="49" min="8" max="9"/>
-    <col width="47.5703125" customWidth="1" style="49" min="10" max="11"/>
-    <col width="20.5703125" customWidth="1" style="49" min="12" max="12"/>
-    <col width="24.28515625" customWidth="1" style="49" min="13" max="13"/>
-    <col width="24.5703125" customWidth="1" style="49" min="14" max="14"/>
-    <col width="15.7109375" customWidth="1" style="49" min="15" max="15"/>
-    <col width="18.42578125" customWidth="1" style="49" min="16" max="16"/>
-    <col width="18" customWidth="1" style="49" min="17" max="17"/>
-    <col width="21.140625" customWidth="1" style="49" min="18" max="18"/>
-    <col width="20.7109375" customWidth="1" style="49" min="19" max="19"/>
-    <col width="18.42578125" customWidth="1" style="49" min="20" max="20"/>
+    <col width="50.140625" customWidth="1" style="49" min="2" max="2"/>
+    <col width="26.5703125" customWidth="1" style="49" min="3" max="3"/>
+    <col width="27.140625" customWidth="1" style="49" min="4" max="4"/>
+    <col width="29.42578125" customWidth="1" style="49" min="5" max="5"/>
+    <col width="34.85546875" customWidth="1" style="49" min="6" max="6"/>
+    <col width="25.28515625" customWidth="1" style="49" min="7" max="7"/>
+    <col width="26.7109375" customWidth="1" style="49" min="8" max="8"/>
+    <col width="22.85546875" customWidth="1" style="49" min="9" max="9"/>
+    <col width="23.85546875" customWidth="1" style="49" min="10" max="11"/>
+    <col width="18.42578125" customWidth="1" style="49" min="12" max="12"/>
+    <col width="22.140625" customWidth="1" style="49" min="13" max="13"/>
+    <col width="23.140625" customWidth="1" style="49" min="14" max="15"/>
+    <col width="18.140625" customWidth="1" style="49" min="16" max="16"/>
+    <col width="20.85546875" customWidth="1" style="49" min="17" max="17"/>
+    <col width="21.140625" customWidth="1" style="49" min="18" max="19"/>
+    <col width="21.140625" customWidth="1" style="15" min="20" max="20"/>
     <col width="18" customWidth="1" style="49" min="21" max="21"/>
-    <col width="40.5703125" customWidth="1" style="49" min="22" max="24"/>
-    <col width="34.42578125" customWidth="1" style="49" min="25" max="25"/>
-    <col width="40.5703125" customWidth="1" style="49" min="26" max="26"/>
-    <col width="43" customWidth="1" style="49" min="27" max="27"/>
-    <col width="40.5703125" customWidth="1" style="49" min="28" max="28"/>
-    <col width="41.28515625" customWidth="1" style="49" min="29" max="30"/>
-    <col width="14.28515625" customWidth="1" style="49" min="31" max="32"/>
-    <col width="12.5703125" customWidth="1" style="49" min="33" max="33"/>
-    <col width="16.28515625" customWidth="1" style="49" min="34" max="34"/>
-    <col width="12.85546875" customWidth="1" style="49" min="35" max="35"/>
-    <col width="21.85546875" customWidth="1" style="49" min="36" max="36"/>
-    <col width="14" customWidth="1" style="49" min="37" max="37"/>
-    <col width="22.5703125" customWidth="1" style="49" min="38" max="38"/>
-    <col width="17.28515625" customWidth="1" style="49" min="39" max="39"/>
-    <col width="33" customWidth="1" style="49" min="40" max="40"/>
-    <col width="12.42578125" customWidth="1" style="49" min="41" max="41"/>
-    <col width="14.5703125" customWidth="1" style="49" min="42" max="42"/>
-    <col width="37.140625" customWidth="1" style="49" min="43" max="43"/>
-    <col width="16.85546875" customWidth="1" style="49" min="44" max="44"/>
-    <col width="28" customWidth="1" style="49" min="45" max="45"/>
-    <col width="19" customWidth="1" style="49" min="46" max="46"/>
-    <col width="36.7109375" customWidth="1" style="49" min="47" max="48"/>
-    <col width="18.5703125" customWidth="1" style="49" min="49" max="49"/>
-    <col width="22" customWidth="1" style="49" min="50" max="51"/>
-    <col width="36.7109375" customWidth="1" style="49" min="52" max="52"/>
-    <col width="20" customWidth="1" style="49" min="53" max="53"/>
-    <col width="10" customWidth="1" style="49" min="54" max="54"/>
-    <col width="16.7109375" customWidth="1" style="49" min="55" max="55"/>
-    <col width="12.5703125" customWidth="1" style="49" min="56" max="56"/>
-    <col width="13.7109375" customWidth="1" style="49" min="57" max="57"/>
-    <col width="15.7109375" customWidth="1" style="49" min="58" max="58"/>
-    <col width="16.7109375" customWidth="1" style="49" min="59" max="59"/>
-    <col width="18.28515625" customWidth="1" style="49" min="60" max="60"/>
-    <col width="19.28515625" customWidth="1" style="49" min="61" max="61"/>
-    <col width="18.140625" customWidth="1" style="49" min="62" max="63"/>
-    <col width="27.140625" customWidth="1" style="49" min="64" max="64"/>
-    <col width="22.28515625" customWidth="1" style="49" min="65" max="65"/>
-    <col width="23.28515625" customWidth="1" style="49" min="66" max="66"/>
-    <col width="25.85546875" customWidth="1" style="49" min="67" max="67"/>
-    <col width="30.85546875" customWidth="1" style="49" min="68" max="68"/>
-    <col width="21" customWidth="1" style="49" min="69" max="69"/>
-    <col width="25.5703125" customWidth="1" style="49" min="70" max="70"/>
-    <col width="21.7109375" customWidth="1" style="49" min="71" max="71"/>
-    <col width="18.7109375" customWidth="1" style="49" min="72" max="72"/>
-    <col width="20.42578125" customWidth="1" style="49" min="73" max="73"/>
-    <col width="14.5703125" customWidth="1" style="49" min="74" max="74"/>
-    <col width="15.5703125" customWidth="1" style="49" min="75" max="75"/>
-    <col width="37.5703125" customWidth="1" style="49" min="76" max="76"/>
-    <col width="33" customWidth="1" style="49" min="77" max="77"/>
-    <col width="39.140625" customWidth="1" style="49" min="78" max="78"/>
-    <col width="41" customWidth="1" style="49" min="79" max="79"/>
-    <col width="38.5703125" customWidth="1" style="49" min="80" max="81"/>
-    <col width="42.85546875" customWidth="1" style="49" min="82" max="82"/>
-    <col width="34.140625" customWidth="1" style="49" min="83" max="83"/>
-    <col width="38.42578125" customWidth="1" style="49" min="84" max="84"/>
-    <col width="32.42578125" customWidth="1" style="49" min="85" max="85"/>
-    <col width="40.5703125" customWidth="1" style="49" min="86" max="87"/>
-    <col width="38" customWidth="1" style="49" min="88" max="88"/>
-    <col width="18.140625" customWidth="1" style="49" min="89" max="89"/>
-    <col width="31.140625" customWidth="1" style="49" min="90" max="90"/>
-    <col width="39.28515625" customWidth="1" style="49" min="91" max="92"/>
-    <col width="33.42578125" customWidth="1" style="49" min="93" max="93"/>
-    <col width="46.42578125" customWidth="1" style="49" min="94" max="94"/>
-    <col width="43.85546875" customWidth="1" style="49" min="95" max="95"/>
-    <col width="48.85546875" customWidth="1" style="49" min="96" max="96"/>
-    <col width="34.85546875" customWidth="1" style="49" min="97" max="97"/>
+    <col width="16.85546875" customWidth="1" style="49" min="22" max="23"/>
+    <col width="40.7109375" customWidth="1" style="49" min="24" max="24"/>
+    <col width="14.85546875" customWidth="1" style="49" min="25" max="25"/>
+    <col width="15.7109375" customWidth="1" style="49" min="26" max="26"/>
+    <col width="16.5703125" customWidth="1" style="49" min="27" max="27"/>
+    <col width="17.85546875" customWidth="1" style="49" min="28" max="29"/>
+    <col width="19.42578125" customWidth="1" style="49" min="30" max="30"/>
+    <col width="19" customWidth="1" style="49" min="31" max="31"/>
+    <col width="21.140625" customWidth="1" style="49" min="32" max="32"/>
+    <col width="20.7109375" customWidth="1" style="49" min="33" max="33"/>
+    <col width="18.42578125" customWidth="1" style="49" min="34" max="34"/>
+    <col width="18" customWidth="1" style="49" min="35" max="35"/>
+    <col width="26.85546875" customWidth="1" style="49" min="36" max="36"/>
+    <col width="17.42578125" customWidth="1" style="49" min="37" max="37"/>
+    <col width="15.42578125" customWidth="1" style="49" min="38" max="38"/>
+    <col width="27.140625" customWidth="1" style="49" min="39" max="39"/>
+    <col width="17.5703125" customWidth="1" style="49" min="40" max="40"/>
+    <col width="18.5703125" customWidth="1" style="49" min="41" max="41"/>
+    <col width="23" customWidth="1" style="49" min="42" max="42"/>
+    <col width="24" customWidth="1" style="49" min="43" max="43"/>
+    <col width="25.85546875" customWidth="1" style="49" min="44" max="44"/>
+    <col width="26.85546875" customWidth="1" style="49" min="45" max="45"/>
+    <col width="10.42578125" customWidth="1" style="49" min="46" max="46"/>
+    <col width="29.140625" customWidth="1" style="49" min="47" max="47"/>
+    <col width="30.28515625" customWidth="1" style="49" min="48" max="48"/>
+    <col width="18.85546875" customWidth="1" style="49" min="49" max="50"/>
+    <col width="16.28515625" customWidth="1" style="49" min="51" max="51"/>
+    <col width="17.42578125" customWidth="1" style="49" min="52" max="52"/>
+    <col width="9.85546875" customWidth="1" style="49" min="53" max="53"/>
+    <col width="10.85546875" customWidth="1" style="49" min="54" max="54"/>
+    <col width="13.28515625" customWidth="1" style="49" min="55" max="55"/>
+    <col width="14.28515625" customWidth="1" style="49" min="56" max="56"/>
+    <col width="20.5703125" customWidth="1" style="49" min="57" max="58"/>
+    <col width="21.7109375" customWidth="1" style="49" min="59" max="59"/>
+    <col width="13.5703125" customWidth="1" style="49" min="60" max="60"/>
+    <col width="13.28515625" customWidth="1" style="49" min="61" max="61"/>
+    <col width="18.7109375" customWidth="1" style="49" min="62" max="62"/>
+    <col width="29" customWidth="1" style="49" min="63" max="63"/>
+    <col width="20" customWidth="1" style="49" min="64" max="64"/>
+    <col width="17.5703125" customWidth="1" style="49" min="65" max="65"/>
+    <col width="14.7109375" customWidth="1" style="49" min="66" max="66"/>
+    <col width="21" customWidth="1" style="49" min="67" max="67"/>
+    <col width="36.5703125" customWidth="1" style="49" min="68" max="68"/>
+    <col width="21.42578125" customWidth="1" style="49" min="69" max="69"/>
+    <col width="23.5703125" customWidth="1" style="49" min="70" max="70"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="8" thickBot="1">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="25" thickBot="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
           <t>rowid</t>
@@ -9734,1443 +10522,723 @@
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
-        <is>
-          <t>LIQCustomerShortName_Prefix</t>
-        </is>
-      </c>
-      <c r="D1" s="9" t="inlineStr">
-        <is>
-          <t>LIQCustomerLegalName_Prefix</t>
-        </is>
-      </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="C1" s="21" t="inlineStr">
+        <is>
+          <t>ScheduleActivity_FromDate</t>
+        </is>
+      </c>
+      <c r="D1" s="21" t="inlineStr">
+        <is>
+          <t>ScheduledActivity_ThruDate</t>
+        </is>
+      </c>
+      <c r="E1" s="25" t="inlineStr">
+        <is>
+          <t>ScheduledActivity_Department</t>
+        </is>
+      </c>
+      <c r="F1" s="21" t="inlineStr">
+        <is>
+          <t>ScheduledActivity_Branch</t>
+        </is>
+      </c>
+      <c r="G1" s="21" t="inlineStr">
+        <is>
+          <t>Deal_Name</t>
+        </is>
+      </c>
+      <c r="H1" s="25" t="inlineStr">
+        <is>
+          <t>ScheduledActivity_FeeAlias</t>
+        </is>
+      </c>
+      <c r="I1" s="21" t="inlineStr">
+        <is>
+          <t>Remittance_Description</t>
+        </is>
+      </c>
+      <c r="J1" s="21" t="inlineStr">
+        <is>
+          <t>Remittance_Description2</t>
+        </is>
+      </c>
+      <c r="K1" s="21" t="inlineStr">
+        <is>
+          <t>Remittance_Description3</t>
+        </is>
+      </c>
+      <c r="L1" s="21" t="inlineStr">
+        <is>
+          <t>Loan_Alias</t>
+        </is>
+      </c>
+      <c r="M1" s="21" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDADescriptionAUDPrefix</t>
-        </is>
-      </c>
-      <c r="G1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDADescriptionAUDPrefix2</t>
-        </is>
-      </c>
-      <c r="H1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_IMTDescriptionUSDPrefix</t>
-        </is>
-      </c>
-      <c r="I1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_IMTDescriptionUSDPrefix2</t>
-        </is>
-      </c>
-      <c r="J1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_RTGSDescriptionAUDPrefix</t>
-        </is>
-      </c>
-      <c r="K1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_RTGSDescriptionAUDPrefix2</t>
-        </is>
-      </c>
-      <c r="L1" s="9" t="inlineStr">
-        <is>
-          <t>Customer_Search</t>
-        </is>
-      </c>
-      <c r="M1" s="9" t="inlineStr">
-        <is>
-          <t>LIQCustomer_ShortName</t>
-        </is>
-      </c>
-      <c r="N1" s="9" t="inlineStr">
-        <is>
-          <t>LIQCustomer_LegalName</t>
-        </is>
-      </c>
-      <c r="O1" s="9" t="inlineStr">
+      <c r="N1" s="21" t="inlineStr">
+        <is>
+          <t>Remittance_Instruction2</t>
+        </is>
+      </c>
+      <c r="O1" s="21" t="inlineStr">
+        <is>
+          <t>Remittance_Instruction3</t>
+        </is>
+      </c>
+      <c r="P1" s="25" t="inlineStr">
+        <is>
+          <t>Remittance_Status</t>
+        </is>
+      </c>
+      <c r="Q1" s="21" t="inlineStr">
+        <is>
+          <t>Borrower_ShortName</t>
+        </is>
+      </c>
+      <c r="R1" s="21" t="inlineStr">
+        <is>
+          <t>Lender1_ShortName</t>
+        </is>
+      </c>
+      <c r="S1" s="21" t="inlineStr">
+        <is>
+          <t>Lender2_ShortName</t>
+        </is>
+      </c>
+      <c r="T1" s="28" t="inlineStr">
+        <is>
+          <t>Borrower_LegalName</t>
+        </is>
+      </c>
+      <c r="U1" s="25" t="inlineStr">
+        <is>
+          <t>HostBankSharePct</t>
+        </is>
+      </c>
+      <c r="V1" s="25" t="inlineStr">
+        <is>
+          <t>LenderSharePct1</t>
+        </is>
+      </c>
+      <c r="W1" s="25" t="inlineStr">
+        <is>
+          <t>LenderSharePct2</t>
+        </is>
+      </c>
+      <c r="X1" s="21" t="inlineStr">
+        <is>
+          <t>Host_Bank</t>
+        </is>
+      </c>
+      <c r="Y1" s="25" t="inlineStr">
+        <is>
+          <t>Loan_Currency</t>
+        </is>
+      </c>
+      <c r="Z1" s="21" t="inlineStr">
         <is>
           <t>LIQCustomer_ID</t>
         </is>
       </c>
-      <c r="P1" s="9" t="inlineStr">
+      <c r="AA1" s="25" t="inlineStr">
+        <is>
+          <t>Borrower_Profile</t>
+        </is>
+      </c>
+      <c r="AB1" s="25" t="inlineStr">
+        <is>
+          <t>Customer_Profile2</t>
+        </is>
+      </c>
+      <c r="AC1" s="25" t="inlineStr">
+        <is>
+          <t>Customer_Profile3</t>
+        </is>
+      </c>
+      <c r="AD1" s="25" t="inlineStr">
+        <is>
+          <t>Manager_Username</t>
+        </is>
+      </c>
+      <c r="AE1" s="25" t="inlineStr">
+        <is>
+          <t>Manager_Password</t>
+        </is>
+      </c>
+      <c r="AF1" s="25" t="inlineStr">
+        <is>
+          <t>Supervisor_Username</t>
+        </is>
+      </c>
+      <c r="AG1" s="25" t="inlineStr">
+        <is>
+          <t>Supervisor_Password</t>
+        </is>
+      </c>
+      <c r="AH1" s="25" t="inlineStr">
         <is>
           <t>Inputter_Username</t>
         </is>
       </c>
-      <c r="Q1" s="9" t="inlineStr">
+      <c r="AI1" s="25" t="inlineStr">
         <is>
           <t>Inputter_Password</t>
         </is>
       </c>
-      <c r="R1" s="9" t="inlineStr">
-        <is>
-          <t>Supervisor_Username</t>
-        </is>
-      </c>
-      <c r="S1" s="9" t="inlineStr">
-        <is>
-          <t>Supervisor_Password</t>
-        </is>
-      </c>
-      <c r="T1" s="9" t="inlineStr">
-        <is>
-          <t>Manager_Username</t>
-        </is>
-      </c>
-      <c r="U1" s="9" t="inlineStr">
-        <is>
-          <t>Manager_Password</t>
-        </is>
-      </c>
-      <c r="V1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDADescriptionAUD</t>
-        </is>
-      </c>
-      <c r="W1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDADescriptionAUD2</t>
-        </is>
-      </c>
-      <c r="X1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDADescriptionUSD</t>
-        </is>
-      </c>
-      <c r="Y1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_RTGSMethod</t>
-        </is>
-      </c>
-      <c r="Z1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_RTGSDescriptionAUD</t>
-        </is>
-      </c>
-      <c r="AA1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_RTGSDescriptionAUD2</t>
-        </is>
-      </c>
-      <c r="AB1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_RTGSCurrencyAUD</t>
-        </is>
-      </c>
-      <c r="AC1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_SIMTDescriptionAUD</t>
-        </is>
-      </c>
-      <c r="AD1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_SIMTDescriptionUSD</t>
-        </is>
-      </c>
-      <c r="AE1" s="9" t="inlineStr">
-        <is>
-          <t>Address_Line1</t>
-        </is>
-      </c>
-      <c r="AF1" s="9" t="inlineStr">
-        <is>
-          <t>Address_Line2</t>
-        </is>
-      </c>
-      <c r="AG1" s="9" t="inlineStr">
-        <is>
-          <t>Address_City</t>
-        </is>
-      </c>
-      <c r="AH1" s="9" t="inlineStr">
-        <is>
-          <t>Address_Country</t>
-        </is>
-      </c>
-      <c r="AI1" s="9" t="inlineStr">
-        <is>
-          <t>Address_TRA</t>
-        </is>
-      </c>
-      <c r="AJ1" s="9" t="inlineStr">
-        <is>
-          <t>Address_DefaultPhone</t>
+      <c r="AJ1" s="14" t="inlineStr">
+        <is>
+          <t>Facility_Name</t>
         </is>
       </c>
       <c r="AK1" s="9" t="inlineStr">
         <is>
-          <t>Address_State</t>
+          <t>Fee_Alias</t>
         </is>
       </c>
       <c r="AL1" s="9" t="inlineStr">
         <is>
-          <t>Address_ZipPostalCode</t>
+          <t>Fee_Type1</t>
         </is>
       </c>
       <c r="AM1" s="9" t="inlineStr">
         <is>
-          <t>Primary_SICCode</t>
-        </is>
-      </c>
-      <c r="AN1" s="9" t="inlineStr">
-        <is>
-          <t>PrimarySICCode_Description</t>
-        </is>
-      </c>
-      <c r="AO1" s="9" t="inlineStr">
-        <is>
-          <t>Profile_Type</t>
-        </is>
-      </c>
-      <c r="AP1" s="9" t="inlineStr">
-        <is>
-          <t>Expense_Code</t>
-        </is>
-      </c>
-      <c r="AQ1" s="9" t="inlineStr">
-        <is>
-          <t>ExpenseCode_Description</t>
-        </is>
-      </c>
-      <c r="AR1" s="9" t="inlineStr">
-        <is>
-          <t>Deparment_Code</t>
-        </is>
-      </c>
-      <c r="AS1" s="9" t="inlineStr">
-        <is>
-          <t>DepartmentCode_Description</t>
+          <t>Fee_Type2</t>
+        </is>
+      </c>
+      <c r="AN1" s="14" t="inlineStr">
+        <is>
+          <t>Fee_EffectiveDate</t>
+        </is>
+      </c>
+      <c r="AO1" s="14" t="inlineStr">
+        <is>
+          <t>Fee_EffectiveDate2</t>
+        </is>
+      </c>
+      <c r="AP1" s="14" t="inlineStr">
+        <is>
+          <t>Fee_FloatRateStartDate</t>
+        </is>
+      </c>
+      <c r="AQ1" s="14" t="inlineStr">
+        <is>
+          <t>Fee_FloatRateStartDate2</t>
+        </is>
+      </c>
+      <c r="AR1" s="14" t="inlineStr">
+        <is>
+          <t>FeePayment_EffectiveDate</t>
+        </is>
+      </c>
+      <c r="AS1" s="14" t="inlineStr">
+        <is>
+          <t>FeePayment_EffectiveDate2</t>
         </is>
       </c>
       <c r="AT1" s="9" t="inlineStr">
         <is>
-          <t>Classification_Code</t>
-        </is>
-      </c>
-      <c r="AU1" s="9" t="inlineStr">
-        <is>
-          <t>ClassificationCode_Description</t>
-        </is>
-      </c>
-      <c r="AV1" s="9" t="inlineStr">
-        <is>
-          <t>Taxpayer_ID</t>
-        </is>
-      </c>
-      <c r="AW1" s="9" t="inlineStr">
-        <is>
-          <t>CreditReview_Date</t>
-        </is>
-      </c>
-      <c r="AX1" s="9" t="inlineStr">
-        <is>
-          <t>Customer_Location</t>
-        </is>
-      </c>
-      <c r="AY1" s="9" t="inlineStr">
-        <is>
-          <t>Customer_Location2</t>
-        </is>
-      </c>
-      <c r="AZ1" s="9" t="inlineStr">
-        <is>
-          <t>External_ID</t>
-        </is>
-      </c>
-      <c r="BA1" s="9" t="inlineStr">
-        <is>
-          <t>Preferred_Language</t>
-        </is>
-      </c>
-      <c r="BB1" s="9" t="inlineStr">
-        <is>
-          <t>MEI_Code</t>
-        </is>
-      </c>
-      <c r="BC1" s="9" t="inlineStr">
-        <is>
-          <t>Address_Code</t>
-        </is>
-      </c>
-      <c r="BD1" s="9" t="inlineStr">
-        <is>
-          <t>Fax_Number</t>
-        </is>
-      </c>
-      <c r="BE1" s="9" t="inlineStr">
-        <is>
-          <t>Fax_Number2</t>
-        </is>
-      </c>
-      <c r="BF1" s="9" t="inlineStr">
-        <is>
-          <t>Fax_Description</t>
-        </is>
-      </c>
-      <c r="BG1" s="9" t="inlineStr">
-        <is>
-          <t>Fax_Description2</t>
-        </is>
-      </c>
-      <c r="BH1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_FirstName</t>
-        </is>
-      </c>
-      <c r="BI1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_FirstName2</t>
-        </is>
-      </c>
-      <c r="BJ1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_LastName</t>
-        </is>
-      </c>
-      <c r="BK1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_LastName2</t>
-        </is>
-      </c>
-      <c r="BL1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_PreferredLanguage</t>
-        </is>
-      </c>
-      <c r="BM1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_PrimaryPhone</t>
-        </is>
-      </c>
-      <c r="BN1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_PrimaryPhone2</t>
-        </is>
-      </c>
-      <c r="BO1" s="10" t="inlineStr">
-        <is>
-          <t>Contact_ProductSelected</t>
-        </is>
-      </c>
-      <c r="BP1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_BalanceTypeSelected</t>
-        </is>
-      </c>
-      <c r="BQ1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_PurposeType</t>
-        </is>
-      </c>
-      <c r="BR1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_PurposeTypeArea</t>
-        </is>
-      </c>
-      <c r="BS1" s="9" t="inlineStr">
-        <is>
-          <t>ContactNotice_Method</t>
-        </is>
-      </c>
-      <c r="BT1" s="9" t="inlineStr">
+          <t>Fee_Cycle</t>
+        </is>
+      </c>
+      <c r="AU1" s="21" t="inlineStr">
+        <is>
+          <t>Computed_ProjectedCycleDue</t>
+        </is>
+      </c>
+      <c r="AV1" s="21" t="inlineStr">
+        <is>
+          <t>Computed_ProjectedCycleDue2</t>
+        </is>
+      </c>
+      <c r="AW1" s="25" t="inlineStr">
+        <is>
+          <t>RequestedAmount1</t>
+        </is>
+      </c>
+      <c r="AX1" s="25" t="inlineStr">
+        <is>
+          <t>RequestedAmount2</t>
+        </is>
+      </c>
+      <c r="AY1" s="25" t="inlineStr">
+        <is>
+          <t>PrincipalAmount</t>
+        </is>
+      </c>
+      <c r="AZ1" s="25" t="inlineStr">
+        <is>
+          <t>PrincipalAmount2</t>
+        </is>
+      </c>
+      <c r="BA1" s="25" t="inlineStr">
+        <is>
+          <t>RateBasis</t>
+        </is>
+      </c>
+      <c r="BB1" s="25" t="inlineStr">
+        <is>
+          <t>RateBasis2</t>
+        </is>
+      </c>
+      <c r="BC1" s="25" t="inlineStr">
+        <is>
+          <t>CycleNumber</t>
+        </is>
+      </c>
+      <c r="BD1" s="25" t="inlineStr">
+        <is>
+          <t>CycleNumber2</t>
+        </is>
+      </c>
+      <c r="BE1" s="25" t="inlineStr">
+        <is>
+          <t>HostBank_GLAccount</t>
+        </is>
+      </c>
+      <c r="BF1" s="25" t="inlineStr">
+        <is>
+          <t>Borrower_GLAccount</t>
+        </is>
+      </c>
+      <c r="BG1" s="25" t="inlineStr">
+        <is>
+          <t>Borrower_GLAccount2</t>
+        </is>
+      </c>
+      <c r="BH1" s="25" t="inlineStr">
+        <is>
+          <t>FeeType1</t>
+        </is>
+      </c>
+      <c r="BI1" s="25" t="inlineStr">
+        <is>
+          <t>FeeType2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="21" t="inlineStr">
         <is>
           <t>Contact_Email</t>
         </is>
       </c>
-      <c r="BU1" s="9" t="inlineStr">
-        <is>
-          <t>Contact_Email2</t>
-        </is>
-      </c>
-      <c r="BV1" s="9" t="inlineStr">
-        <is>
-          <t>Group_Contact</t>
-        </is>
-      </c>
-      <c r="BW1" s="9" t="inlineStr">
-        <is>
-          <t>Group_Contact2</t>
-        </is>
-      </c>
-      <c r="BX1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_MethodType</t>
-        </is>
-      </c>
-      <c r="BY1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDAMethod</t>
-        </is>
-      </c>
-      <c r="BZ1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDAAccountName</t>
-        </is>
-      </c>
-      <c r="CA1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDAAccountNumber</t>
-        </is>
-      </c>
-      <c r="CB1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDACurrencyAUD</t>
-        </is>
-      </c>
-      <c r="CC1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DDACurrencyUSD</t>
-        </is>
-      </c>
-      <c r="CD1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_DirectionSelected</t>
-        </is>
-      </c>
-      <c r="CE1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstructionDDA_AutoDoIt</t>
-        </is>
-      </c>
-      <c r="CF1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_SIMTMethodType</t>
-        </is>
-      </c>
-      <c r="CG1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_IMTMethod</t>
-        </is>
-      </c>
-      <c r="CH1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_IMTDescriptionUSD</t>
-        </is>
-      </c>
-      <c r="CI1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_IMTDescriptionUSD2</t>
-        </is>
-      </c>
-      <c r="CJ1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_IMTCurrencyUSD</t>
-        </is>
-      </c>
-      <c r="CK1" s="9" t="inlineStr">
-        <is>
-          <t>IMT_MessageCode</t>
-        </is>
-      </c>
-      <c r="CL1" s="9" t="inlineStr">
-        <is>
-          <t>BOC_Level</t>
-        </is>
-      </c>
-      <c r="CM1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_SIMTCurrencyAUD</t>
-        </is>
-      </c>
-      <c r="CN1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_SIMTCurrencyUSD</t>
-        </is>
-      </c>
-      <c r="CO1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_SIMTSwiftID</t>
-        </is>
-      </c>
-      <c r="CP1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstruction_SIMTSwiftIDBank</t>
-        </is>
-      </c>
-      <c r="CQ1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstructionSIMT_
-ProductSelected</t>
-        </is>
-      </c>
-      <c r="CR1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstructionSIMT_
-BalanceTypeSelected</t>
-        </is>
-      </c>
-      <c r="CS1" s="9" t="inlineStr">
-        <is>
-          <t>RemittanceInstructionSIMT_AutoDoIt</t>
-        </is>
-      </c>
-      <c r="CT1" s="9" t="inlineStr">
-        <is>
-          <t>GST_ID</t>
-        </is>
-      </c>
-      <c r="CU1" s="9" t="inlineStr">
-        <is>
-          <t>InternalRiskRating_Type</t>
-        </is>
-      </c>
-      <c r="CV1" s="9" t="inlineStr">
-        <is>
-          <t>InternalRisk_Rating</t>
-        </is>
-      </c>
-      <c r="CW1" s="9" t="inlineStr">
-        <is>
-          <t>InternalRisk_Percent</t>
-        </is>
-      </c>
-      <c r="CX1" s="9" t="inlineStr">
-        <is>
-          <t>ExternalRiskRating_Type1</t>
-        </is>
-      </c>
-      <c r="CY1" s="9" t="inlineStr">
-        <is>
-          <t>ExternalRisk_Rating1</t>
-        </is>
-      </c>
-      <c r="CZ1" s="9" t="inlineStr">
-        <is>
-          <t>ExternalRiskRating_Type2</t>
-        </is>
-      </c>
-      <c r="DA1" s="9" t="inlineStr">
-        <is>
-          <t>ExternalRisk_Rating2</t>
-        </is>
-      </c>
-      <c r="DB1" s="9" t="inlineStr">
-        <is>
-          <t>ExternalRiskRating_Type3</t>
-        </is>
-      </c>
-      <c r="DC1" s="9" t="inlineStr">
-        <is>
-          <t>ExternalRisk_Rating3</t>
-        </is>
-      </c>
-      <c r="DD1" s="9" t="inlineStr">
-        <is>
-          <t>MailingAddress_Code</t>
-        </is>
-      </c>
-      <c r="DE1" s="9" t="inlineStr">
-        <is>
-          <t>MailingAddress_Line1</t>
-        </is>
-      </c>
-      <c r="DF1" s="9" t="inlineStr">
-        <is>
-          <t>MailingAddress_Line2</t>
-        </is>
-      </c>
-      <c r="DG1" s="9" t="inlineStr">
-        <is>
-          <t>MailingAddress_DefaultPhone</t>
-        </is>
-      </c>
-      <c r="DH1" s="9" t="inlineStr">
-        <is>
-          <t>BorrowerContact_Phone</t>
-        </is>
-      </c>
-      <c r="DI1" s="9" t="inlineStr">
-        <is>
-          <t>SwiftRole_BC</t>
-        </is>
-      </c>
-      <c r="DJ1" s="9" t="inlineStr">
-        <is>
-          <t>SwiftRole_OC</t>
-        </is>
-      </c>
-      <c r="DK1" s="9" t="inlineStr">
-        <is>
-          <t>SwiftRole_AWI</t>
-        </is>
-      </c>
-      <c r="DL1" s="9" t="inlineStr">
-        <is>
-          <t>AWI_SwiftID</t>
-        </is>
-      </c>
-      <c r="DM1" s="9" t="inlineStr">
-        <is>
-          <t>AWI_Description</t>
-        </is>
-      </c>
-      <c r="DN1" s="9" t="inlineStr">
-        <is>
-          <t>AWI_AccountNumber</t>
-        </is>
-      </c>
-      <c r="DO1" s="8" t="inlineStr">
-        <is>
-          <t>DOC_Type</t>
-        </is>
-      </c>
-      <c r="DP1" s="9" t="inlineStr">
-        <is>
-          <t>IMT_MessageCode2</t>
-        </is>
-      </c>
-      <c r="DQ1" s="9" t="inlineStr">
-        <is>
-          <t>SwiftRole_BI</t>
-        </is>
-      </c>
-      <c r="DR1" s="9" t="inlineStr">
-        <is>
-          <t>BC_Description</t>
-        </is>
-      </c>
-      <c r="DS1" s="9" t="inlineStr">
-        <is>
-          <t>BC_AccountNumber</t>
-        </is>
-      </c>
-      <c r="DT1" s="9" t="inlineStr">
-        <is>
-          <t>OC_Description</t>
-        </is>
-      </c>
-      <c r="DU1" s="9" t="inlineStr">
-        <is>
-          <t>OC_AccountNumber</t>
-        </is>
-      </c>
-      <c r="DV1" s="9" t="inlineStr">
-        <is>
-          <t>InternalRiskRating_EffectiveDate</t>
-        </is>
-      </c>
-      <c r="DW1" s="9" t="inlineStr">
-        <is>
-          <t>InternalRiskRating_ExpiryDate</t>
-        </is>
-      </c>
-      <c r="DX1" s="9" t="inlineStr">
-        <is>
-          <t>ExternalRiskRating_StartDate</t>
-        </is>
-      </c>
-      <c r="DY1" s="9" t="inlineStr">
-        <is>
-          <t>ProductSBLC_Checkbox</t>
-        </is>
-      </c>
-      <c r="DZ1" s="9" t="inlineStr">
-        <is>
-          <t>ProductLoan_Checkbox</t>
-        </is>
-      </c>
-      <c r="EA1" s="9" t="inlineStr">
-        <is>
-          <t>BalanceType_Principal_Checkbox</t>
-        </is>
-      </c>
-      <c r="EB1" s="9" t="inlineStr">
-        <is>
-          <t>BalanceType_Interest_Checkbox</t>
-        </is>
-      </c>
-      <c r="EC1" s="9" t="inlineStr">
-        <is>
-          <t>BalanceType_Fees_Checkbox</t>
-        </is>
-      </c>
-      <c r="ED1" s="9" t="inlineStr">
-        <is>
-          <t>RI_ProductLoan_Checkbox</t>
-        </is>
-      </c>
-      <c r="EE1" s="9" t="inlineStr">
-        <is>
-          <t>RI_ProductSBLC_Checkbox</t>
-        </is>
-      </c>
-      <c r="EF1" s="9" t="inlineStr">
-        <is>
-          <t>RI_FromCust_Checkbox</t>
-        </is>
-      </c>
-      <c r="EG1" s="9" t="inlineStr">
-        <is>
-          <t>RI_ToCust_Checkbox</t>
-        </is>
-      </c>
-      <c r="EH1" s="9" t="inlineStr">
-        <is>
-          <t>RI_BalanceType_Principal_Checkbox</t>
-        </is>
-      </c>
-      <c r="EI1" s="9" t="inlineStr">
-        <is>
-          <t>RI_BalanceType_Interest_Checkbox</t>
-        </is>
-      </c>
-      <c r="EJ1" s="9" t="inlineStr">
-        <is>
-          <t>RI_BalanceType_Fees_Checkbox</t>
-        </is>
-      </c>
-      <c r="EK1" s="9" t="inlineStr">
-        <is>
-          <t>RI_AutoDoIt_Checkbox</t>
-        </is>
-      </c>
-      <c r="EL1" s="9" t="inlineStr">
-        <is>
-          <t>RI_SendersCorrespondent_Checkbox</t>
-        </is>
-      </c>
-      <c r="EM1" s="9" t="inlineStr">
-        <is>
-          <t>CustomerNotice_TypeMethod</t>
-        </is>
-      </c>
-      <c r="EN1" s="59" t="inlineStr">
-        <is>
-          <t>Entity</t>
-        </is>
-      </c>
-      <c r="EO1" s="59" t="inlineStr">
-        <is>
-          <t>CustomerSourceApp</t>
+      <c r="BK1" s="25" t="inlineStr">
+        <is>
+          <t>ScheduledActivityReport_Date</t>
+        </is>
+      </c>
+      <c r="BL1" s="25" t="inlineStr">
+        <is>
+          <t>Customer_Borrower</t>
+        </is>
+      </c>
+      <c r="BM1" s="25" t="inlineStr">
+        <is>
+          <t>Borrower_Contact</t>
+        </is>
+      </c>
+      <c r="BN1" s="25" t="inlineStr">
+        <is>
+          <t>NoticeStatus</t>
+        </is>
+      </c>
+      <c r="BO1" s="25" t="inlineStr">
+        <is>
+          <t>WIP_TransactionType</t>
+        </is>
+      </c>
+      <c r="BP1" s="25" t="inlineStr">
+        <is>
+          <t>WIP_AwaitingReleaseCashflowsStatus</t>
+        </is>
+      </c>
+      <c r="BQ1" s="25" t="inlineStr">
+        <is>
+          <t>WIP_OutstandingType</t>
+        </is>
+      </c>
+      <c r="BR1" s="25" t="inlineStr">
+        <is>
+          <t>Loan_RequestedAmount</t>
+        </is>
+      </c>
+      <c r="BS1" s="30" t="inlineStr">
+        <is>
+          <t>Cashflow_DataType</t>
+        </is>
+      </c>
+      <c r="BT1" s="25" t="inlineStr">
+        <is>
+          <t>NoticeMethod</t>
+        </is>
+      </c>
+      <c r="BU1" s="25" t="inlineStr">
+        <is>
+          <t>days</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="49">
-      <c r="A2" s="49" t="inlineStr">
+    <row r="2" ht="12.75" customFormat="1" customHeight="1" s="11">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="49" t="inlineStr">
-        <is>
-          <t>EVG_PTYLIQ03 Scenario3 Baseline SBLC</t>
-        </is>
-      </c>
-      <c r="C2" s="49" t="inlineStr">
-        <is>
-          <t>CUSTSHORT</t>
-        </is>
-      </c>
-      <c r="D2" s="49" t="inlineStr">
-        <is>
-          <t>CUSTLEGAL</t>
-        </is>
-      </c>
-      <c r="E2" s="49" t="inlineStr">
-        <is>
-          <t>DDA</t>
-        </is>
-      </c>
-      <c r="F2" s="49" t="inlineStr">
-        <is>
-          <t>DDAAUD1-</t>
-        </is>
-      </c>
-      <c r="G2" s="49" t="inlineStr">
-        <is>
-          <t>DDAAUD2-</t>
-        </is>
-      </c>
-      <c r="H2" s="49" t="inlineStr">
-        <is>
-          <t>IMTUSD1-</t>
-        </is>
-      </c>
-      <c r="I2" s="49" t="inlineStr">
-        <is>
-          <t>IMTUSD2-</t>
-        </is>
-      </c>
-      <c r="J2" s="49" t="inlineStr">
-        <is>
-          <t>RTGSAUD1-</t>
-        </is>
-      </c>
-      <c r="K2" s="49" t="inlineStr">
-        <is>
-          <t>RTGSAUD2-</t>
-        </is>
-      </c>
-      <c r="L2" s="49" t="inlineStr">
-        <is>
-          <t>Search by Customer ID</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>EVG_PTYLIQ02 Scenario2 Baseline Agency (Syndicated)</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>07-Jun-2020</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>06-Aug-2020</t>
+        </is>
+      </c>
+      <c r="E2" s="50" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F2" s="50" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia - DBU</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>BNS2SYN_06082020200906QIX</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>60000127</t>
+        </is>
+      </c>
+      <c r="M2" s="22" t="inlineStr">
+        <is>
+          <t>RTGS</t>
+        </is>
+      </c>
+      <c r="N2" s="22" t="inlineStr">
+        <is>
+          <t>RTGS</t>
+        </is>
+      </c>
+      <c r="O2" s="22" t="inlineStr">
+        <is>
+          <t>RTGS</t>
+        </is>
+      </c>
+      <c r="P2" s="11" t="inlineStr">
+        <is>
+          <t>DOIT</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
         <is>
           <t>ESPS11413431</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTLEGAL39121</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="R2" s="11" t="inlineStr">
+        <is>
+          <t>LEND01292020</t>
+        </is>
+      </c>
+      <c r="S2" s="11" t="inlineStr">
+        <is>
+          <t>LENDSHORT0414</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>ESPS11413431</t>
+        </is>
+      </c>
+      <c r="U2" s="11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V2" s="11" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="W2" s="11" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>CB001/Hold for Investment - Australia/BP_CML</t>
+        </is>
+      </c>
+      <c r="Y2" s="11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="P2" s="50" t="inlineStr">
-        <is>
-          <t>TRUSERGE</t>
-        </is>
-      </c>
-      <c r="Q2" s="50" t="inlineStr">
+      <c r="AA2" s="11" t="inlineStr">
+        <is>
+          <t>Borrower</t>
+        </is>
+      </c>
+      <c r="AB2" s="11" t="inlineStr">
+        <is>
+          <t>Lender</t>
+        </is>
+      </c>
+      <c r="AC2" s="11" t="inlineStr">
+        <is>
+          <t>Lender</t>
+        </is>
+      </c>
+      <c r="AD2" s="11" t="inlineStr">
+        <is>
+          <t>TRUSER14</t>
+        </is>
+      </c>
+      <c r="AE2" s="11" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="R2" s="50" t="inlineStr">
-        <is>
-          <t>TRAPPVGE</t>
-        </is>
-      </c>
-      <c r="S2" s="50" t="inlineStr">
+      <c r="AF2" s="11" t="inlineStr">
+        <is>
+          <t>TRUSER12</t>
+        </is>
+      </c>
+      <c r="AG2" s="11" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="T2" s="50" t="inlineStr">
-        <is>
-          <t>TRUSERG3</t>
-        </is>
-      </c>
-      <c r="U2" s="50" t="inlineStr">
+      <c r="AH2" s="11" t="inlineStr">
+        <is>
+          <t>TRUSER6</t>
+        </is>
+      </c>
+      <c r="AI2" s="11" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="V2" s="1" t="inlineStr">
-        <is>
-          <t>DDAAUD1-4344</t>
-        </is>
-      </c>
-      <c r="W2" s="49" t="inlineStr">
-        <is>
-          <t>DDA-AUD2518</t>
-        </is>
-      </c>
-      <c r="X2" s="49" t="inlineStr">
-        <is>
-          <t>DDA2-USD3750</t>
-        </is>
-      </c>
-      <c r="Y2" s="50" t="inlineStr">
-        <is>
-          <t>High Value Local RTGS (AUD)</t>
-        </is>
-      </c>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>RTGSAUD1-4345</t>
-        </is>
-      </c>
-      <c r="AA2" s="49" t="inlineStr">
-        <is>
-          <t>RTGS-AUD2525</t>
-        </is>
-      </c>
-      <c r="AB2" s="49" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="AC2" s="49" t="inlineStr">
-        <is>
-          <t>SIMT1-AUD3750</t>
-        </is>
-      </c>
-      <c r="AD2" s="49" t="inlineStr">
-        <is>
-          <t>SIMT2-USD4504</t>
-        </is>
-      </c>
-      <c r="AE2" s="50" t="inlineStr">
-        <is>
-          <t>George St.</t>
-        </is>
-      </c>
-      <c r="AF2" s="50" t="inlineStr">
-        <is>
-          <t>Beverly Hills</t>
-        </is>
-      </c>
-      <c r="AG2" s="50" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="AH2" s="50" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="AI2" s="50" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="AJ2" s="50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">412345678
- </t>
-        </is>
-      </c>
-      <c r="AK2" s="50" t="inlineStr">
-        <is>
-          <t>Victoria</t>
-        </is>
-      </c>
-      <c r="AL2" s="50" t="inlineStr">
-        <is>
-          <t>4061</t>
-        </is>
-      </c>
-      <c r="AM2" s="50" t="inlineStr">
-        <is>
-          <t>3620</t>
-        </is>
-      </c>
-      <c r="AN2" s="50" t="inlineStr">
-        <is>
-          <t>AU / Gas Supply</t>
-        </is>
-      </c>
-      <c r="AO2" s="50" t="inlineStr">
-        <is>
-          <t>Borrower</t>
-        </is>
-      </c>
-      <c r="AP2" s="50" t="inlineStr">
-        <is>
-          <t>003346</t>
-        </is>
-      </c>
-      <c r="AQ2" s="50" t="inlineStr">
-        <is>
-          <t>CFS QLD Brisbane Corporate (Dept 003346)</t>
-        </is>
-      </c>
-      <c r="AR2" s="50" t="inlineStr">
-        <is>
-          <t>GLB</t>
-        </is>
-      </c>
-      <c r="AS2" s="50" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="AT2" s="50" t="inlineStr">
-        <is>
-          <t>FORG</t>
-        </is>
-      </c>
-      <c r="AU2" s="50" t="inlineStr">
-        <is>
-          <t>Foreign Government, Foreign Government</t>
-        </is>
-      </c>
-      <c r="AV2" s="50" t="inlineStr">
-        <is>
-          <t>&lt;This is randomly generated in the script&gt;</t>
-        </is>
-      </c>
-      <c r="AW2" s="50" t="inlineStr">
-        <is>
-          <t>16-Feb-2017</t>
-        </is>
-      </c>
-      <c r="AX2" s="50" t="inlineStr">
-        <is>
-          <t>Melbourne, VIC,Australia</t>
-        </is>
-      </c>
-      <c r="AY2" s="50" t="inlineStr">
-        <is>
-          <t>Sydney, NSW,Australia</t>
-        </is>
-      </c>
-      <c r="AZ2" s="50" t="inlineStr">
-        <is>
-          <t>&lt;This is randomly generated in the script&gt;</t>
-        </is>
-      </c>
-      <c r="BA2" s="50" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="BB2" s="50" t="inlineStr">
-        <is>
-          <t>CBA</t>
-        </is>
-      </c>
-      <c r="BC2" s="50" t="inlineStr">
-        <is>
-          <t>LEGAL ADDRESS</t>
-        </is>
-      </c>
-      <c r="BD2" s="50" t="inlineStr">
-        <is>
-          <t>1917472</t>
-        </is>
-      </c>
-      <c r="BE2" s="50" t="inlineStr">
-        <is>
-          <t>1917472</t>
-        </is>
-      </c>
-      <c r="BF2" s="50" t="inlineStr">
-        <is>
-          <t>Work Fax</t>
-        </is>
-      </c>
-      <c r="BG2" s="50" t="inlineStr">
-        <is>
-          <t>Work Fax 2</t>
-        </is>
-      </c>
-      <c r="BH2" s="50" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="BI2" s="50" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="BJ2" s="50" t="inlineStr">
-        <is>
-          <t>Bloggs</t>
-        </is>
-      </c>
-      <c r="BK2" s="50" t="inlineStr">
-        <is>
-          <t>Baker</t>
-        </is>
-      </c>
-      <c r="BL2" s="50" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="BM2" s="50" t="inlineStr">
-        <is>
-          <t>1928727188</t>
-        </is>
-      </c>
-      <c r="BN2" s="50" t="inlineStr">
-        <is>
-          <t>1928143143</t>
-        </is>
-      </c>
-      <c r="BO2" s="50" t="inlineStr">
-        <is>
-          <t>SBLC, Loan</t>
-        </is>
-      </c>
-      <c r="BP2" s="50" t="inlineStr">
-        <is>
-          <t>Principal, Interest, Fees</t>
-        </is>
-      </c>
-      <c r="BQ2" s="50" t="inlineStr">
-        <is>
-          <t>Servicing</t>
-        </is>
-      </c>
-      <c r="BR2" s="50" t="inlineStr">
-        <is>
-          <t>SERV</t>
-        </is>
-      </c>
-      <c r="BS2" s="50" t="inlineStr">
-        <is>
-          <t>Email</t>
+      <c r="AJ2" s="49" t="inlineStr">
+        <is>
+          <t>S2TERM06082020202350MQX</t>
+        </is>
+      </c>
+      <c r="AK2" s="11" t="inlineStr">
+        <is>
+          <t>ONG000000000271</t>
+        </is>
+      </c>
+      <c r="AL2" s="11" t="inlineStr">
+        <is>
+          <t>Commitment Fee</t>
+        </is>
+      </c>
+      <c r="AM2" s="11" t="inlineStr">
+        <is>
+          <t>Indemnity Fee - Usage (SFBG)</t>
+        </is>
+      </c>
+      <c r="AN2" s="11" t="inlineStr">
+        <is>
+          <t>12-Nov-2020</t>
+        </is>
+      </c>
+      <c r="AO2" s="11" t="inlineStr">
+        <is>
+          <t>12-Nov-2020</t>
+        </is>
+      </c>
+      <c r="AP2" s="11" t="inlineStr">
+        <is>
+          <t>12-Nov-2020</t>
+        </is>
+      </c>
+      <c r="AQ2" s="11" t="inlineStr">
+        <is>
+          <t>12-Nov-2020</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>07-Jul-2020</t>
+        </is>
+      </c>
+      <c r="AS2" s="1" t="inlineStr">
+        <is>
+          <t>09-Jan-2019</t>
+        </is>
+      </c>
+      <c r="AT2" s="11" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="AU2" s="1" t="n">
+        <v>5424.66</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>38355.78</v>
+      </c>
+      <c r="AY2" s="11" t="inlineStr">
+        <is>
+          <t>88,888,000.00</t>
+        </is>
+      </c>
+      <c r="AZ2" s="11" t="inlineStr">
+        <is>
+          <t>1,000.00</t>
+        </is>
+      </c>
+      <c r="BA2" s="11" t="inlineStr">
+        <is>
+          <t>Actual/365</t>
+        </is>
+      </c>
+      <c r="BB2" s="11" t="inlineStr">
+        <is>
+          <t>Actual/365</t>
+        </is>
+      </c>
+      <c r="BC2" s="11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BD2" s="11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BE2" s="11" t="inlineStr">
+        <is>
+          <t>18565001838</t>
+        </is>
+      </c>
+      <c r="BF2" s="11" t="inlineStr">
+        <is>
+          <t>18567000000</t>
+        </is>
+      </c>
+      <c r="BG2" s="11" t="inlineStr">
+        <is>
+          <t>18567000000</t>
+        </is>
+      </c>
+      <c r="BH2" s="11" t="inlineStr">
+        <is>
+          <t>UNUT Fee Due</t>
+        </is>
+      </c>
+      <c r="BI2" s="23" t="inlineStr">
+        <is>
+          <t>IPFEI Fee Due</t>
+        </is>
+      </c>
+      <c r="BJ2" s="1" t="inlineStr">
+        <is>
+          <t>john.blogg@abc.com</t>
+        </is>
+      </c>
+      <c r="BK2" s="11" t="inlineStr">
+        <is>
+          <t>13-Jul-2020</t>
+        </is>
+      </c>
+      <c r="BL2" s="11" t="inlineStr">
+        <is>
+          <t>IEEBRW7642S223130</t>
+        </is>
+      </c>
+      <c r="BM2" s="11" t="inlineStr">
+        <is>
+          <t>John Bloggs</t>
+        </is>
+      </c>
+      <c r="BN2" s="11" t="inlineStr">
+        <is>
+          <t>Awaiting release</t>
+        </is>
+      </c>
+      <c r="BO2" s="11" t="inlineStr">
+        <is>
+          <t>Payments</t>
+        </is>
+      </c>
+      <c r="BP2" s="11" t="inlineStr">
+        <is>
+          <t>Awaiting Release Cashflows</t>
+        </is>
+      </c>
+      <c r="BQ2" s="11" t="inlineStr">
+        <is>
+          <t>Ongoing Fee Payment</t>
+        </is>
+      </c>
+      <c r="BR2" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BS2" s="49" t="inlineStr">
+        <is>
+          <t>default</t>
         </is>
       </c>
       <c r="BT2" s="11" t="inlineStr">
         <is>
-          <t>john.blogg@abc.com</t>
+          <t>CBA Email with PDF Attachment</t>
         </is>
       </c>
       <c r="BU2" s="11" t="inlineStr">
         <is>
-          <t>james.baker@abc.com</t>
-        </is>
-      </c>
-      <c r="BV2" s="50" t="inlineStr">
-        <is>
-          <t>Bloggs</t>
-        </is>
-      </c>
-      <c r="BW2" s="50" t="inlineStr">
-        <is>
-          <t>Baker</t>
-        </is>
-      </c>
-      <c r="BX2" s="50" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="BY2" s="50" t="inlineStr">
-        <is>
-          <t>DDA (Demand Deposit Acct)</t>
-        </is>
-      </c>
-      <c r="BZ2" s="50" t="inlineStr">
-        <is>
-          <t>CBA Domestic Account</t>
-        </is>
-      </c>
-      <c r="CA2" s="11" t="inlineStr">
-        <is>
-          <t>1020188515</t>
-        </is>
-      </c>
-      <c r="CB2" s="11" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="CC2" s="11" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="CD2" s="50" t="inlineStr">
-        <is>
-          <t>From Cust</t>
-        </is>
-      </c>
-      <c r="CE2" s="50" t="inlineStr">
-        <is>
-          <t>&lt;Selected&gt;</t>
-        </is>
-      </c>
-      <c r="CF2" s="50" t="inlineStr">
-        <is>
-          <t>Simplified</t>
-        </is>
-      </c>
-      <c r="CG2" s="50" t="inlineStr">
-        <is>
-          <t>International Money Transfer</t>
-        </is>
-      </c>
-      <c r="CH2" s="1" t="inlineStr">
-        <is>
-          <t>IMTUSD1-4344</t>
-        </is>
-      </c>
-      <c r="CI2" s="49" t="inlineStr">
-        <is>
-          <t>IMT-USD2519</t>
-        </is>
-      </c>
-      <c r="CJ2" s="11" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="CK2" s="11" t="inlineStr">
-        <is>
-          <t>MT103</t>
-        </is>
-      </c>
-      <c r="CL2" s="11" t="inlineStr">
-        <is>
-          <t>Credit transfer - Service Level: None</t>
-        </is>
-      </c>
-      <c r="CM2" s="11" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="CN2" s="11" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="CO2" s="50" t="inlineStr">
-        <is>
-          <t>CTBAAU2S600</t>
-        </is>
-      </c>
-      <c r="CP2" s="50" t="inlineStr">
-        <is>
-          <t>COMMONWEALTH BANK OF AUSTRALIA SYDNEY</t>
-        </is>
-      </c>
-      <c r="CQ2" s="50" t="inlineStr">
-        <is>
-          <t>All Loan Types, SBLC/BA</t>
-        </is>
-      </c>
-      <c r="CR2" s="50" t="inlineStr">
-        <is>
-          <t>Principal, Interest, Fees</t>
-        </is>
-      </c>
-      <c r="CS2" s="50" t="inlineStr">
-        <is>
-          <t>&lt;Selected&gt;</t>
-        </is>
-      </c>
-      <c r="CT2" s="50" t="inlineStr">
-        <is>
-          <t>02568049389</t>
-        </is>
-      </c>
-      <c r="CU2" s="50" t="inlineStr">
-        <is>
-          <t>Internal Rating</t>
-        </is>
-      </c>
-      <c r="CV2" s="50" t="inlineStr">
-        <is>
-          <t>D1 Good</t>
-        </is>
-      </c>
-      <c r="CW2" s="50" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="CX2" s="50" t="inlineStr">
-        <is>
-          <t>Standard &amp; Poors</t>
-        </is>
-      </c>
-      <c r="CY2" s="50" t="inlineStr">
-        <is>
-          <t>BBB+</t>
-        </is>
-      </c>
-      <c r="CZ2" s="50" t="inlineStr">
-        <is>
-          <t>Moody's Investor Services Inc</t>
-        </is>
-      </c>
-      <c r="DA2" s="50" t="inlineStr">
-        <is>
-          <t>Aa2</t>
-        </is>
-      </c>
-      <c r="DB2" s="50" t="inlineStr">
-        <is>
-          <t>Fitch</t>
-        </is>
-      </c>
-      <c r="DC2" s="50" t="inlineStr">
-        <is>
-          <t>A+</t>
-        </is>
-      </c>
-      <c r="DD2" s="50" t="inlineStr">
-        <is>
-          <t>Mailing Address</t>
-        </is>
-      </c>
-      <c r="DE2" s="50" t="inlineStr">
-        <is>
-          <t>PO Box 861</t>
-        </is>
-      </c>
-      <c r="DF2" s="50" t="inlineStr">
-        <is>
-          <t>Almond, Victoria 3211</t>
-        </is>
-      </c>
-      <c r="DG2" s="12" t="inlineStr">
-        <is>
-          <t>03 5029 9445</t>
-        </is>
-      </c>
-      <c r="DH2" s="50" t="inlineStr">
-        <is>
-          <t>03 5029 9445</t>
-        </is>
-      </c>
-      <c r="DI2" s="11" t="inlineStr">
-        <is>
-          <t>Beneficiary Customer</t>
-        </is>
-      </c>
-      <c r="DJ2" s="11" t="inlineStr">
-        <is>
-          <t>Ordering Customer</t>
-        </is>
-      </c>
-      <c r="DK2" s="11" t="inlineStr">
-        <is>
-          <t>Account With Institution</t>
-        </is>
-      </c>
-      <c r="DL2" s="11" t="inlineStr">
-        <is>
-          <t>CITIUS33XXX</t>
-        </is>
-      </c>
-      <c r="DM2" s="11" t="n"/>
-      <c r="DN2" s="11" t="n"/>
-      <c r="DO2" s="11" t="inlineStr">
-        <is>
-          <t>Beneficiary Customer</t>
-        </is>
-      </c>
-      <c r="DP2" s="11" t="inlineStr">
-        <is>
-          <t>MT202</t>
-        </is>
-      </c>
-      <c r="DQ2" s="11" t="inlineStr">
-        <is>
-          <t>Beneficiary Institution</t>
-        </is>
-      </c>
-      <c r="DR2" s="11" t="inlineStr">
-        <is>
-          <t>XYZ 1234</t>
-        </is>
-      </c>
-      <c r="DS2" s="11" t="inlineStr">
-        <is>
-          <t>4561234789</t>
-        </is>
-      </c>
-      <c r="DT2" s="11" t="inlineStr">
-        <is>
-          <t>XYZ 1234 PARTNERS</t>
-        </is>
-      </c>
-      <c r="DU2" s="11" t="inlineStr">
-        <is>
-          <t>5558882223</t>
-        </is>
-      </c>
-      <c r="DV2" s="11" t="inlineStr">
-        <is>
-          <t>03-Jan-2019</t>
-        </is>
-      </c>
-      <c r="DW2" s="13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="DX2" s="11" t="inlineStr">
-        <is>
-          <t>03-Jan-2019</t>
-        </is>
-      </c>
-      <c r="DY2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="DZ2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EA2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EB2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EC2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="ED2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EE2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EF2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EG2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EH2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EI2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EJ2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EK2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EL2" s="11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="EM2" s="11" t="inlineStr">
-        <is>
-          <t>External Message</t>
-        </is>
-      </c>
-      <c r="EN2" s="49" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="EO2" s="49" t="inlineStr">
-        <is>
-          <t>LIQ</t>
-        </is>
-      </c>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="BL14" s="13" t="n"/>
+    </row>
+    <row r="15">
+      <c r="BO15" s="34" t="n"/>
+    </row>
+    <row r="16">
+      <c r="BP16" s="34" t="n"/>
+    </row>
+    <row r="18">
+      <c r="BP18" s="34" t="n"/>
+    </row>
+    <row r="19">
+      <c r="BO19" s="34" t="n"/>
+      <c r="BP19" s="34" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ02_BaselineAgency.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ02_BaselineAgency.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="6" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="10" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED01_DealSetup" sheetId="1" state="visible" r:id="rId1"/>
@@ -223,7 +223,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -248,7 +248,6 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -308,6 +307,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,8 +624,8 @@
   <dimension ref="A1:DO2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B32" sqref="B32"/>
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -700,28 +703,28 @@
     <col width="11.85546875" customWidth="1" style="11" min="84" max="84"/>
     <col width="19.42578125" customWidth="1" style="11" min="85" max="85"/>
     <col width="19" customWidth="1" style="11" min="86" max="86"/>
-    <col width="36.7109375" customWidth="1" style="27" min="87" max="87"/>
-    <col width="18.140625" customWidth="1" style="27" min="88" max="88"/>
-    <col width="15.5703125" customWidth="1" style="27" min="89" max="89"/>
-    <col width="23.28515625" customWidth="1" style="27" min="90" max="90"/>
-    <col width="11.28515625" customWidth="1" style="27" min="91" max="91"/>
-    <col width="8.7109375" customWidth="1" style="27" min="92" max="92"/>
-    <col width="18.7109375" customWidth="1" style="27" min="93" max="93"/>
-    <col width="18" customWidth="1" style="27" min="94" max="94"/>
-    <col width="12.7109375" customWidth="1" style="27" min="95" max="95"/>
-    <col width="11.42578125" customWidth="1" style="27" min="96" max="96"/>
+    <col width="36.7109375" customWidth="1" style="26" min="87" max="87"/>
+    <col width="18.140625" customWidth="1" style="26" min="88" max="88"/>
+    <col width="15.5703125" customWidth="1" style="26" min="89" max="89"/>
+    <col width="23.28515625" customWidth="1" style="26" min="90" max="90"/>
+    <col width="11.28515625" customWidth="1" style="26" min="91" max="91"/>
+    <col width="8.7109375" customWidth="1" style="26" min="92" max="92"/>
+    <col width="18.7109375" customWidth="1" style="26" min="93" max="93"/>
+    <col width="18" customWidth="1" style="26" min="94" max="94"/>
+    <col width="12.7109375" customWidth="1" style="26" min="95" max="95"/>
+    <col width="11.42578125" customWidth="1" style="26" min="96" max="96"/>
     <col width="23.42578125" customWidth="1" style="11" min="97" max="97"/>
-    <col width="42.140625" customWidth="1" style="27" min="98" max="98"/>
-    <col width="47.85546875" customWidth="1" style="27" min="99" max="99"/>
-    <col width="29" customWidth="1" style="27" min="100" max="100"/>
-    <col width="28.28515625" customWidth="1" style="27" min="101" max="101"/>
-    <col width="24.5703125" customWidth="1" style="27" min="102" max="102"/>
-    <col width="8.85546875" customWidth="1" style="27" min="103" max="103"/>
-    <col width="25" customWidth="1" style="27" min="104" max="104"/>
+    <col width="42.140625" customWidth="1" style="26" min="98" max="98"/>
+    <col width="47.85546875" customWidth="1" style="26" min="99" max="99"/>
+    <col width="29" customWidth="1" style="26" min="100" max="100"/>
+    <col width="28.28515625" customWidth="1" style="26" min="101" max="101"/>
+    <col width="24.5703125" customWidth="1" style="26" min="102" max="102"/>
+    <col width="8.85546875" customWidth="1" style="26" min="103" max="103"/>
+    <col width="25" customWidth="1" style="26" min="104" max="104"/>
     <col width="19.28515625" customWidth="1" style="11" min="105" max="105"/>
     <col width="28.42578125" customWidth="1" style="11" min="106" max="106"/>
     <col width="21.140625" customWidth="1" style="11" min="107" max="107"/>
-    <col width="24" bestFit="1" customWidth="1" style="27" min="108" max="108"/>
+    <col width="24" bestFit="1" customWidth="1" style="26" min="108" max="108"/>
     <col width="20.42578125" customWidth="1" style="11" min="109" max="109"/>
     <col width="24" customWidth="1" style="11" min="110" max="110"/>
     <col width="18.28515625" customWidth="1" style="11" min="111" max="112"/>
@@ -733,7 +736,7 @@
     <col width="34.85546875" bestFit="1" customWidth="1" min="118" max="118"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customFormat="1" customHeight="1" s="25" thickBot="1">
+    <row r="1" ht="15.75" customFormat="1" customHeight="1" s="24" thickBot="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
           <t>rowid</t>
@@ -759,579 +762,579 @@
           <t>Deal_DaysSubtractedFromSystemDate</t>
         </is>
       </c>
-      <c r="F1" s="21" t="inlineStr">
+      <c r="F1" s="20" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="G1" s="21" t="inlineStr">
+      <c r="G1" s="20" t="inlineStr">
         <is>
           <t>Deal_Alias</t>
         </is>
       </c>
-      <c r="H1" s="21" t="inlineStr">
+      <c r="H1" s="20" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="I1" s="25" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>Deal_Currency</t>
         </is>
       </c>
-      <c r="J1" s="25" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>Deal_DepartmentCode</t>
         </is>
       </c>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Deal_Department</t>
         </is>
       </c>
-      <c r="L1" s="25" t="inlineStr">
+      <c r="L1" s="24" t="inlineStr">
         <is>
           <t>Deal_SalesGroup</t>
         </is>
       </c>
-      <c r="M1" s="21" t="inlineStr">
+      <c r="M1" s="20" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="N1" s="21" t="inlineStr">
+      <c r="N1" s="20" t="inlineStr">
         <is>
           <t>Borrower_Location</t>
         </is>
       </c>
-      <c r="O1" s="21" t="inlineStr">
+      <c r="O1" s="20" t="inlineStr">
         <is>
           <t>Borrower_SGAlias</t>
         </is>
       </c>
-      <c r="P1" s="21" t="inlineStr">
+      <c r="P1" s="20" t="inlineStr">
         <is>
           <t>Borrower_PreferredRIMthd1</t>
         </is>
       </c>
-      <c r="Q1" s="25" t="inlineStr">
+      <c r="Q1" s="24" t="inlineStr">
         <is>
           <t>Deal_ClassificationCode</t>
         </is>
       </c>
-      <c r="R1" s="25" t="inlineStr">
+      <c r="R1" s="24" t="inlineStr">
         <is>
           <t>Deal_ClassificationDesc</t>
         </is>
       </c>
-      <c r="S1" s="25" t="inlineStr">
+      <c r="S1" s="24" t="inlineStr">
         <is>
           <t>Deal_AdminAgent</t>
         </is>
       </c>
-      <c r="T1" s="21" t="inlineStr">
+      <c r="T1" s="20" t="inlineStr">
         <is>
           <t>AdminAgent_Location</t>
         </is>
       </c>
-      <c r="U1" s="21" t="inlineStr">
+      <c r="U1" s="20" t="inlineStr">
         <is>
           <t>AdminAgent_SGAlias</t>
         </is>
       </c>
-      <c r="V1" s="21" t="inlineStr">
+      <c r="V1" s="20" t="inlineStr">
         <is>
           <t>AdminAgent_SGAlias_Secondary</t>
         </is>
       </c>
-      <c r="W1" s="21" t="inlineStr">
+      <c r="W1" s="20" t="inlineStr">
         <is>
           <t>AdminAgent_SGAlias_Third</t>
         </is>
       </c>
-      <c r="X1" s="25" t="inlineStr">
+      <c r="X1" s="24" t="inlineStr">
         <is>
           <t>AdminAgent_ServicingGroup</t>
         </is>
       </c>
-      <c r="Y1" s="25" t="inlineStr">
+      <c r="Y1" s="24" t="inlineStr">
         <is>
           <t>AdminAgent_ContactName</t>
         </is>
       </c>
-      <c r="Z1" s="25" t="inlineStr">
+      <c r="Z1" s="24" t="inlineStr">
         <is>
           <t>AdminAgent_PreferredRIMthd1</t>
         </is>
       </c>
-      <c r="AA1" s="48" t="inlineStr">
+      <c r="AA1" s="47" t="inlineStr">
         <is>
           <t>AdminAgent_RIMthdDesc1</t>
         </is>
       </c>
-      <c r="AB1" s="25" t="inlineStr">
+      <c r="AB1" s="24" t="inlineStr">
         <is>
           <t>Deal_ProposedCmt</t>
         </is>
       </c>
-      <c r="AC1" s="25" t="inlineStr">
+      <c r="AC1" s="24" t="inlineStr">
         <is>
           <t>Deal_ExpenseCode</t>
         </is>
       </c>
-      <c r="AD1" s="25" t="inlineStr">
+      <c r="AD1" s="24" t="inlineStr">
         <is>
           <t>HolidayCalendar</t>
         </is>
       </c>
-      <c r="AE1" s="25" t="inlineStr">
+      <c r="AE1" s="24" t="inlineStr">
         <is>
           <t>FinancialRatioStartDate</t>
         </is>
       </c>
-      <c r="AF1" s="25" t="inlineStr">
+      <c r="AF1" s="24" t="inlineStr">
         <is>
           <t>UpfrontFee_Category</t>
         </is>
       </c>
-      <c r="AG1" s="25" t="inlineStr">
+      <c r="AG1" s="24" t="inlineStr">
         <is>
           <t>UpfrontFee_Type</t>
         </is>
       </c>
-      <c r="AH1" s="25" t="inlineStr">
+      <c r="AH1" s="24" t="inlineStr">
         <is>
           <t>UpfrontFee_RateBasis</t>
         </is>
       </c>
-      <c r="AI1" s="21" t="inlineStr">
+      <c r="AI1" s="20" t="inlineStr">
         <is>
           <t>UpfrontFee_Amount</t>
         </is>
       </c>
-      <c r="AJ1" s="25" t="inlineStr">
+      <c r="AJ1" s="24" t="inlineStr">
         <is>
           <t>UpfrontFee_SpreadType</t>
         </is>
       </c>
-      <c r="AK1" s="25" t="inlineStr">
+      <c r="AK1" s="24" t="inlineStr">
         <is>
           <t>Deal_PricingOption1</t>
         </is>
       </c>
-      <c r="AL1" s="25" t="inlineStr">
+      <c r="AL1" s="24" t="inlineStr">
         <is>
           <t>Deal_PricingOption2</t>
         </is>
       </c>
-      <c r="AM1" s="25" t="inlineStr">
+      <c r="AM1" s="24" t="inlineStr">
         <is>
           <t>Deal_PricingOption3</t>
         </is>
       </c>
-      <c r="AN1" s="25" t="inlineStr">
+      <c r="AN1" s="24" t="inlineStr">
         <is>
           <t>Deal_PricingOption4</t>
         </is>
       </c>
-      <c r="AO1" s="25" t="inlineStr">
+      <c r="AO1" s="24" t="inlineStr">
         <is>
           <t>InitialFractionRate_Round</t>
         </is>
       </c>
-      <c r="AP1" s="25" t="inlineStr">
+      <c r="AP1" s="24" t="inlineStr">
         <is>
           <t>RoundingDecimal_Round</t>
         </is>
       </c>
-      <c r="AQ1" s="25" t="inlineStr">
+      <c r="AQ1" s="24" t="inlineStr">
         <is>
           <t>NonBusinessDayRule</t>
         </is>
       </c>
-      <c r="AR1" s="21" t="inlineStr">
+      <c r="AR1" s="20" t="inlineStr">
         <is>
           <t>PricingOption_MatrixChangeAppMthd</t>
         </is>
       </c>
-      <c r="AS1" s="21" t="inlineStr">
+      <c r="AS1" s="20" t="inlineStr">
         <is>
           <t>PricingOption_RateChangeAppMthd</t>
         </is>
       </c>
-      <c r="AT1" s="25" t="inlineStr">
+      <c r="AT1" s="24" t="inlineStr">
         <is>
           <t>PricingOption_BillNoOfDays</t>
         </is>
       </c>
-      <c r="AU1" s="25" t="inlineStr">
+      <c r="AU1" s="24" t="inlineStr">
         <is>
           <t>PricingRule_Fee1</t>
         </is>
       </c>
-      <c r="AV1" s="25" t="inlineStr">
+      <c r="AV1" s="24" t="inlineStr">
         <is>
           <t>PricingRule_Fee2</t>
         </is>
       </c>
-      <c r="AW1" s="25" t="inlineStr">
+      <c r="AW1" s="24" t="inlineStr">
         <is>
           <t>PricingRule_MatrixChangeAppMthd1</t>
         </is>
       </c>
-      <c r="AX1" s="25" t="inlineStr">
+      <c r="AX1" s="24" t="inlineStr">
         <is>
           <t>PricingRule_NonBussDayRule1</t>
         </is>
       </c>
-      <c r="AY1" s="25" t="inlineStr">
+      <c r="AY1" s="24" t="inlineStr">
         <is>
           <t>PricingRule_BillNoOfDays1</t>
         </is>
       </c>
-      <c r="AZ1" s="25" t="inlineStr">
+      <c r="AZ1" s="24" t="inlineStr">
         <is>
           <t>PricingRule_BillNoOfDays2</t>
         </is>
       </c>
-      <c r="BA1" s="25" t="inlineStr">
+      <c r="BA1" s="24" t="inlineStr">
         <is>
           <t>BankRole_Lender</t>
         </is>
       </c>
-      <c r="BB1" s="25" t="inlineStr">
+      <c r="BB1" s="24" t="inlineStr">
         <is>
           <t>BankRole_SGAlias</t>
         </is>
       </c>
-      <c r="BC1" s="25" t="inlineStr">
+      <c r="BC1" s="24" t="inlineStr">
         <is>
           <t>BankRole_SGName</t>
         </is>
       </c>
-      <c r="BD1" s="25" t="inlineStr">
+      <c r="BD1" s="24" t="inlineStr">
         <is>
           <t>BankRole_SGGroupMember</t>
         </is>
       </c>
-      <c r="BE1" s="25" t="inlineStr">
+      <c r="BE1" s="24" t="inlineStr">
         <is>
           <t>BankRole_RIMthd</t>
         </is>
       </c>
-      <c r="BF1" s="25" t="inlineStr">
+      <c r="BF1" s="24" t="inlineStr">
         <is>
           <t>BankRole_Portfolio</t>
         </is>
       </c>
-      <c r="BG1" s="25" t="inlineStr">
+      <c r="BG1" s="24" t="inlineStr">
         <is>
           <t>BankRole_ExpenseCode</t>
         </is>
       </c>
-      <c r="BH1" s="25" t="inlineStr">
+      <c r="BH1" s="24" t="inlineStr">
         <is>
           <t>BankRole_ExpenseCodeDesc</t>
         </is>
       </c>
-      <c r="BI1" s="21" t="inlineStr">
+      <c r="BI1" s="20" t="inlineStr">
         <is>
           <t>Primary_Lender1</t>
         </is>
       </c>
-      <c r="BJ1" s="21" t="inlineStr">
+      <c r="BJ1" s="20" t="inlineStr">
         <is>
           <t>Primary_Lender2</t>
         </is>
       </c>
-      <c r="BK1" s="21" t="inlineStr">
+      <c r="BK1" s="20" t="inlineStr">
         <is>
           <t>Primary_Lender3</t>
         </is>
       </c>
-      <c r="BL1" s="21" t="inlineStr">
+      <c r="BL1" s="20" t="inlineStr">
         <is>
           <t>Primary_LenderLoc1</t>
         </is>
       </c>
-      <c r="BM1" s="21" t="inlineStr">
+      <c r="BM1" s="20" t="inlineStr">
         <is>
           <t>Primary_LenderLoc2</t>
         </is>
       </c>
-      <c r="BN1" s="21" t="inlineStr">
+      <c r="BN1" s="20" t="inlineStr">
         <is>
           <t>Primary_LenderLoc3</t>
         </is>
       </c>
-      <c r="BO1" s="25" t="inlineStr">
+      <c r="BO1" s="24" t="inlineStr">
         <is>
           <t>Primary_RiskBook</t>
         </is>
       </c>
-      <c r="BP1" s="25" t="inlineStr">
+      <c r="BP1" s="24" t="inlineStr">
         <is>
           <t>Primary_TransactionType</t>
         </is>
       </c>
-      <c r="BQ1" s="25" t="inlineStr">
+      <c r="BQ1" s="24" t="inlineStr">
         <is>
           <t>Primary_PctOfDeal1</t>
         </is>
       </c>
-      <c r="BR1" s="25" t="inlineStr">
+      <c r="BR1" s="24" t="inlineStr">
         <is>
           <t>Primary_PctOfDeal2</t>
         </is>
       </c>
-      <c r="BS1" s="25" t="inlineStr">
+      <c r="BS1" s="24" t="inlineStr">
         <is>
           <t>Primary_PctOfDeal3</t>
         </is>
       </c>
-      <c r="BT1" s="25" t="inlineStr">
+      <c r="BT1" s="24" t="inlineStr">
         <is>
           <t>Primary_BuySellPrice</t>
         </is>
       </c>
-      <c r="BU1" s="21" t="inlineStr">
+      <c r="BU1" s="20" t="inlineStr">
         <is>
           <t>Primary_Contact1</t>
         </is>
       </c>
-      <c r="BV1" s="21" t="inlineStr">
+      <c r="BV1" s="20" t="inlineStr">
         <is>
           <t>Primary_Contact2</t>
         </is>
       </c>
-      <c r="BW1" s="21" t="inlineStr">
+      <c r="BW1" s="20" t="inlineStr">
         <is>
           <t>Primary_Contact3</t>
         </is>
       </c>
-      <c r="BX1" s="21" t="inlineStr">
+      <c r="BX1" s="20" t="inlineStr">
         <is>
           <t>Primary_SGAlias1</t>
         </is>
       </c>
-      <c r="BY1" s="21" t="inlineStr">
+      <c r="BY1" s="20" t="inlineStr">
         <is>
           <t>Primary_SGAlias2</t>
         </is>
       </c>
-      <c r="BZ1" s="21" t="inlineStr">
+      <c r="BZ1" s="20" t="inlineStr">
         <is>
           <t>Primary_SGAlias3</t>
         </is>
       </c>
-      <c r="CA1" s="25" t="inlineStr">
+      <c r="CA1" s="24" t="inlineStr">
         <is>
           <t>Primary_Portfolio</t>
         </is>
       </c>
-      <c r="CB1" s="25" t="inlineStr">
+      <c r="CB1" s="24" t="inlineStr">
         <is>
           <t>Primary_PortfolioBranch</t>
         </is>
       </c>
-      <c r="CC1" s="25" t="inlineStr">
+      <c r="CC1" s="24" t="inlineStr">
         <is>
           <t>Primary_PortfolioAllocation</t>
         </is>
       </c>
-      <c r="CD1" s="21" t="inlineStr">
+      <c r="CD1" s="20" t="inlineStr">
         <is>
           <t>Primary_PortfolioExpiryDate</t>
         </is>
       </c>
-      <c r="CE1" s="25" t="inlineStr">
+      <c r="CE1" s="24" t="inlineStr">
         <is>
           <t>Primary_CircledDate</t>
         </is>
       </c>
-      <c r="CF1" s="25" t="inlineStr">
+      <c r="CF1" s="24" t="inlineStr">
         <is>
           <t>Expiry_Date</t>
         </is>
       </c>
-      <c r="CG1" s="39" t="inlineStr">
+      <c r="CG1" s="38" t="inlineStr">
         <is>
           <t>PortfolioBranch</t>
         </is>
       </c>
-      <c r="CH1" s="39" t="inlineStr">
+      <c r="CH1" s="38" t="inlineStr">
         <is>
           <t>PortfolioAllocation</t>
         </is>
       </c>
-      <c r="CI1" s="39" t="inlineStr">
+      <c r="CI1" s="38" t="inlineStr">
         <is>
           <t>DefaultCurrency</t>
         </is>
       </c>
-      <c r="CJ1" s="39" t="inlineStr">
+      <c r="CJ1" s="38" t="inlineStr">
         <is>
           <t>BorrowerServicingGroup</t>
         </is>
       </c>
-      <c r="CK1" s="39" t="inlineStr">
+      <c r="CK1" s="38" t="inlineStr">
         <is>
           <t>GlobalLimit</t>
         </is>
       </c>
-      <c r="CL1" s="39" t="inlineStr">
+      <c r="CL1" s="38" t="inlineStr">
         <is>
           <t>Maturity</t>
         </is>
       </c>
-      <c r="CM1" s="39" t="inlineStr">
+      <c r="CM1" s="38" t="inlineStr">
         <is>
           <t>BorrowerPercent</t>
         </is>
       </c>
-      <c r="CN1" s="39" t="inlineStr">
+      <c r="CN1" s="38" t="inlineStr">
         <is>
           <t>CustomerServicingGroupCurrency</t>
         </is>
       </c>
-      <c r="CO1" s="39" t="inlineStr">
+      <c r="CO1" s="38" t="inlineStr">
         <is>
           <t>ApproveDate</t>
         </is>
       </c>
-      <c r="CP1" s="39" t="inlineStr">
+      <c r="CP1" s="38" t="inlineStr">
         <is>
           <t>CloseDate</t>
         </is>
       </c>
-      <c r="CQ1" s="40" t="inlineStr">
+      <c r="CQ1" s="39" t="inlineStr">
         <is>
           <t>SearchLenderName</t>
         </is>
       </c>
-      <c r="CR1" s="39" t="inlineStr">
+      <c r="CR1" s="38" t="inlineStr">
         <is>
           <t>LenderShortName</t>
         </is>
       </c>
-      <c r="CS1" s="39" t="inlineStr">
+      <c r="CS1" s="38" t="inlineStr">
         <is>
           <t>PricingRule_LOC</t>
         </is>
       </c>
-      <c r="CT1" s="39" t="inlineStr">
+      <c r="CT1" s="38" t="inlineStr">
         <is>
           <t>InitialFractionRate_Round_LOC</t>
         </is>
       </c>
-      <c r="CU1" s="39" t="inlineStr">
+      <c r="CU1" s="38" t="inlineStr">
         <is>
           <t>RoundingDecimal_Round_LOC</t>
         </is>
       </c>
-      <c r="CV1" s="39" t="inlineStr">
+      <c r="CV1" s="38" t="inlineStr">
         <is>
           <t>NonBusinessDayRule_LOC</t>
         </is>
       </c>
-      <c r="CW1" s="39" t="inlineStr">
+      <c r="CW1" s="38" t="inlineStr">
         <is>
           <t>CCY_LOC</t>
         </is>
       </c>
-      <c r="CX1" s="39" t="inlineStr">
+      <c r="CX1" s="38" t="inlineStr">
         <is>
           <t>BillingNumberOfDays_LOC</t>
         </is>
       </c>
-      <c r="CY1" s="39" t="inlineStr">
+      <c r="CY1" s="38" t="inlineStr">
         <is>
           <t>Borrower_SG_Name</t>
         </is>
       </c>
-      <c r="CZ1" s="39" t="inlineStr">
+      <c r="CZ1" s="38" t="inlineStr">
         <is>
           <t>Borrower_SG_GroupMembers</t>
         </is>
       </c>
-      <c r="DA1" s="40" t="inlineStr">
+      <c r="DA1" s="39" t="inlineStr">
         <is>
           <t>Borrower_SG_Method</t>
         </is>
       </c>
-      <c r="DB1" s="39" t="inlineStr">
+      <c r="DB1" s="38" t="inlineStr">
         <is>
           <t>ActualDueDate</t>
         </is>
       </c>
-      <c r="DC1" s="39" t="inlineStr">
+      <c r="DC1" s="38" t="inlineStr">
         <is>
           <t>Deal_AgreementDate</t>
         </is>
       </c>
-      <c r="DD1" s="39" t="inlineStr">
+      <c r="DD1" s="38" t="inlineStr">
         <is>
           <t>Deal_ProjectedCloseDate</t>
         </is>
       </c>
-      <c r="DE1" s="39" t="inlineStr">
+      <c r="DE1" s="38" t="inlineStr">
         <is>
           <t>Deal_EffectiveDate</t>
         </is>
       </c>
-      <c r="DF1" s="40" t="inlineStr">
+      <c r="DF1" s="39" t="inlineStr">
         <is>
           <t>Borrower_SG_Alias</t>
         </is>
       </c>
-      <c r="DG1" s="39" t="inlineStr">
+      <c r="DG1" s="38" t="inlineStr">
         <is>
           <t>Bank_Name</t>
         </is>
       </c>
-      <c r="DH1" s="39" t="inlineStr">
+      <c r="DH1" s="38" t="inlineStr">
         <is>
           <t>BankRole_SG_Name</t>
         </is>
       </c>
-      <c r="DI1" s="39" t="inlineStr">
+      <c r="DI1" s="38" t="inlineStr">
         <is>
           <t>BankRole_SG_GroupMembers</t>
         </is>
       </c>
-      <c r="DJ1" s="40" t="inlineStr">
+      <c r="DJ1" s="39" t="inlineStr">
         <is>
           <t>BankRole_SG_Method</t>
         </is>
       </c>
-      <c r="DK1" s="40" t="inlineStr">
+      <c r="DK1" s="39" t="inlineStr">
         <is>
           <t>BankRole_SG</t>
         </is>
       </c>
-      <c r="DL1" s="40" t="inlineStr">
+      <c r="DL1" s="39" t="inlineStr">
         <is>
           <t>BankRole_SG_Alias</t>
         </is>
       </c>
-      <c r="DM1" s="40" t="inlineStr">
+      <c r="DM1" s="39" t="inlineStr">
         <is>
           <t>Primaries_TransactionType</t>
         </is>
       </c>
-      <c r="DN1" s="48" t="inlineStr">
+      <c r="DN1" s="47" t="inlineStr">
         <is>
           <t>OwningBranch</t>
         </is>
       </c>
-      <c r="DO1" s="48" t="inlineStr">
+      <c r="DO1" s="47" t="inlineStr">
         <is>
           <t>ProcessingArea</t>
         </is>
       </c>
     </row>
     <row r="2" customFormat="1" s="11">
-      <c r="A2" s="35" t="inlineStr">
+      <c r="A2" s="34" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1369,52 +1372,52 @@
           <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
-      <c r="I2" s="23" t="inlineStr">
+      <c r="I2" s="22" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="J2" s="23" t="inlineStr">
+      <c r="J2" s="22" t="inlineStr">
         <is>
           <t>GLB</t>
         </is>
       </c>
-      <c r="K2" s="22" t="inlineStr">
+      <c r="K2" s="21" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
       </c>
-      <c r="L2" s="50" t="inlineStr">
+      <c r="L2" s="49" t="inlineStr">
         <is>
           <t>Sales Group 1</t>
         </is>
       </c>
-      <c r="M2" s="49" t="inlineStr">
+      <c r="M2" s="48" t="inlineStr">
         <is>
           <t>ESPS11413431</t>
         </is>
       </c>
-      <c r="N2" s="22" t="inlineStr">
+      <c r="N2" s="21" t="inlineStr">
         <is>
           <t>Melbourne, VIC,Australia</t>
         </is>
       </c>
-      <c r="O2" s="22" t="inlineStr">
+      <c r="O2" s="21" t="inlineStr">
         <is>
           <t>JB</t>
         </is>
       </c>
-      <c r="P2" s="50" t="inlineStr">
+      <c r="P2" s="49" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="Q2" s="23" t="inlineStr">
+      <c r="Q2" s="22" t="inlineStr">
         <is>
           <t>GCP</t>
         </is>
       </c>
-      <c r="R2" s="50" t="inlineStr">
+      <c r="R2" s="49" t="inlineStr">
         <is>
           <t>General Corp Purpose</t>
         </is>
@@ -1424,57 +1427,57 @@
           <t>COMMONWEALTHBANKOFAUSTCB001</t>
         </is>
       </c>
-      <c r="T2" s="50" t="inlineStr">
+      <c r="T2" s="49" t="inlineStr">
         <is>
           <t>Sydney, NSW,Australia</t>
         </is>
       </c>
-      <c r="U2" s="50" t="inlineStr">
+      <c r="U2" s="49" t="inlineStr">
         <is>
           <t>BUSINESS VERIFICATION</t>
         </is>
       </c>
-      <c r="V2" s="23" t="inlineStr">
+      <c r="V2" s="22" t="inlineStr">
         <is>
           <t>JB</t>
         </is>
       </c>
-      <c r="W2" s="23" t="inlineStr">
+      <c r="W2" s="22" t="inlineStr">
         <is>
           <t>JB</t>
         </is>
       </c>
-      <c r="X2" s="50" t="inlineStr">
+      <c r="X2" s="49" t="inlineStr">
         <is>
           <t>BUSINESS VERIFICATION</t>
         </is>
       </c>
-      <c r="Y2" s="50" t="inlineStr">
+      <c r="Y2" s="49" t="inlineStr">
         <is>
           <t>Lending,${SPACE}${SPACE}Ops</t>
         </is>
       </c>
-      <c r="Z2" s="50" t="inlineStr">
+      <c r="Z2" s="49" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="AA2" s="50" t="inlineStr">
+      <c r="AA2" s="49" t="inlineStr">
         <is>
           <t>CBA OBU AUD</t>
         </is>
       </c>
-      <c r="AB2" s="23" t="inlineStr">
+      <c r="AB2" s="22" t="inlineStr">
         <is>
           <t>100,000,000.00</t>
         </is>
       </c>
-      <c r="AC2" s="50" t="inlineStr">
+      <c r="AC2" s="49" t="inlineStr">
         <is>
           <t>BP_CML</t>
         </is>
       </c>
-      <c r="AD2" s="18" t="inlineStr">
+      <c r="AD2" s="17" t="inlineStr">
         <is>
           <t>Sydney, Australia</t>
         </is>
@@ -1484,22 +1487,22 @@
           <t>12-Jun-2018</t>
         </is>
       </c>
-      <c r="AF2" s="23" t="inlineStr">
+      <c r="AF2" s="22" t="inlineStr">
         <is>
           <t>Upfront Fee</t>
         </is>
       </c>
-      <c r="AG2" s="23" t="inlineStr">
+      <c r="AG2" s="22" t="inlineStr">
         <is>
           <t>Establishment / Extension Fee</t>
         </is>
       </c>
-      <c r="AH2" s="23" t="inlineStr">
+      <c r="AH2" s="22" t="inlineStr">
         <is>
           <t>Actual/365/366</t>
         </is>
       </c>
-      <c r="AI2" s="23" t="inlineStr">
+      <c r="AI2" s="22" t="inlineStr">
         <is>
           <t>3,000</t>
         </is>
@@ -1509,78 +1512,78 @@
           <t>Percent</t>
         </is>
       </c>
-      <c r="AK2" s="23" t="inlineStr">
+      <c r="AK2" s="22" t="inlineStr">
         <is>
           <t>Bank Guarantee/Letter of Credit/Synd Fronted Bank</t>
         </is>
       </c>
-      <c r="AL2" s="50" t="inlineStr">
+      <c r="AL2" s="49" t="inlineStr">
         <is>
           <t>BBSW - Mid</t>
         </is>
       </c>
-      <c r="AM2" s="50" t="inlineStr">
+      <c r="AM2" s="49" t="inlineStr">
         <is>
           <t>BBSY - Bid</t>
         </is>
       </c>
-      <c r="AN2" s="50" t="inlineStr">
+      <c r="AN2" s="49" t="inlineStr">
         <is>
           <t>USD LIBOR Option</t>
         </is>
       </c>
-      <c r="AO2" s="23" t="inlineStr">
+      <c r="AO2" s="22" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="AP2" s="23" t="inlineStr">
+      <c r="AP2" s="22" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="AQ2" s="23" t="inlineStr">
+      <c r="AQ2" s="22" t="inlineStr">
         <is>
           <t>Modified Following Business Day</t>
         </is>
       </c>
-      <c r="AR2" s="23" t="inlineStr">
+      <c r="AR2" s="22" t="inlineStr">
         <is>
           <t>Start of current cycle</t>
         </is>
       </c>
-      <c r="AS2" s="23" t="inlineStr">
+      <c r="AS2" s="22" t="inlineStr">
         <is>
           <t>Start of next interest cycle</t>
         </is>
       </c>
-      <c r="AT2" s="41" t="n">
+      <c r="AT2" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="AU2" s="23" t="inlineStr">
+      <c r="AU2" s="22" t="inlineStr">
         <is>
           <t>Commitment Fee</t>
         </is>
       </c>
-      <c r="AV2" s="50" t="inlineStr">
+      <c r="AV2" s="49" t="inlineStr">
         <is>
           <t>Indemnity Fee - Usage (SFBG)</t>
         </is>
       </c>
-      <c r="AW2" s="23" t="inlineStr">
+      <c r="AW2" s="22" t="inlineStr">
         <is>
           <t>Start of current cycle</t>
         </is>
       </c>
-      <c r="AX2" s="23" t="inlineStr">
+      <c r="AX2" s="22" t="inlineStr">
         <is>
           <t>Modified Following Business Day</t>
         </is>
       </c>
-      <c r="AY2" s="41" t="n">
+      <c r="AY2" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="AZ2" s="41" t="n">
+      <c r="AZ2" s="40" t="n">
         <v>10</v>
       </c>
       <c r="BA2" s="11" t="inlineStr">
@@ -1588,27 +1591,27 @@
           <t>COMMONWEALTH BANK AU-DBU</t>
         </is>
       </c>
-      <c r="BB2" s="23" t="inlineStr">
+      <c r="BB2" s="22" t="inlineStr">
         <is>
           <t>OL</t>
         </is>
       </c>
-      <c r="BC2" s="50" t="inlineStr">
+      <c r="BC2" s="49" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>
       </c>
-      <c r="BD2" s="50" t="inlineStr">
+      <c r="BD2" s="49" t="inlineStr">
         <is>
           <t>Loan,${SPACE}${SPACE}Operations</t>
         </is>
       </c>
-      <c r="BE2" s="50" t="inlineStr">
+      <c r="BE2" s="49" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="BF2" s="23" t="inlineStr">
+      <c r="BF2" s="22" t="inlineStr">
         <is>
           <t>Hold for Investment - Australia</t>
         </is>
@@ -1638,17 +1641,17 @@
           <t>LENDSHORT16107</t>
         </is>
       </c>
-      <c r="BL2" s="50" t="inlineStr">
+      <c r="BL2" s="49" t="inlineStr">
         <is>
           <t>Sydney, NSW,Australia</t>
         </is>
       </c>
-      <c r="BM2" s="50" t="inlineStr">
+      <c r="BM2" s="49" t="inlineStr">
         <is>
           <t>Melbourne, VIC,Australia</t>
         </is>
       </c>
-      <c r="BN2" s="50" t="inlineStr">
+      <c r="BN2" s="49" t="inlineStr">
         <is>
           <t>Melbourne, VIC,Australia</t>
         </is>
@@ -1658,21 +1661,21 @@
           <t>NR_COL</t>
         </is>
       </c>
-      <c r="BP2" s="23" t="inlineStr">
+      <c r="BP2" s="22" t="inlineStr">
         <is>
           <t>Origination</t>
         </is>
       </c>
-      <c r="BQ2" s="41" t="n">
+      <c r="BQ2" s="40" t="n">
         <v>60</v>
       </c>
-      <c r="BR2" s="41" t="n">
+      <c r="BR2" s="40" t="n">
         <v>30</v>
       </c>
-      <c r="BS2" s="41" t="n">
+      <c r="BS2" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="BT2" s="41" t="n">
+      <c r="BT2" s="40" t="n">
         <v>100</v>
       </c>
       <c r="BU2" s="11" t="inlineStr">
@@ -1680,37 +1683,37 @@
           <t>Lending,  Ops</t>
         </is>
       </c>
-      <c r="BV2" s="50" t="inlineStr">
+      <c r="BV2" s="49" t="inlineStr">
         <is>
           <t>Bloggs,  John</t>
         </is>
       </c>
-      <c r="BW2" s="50" t="inlineStr">
+      <c r="BW2" s="49" t="inlineStr">
         <is>
           <t>Bloggs,  John</t>
         </is>
       </c>
-      <c r="BX2" s="23" t="inlineStr">
+      <c r="BX2" s="22" t="inlineStr">
         <is>
           <t>OL</t>
         </is>
       </c>
-      <c r="BY2" s="50" t="inlineStr">
+      <c r="BY2" s="49" t="inlineStr">
         <is>
           <t>JB</t>
         </is>
       </c>
-      <c r="BZ2" s="50" t="inlineStr">
+      <c r="BZ2" s="49" t="inlineStr">
         <is>
           <t>JB</t>
         </is>
       </c>
-      <c r="CA2" s="50" t="inlineStr">
+      <c r="CA2" s="49" t="inlineStr">
         <is>
           <t>Hold for Investment - Australia</t>
         </is>
       </c>
-      <c r="CB2" s="50" t="inlineStr">
+      <c r="CB2" s="49" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - DBU</t>
         </is>
@@ -1730,42 +1733,42 @@
           <t>07-Jul-2020</t>
         </is>
       </c>
-      <c r="CG2" s="27" t="inlineStr">
+      <c r="CG2" s="26" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - OBU</t>
         </is>
       </c>
-      <c r="CH2" s="27" t="inlineStr">
+      <c r="CH2" s="26" t="inlineStr">
         <is>
           <t>100,000.00</t>
         </is>
       </c>
-      <c r="CI2" s="27" t="inlineStr">
+      <c r="CI2" s="26" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="CJ2" s="27" t="inlineStr">
+      <c r="CJ2" s="26" t="inlineStr">
         <is>
           <t>ZOE</t>
         </is>
       </c>
-      <c r="CK2" s="27" t="inlineStr">
+      <c r="CK2" s="26" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="CL2" s="27" t="inlineStr">
+      <c r="CL2" s="26" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="CM2" s="27" t="inlineStr">
+      <c r="CM2" s="26" t="inlineStr">
         <is>
           <t>100.000000%</t>
         </is>
       </c>
-      <c r="CN2" s="27" t="inlineStr">
+      <c r="CN2" s="26" t="inlineStr">
         <is>
           <t>Commonwealth Bank Australia - OBU</t>
         </is>
@@ -1780,57 +1783,57 @@
           <t>07-Jul-2020</t>
         </is>
       </c>
-      <c r="CQ2" s="27" t="inlineStr">
+      <c r="CQ2" s="26" t="inlineStr">
         <is>
           <t>COMMONWEALTH% OBU</t>
         </is>
       </c>
-      <c r="CR2" s="27" t="inlineStr">
+      <c r="CR2" s="26" t="inlineStr">
         <is>
           <t>COMMONWEALTH BANK OF AUSTRALIA - OBU</t>
         </is>
       </c>
-      <c r="CS2" s="27" t="inlineStr">
+      <c r="CS2" s="26" t="inlineStr">
         <is>
           <t>Bank Guarantee/Letter of Credit/Synd Fronted Bank</t>
         </is>
       </c>
-      <c r="CT2" s="27" t="inlineStr">
+      <c r="CT2" s="26" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="CU2" s="27" t="inlineStr">
+      <c r="CU2" s="26" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="CV2" s="27" t="inlineStr">
+      <c r="CV2" s="26" t="inlineStr">
         <is>
           <t>Next Business Day</t>
         </is>
       </c>
-      <c r="CW2" s="27" t="inlineStr">
+      <c r="CW2" s="26" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="CX2" s="27" t="inlineStr">
+      <c r="CX2" s="26" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="CY2" s="27" t="inlineStr">
+      <c r="CY2" s="26" t="inlineStr">
         <is>
           <t>BLOGGS</t>
         </is>
       </c>
-      <c r="CZ2" s="27" t="inlineStr">
+      <c r="CZ2" s="26" t="inlineStr">
         <is>
           <t>Bloggs,  John</t>
         </is>
       </c>
-      <c r="DA2" s="27" t="inlineStr">
+      <c r="DA2" s="26" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
@@ -1845,7 +1848,7 @@
           <t>07-Jul-2020</t>
         </is>
       </c>
-      <c r="DF2" s="27" t="inlineStr">
+      <c r="DF2" s="26" t="inlineStr">
         <is>
           <t>JB</t>
         </is>
@@ -1855,32 +1858,32 @@
           <t>COMMONWEALTH BANK AUST - OBU</t>
         </is>
       </c>
-      <c r="DH2" s="27" t="inlineStr">
+      <c r="DH2" s="26" t="inlineStr">
         <is>
           <t>BLOGGS</t>
         </is>
       </c>
-      <c r="DI2" s="27" t="inlineStr">
+      <c r="DI2" s="26" t="inlineStr">
         <is>
           <t>Loan,${SPACE}${SPACE}Operations</t>
         </is>
       </c>
-      <c r="DJ2" s="27" t="inlineStr">
+      <c r="DJ2" s="26" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="DK2" s="27" t="inlineStr">
+      <c r="DK2" s="26" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>
       </c>
-      <c r="DL2" s="27" t="inlineStr">
+      <c r="DL2" s="26" t="inlineStr">
         <is>
           <t>OL</t>
         </is>
       </c>
-      <c r="DM2" s="27" t="inlineStr">
+      <c r="DM2" s="26" t="inlineStr">
         <is>
           <t>Origination</t>
         </is>
@@ -1911,8 +1914,8 @@
   </sheetPr>
   <dimension ref="A1:AM15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -1928,207 +1931,207 @@
     <col width="21.7109375" customWidth="1" style="11" min="9" max="9"/>
     <col width="28.140625" customWidth="1" style="11" min="10" max="10"/>
     <col width="14.5703125" customWidth="1" style="11" min="11" max="11"/>
-    <col width="20.85546875" customWidth="1" style="49" min="12" max="12"/>
-    <col width="21.140625" customWidth="1" style="49" min="13" max="14"/>
-    <col width="22.140625" customWidth="1" style="49" min="15" max="15"/>
-    <col width="23.140625" customWidth="1" style="49" min="16" max="17"/>
-    <col width="22.85546875" customWidth="1" style="49" min="18" max="18"/>
-    <col width="23.85546875" customWidth="1" style="49" min="19" max="20"/>
+    <col width="20.85546875" customWidth="1" style="48" min="12" max="12"/>
+    <col width="21.140625" customWidth="1" style="48" min="13" max="14"/>
+    <col width="22.140625" customWidth="1" style="48" min="15" max="15"/>
+    <col width="23.140625" customWidth="1" style="48" min="16" max="17"/>
+    <col width="22.85546875" customWidth="1" style="48" min="18" max="18"/>
+    <col width="23.85546875" customWidth="1" style="48" min="19" max="20"/>
     <col width="14.85546875" customWidth="1" style="11" min="21" max="21"/>
     <col width="18.140625" customWidth="1" style="11" min="22" max="22"/>
     <col width="10.5703125" customWidth="1" style="11" min="23" max="23"/>
     <col width="22.42578125" customWidth="1" style="11" min="24" max="24"/>
     <col width="14.7109375" customWidth="1" style="11" min="25" max="25"/>
-    <col width="16.28515625" customWidth="1" style="49" min="26" max="28"/>
-    <col width="34.85546875" customWidth="1" style="49" min="29" max="29"/>
+    <col width="16.28515625" customWidth="1" style="48" min="26" max="28"/>
+    <col width="34.85546875" customWidth="1" style="48" min="29" max="29"/>
     <col width="16.7109375" customWidth="1" style="11" min="30" max="30"/>
     <col width="20.5703125" customWidth="1" style="11" min="31" max="31"/>
     <col width="16.140625" customWidth="1" style="1" min="32" max="32"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="25" thickBot="1">
-      <c r="A1" s="25" t="inlineStr">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="24" thickBot="1">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="25" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="21" t="inlineStr">
+      <c r="C1" s="20" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="25" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>OutstandingSelect_Type</t>
         </is>
       </c>
-      <c r="E1" s="21" t="inlineStr">
+      <c r="E1" s="20" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="F1" s="21" t="inlineStr">
+      <c r="F1" s="20" t="inlineStr">
         <is>
           <t>Loan_Alias</t>
         </is>
       </c>
-      <c r="G1" s="25" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Repricing_Type</t>
         </is>
       </c>
-      <c r="H1" s="21" t="inlineStr">
+      <c r="H1" s="20" t="inlineStr">
         <is>
           <t>Repricing_Date</t>
         </is>
       </c>
-      <c r="I1" s="25" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>Repricing_Add_Option</t>
         </is>
       </c>
-      <c r="J1" s="25" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>Repricing_Add_Option_Setup</t>
         </is>
       </c>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Pricing_Option</t>
         </is>
       </c>
-      <c r="L1" s="28" t="inlineStr">
+      <c r="L1" s="27" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="M1" s="32" t="inlineStr">
+      <c r="M1" s="31" t="inlineStr">
         <is>
           <t>Lender1_ShortName</t>
         </is>
       </c>
-      <c r="N1" s="32" t="inlineStr">
+      <c r="N1" s="31" t="inlineStr">
         <is>
           <t>Lender2_ShortName</t>
         </is>
       </c>
-      <c r="O1" s="33" t="inlineStr">
+      <c r="O1" s="32" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="P1" s="33" t="inlineStr">
+      <c r="P1" s="32" t="inlineStr">
         <is>
           <t>Remittance1_Instruction</t>
         </is>
       </c>
-      <c r="Q1" s="33" t="inlineStr">
+      <c r="Q1" s="32" t="inlineStr">
         <is>
           <t>Remittance2_Instruction</t>
         </is>
       </c>
-      <c r="R1" s="32" t="inlineStr">
+      <c r="R1" s="31" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="S1" s="32" t="inlineStr">
+      <c r="S1" s="31" t="inlineStr">
         <is>
           <t>Remittance1_Description</t>
         </is>
       </c>
-      <c r="T1" s="32" t="inlineStr">
+      <c r="T1" s="31" t="inlineStr">
         <is>
           <t>Remittance2_Description</t>
         </is>
       </c>
-      <c r="U1" s="25" t="inlineStr">
+      <c r="U1" s="24" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="V1" s="25" t="inlineStr">
+      <c r="V1" s="24" t="inlineStr">
         <is>
           <t>Remittance_Status</t>
         </is>
       </c>
-      <c r="W1" s="25" t="inlineStr">
+      <c r="W1" s="24" t="inlineStr">
         <is>
           <t>Base_Rate</t>
         </is>
       </c>
-      <c r="X1" s="21" t="inlineStr">
+      <c r="X1" s="20" t="inlineStr">
         <is>
           <t>Customer_Legal_Name</t>
         </is>
       </c>
-      <c r="Y1" s="25" t="inlineStr">
+      <c r="Y1" s="24" t="inlineStr">
         <is>
           <t>NoticeStatus</t>
         </is>
       </c>
-      <c r="Z1" s="30" t="inlineStr">
+      <c r="Z1" s="29" t="inlineStr">
         <is>
           <t>LenderSharePc1</t>
         </is>
       </c>
-      <c r="AA1" s="30" t="inlineStr">
+      <c r="AA1" s="29" t="inlineStr">
         <is>
           <t>LenderSharePc2</t>
         </is>
       </c>
-      <c r="AB1" s="30" t="inlineStr">
+      <c r="AB1" s="29" t="inlineStr">
         <is>
           <t>LenderSharePc3</t>
         </is>
       </c>
-      <c r="AC1" s="30" t="inlineStr">
+      <c r="AC1" s="29" t="inlineStr">
         <is>
           <t>Host_Bank</t>
         </is>
       </c>
-      <c r="AD1" s="25" t="inlineStr">
+      <c r="AD1" s="24" t="inlineStr">
         <is>
           <t>Rollover_Amount</t>
         </is>
       </c>
-      <c r="AE1" s="25" t="inlineStr">
+      <c r="AE1" s="24" t="inlineStr">
         <is>
           <t>Repricing_Frequency</t>
         </is>
       </c>
-      <c r="AF1" s="25" t="inlineStr">
+      <c r="AF1" s="24" t="inlineStr">
         <is>
           <t>New_Loan_Alias</t>
         </is>
       </c>
-      <c r="AG1" s="25" t="inlineStr">
+      <c r="AG1" s="24" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="AH1" s="25" t="inlineStr">
+      <c r="AH1" s="24" t="inlineStr">
         <is>
           <t>Days</t>
         </is>
       </c>
-      <c r="AI1" s="61" t="inlineStr">
+      <c r="AI1" s="60" t="inlineStr">
         <is>
           <t>Loan_RequestedAmount</t>
         </is>
       </c>
-      <c r="AJ1" s="25" t="inlineStr">
+      <c r="AJ1" s="24" t="inlineStr">
         <is>
           <t>NewRequestedAmt</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customFormat="1" customHeight="1" s="49">
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="48">
       <c r="A2" s="11" t="inlineStr">
         <is>
           <t>1</t>
@@ -2149,7 +2152,7 @@
           <t>Loan</t>
         </is>
       </c>
-      <c r="E2" s="49" t="inlineStr">
+      <c r="E2" s="48" t="inlineStr">
         <is>
           <t>S2TERM06082020202350MQX</t>
         </is>
@@ -2164,22 +2167,22 @@
           <t>Comprehensive Repricing</t>
         </is>
       </c>
-      <c r="H2" s="22" t="inlineStr">
+      <c r="H2" s="21" t="inlineStr">
         <is>
           <t>19-Jun-2018</t>
         </is>
       </c>
-      <c r="I2" s="22" t="inlineStr">
+      <c r="I2" s="21" t="inlineStr">
         <is>
           <t>Principal Payment</t>
         </is>
       </c>
-      <c r="J2" s="22" t="inlineStr">
+      <c r="J2" s="21" t="inlineStr">
         <is>
           <t>Rollover/Conversion to Existing:</t>
         </is>
       </c>
-      <c r="K2" s="60" t="inlineStr">
+      <c r="K2" s="59" t="inlineStr">
         <is>
           <t>BBSY - Bid</t>
         </is>
@@ -2199,17 +2202,17 @@
           <t>LENDSHORT0414</t>
         </is>
       </c>
-      <c r="O2" s="22" t="inlineStr">
+      <c r="O2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="P2" s="22" t="inlineStr">
+      <c r="P2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="Q2" s="22" t="inlineStr">
+      <c r="Q2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
@@ -2219,27 +2222,27 @@
           <t>RTGS1</t>
         </is>
       </c>
-      <c r="S2" s="49" t="inlineStr">
+      <c r="S2" s="48" t="inlineStr">
         <is>
           <t>RTGS1</t>
         </is>
       </c>
-      <c r="T2" s="49" t="inlineStr">
+      <c r="T2" s="48" t="inlineStr">
         <is>
           <t>RTGS1</t>
         </is>
       </c>
-      <c r="U2" s="50" t="inlineStr">
+      <c r="U2" s="49" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="V2" s="50" t="inlineStr">
+      <c r="V2" s="49" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="W2" s="23" t="inlineStr">
+      <c r="W2" s="22" t="inlineStr">
         <is>
           <t>3%</t>
         </is>
@@ -2249,29 +2252,29 @@
           <t>John Bloggs</t>
         </is>
       </c>
-      <c r="Y2" s="50" t="inlineStr">
+      <c r="Y2" s="49" t="inlineStr">
         <is>
           <t>Awaiting release</t>
         </is>
       </c>
-      <c r="Z2" s="49" t="n">
+      <c r="Z2" s="48" t="n">
         <v>10</v>
       </c>
-      <c r="AA2" s="49" t="n">
+      <c r="AA2" s="48" t="n">
         <v>30</v>
       </c>
-      <c r="AB2" s="49" t="n">
+      <c r="AB2" s="48" t="n">
         <v>60</v>
       </c>
-      <c r="AC2" s="49" t="inlineStr">
+      <c r="AC2" s="48" t="inlineStr">
         <is>
           <t>COMMONWEALTH BANK AUST - DBU</t>
         </is>
       </c>
-      <c r="AD2" s="31" t="n">
+      <c r="AD2" s="30" t="n">
         <v>2000000</v>
       </c>
-      <c r="AE2" s="49" t="inlineStr">
+      <c r="AE2" s="48" t="inlineStr">
         <is>
           <t>1 Months</t>
         </is>
@@ -2311,18 +2314,18 @@
       </c>
     </row>
     <row r="9">
-      <c r="AG9" s="49" t="n"/>
+      <c r="AG9" s="48" t="n"/>
     </row>
     <row r="13">
-      <c r="P13" s="34" t="n"/>
+      <c r="P13" s="33" t="n"/>
     </row>
     <row r="14">
-      <c r="O14" s="34" t="n"/>
-      <c r="P14" s="34" t="n"/>
+      <c r="O14" s="33" t="n"/>
+      <c r="P14" s="33" t="n"/>
     </row>
     <row r="15">
-      <c r="O15" s="34" t="n"/>
-      <c r="P15" s="34" t="n"/>
+      <c r="O15" s="33" t="n"/>
+      <c r="P15" s="33" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -2339,94 +2342,94 @@
   </sheetPr>
   <dimension ref="A1:EO2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="CS1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DI2" sqref="DI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="49" min="1" max="1"/>
-    <col width="60.28515625" customWidth="1" style="49" min="2" max="2"/>
-    <col width="30" customWidth="1" style="49" min="3" max="5"/>
-    <col width="46.28515625" customWidth="1" style="49" min="6" max="7"/>
-    <col width="45.5703125" customWidth="1" style="49" min="8" max="9"/>
-    <col width="47.5703125" customWidth="1" style="49" min="10" max="11"/>
-    <col width="20.5703125" customWidth="1" style="49" min="12" max="12"/>
-    <col width="24.28515625" customWidth="1" style="49" min="13" max="13"/>
-    <col width="24.5703125" customWidth="1" style="49" min="14" max="14"/>
-    <col width="15.7109375" customWidth="1" style="49" min="15" max="15"/>
-    <col width="18.42578125" customWidth="1" style="49" min="16" max="16"/>
-    <col width="18" customWidth="1" style="49" min="17" max="17"/>
-    <col width="21.140625" customWidth="1" style="49" min="18" max="18"/>
-    <col width="20.7109375" customWidth="1" style="49" min="19" max="19"/>
-    <col width="18.42578125" customWidth="1" style="49" min="20" max="20"/>
-    <col width="18" customWidth="1" style="49" min="21" max="21"/>
-    <col width="40.5703125" customWidth="1" style="49" min="22" max="24"/>
-    <col width="34.42578125" customWidth="1" style="49" min="25" max="25"/>
-    <col width="40.5703125" customWidth="1" style="49" min="26" max="26"/>
-    <col width="43" customWidth="1" style="49" min="27" max="27"/>
-    <col width="40.5703125" customWidth="1" style="49" min="28" max="28"/>
-    <col width="41.28515625" customWidth="1" style="49" min="29" max="30"/>
-    <col width="14.28515625" customWidth="1" style="49" min="31" max="32"/>
-    <col width="12.5703125" customWidth="1" style="49" min="33" max="33"/>
-    <col width="16.28515625" customWidth="1" style="49" min="34" max="34"/>
-    <col width="12.85546875" customWidth="1" style="49" min="35" max="35"/>
-    <col width="21.85546875" customWidth="1" style="49" min="36" max="36"/>
-    <col width="14" customWidth="1" style="49" min="37" max="37"/>
-    <col width="22.5703125" customWidth="1" style="49" min="38" max="38"/>
-    <col width="17.28515625" customWidth="1" style="49" min="39" max="39"/>
-    <col width="33" customWidth="1" style="49" min="40" max="40"/>
-    <col width="12.42578125" customWidth="1" style="49" min="41" max="41"/>
-    <col width="14.5703125" customWidth="1" style="49" min="42" max="42"/>
-    <col width="37.140625" customWidth="1" style="49" min="43" max="43"/>
-    <col width="16.85546875" customWidth="1" style="49" min="44" max="44"/>
-    <col width="28" customWidth="1" style="49" min="45" max="45"/>
-    <col width="19" customWidth="1" style="49" min="46" max="46"/>
-    <col width="36.7109375" customWidth="1" style="49" min="47" max="48"/>
-    <col width="18.5703125" customWidth="1" style="49" min="49" max="49"/>
-    <col width="22" customWidth="1" style="49" min="50" max="51"/>
-    <col width="36.7109375" customWidth="1" style="49" min="52" max="52"/>
-    <col width="20" customWidth="1" style="49" min="53" max="53"/>
-    <col width="10" customWidth="1" style="49" min="54" max="54"/>
-    <col width="16.7109375" customWidth="1" style="49" min="55" max="55"/>
-    <col width="12.5703125" customWidth="1" style="49" min="56" max="56"/>
-    <col width="13.7109375" customWidth="1" style="49" min="57" max="57"/>
-    <col width="15.7109375" customWidth="1" style="49" min="58" max="58"/>
-    <col width="16.7109375" customWidth="1" style="49" min="59" max="59"/>
-    <col width="18.28515625" customWidth="1" style="49" min="60" max="60"/>
-    <col width="19.28515625" customWidth="1" style="49" min="61" max="61"/>
-    <col width="18.140625" customWidth="1" style="49" min="62" max="63"/>
-    <col width="27.140625" customWidth="1" style="49" min="64" max="64"/>
-    <col width="22.28515625" customWidth="1" style="49" min="65" max="65"/>
-    <col width="23.28515625" customWidth="1" style="49" min="66" max="66"/>
-    <col width="25.85546875" customWidth="1" style="49" min="67" max="67"/>
-    <col width="30.85546875" customWidth="1" style="49" min="68" max="68"/>
-    <col width="21" customWidth="1" style="49" min="69" max="69"/>
-    <col width="25.5703125" customWidth="1" style="49" min="70" max="70"/>
-    <col width="21.7109375" customWidth="1" style="49" min="71" max="71"/>
-    <col width="18.7109375" customWidth="1" style="49" min="72" max="72"/>
-    <col width="20.42578125" customWidth="1" style="49" min="73" max="73"/>
-    <col width="14.5703125" customWidth="1" style="49" min="74" max="74"/>
-    <col width="15.5703125" customWidth="1" style="49" min="75" max="75"/>
-    <col width="37.5703125" customWidth="1" style="49" min="76" max="76"/>
-    <col width="33" customWidth="1" style="49" min="77" max="77"/>
-    <col width="39.140625" customWidth="1" style="49" min="78" max="78"/>
-    <col width="41" customWidth="1" style="49" min="79" max="79"/>
-    <col width="38.5703125" customWidth="1" style="49" min="80" max="81"/>
-    <col width="42.85546875" customWidth="1" style="49" min="82" max="82"/>
-    <col width="34.140625" customWidth="1" style="49" min="83" max="83"/>
-    <col width="38.42578125" customWidth="1" style="49" min="84" max="84"/>
-    <col width="32.42578125" customWidth="1" style="49" min="85" max="85"/>
-    <col width="40.5703125" customWidth="1" style="49" min="86" max="87"/>
-    <col width="38" customWidth="1" style="49" min="88" max="88"/>
-    <col width="18.140625" customWidth="1" style="49" min="89" max="89"/>
-    <col width="31.140625" customWidth="1" style="49" min="90" max="90"/>
-    <col width="39.28515625" customWidth="1" style="49" min="91" max="92"/>
-    <col width="33.42578125" customWidth="1" style="49" min="93" max="93"/>
-    <col width="46.42578125" customWidth="1" style="49" min="94" max="94"/>
-    <col width="43.85546875" customWidth="1" style="49" min="95" max="95"/>
-    <col width="48.85546875" customWidth="1" style="49" min="96" max="96"/>
-    <col width="34.85546875" customWidth="1" style="49" min="97" max="97"/>
+    <col width="6.140625" customWidth="1" style="48" min="1" max="1"/>
+    <col width="60.28515625" customWidth="1" style="48" min="2" max="2"/>
+    <col width="30" customWidth="1" style="48" min="3" max="5"/>
+    <col width="46.28515625" customWidth="1" style="48" min="6" max="7"/>
+    <col width="45.5703125" customWidth="1" style="48" min="8" max="9"/>
+    <col width="47.5703125" customWidth="1" style="48" min="10" max="11"/>
+    <col width="20.5703125" customWidth="1" style="48" min="12" max="12"/>
+    <col width="24.28515625" customWidth="1" style="48" min="13" max="13"/>
+    <col width="24.5703125" customWidth="1" style="48" min="14" max="14"/>
+    <col width="15.7109375" customWidth="1" style="48" min="15" max="15"/>
+    <col width="18.42578125" customWidth="1" style="48" min="16" max="16"/>
+    <col width="18" customWidth="1" style="48" min="17" max="17"/>
+    <col width="21.140625" customWidth="1" style="48" min="18" max="18"/>
+    <col width="20.7109375" customWidth="1" style="48" min="19" max="19"/>
+    <col width="18.42578125" customWidth="1" style="48" min="20" max="20"/>
+    <col width="18" customWidth="1" style="48" min="21" max="21"/>
+    <col width="40.5703125" customWidth="1" style="48" min="22" max="24"/>
+    <col width="34.42578125" customWidth="1" style="48" min="25" max="25"/>
+    <col width="40.5703125" customWidth="1" style="48" min="26" max="26"/>
+    <col width="43" customWidth="1" style="48" min="27" max="27"/>
+    <col width="40.5703125" customWidth="1" style="48" min="28" max="28"/>
+    <col width="41.28515625" customWidth="1" style="48" min="29" max="30"/>
+    <col width="14.28515625" customWidth="1" style="48" min="31" max="32"/>
+    <col width="12.5703125" customWidth="1" style="48" min="33" max="33"/>
+    <col width="16.28515625" customWidth="1" style="48" min="34" max="34"/>
+    <col width="12.85546875" customWidth="1" style="48" min="35" max="35"/>
+    <col width="21.85546875" customWidth="1" style="48" min="36" max="36"/>
+    <col width="14" customWidth="1" style="48" min="37" max="37"/>
+    <col width="22.5703125" customWidth="1" style="48" min="38" max="38"/>
+    <col width="17.28515625" customWidth="1" style="48" min="39" max="39"/>
+    <col width="33" customWidth="1" style="48" min="40" max="40"/>
+    <col width="12.42578125" customWidth="1" style="48" min="41" max="41"/>
+    <col width="14.5703125" customWidth="1" style="48" min="42" max="42"/>
+    <col width="37.140625" customWidth="1" style="48" min="43" max="43"/>
+    <col width="16.85546875" customWidth="1" style="48" min="44" max="44"/>
+    <col width="28" customWidth="1" style="48" min="45" max="45"/>
+    <col width="19" customWidth="1" style="48" min="46" max="46"/>
+    <col width="36.7109375" customWidth="1" style="48" min="47" max="48"/>
+    <col width="18.5703125" customWidth="1" style="48" min="49" max="49"/>
+    <col width="22" customWidth="1" style="48" min="50" max="51"/>
+    <col width="36.7109375" customWidth="1" style="48" min="52" max="52"/>
+    <col width="20" customWidth="1" style="48" min="53" max="53"/>
+    <col width="10" customWidth="1" style="48" min="54" max="54"/>
+    <col width="16.7109375" customWidth="1" style="48" min="55" max="55"/>
+    <col width="12.5703125" customWidth="1" style="48" min="56" max="56"/>
+    <col width="13.7109375" customWidth="1" style="48" min="57" max="57"/>
+    <col width="15.7109375" customWidth="1" style="48" min="58" max="58"/>
+    <col width="16.7109375" customWidth="1" style="48" min="59" max="59"/>
+    <col width="18.28515625" customWidth="1" style="48" min="60" max="60"/>
+    <col width="19.28515625" customWidth="1" style="48" min="61" max="61"/>
+    <col width="18.140625" customWidth="1" style="48" min="62" max="63"/>
+    <col width="27.140625" customWidth="1" style="48" min="64" max="64"/>
+    <col width="22.28515625" customWidth="1" style="48" min="65" max="65"/>
+    <col width="23.28515625" customWidth="1" style="48" min="66" max="66"/>
+    <col width="25.85546875" customWidth="1" style="48" min="67" max="67"/>
+    <col width="30.85546875" customWidth="1" style="48" min="68" max="68"/>
+    <col width="21" customWidth="1" style="48" min="69" max="69"/>
+    <col width="25.5703125" customWidth="1" style="48" min="70" max="70"/>
+    <col width="21.7109375" customWidth="1" style="48" min="71" max="71"/>
+    <col width="18.7109375" customWidth="1" style="48" min="72" max="72"/>
+    <col width="20.42578125" customWidth="1" style="48" min="73" max="73"/>
+    <col width="14.5703125" customWidth="1" style="48" min="74" max="74"/>
+    <col width="15.5703125" customWidth="1" style="48" min="75" max="75"/>
+    <col width="37.5703125" customWidth="1" style="48" min="76" max="76"/>
+    <col width="33" customWidth="1" style="48" min="77" max="77"/>
+    <col width="39.140625" customWidth="1" style="48" min="78" max="78"/>
+    <col width="41" customWidth="1" style="48" min="79" max="79"/>
+    <col width="38.5703125" customWidth="1" style="48" min="80" max="81"/>
+    <col width="42.85546875" customWidth="1" style="48" min="82" max="82"/>
+    <col width="34.140625" customWidth="1" style="48" min="83" max="83"/>
+    <col width="38.42578125" customWidth="1" style="48" min="84" max="84"/>
+    <col width="32.42578125" customWidth="1" style="48" min="85" max="85"/>
+    <col width="40.5703125" customWidth="1" style="48" min="86" max="87"/>
+    <col width="38" customWidth="1" style="48" min="88" max="88"/>
+    <col width="18.140625" customWidth="1" style="48" min="89" max="89"/>
+    <col width="31.140625" customWidth="1" style="48" min="90" max="90"/>
+    <col width="39.28515625" customWidth="1" style="48" min="91" max="92"/>
+    <col width="33.42578125" customWidth="1" style="48" min="93" max="93"/>
+    <col width="46.42578125" customWidth="1" style="48" min="94" max="94"/>
+    <col width="43.85546875" customWidth="1" style="48" min="95" max="95"/>
+    <col width="48.85546875" customWidth="1" style="48" min="96" max="96"/>
+    <col width="34.85546875" customWidth="1" style="48" min="97" max="97"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="8" thickBot="1">
@@ -3147,74 +3150,74 @@
           <t>CustomerNotice_TypeMethod</t>
         </is>
       </c>
-      <c r="EN1" s="59" t="inlineStr">
+      <c r="EN1" s="58" t="inlineStr">
         <is>
           <t>Entity</t>
         </is>
       </c>
-      <c r="EO1" s="59" t="inlineStr">
+      <c r="EO1" s="58" t="inlineStr">
         <is>
           <t>CustomerSourceApp</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="49">
-      <c r="A2" s="49" t="inlineStr">
+    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="48">
+      <c r="A2" s="48" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="49" t="inlineStr">
+      <c r="B2" s="48" t="inlineStr">
         <is>
           <t>EVG_PTYLIQ03 Scenario3 Baseline SBLC</t>
         </is>
       </c>
-      <c r="C2" s="49" t="inlineStr">
+      <c r="C2" s="48" t="inlineStr">
         <is>
           <t>CUSTSHORT</t>
         </is>
       </c>
-      <c r="D2" s="49" t="inlineStr">
+      <c r="D2" s="48" t="inlineStr">
         <is>
           <t>CUSTLEGAL</t>
         </is>
       </c>
-      <c r="E2" s="49" t="inlineStr">
+      <c r="E2" s="48" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="F2" s="49" t="inlineStr">
+      <c r="F2" s="48" t="inlineStr">
         <is>
           <t>DDAAUD1-</t>
         </is>
       </c>
-      <c r="G2" s="49" t="inlineStr">
+      <c r="G2" s="48" t="inlineStr">
         <is>
           <t>DDAAUD2-</t>
         </is>
       </c>
-      <c r="H2" s="49" t="inlineStr">
+      <c r="H2" s="48" t="inlineStr">
         <is>
           <t>IMTUSD1-</t>
         </is>
       </c>
-      <c r="I2" s="49" t="inlineStr">
+      <c r="I2" s="48" t="inlineStr">
         <is>
           <t>IMTUSD2-</t>
         </is>
       </c>
-      <c r="J2" s="49" t="inlineStr">
+      <c r="J2" s="48" t="inlineStr">
         <is>
           <t>RTGSAUD1-</t>
         </is>
       </c>
-      <c r="K2" s="49" t="inlineStr">
+      <c r="K2" s="48" t="inlineStr">
         <is>
           <t>RTGSAUD2-</t>
         </is>
       </c>
-      <c r="L2" s="49" t="inlineStr">
+      <c r="L2" s="48" t="inlineStr">
         <is>
           <t>Search by Customer ID</t>
         </is>
@@ -3234,32 +3237,32 @@
           <t>70</t>
         </is>
       </c>
-      <c r="P2" s="50" t="inlineStr">
+      <c r="P2" s="49" t="inlineStr">
         <is>
           <t>TRUSERGE</t>
         </is>
       </c>
-      <c r="Q2" s="50" t="inlineStr">
+      <c r="Q2" s="49" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="R2" s="50" t="inlineStr">
+      <c r="R2" s="49" t="inlineStr">
         <is>
           <t>TRAPPVGE</t>
         </is>
       </c>
-      <c r="S2" s="50" t="inlineStr">
+      <c r="S2" s="49" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="T2" s="50" t="inlineStr">
+      <c r="T2" s="49" t="inlineStr">
         <is>
           <t>TRUSERG3</t>
         </is>
       </c>
-      <c r="U2" s="50" t="inlineStr">
+      <c r="U2" s="49" t="inlineStr">
         <is>
           <t>password</t>
         </is>
@@ -3269,17 +3272,17 @@
           <t>DDAAUD1-4344</t>
         </is>
       </c>
-      <c r="W2" s="49" t="inlineStr">
+      <c r="W2" s="48" t="inlineStr">
         <is>
           <t>DDA-AUD2518</t>
         </is>
       </c>
-      <c r="X2" s="49" t="inlineStr">
+      <c r="X2" s="48" t="inlineStr">
         <is>
           <t>DDA2-USD3750</t>
         </is>
       </c>
-      <c r="Y2" s="50" t="inlineStr">
+      <c r="Y2" s="49" t="inlineStr">
         <is>
           <t>High Value Local RTGS (AUD)</t>
         </is>
@@ -3289,228 +3292,228 @@
           <t>RTGSAUD1-4345</t>
         </is>
       </c>
-      <c r="AA2" s="49" t="inlineStr">
+      <c r="AA2" s="48" t="inlineStr">
         <is>
           <t>RTGS-AUD2525</t>
         </is>
       </c>
-      <c r="AB2" s="49" t="inlineStr">
+      <c r="AB2" s="48" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="AC2" s="49" t="inlineStr">
+      <c r="AC2" s="48" t="inlineStr">
         <is>
           <t>SIMT1-AUD3750</t>
         </is>
       </c>
-      <c r="AD2" s="49" t="inlineStr">
+      <c r="AD2" s="48" t="inlineStr">
         <is>
           <t>SIMT2-USD4504</t>
         </is>
       </c>
-      <c r="AE2" s="50" t="inlineStr">
+      <c r="AE2" s="49" t="inlineStr">
         <is>
           <t>George St.</t>
         </is>
       </c>
-      <c r="AF2" s="50" t="inlineStr">
+      <c r="AF2" s="49" t="inlineStr">
         <is>
           <t>Beverly Hills</t>
         </is>
       </c>
-      <c r="AG2" s="50" t="inlineStr">
+      <c r="AG2" s="49" t="inlineStr">
         <is>
           <t>Melbourne</t>
         </is>
       </c>
-      <c r="AH2" s="50" t="inlineStr">
+      <c r="AH2" s="49" t="inlineStr">
         <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="AI2" s="50" t="inlineStr">
+      <c r="AI2" s="49" t="inlineStr">
         <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="AJ2" s="50" t="inlineStr">
+      <c r="AJ2" s="49" t="inlineStr">
         <is>
           <t xml:space="preserve">412345678
  </t>
         </is>
       </c>
-      <c r="AK2" s="50" t="inlineStr">
+      <c r="AK2" s="49" t="inlineStr">
         <is>
           <t>Victoria</t>
         </is>
       </c>
-      <c r="AL2" s="50" t="inlineStr">
+      <c r="AL2" s="49" t="inlineStr">
         <is>
           <t>4061</t>
         </is>
       </c>
-      <c r="AM2" s="50" t="inlineStr">
+      <c r="AM2" s="49" t="inlineStr">
         <is>
           <t>3620</t>
         </is>
       </c>
-      <c r="AN2" s="50" t="inlineStr">
+      <c r="AN2" s="49" t="inlineStr">
         <is>
           <t>AU / Gas Supply</t>
         </is>
       </c>
-      <c r="AO2" s="50" t="inlineStr">
+      <c r="AO2" s="49" t="inlineStr">
         <is>
           <t>Borrower</t>
         </is>
       </c>
-      <c r="AP2" s="50" t="inlineStr">
+      <c r="AP2" s="49" t="inlineStr">
         <is>
           <t>003346</t>
         </is>
       </c>
-      <c r="AQ2" s="50" t="inlineStr">
+      <c r="AQ2" s="49" t="inlineStr">
         <is>
           <t>CFS QLD Brisbane Corporate (Dept 003346)</t>
         </is>
       </c>
-      <c r="AR2" s="50" t="inlineStr">
+      <c r="AR2" s="49" t="inlineStr">
         <is>
           <t>GLB</t>
         </is>
       </c>
-      <c r="AS2" s="50" t="inlineStr">
+      <c r="AS2" s="49" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
       </c>
-      <c r="AT2" s="50" t="inlineStr">
+      <c r="AT2" s="49" t="inlineStr">
         <is>
           <t>FORG</t>
         </is>
       </c>
-      <c r="AU2" s="50" t="inlineStr">
+      <c r="AU2" s="49" t="inlineStr">
         <is>
           <t>Foreign Government, Foreign Government</t>
         </is>
       </c>
-      <c r="AV2" s="50" t="inlineStr">
+      <c r="AV2" s="49" t="inlineStr">
         <is>
           <t>&lt;This is randomly generated in the script&gt;</t>
         </is>
       </c>
-      <c r="AW2" s="50" t="inlineStr">
+      <c r="AW2" s="49" t="inlineStr">
         <is>
           <t>16-Feb-2017</t>
         </is>
       </c>
-      <c r="AX2" s="50" t="inlineStr">
+      <c r="AX2" s="49" t="inlineStr">
         <is>
           <t>Melbourne, VIC,Australia</t>
         </is>
       </c>
-      <c r="AY2" s="50" t="inlineStr">
+      <c r="AY2" s="49" t="inlineStr">
         <is>
           <t>Sydney, NSW,Australia</t>
         </is>
       </c>
-      <c r="AZ2" s="50" t="inlineStr">
+      <c r="AZ2" s="49" t="inlineStr">
         <is>
           <t>&lt;This is randomly generated in the script&gt;</t>
         </is>
       </c>
-      <c r="BA2" s="50" t="inlineStr">
+      <c r="BA2" s="49" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="BB2" s="50" t="inlineStr">
+      <c r="BB2" s="49" t="inlineStr">
         <is>
           <t>CBA</t>
         </is>
       </c>
-      <c r="BC2" s="50" t="inlineStr">
+      <c r="BC2" s="49" t="inlineStr">
         <is>
           <t>LEGAL ADDRESS</t>
         </is>
       </c>
-      <c r="BD2" s="50" t="inlineStr">
+      <c r="BD2" s="49" t="inlineStr">
         <is>
           <t>1917472</t>
         </is>
       </c>
-      <c r="BE2" s="50" t="inlineStr">
+      <c r="BE2" s="49" t="inlineStr">
         <is>
           <t>1917472</t>
         </is>
       </c>
-      <c r="BF2" s="50" t="inlineStr">
+      <c r="BF2" s="49" t="inlineStr">
         <is>
           <t>Work Fax</t>
         </is>
       </c>
-      <c r="BG2" s="50" t="inlineStr">
+      <c r="BG2" s="49" t="inlineStr">
         <is>
           <t>Work Fax 2</t>
         </is>
       </c>
-      <c r="BH2" s="50" t="inlineStr">
+      <c r="BH2" s="49" t="inlineStr">
         <is>
           <t>John</t>
         </is>
       </c>
-      <c r="BI2" s="50" t="inlineStr">
+      <c r="BI2" s="49" t="inlineStr">
         <is>
           <t>James</t>
         </is>
       </c>
-      <c r="BJ2" s="50" t="inlineStr">
+      <c r="BJ2" s="49" t="inlineStr">
         <is>
           <t>Bloggs</t>
         </is>
       </c>
-      <c r="BK2" s="50" t="inlineStr">
+      <c r="BK2" s="49" t="inlineStr">
         <is>
           <t>Baker</t>
         </is>
       </c>
-      <c r="BL2" s="50" t="inlineStr">
+      <c r="BL2" s="49" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="BM2" s="50" t="inlineStr">
+      <c r="BM2" s="49" t="inlineStr">
         <is>
           <t>1928727188</t>
         </is>
       </c>
-      <c r="BN2" s="50" t="inlineStr">
+      <c r="BN2" s="49" t="inlineStr">
         <is>
           <t>1928143143</t>
         </is>
       </c>
-      <c r="BO2" s="50" t="inlineStr">
+      <c r="BO2" s="49" t="inlineStr">
         <is>
           <t>SBLC, Loan</t>
         </is>
       </c>
-      <c r="BP2" s="50" t="inlineStr">
+      <c r="BP2" s="49" t="inlineStr">
         <is>
           <t>Principal, Interest, Fees</t>
         </is>
       </c>
-      <c r="BQ2" s="50" t="inlineStr">
+      <c r="BQ2" s="49" t="inlineStr">
         <is>
           <t>Servicing</t>
         </is>
       </c>
-      <c r="BR2" s="50" t="inlineStr">
+      <c r="BR2" s="49" t="inlineStr">
         <is>
           <t>SERV</t>
         </is>
       </c>
-      <c r="BS2" s="50" t="inlineStr">
+      <c r="BS2" s="49" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
@@ -3525,27 +3528,27 @@
           <t>james.baker@abc.com</t>
         </is>
       </c>
-      <c r="BV2" s="50" t="inlineStr">
+      <c r="BV2" s="49" t="inlineStr">
         <is>
           <t>Bloggs</t>
         </is>
       </c>
-      <c r="BW2" s="50" t="inlineStr">
+      <c r="BW2" s="49" t="inlineStr">
         <is>
           <t>Baker</t>
         </is>
       </c>
-      <c r="BX2" s="50" t="inlineStr">
+      <c r="BX2" s="49" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="BY2" s="50" t="inlineStr">
+      <c r="BY2" s="49" t="inlineStr">
         <is>
           <t>DDA (Demand Deposit Acct)</t>
         </is>
       </c>
-      <c r="BZ2" s="50" t="inlineStr">
+      <c r="BZ2" s="49" t="inlineStr">
         <is>
           <t>CBA Domestic Account</t>
         </is>
@@ -3565,22 +3568,22 @@
           <t>USD</t>
         </is>
       </c>
-      <c r="CD2" s="50" t="inlineStr">
+      <c r="CD2" s="49" t="inlineStr">
         <is>
           <t>From Cust</t>
         </is>
       </c>
-      <c r="CE2" s="50" t="inlineStr">
+      <c r="CE2" s="49" t="inlineStr">
         <is>
           <t>&lt;Selected&gt;</t>
         </is>
       </c>
-      <c r="CF2" s="50" t="inlineStr">
+      <c r="CF2" s="49" t="inlineStr">
         <is>
           <t>Simplified</t>
         </is>
       </c>
-      <c r="CG2" s="50" t="inlineStr">
+      <c r="CG2" s="49" t="inlineStr">
         <is>
           <t>International Money Transfer</t>
         </is>
@@ -3590,7 +3593,7 @@
           <t>IMTUSD1-4344</t>
         </is>
       </c>
-      <c r="CI2" s="49" t="inlineStr">
+      <c r="CI2" s="48" t="inlineStr">
         <is>
           <t>IMT-USD2519</t>
         </is>
@@ -3620,92 +3623,92 @@
           <t>USD</t>
         </is>
       </c>
-      <c r="CO2" s="50" t="inlineStr">
+      <c r="CO2" s="49" t="inlineStr">
         <is>
           <t>CTBAAU2S600</t>
         </is>
       </c>
-      <c r="CP2" s="50" t="inlineStr">
+      <c r="CP2" s="49" t="inlineStr">
         <is>
           <t>COMMONWEALTH BANK OF AUSTRALIA SYDNEY</t>
         </is>
       </c>
-      <c r="CQ2" s="50" t="inlineStr">
+      <c r="CQ2" s="49" t="inlineStr">
         <is>
           <t>All Loan Types, SBLC/BA</t>
         </is>
       </c>
-      <c r="CR2" s="50" t="inlineStr">
+      <c r="CR2" s="49" t="inlineStr">
         <is>
           <t>Principal, Interest, Fees</t>
         </is>
       </c>
-      <c r="CS2" s="50" t="inlineStr">
+      <c r="CS2" s="49" t="inlineStr">
         <is>
           <t>&lt;Selected&gt;</t>
         </is>
       </c>
-      <c r="CT2" s="50" t="inlineStr">
+      <c r="CT2" s="49" t="inlineStr">
         <is>
           <t>02568049389</t>
         </is>
       </c>
-      <c r="CU2" s="50" t="inlineStr">
+      <c r="CU2" s="49" t="inlineStr">
         <is>
           <t>Internal Rating</t>
         </is>
       </c>
-      <c r="CV2" s="50" t="inlineStr">
+      <c r="CV2" s="49" t="inlineStr">
         <is>
           <t>D1 Good</t>
         </is>
       </c>
-      <c r="CW2" s="50" t="inlineStr">
+      <c r="CW2" s="49" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="CX2" s="50" t="inlineStr">
+      <c r="CX2" s="49" t="inlineStr">
         <is>
           <t>Standard &amp; Poors</t>
         </is>
       </c>
-      <c r="CY2" s="50" t="inlineStr">
+      <c r="CY2" s="49" t="inlineStr">
         <is>
           <t>BBB+</t>
         </is>
       </c>
-      <c r="CZ2" s="50" t="inlineStr">
+      <c r="CZ2" s="49" t="inlineStr">
         <is>
           <t>Moody's Investor Services Inc</t>
         </is>
       </c>
-      <c r="DA2" s="50" t="inlineStr">
+      <c r="DA2" s="49" t="inlineStr">
         <is>
           <t>Aa2</t>
         </is>
       </c>
-      <c r="DB2" s="50" t="inlineStr">
+      <c r="DB2" s="49" t="inlineStr">
         <is>
           <t>Fitch</t>
         </is>
       </c>
-      <c r="DC2" s="50" t="inlineStr">
+      <c r="DC2" s="49" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
       </c>
-      <c r="DD2" s="50" t="inlineStr">
+      <c r="DD2" s="49" t="inlineStr">
         <is>
           <t>Mailing Address</t>
         </is>
       </c>
-      <c r="DE2" s="50" t="inlineStr">
+      <c r="DE2" s="49" t="inlineStr">
         <is>
           <t>PO Box 861</t>
         </is>
       </c>
-      <c r="DF2" s="50" t="inlineStr">
+      <c r="DF2" s="49" t="inlineStr">
         <is>
           <t>Almond, Victoria 3211</t>
         </is>
@@ -3715,7 +3718,7 @@
           <t>03 5029 9445</t>
         </is>
       </c>
-      <c r="DH2" s="50" t="inlineStr">
+      <c r="DH2" s="49" t="inlineStr">
         <is>
           <t>03 5029 9445</t>
         </is>
@@ -3867,12 +3870,12 @@
           <t>External Message</t>
         </is>
       </c>
-      <c r="EN2" s="49" t="inlineStr">
+      <c r="EN2" s="48" t="inlineStr">
         <is>
           <t>AU</t>
         </is>
       </c>
-      <c r="EO2" s="49" t="inlineStr">
+      <c r="EO2" s="48" t="inlineStr">
         <is>
           <t>LIQ</t>
         </is>
@@ -3891,11 +3894,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3931,325 +3934,359 @@
     <col width="23.42578125" customWidth="1" style="1" min="32" max="32"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customFormat="1" customHeight="1" s="9" thickBot="1">
-      <c r="A1" s="9" t="inlineStr">
+    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="4">
+      <c r="A1" s="61" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="61" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="62" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="61" t="inlineStr">
         <is>
           <t>OutstandingSelect_Type</t>
         </is>
       </c>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="E1" s="62" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="F1" s="14" t="inlineStr">
+      <c r="F1" s="61" t="inlineStr">
+        <is>
+          <t>FacilityName_Revolver</t>
+        </is>
+      </c>
+      <c r="G1" s="62" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="G1" s="14" t="inlineStr">
-        <is>
-          <t>Beneficiary</t>
-        </is>
-      </c>
-      <c r="H1" s="9" t="inlineStr">
+      <c r="H1" s="61" t="inlineStr">
         <is>
           <t>Pricing_Option</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="I1" s="61" t="inlineStr">
         <is>
           <t>Currency</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="J1" s="61" t="inlineStr">
         <is>
           <t>Amount_Requested</t>
         </is>
       </c>
-      <c r="K1" s="14" t="inlineStr">
+      <c r="K1" s="62" t="inlineStr">
         <is>
           <t>Effective_Date</t>
         </is>
       </c>
-      <c r="L1" s="9" t="inlineStr">
+      <c r="L1" s="61" t="inlineStr">
         <is>
           <t>Issuance_Fee</t>
         </is>
       </c>
-      <c r="M1" s="9" t="inlineStr">
+      <c r="M1" s="61" t="inlineStr">
         <is>
           <t>Fronting_Usage_Fee</t>
         </is>
       </c>
-      <c r="N1" s="14" t="inlineStr">
+      <c r="N1" s="62" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+      <c r="O1" s="62" t="inlineStr">
         <is>
           <t>Customer_Legal_Name</t>
         </is>
       </c>
-      <c r="O1" s="9" t="inlineStr">
+      <c r="P1" s="61" t="inlineStr">
         <is>
           <t>SBLC_Status</t>
         </is>
       </c>
-      <c r="P1" s="9" t="inlineStr">
+      <c r="Q1" s="61" t="inlineStr">
         <is>
           <t>Cycle_Frequency</t>
         </is>
       </c>
-      <c r="Q1" s="9" t="inlineStr">
+      <c r="R1" s="61" t="inlineStr">
         <is>
           <t>Performing_Status</t>
         </is>
       </c>
-      <c r="R1" s="9" t="inlineStr">
+      <c r="S1" s="63" t="inlineStr">
         <is>
           <t>Expiry_Date</t>
         </is>
       </c>
-      <c r="S1" s="9" t="inlineStr">
+      <c r="T1" s="61" t="inlineStr">
+        <is>
+          <t>Approver_Username</t>
+        </is>
+      </c>
+      <c r="U1" s="61" t="inlineStr">
+        <is>
+          <t>Approver_Password</t>
+        </is>
+      </c>
+      <c r="V1" s="61" t="inlineStr">
+        <is>
+          <t>SBLC_Issuance_Status</t>
+        </is>
+      </c>
+      <c r="W1" s="61" t="inlineStr">
+        <is>
+          <t>Original_Username</t>
+        </is>
+      </c>
+      <c r="X1" s="61" t="inlineStr">
+        <is>
+          <t>Original_Password</t>
+        </is>
+      </c>
+      <c r="Y1" s="63" t="inlineStr">
+        <is>
+          <t>SBLC_Alias</t>
+        </is>
+      </c>
+      <c r="Z1" s="61" t="inlineStr">
+        <is>
+          <t>Cycle_Number</t>
+        </is>
+      </c>
+      <c r="AA1" s="61" t="inlineStr">
+        <is>
+          <t>Purpose</t>
+        </is>
+      </c>
+      <c r="AB1" s="61" t="inlineStr">
         <is>
           <t>Manager_Username</t>
         </is>
       </c>
-      <c r="T1" s="9" t="inlineStr">
+      <c r="AC1" s="61" t="inlineStr">
         <is>
           <t>Manager_Password</t>
         </is>
       </c>
-      <c r="U1" s="9" t="inlineStr">
-        <is>
-          <t>SBLC_Issuance_Status</t>
-        </is>
-      </c>
-      <c r="V1" s="9" t="inlineStr">
-        <is>
-          <t>Inputter_Username</t>
-        </is>
-      </c>
-      <c r="W1" s="9" t="inlineStr">
-        <is>
-          <t>Inputter_Password</t>
-        </is>
-      </c>
-      <c r="X1" s="14" t="inlineStr">
-        <is>
-          <t>SBLC_Alias</t>
-        </is>
-      </c>
-      <c r="Y1" s="9" t="inlineStr">
-        <is>
-          <t>Cycle_Number</t>
-        </is>
-      </c>
-      <c r="Z1" s="9" t="inlineStr">
-        <is>
-          <t>Purpose</t>
-        </is>
-      </c>
-      <c r="AA1" s="16" t="inlineStr">
-        <is>
-          <t>Supervisor_Username</t>
-        </is>
-      </c>
-      <c r="AB1" s="16" t="inlineStr">
-        <is>
-          <t>Supervisor_Password</t>
-        </is>
-      </c>
-      <c r="AC1" s="9" t="inlineStr">
+      <c r="AD1" s="61" t="inlineStr">
         <is>
           <t>Transaction_Type</t>
         </is>
       </c>
-      <c r="AD1" s="9" t="inlineStr">
+      <c r="AE1" s="61" t="inlineStr">
+        <is>
+          <t>Outstanding_Type</t>
+        </is>
+      </c>
+      <c r="AF1" s="61" t="inlineStr">
         <is>
           <t>Transaction_Status_Awaiting_Approval</t>
         </is>
       </c>
-      <c r="AE1" s="9" t="inlineStr">
+      <c r="AG1" s="61" t="inlineStr">
         <is>
           <t>Transaction_Status_Awaiting_Release</t>
         </is>
       </c>
-      <c r="AF1" s="9" t="inlineStr">
-        <is>
-          <t>Outstanding_Type</t>
+      <c r="AH1" s="4" t="inlineStr">
+        <is>
+          <t>AccrualRule_PayInAdvance</t>
+        </is>
+      </c>
+      <c r="AI1" s="64" t="inlineStr">
+        <is>
+          <t>Existing_Standby_Letters_of_Credit_Alias</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customFormat="1" customHeight="1" s="17">
-      <c r="A2" s="17" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="17" t="inlineStr">
-        <is>
-          <t>EVG_PTYLIQ02 Scenario2 Baseline Agency (Syndicated)</t>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>EVG_PTYLIQ03 Scenario3 Baseline SBLC</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_10082020000318AFD</t>
-        </is>
-      </c>
-      <c r="D2" s="50" t="inlineStr">
+          <t>BNS3_22072020121611</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>SBLC/Guarantee</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM10082020001922ALF</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT39121</t>
+          <t>FACBG22072020122751</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>ESPS11613949</t>
-        </is>
-      </c>
-      <c r="H2" s="50" t="inlineStr">
+          <t>BORROWER1111</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>Bank Guarantee/Letter of Credit/Synd Fronted Bank</t>
         </is>
       </c>
-      <c r="I2" s="50" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="J2" s="50" t="inlineStr">
-        <is>
-          <t>1,000,000.00</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>19-Apr-2019</t>
-        </is>
-      </c>
-      <c r="L2" s="50" t="inlineStr">
-        <is>
-          <t>Outstandings  X Rate (2%)</t>
-        </is>
-      </c>
-      <c r="M2" s="50" t="inlineStr">
-        <is>
-          <t>Outstandings  X Rate (2%)</t>
+      <c r="J2" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="11" t="inlineStr">
+        <is>
+          <t>25-Nov-2020</t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
+        <is>
+          <t>Outstandings  X Rate (3%)</t>
+        </is>
+      </c>
+      <c r="M2" s="5" t="inlineStr">
+        <is>
+          <t>Outstandings  X Rate (3%)</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>CUSTLEGAL39121</t>
-        </is>
-      </c>
-      <c r="O2" s="50" t="inlineStr">
+          <t>BORROWER1111</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTLEGAL31112</t>
+        </is>
+      </c>
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>Awaiting release</t>
         </is>
       </c>
-      <c r="P2" s="50" t="inlineStr">
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>Weekly</t>
         </is>
       </c>
-      <c r="Q2" s="50" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>Accrual</t>
         </is>
       </c>
-      <c r="R2" s="17" t="inlineStr">
-        <is>
-          <t>27-Dec-2019</t>
-        </is>
-      </c>
-      <c r="S2" s="18" t="inlineStr">
+      <c r="S2" s="49" t="inlineStr">
+        <is>
+          <t>28-Jun-2021</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>JCAPR01</t>
+        </is>
+      </c>
+      <c r="U2" s="5" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="V2" s="5" t="inlineStr">
+        <is>
+          <t>Awaiting Approval</t>
+        </is>
+      </c>
+      <c r="W2" s="5" t="inlineStr">
+        <is>
+          <t>JCUSR01</t>
+        </is>
+      </c>
+      <c r="X2" s="5" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="Y2" s="16" t="inlineStr">
+        <is>
+          <t>60000948</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA2" s="5" t="n"/>
+      <c r="AB2" s="5" t="inlineStr">
         <is>
           <t>JCAPR02</t>
         </is>
       </c>
-      <c r="T2" s="50" t="inlineStr">
+      <c r="AC2" s="5" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="U2" s="50" t="inlineStr">
+      <c r="AD2" s="5" t="inlineStr">
+        <is>
+          <t>Outstandings</t>
+        </is>
+      </c>
+      <c r="AE2" s="5" t="inlineStr">
+        <is>
+          <t>SBLC/Guarantee Issuance</t>
+        </is>
+      </c>
+      <c r="AF2" s="5" t="inlineStr">
         <is>
           <t>Awaiting Approval</t>
         </is>
       </c>
-      <c r="V2" s="50" t="inlineStr">
-        <is>
-          <t>JCUSR01</t>
-        </is>
-      </c>
-      <c r="W2" s="50" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="X2" s="1" t="inlineStr">
-        <is>
-          <t>60000317</t>
-        </is>
-      </c>
-      <c r="Y2" s="17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z2" s="50" t="n"/>
-      <c r="AA2" s="50" t="inlineStr">
-        <is>
-          <t>JCAPR01</t>
-        </is>
-      </c>
-      <c r="AB2" s="50" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="AC2" s="17" t="inlineStr">
-        <is>
-          <t>Outstandings</t>
-        </is>
-      </c>
-      <c r="AD2" s="17" t="inlineStr">
-        <is>
-          <t>Awaiting Approval</t>
-        </is>
-      </c>
-      <c r="AE2" s="17" t="inlineStr">
+      <c r="AG2" s="5" t="inlineStr">
         <is>
           <t>Awaiting Release</t>
         </is>
       </c>
-      <c r="AF2" s="17" t="inlineStr">
-        <is>
-          <t>SBLC/Guarantee Issuance</t>
-        </is>
-      </c>
+      <c r="AH2" s="5" t="inlineStr">
+        <is>
+          <t>Pay In Advance</t>
+        </is>
+      </c>
+      <c r="AI2" s="16" t="inlineStr">
+        <is>
+          <t>60000043</t>
+        </is>
+      </c>
+      <c r="AJ2" s="1" t="n"/>
+      <c r="AK2" s="1" t="n"/>
+      <c r="AL2" s="1" t="n"/>
+      <c r="AM2" s="1" t="n"/>
+      <c r="AN2" s="1" t="n"/>
+      <c r="AO2" s="1" t="n"/>
+      <c r="AP2" s="1" t="n"/>
+      <c r="AQ2" s="1" t="n"/>
+      <c r="AR2" s="1" t="n"/>
+      <c r="AS2" s="1" t="n"/>
+      <c r="AT2" s="1" t="n"/>
     </row>
     <row r="3" customFormat="1" s="1">
       <c r="AA3" s="15" t="n"/>
@@ -4290,8 +4327,8 @@
   </sheetPr>
   <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -4314,10 +4351,10 @@
     <col width="14.85546875" customWidth="1" style="1" min="17" max="17"/>
     <col width="18" customWidth="1" style="15" min="18" max="18"/>
     <col width="16.85546875" customWidth="1" style="15" min="19" max="20"/>
-    <col width="40.7109375" customWidth="1" style="17" min="21" max="21"/>
+    <col width="40.7109375" customWidth="1" style="16" min="21" max="21"/>
     <col width="17.5703125" customWidth="1" style="1" min="22" max="22"/>
     <col width="20.42578125" customWidth="1" style="1" min="23" max="23"/>
-    <col width="18.7109375" customWidth="1" style="17" min="24" max="24"/>
+    <col width="18.7109375" customWidth="1" style="16" min="24" max="24"/>
     <col width="19.28515625" customWidth="1" style="1" min="25" max="25"/>
     <col width="18.7109375" customWidth="1" style="1" min="26" max="26"/>
     <col width="20.140625" customWidth="1" style="1" min="27" max="27"/>
@@ -4334,103 +4371,103 @@
     <col width="23.85546875" customWidth="1" style="11" min="40" max="41"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="19" thickBot="1">
-      <c r="A1" s="19" t="inlineStr">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="18" thickBot="1">
+      <c r="A1" s="18" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="19" t="inlineStr">
+      <c r="B1" s="18" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="20" t="inlineStr">
+      <c r="C1" s="19" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="19" t="inlineStr">
+      <c r="D1" s="18" t="inlineStr">
         <is>
           <t>Outstanding_Type</t>
         </is>
       </c>
-      <c r="E1" s="20" t="inlineStr">
+      <c r="E1" s="19" t="inlineStr">
         <is>
           <t>SBLC_Alias</t>
         </is>
       </c>
-      <c r="F1" s="20" t="inlineStr">
+      <c r="F1" s="19" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="G1" s="19" t="inlineStr">
+      <c r="G1" s="18" t="inlineStr">
         <is>
           <t>SBLC_Transaction_Type</t>
         </is>
       </c>
-      <c r="H1" s="19" t="inlineStr">
+      <c r="H1" s="18" t="inlineStr">
         <is>
           <t>SBLC_CycleNumber</t>
         </is>
       </c>
-      <c r="I1" s="19" t="inlineStr">
+      <c r="I1" s="18" t="inlineStr">
         <is>
           <t>SBLC_ProrateWith</t>
         </is>
       </c>
-      <c r="J1" s="20" t="inlineStr">
+      <c r="J1" s="19" t="inlineStr">
         <is>
           <t>Loan_Alias</t>
         </is>
       </c>
-      <c r="K1" s="19" t="inlineStr">
+      <c r="K1" s="18" t="inlineStr">
         <is>
           <t>Loan_Transaction_Type</t>
         </is>
       </c>
-      <c r="L1" s="19" t="inlineStr">
+      <c r="L1" s="18" t="inlineStr">
         <is>
           <t>Loan_CycleNumber</t>
         </is>
       </c>
-      <c r="M1" s="19" t="inlineStr">
+      <c r="M1" s="18" t="inlineStr">
         <is>
           <t>Loan_ProrateWith</t>
         </is>
       </c>
-      <c r="N1" s="19" t="inlineStr">
+      <c r="N1" s="18" t="inlineStr">
         <is>
           <t>Fee_Requested_Amount</t>
         </is>
       </c>
-      <c r="O1" s="19" t="inlineStr">
+      <c r="O1" s="18" t="inlineStr">
         <is>
           <t>Fee_Type</t>
         </is>
       </c>
-      <c r="P1" s="20" t="inlineStr">
+      <c r="P1" s="19" t="inlineStr">
         <is>
           <t>SBLC_Amount</t>
         </is>
       </c>
-      <c r="Q1" s="19" t="inlineStr">
+      <c r="Q1" s="18" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="R1" s="21" t="inlineStr">
+      <c r="R1" s="20" t="inlineStr">
         <is>
           <t>HostBankSharePct</t>
         </is>
       </c>
-      <c r="S1" s="21" t="inlineStr">
+      <c r="S1" s="20" t="inlineStr">
         <is>
           <t>LenderSharePct1</t>
         </is>
       </c>
-      <c r="T1" s="21" t="inlineStr">
+      <c r="T1" s="20" t="inlineStr">
         <is>
           <t>LenderSharePct2</t>
         </is>
@@ -4440,102 +4477,102 @@
           <t>Host_Bank</t>
         </is>
       </c>
-      <c r="V1" s="19" t="inlineStr">
+      <c r="V1" s="18" t="inlineStr">
         <is>
           <t>Rollover_Amount</t>
         </is>
       </c>
-      <c r="W1" s="19" t="inlineStr">
+      <c r="W1" s="18" t="inlineStr">
         <is>
           <t>Repricing_Frequency</t>
         </is>
       </c>
-      <c r="X1" s="19" t="inlineStr">
+      <c r="X1" s="18" t="inlineStr">
         <is>
           <t>Remittance_Status</t>
         </is>
       </c>
-      <c r="Y1" s="19" t="inlineStr">
+      <c r="Y1" s="18" t="inlineStr">
         <is>
           <t>Inputter_Username</t>
         </is>
       </c>
-      <c r="Z1" s="19" t="inlineStr">
+      <c r="Z1" s="18" t="inlineStr">
         <is>
           <t>Inputter_Password</t>
         </is>
       </c>
-      <c r="AA1" s="19" t="inlineStr">
+      <c r="AA1" s="18" t="inlineStr">
         <is>
           <t>Supervisor_Username</t>
         </is>
       </c>
-      <c r="AB1" s="19" t="inlineStr">
+      <c r="AB1" s="18" t="inlineStr">
         <is>
           <t>Supervisor_Password</t>
         </is>
       </c>
-      <c r="AC1" s="19" t="inlineStr">
+      <c r="AC1" s="18" t="inlineStr">
         <is>
           <t>Manager_Username</t>
         </is>
       </c>
-      <c r="AD1" s="19" t="inlineStr">
+      <c r="AD1" s="18" t="inlineStr">
         <is>
           <t>ManagerPassword</t>
         </is>
       </c>
-      <c r="AE1" s="20" t="inlineStr">
+      <c r="AE1" s="19" t="inlineStr">
         <is>
           <t>Customer_Legal_Name</t>
         </is>
       </c>
-      <c r="AF1" s="19" t="inlineStr">
+      <c r="AF1" s="18" t="inlineStr">
         <is>
           <t>NoticeStatus</t>
         </is>
       </c>
-      <c r="AG1" s="21" t="inlineStr">
+      <c r="AG1" s="20" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="AH1" s="21" t="inlineStr">
+      <c r="AH1" s="20" t="inlineStr">
         <is>
           <t>Lender1_ShortName</t>
         </is>
       </c>
-      <c r="AI1" s="21" t="inlineStr">
+      <c r="AI1" s="20" t="inlineStr">
         <is>
           <t>Lender2_ShortName</t>
         </is>
       </c>
-      <c r="AJ1" s="21" t="inlineStr">
+      <c r="AJ1" s="20" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="AK1" s="21" t="inlineStr">
+      <c r="AK1" s="20" t="inlineStr">
         <is>
           <t>Remittance1_Instruction</t>
         </is>
       </c>
-      <c r="AL1" s="21" t="inlineStr">
+      <c r="AL1" s="20" t="inlineStr">
         <is>
           <t>Remittance2_Instruction</t>
         </is>
       </c>
-      <c r="AM1" s="21" t="inlineStr">
+      <c r="AM1" s="20" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="AN1" s="21" t="inlineStr">
+      <c r="AN1" s="20" t="inlineStr">
         <is>
           <t>Remittance1_Description</t>
         </is>
       </c>
-      <c r="AO1" s="21" t="inlineStr">
+      <c r="AO1" s="20" t="inlineStr">
         <is>
           <t>Remittance2_Description</t>
         </is>
@@ -4554,7 +4591,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_10082020000318AFD</t>
+          <t>BNS3_22072020121611</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr">
@@ -4562,33 +4599,35 @@
           <t>SBLC</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>60000317</t>
+      <c r="E2" s="16" t="inlineStr">
+        <is>
+          <t>60000948</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM10082020001922ALF</t>
-        </is>
-      </c>
-      <c r="G2" s="22" t="inlineStr">
+          <t>FACBG22072020122751</t>
+        </is>
+      </c>
+      <c r="G2" s="21" t="inlineStr">
         <is>
           <t>Issuance</t>
         </is>
       </c>
-      <c r="H2" s="22" t="inlineStr">
+      <c r="H2" s="21" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I2" s="22" t="inlineStr">
+      <c r="I2" s="21" t="inlineStr">
         <is>
           <t>Projected Due</t>
         </is>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>60000241</v>
+      <c r="J2" s="16" t="inlineStr">
+        <is>
+          <t>60000948</t>
+        </is>
       </c>
       <c r="K2" s="11" t="inlineStr">
         <is>
@@ -4605,19 +4644,19 @@
           <t>Lender Shares (Prepay Cycle)</t>
         </is>
       </c>
-      <c r="N2" s="22" t="inlineStr">
+      <c r="N2" s="21" t="inlineStr">
         <is>
           <t>1,000,000.00</t>
         </is>
       </c>
-      <c r="O2" s="22" t="inlineStr">
+      <c r="O2" s="21" t="inlineStr">
         <is>
           <t>Service Fee</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
-          <t>383.56</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="Q2" s="11" t="inlineStr">
@@ -4625,17 +4664,17 @@
           <t>AUD</t>
         </is>
       </c>
-      <c r="R2" s="50" t="inlineStr">
+      <c r="R2" s="49" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="S2" s="50" t="inlineStr">
+      <c r="S2" s="49" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="T2" s="50" t="inlineStr">
+      <c r="T2" s="49" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -4655,7 +4694,7 @@
           <t>1 Months</t>
         </is>
       </c>
-      <c r="X2" s="50" t="inlineStr">
+      <c r="X2" s="49" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -4680,19 +4719,19 @@
           <t>password</t>
         </is>
       </c>
-      <c r="AC2" s="18" t="inlineStr">
+      <c r="AC2" s="17" t="inlineStr">
         <is>
           <t>JCAPR02</t>
         </is>
       </c>
-      <c r="AD2" s="23" t="inlineStr">
+      <c r="AD2" s="22" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
       <c r="AE2" s="1" t="inlineStr">
         <is>
-          <t>CUSTLEGAL39121</t>
+          <t>BORROWER1111</t>
         </is>
       </c>
       <c r="AF2" s="11" t="inlineStr">
@@ -4702,12 +4741,12 @@
       </c>
       <c r="AG2" s="1" t="inlineStr">
         <is>
-          <t>CUSTSHORT39121</t>
-        </is>
-      </c>
-      <c r="AH2" s="11" t="inlineStr">
-        <is>
-          <t>LENDSHORT04114</t>
+          <t>BORROWER1111</t>
+        </is>
+      </c>
+      <c r="AH2" s="1" t="inlineStr">
+        <is>
+          <t>BORROWER1111</t>
         </is>
       </c>
       <c r="AI2" s="11" t="inlineStr">
@@ -4717,32 +4756,32 @@
       </c>
       <c r="AJ2" s="1" t="inlineStr">
         <is>
-          <t>DDA</t>
-        </is>
-      </c>
-      <c r="AK2" s="22" t="inlineStr">
-        <is>
-          <t>RTGS</t>
-        </is>
-      </c>
-      <c r="AL2" s="22" t="inlineStr">
-        <is>
-          <t>RTGS</t>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
         </is>
       </c>
       <c r="AM2" s="1" t="inlineStr">
         <is>
-          <t>DDAAUD1-4344</t>
-        </is>
-      </c>
-      <c r="AN2" s="11" t="inlineStr">
-        <is>
-          <t>RTGS</t>
-        </is>
-      </c>
-      <c r="AO2" s="11" t="inlineStr">
-        <is>
-          <t>RTGS</t>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>RTGS1</t>
         </is>
       </c>
     </row>
@@ -4767,33 +4806,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="17" min="1" max="1"/>
-    <col width="50.140625" customWidth="1" style="17" min="2" max="2"/>
-    <col width="26.5703125" customWidth="1" style="17" min="3" max="3"/>
-    <col width="5.42578125" customWidth="1" style="17" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="17" min="5" max="5"/>
-    <col width="27.140625" customWidth="1" style="17" min="6" max="6"/>
-    <col width="18.42578125" customWidth="1" style="17" min="7" max="7"/>
-    <col width="14.5703125" customWidth="1" style="17" min="8" max="8"/>
-    <col width="34.85546875" customWidth="1" style="17" min="9" max="9"/>
-    <col width="18" customWidth="1" style="17" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="17" min="11" max="12"/>
-    <col width="43.7109375" customWidth="1" style="17" min="13" max="13"/>
-    <col width="23.5703125" customWidth="1" style="17" min="14" max="14"/>
-    <col width="14.5703125" customWidth="1" style="17" min="15" max="15"/>
-    <col width="34.140625" customWidth="1" style="17" min="16" max="16"/>
-    <col width="9.140625" customWidth="1" style="17" min="17" max="17"/>
-    <col width="18.140625" customWidth="1" style="17" min="18" max="18"/>
-    <col width="14.85546875" customWidth="1" style="17" min="19" max="19"/>
-    <col width="14.7109375" customWidth="1" style="17" min="20" max="20"/>
-    <col width="21" customWidth="1" style="17" min="21" max="21"/>
-    <col width="28" customWidth="1" style="17" min="22" max="22"/>
-    <col width="21.42578125" customWidth="1" style="17" min="23" max="23"/>
-    <col width="27.140625" customWidth="1" style="17" min="24" max="24"/>
-    <col width="18.42578125" customWidth="1" style="17" min="25" max="25"/>
-    <col width="18" customWidth="1" style="17" min="26" max="26"/>
-    <col width="19.42578125" customWidth="1" style="17" min="27" max="27"/>
-    <col width="19" customWidth="1" style="17" min="28" max="28"/>
+    <col width="6.140625" customWidth="1" style="16" min="1" max="1"/>
+    <col width="50.140625" customWidth="1" style="16" min="2" max="2"/>
+    <col width="26.5703125" customWidth="1" style="16" min="3" max="3"/>
+    <col width="5.42578125" customWidth="1" style="16" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="16" min="5" max="5"/>
+    <col width="27.140625" customWidth="1" style="16" min="6" max="6"/>
+    <col width="18.42578125" customWidth="1" style="16" min="7" max="7"/>
+    <col width="14.5703125" customWidth="1" style="16" min="8" max="8"/>
+    <col width="34.85546875" customWidth="1" style="16" min="9" max="9"/>
+    <col width="18" customWidth="1" style="16" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="16" min="11" max="12"/>
+    <col width="43.7109375" customWidth="1" style="16" min="13" max="13"/>
+    <col width="23.5703125" customWidth="1" style="16" min="14" max="14"/>
+    <col width="14.5703125" customWidth="1" style="16" min="15" max="15"/>
+    <col width="34.140625" customWidth="1" style="16" min="16" max="16"/>
+    <col width="9.140625" customWidth="1" style="16" min="17" max="17"/>
+    <col width="18.140625" customWidth="1" style="16" min="18" max="18"/>
+    <col width="14.85546875" customWidth="1" style="16" min="19" max="19"/>
+    <col width="14.7109375" customWidth="1" style="16" min="20" max="20"/>
+    <col width="21" customWidth="1" style="16" min="21" max="21"/>
+    <col width="28" customWidth="1" style="16" min="22" max="22"/>
+    <col width="21.42578125" customWidth="1" style="16" min="23" max="23"/>
+    <col width="27.140625" customWidth="1" style="16" min="24" max="24"/>
+    <col width="18.42578125" customWidth="1" style="16" min="25" max="25"/>
+    <col width="18" customWidth="1" style="16" min="26" max="26"/>
+    <col width="19.42578125" customWidth="1" style="16" min="27" max="27"/>
+    <col width="19" customWidth="1" style="16" min="28" max="28"/>
     <col width="20.85546875" customWidth="1" style="11" min="29" max="29"/>
     <col width="21.140625" customWidth="1" style="11" min="30" max="31"/>
     <col width="22.140625" customWidth="1" style="11" min="32" max="32"/>
@@ -4802,7 +4841,7 @@
     <col width="23.85546875" customWidth="1" style="11" min="36" max="37"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="24" thickBot="1">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="23" thickBot="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
           <t>rowid</t>
@@ -4888,114 +4927,114 @@
           <t>Currency</t>
         </is>
       </c>
-      <c r="R1" s="25" t="inlineStr">
+      <c r="R1" s="24" t="inlineStr">
         <is>
           <t>Remittance_Status</t>
         </is>
       </c>
-      <c r="S1" s="25" t="inlineStr">
+      <c r="S1" s="24" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="T1" s="25" t="inlineStr">
+      <c r="T1" s="24" t="inlineStr">
         <is>
           <t>Notice_Status</t>
         </is>
       </c>
-      <c r="U1" s="26" t="inlineStr">
+      <c r="U1" s="25" t="inlineStr">
         <is>
           <t>WIP_TransactionType</t>
         </is>
       </c>
-      <c r="V1" s="26" t="inlineStr">
+      <c r="V1" s="25" t="inlineStr">
         <is>
           <t>WIP_AwaitingApprovalStatus</t>
         </is>
       </c>
-      <c r="W1" s="26" t="inlineStr">
+      <c r="W1" s="25" t="inlineStr">
         <is>
           <t>WIP_OutstandingType</t>
         </is>
       </c>
-      <c r="X1" s="26" t="inlineStr">
+      <c r="X1" s="25" t="inlineStr">
         <is>
           <t>WIP_AwaitingReleaseStatus</t>
         </is>
       </c>
-      <c r="Y1" s="25" t="inlineStr">
+      <c r="Y1" s="24" t="inlineStr">
         <is>
           <t>Inputter_Username</t>
         </is>
       </c>
-      <c r="Z1" s="25" t="inlineStr">
+      <c r="Z1" s="24" t="inlineStr">
         <is>
           <t>Inputter_Password</t>
         </is>
       </c>
-      <c r="AA1" s="25" t="inlineStr">
+      <c r="AA1" s="24" t="inlineStr">
         <is>
           <t>Manager_Username</t>
         </is>
       </c>
-      <c r="AB1" s="25" t="inlineStr">
+      <c r="AB1" s="24" t="inlineStr">
         <is>
           <t>Manager_Password</t>
         </is>
       </c>
-      <c r="AC1" s="21" t="inlineStr">
+      <c r="AC1" s="20" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="AD1" s="21" t="inlineStr">
+      <c r="AD1" s="20" t="inlineStr">
         <is>
           <t>Lender1_ShortName</t>
         </is>
       </c>
-      <c r="AE1" s="21" t="inlineStr">
+      <c r="AE1" s="20" t="inlineStr">
         <is>
           <t>Lender2_ShortName</t>
         </is>
       </c>
-      <c r="AF1" s="21" t="inlineStr">
+      <c r="AF1" s="20" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="AG1" s="21" t="inlineStr">
+      <c r="AG1" s="20" t="inlineStr">
         <is>
           <t>Remittance1_Instruction</t>
         </is>
       </c>
-      <c r="AH1" s="21" t="inlineStr">
+      <c r="AH1" s="20" t="inlineStr">
         <is>
           <t>Remittance2_Instruction</t>
         </is>
       </c>
-      <c r="AI1" s="21" t="inlineStr">
+      <c r="AI1" s="20" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="AJ1" s="21" t="inlineStr">
+      <c r="AJ1" s="20" t="inlineStr">
         <is>
           <t>Remittance1_Description</t>
         </is>
       </c>
-      <c r="AK1" s="21" t="inlineStr">
+      <c r="AK1" s="20" t="inlineStr">
         <is>
           <t>Remittance2_Description</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customFormat="1" customHeight="1" s="17">
-      <c r="A2" s="17" t="inlineStr">
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="16">
+      <c r="A2" s="16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="17" t="inlineStr">
+      <c r="B2" s="16" t="inlineStr">
         <is>
           <t>EVG_PTYLIQ02 Scenario2 Baseline Agency (Syndicated)</t>
         </is>
@@ -5005,12 +5044,12 @@
           <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
-      <c r="D2" s="50" t="inlineStr">
+      <c r="D2" s="49" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="E2" s="50" t="inlineStr">
+      <c r="E2" s="49" t="inlineStr">
         <is>
           <t>Deal/Facility</t>
         </is>
@@ -5025,27 +5064,27 @@
           <t>60000262</t>
         </is>
       </c>
-      <c r="H2" s="50" t="inlineStr">
+      <c r="H2" s="49" t="inlineStr">
         <is>
           <t>BBSW - Mid</t>
         </is>
       </c>
-      <c r="I2" s="50" t="inlineStr">
+      <c r="I2" s="49" t="inlineStr">
         <is>
           <t>COMMONWEALTHBANKOFAUSTCB001</t>
         </is>
       </c>
-      <c r="J2" s="50" t="inlineStr">
+      <c r="J2" s="49" t="inlineStr">
         <is>
           <t>100,000.00</t>
         </is>
       </c>
-      <c r="K2" s="50" t="inlineStr">
+      <c r="K2" s="49" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L2" s="50" t="inlineStr">
+      <c r="L2" s="49" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5055,7 +5094,7 @@
           <t>CB001/Intercompany Loans with Affiliates/GT141P</t>
         </is>
       </c>
-      <c r="N2" s="50" t="inlineStr">
+      <c r="N2" s="49" t="inlineStr">
         <is>
           <t>500,000</t>
         </is>
@@ -5065,67 +5104,67 @@
           <t>BP_CML</t>
         </is>
       </c>
-      <c r="P2" s="50" t="inlineStr">
+      <c r="P2" s="49" t="inlineStr">
         <is>
           <t>BBSW</t>
         </is>
       </c>
-      <c r="Q2" s="50" t="inlineStr">
+      <c r="Q2" s="49" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="R2" s="50" t="inlineStr">
+      <c r="R2" s="49" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="S2" s="50" t="inlineStr">
+      <c r="S2" s="49" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="T2" s="50" t="inlineStr">
+      <c r="T2" s="49" t="inlineStr">
         <is>
           <t>Awaiting release</t>
         </is>
       </c>
-      <c r="U2" s="17" t="inlineStr">
+      <c r="U2" s="16" t="inlineStr">
         <is>
           <t>Payments</t>
         </is>
       </c>
-      <c r="V2" s="17" t="inlineStr">
+      <c r="V2" s="16" t="inlineStr">
         <is>
           <t>Awaiting Approval</t>
         </is>
       </c>
-      <c r="W2" s="17" t="inlineStr">
+      <c r="W2" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">Break Cost Fee </t>
         </is>
       </c>
-      <c r="X2" s="27" t="inlineStr">
+      <c r="X2" s="26" t="inlineStr">
         <is>
           <t>Awaiting Release</t>
         </is>
       </c>
-      <c r="Y2" s="50" t="inlineStr">
+      <c r="Y2" s="49" t="inlineStr">
         <is>
           <t>JCUSR01</t>
         </is>
       </c>
-      <c r="Z2" s="50" t="inlineStr">
+      <c r="Z2" s="49" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="AA2" s="50" t="inlineStr">
+      <c r="AA2" s="49" t="inlineStr">
         <is>
           <t>JCAPR02</t>
         </is>
       </c>
-      <c r="AB2" s="17" t="inlineStr">
+      <c r="AB2" s="16" t="inlineStr">
         <is>
           <t>password</t>
         </is>
@@ -5150,12 +5189,12 @@
           <t>DDA</t>
         </is>
       </c>
-      <c r="AG2" s="22" t="inlineStr">
+      <c r="AG2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="AH2" s="22" t="inlineStr">
+      <c r="AH2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
@@ -5176,68 +5215,68 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customFormat="1" customHeight="1" s="17">
+    <row r="5" ht="15" customFormat="1" customHeight="1" s="16">
       <c r="C5" s="11" t="n"/>
-      <c r="D5" s="50" t="n"/>
-      <c r="E5" s="50" t="n"/>
+      <c r="D5" s="49" t="n"/>
+      <c r="E5" s="49" t="n"/>
       <c r="F5" s="1" t="n"/>
       <c r="G5" s="1" t="n"/>
-      <c r="H5" s="50" t="n"/>
-      <c r="I5" s="50" t="n"/>
-      <c r="J5" s="50" t="n"/>
-      <c r="K5" s="50" t="n"/>
-      <c r="L5" s="50" t="n"/>
+      <c r="H5" s="49" t="n"/>
+      <c r="I5" s="49" t="n"/>
+      <c r="J5" s="49" t="n"/>
+      <c r="K5" s="49" t="n"/>
+      <c r="L5" s="49" t="n"/>
       <c r="M5" s="11" t="n"/>
-      <c r="N5" s="50" t="n"/>
+      <c r="N5" s="49" t="n"/>
       <c r="O5" s="1" t="n"/>
-      <c r="P5" s="50" t="n"/>
-      <c r="Q5" s="50" t="n"/>
-      <c r="R5" s="50" t="n"/>
-      <c r="S5" s="50" t="n"/>
-      <c r="T5" s="50" t="n"/>
-      <c r="X5" s="27" t="n"/>
-      <c r="Y5" s="50" t="n"/>
-      <c r="Z5" s="50" t="n"/>
-      <c r="AA5" s="50" t="n"/>
+      <c r="P5" s="49" t="n"/>
+      <c r="Q5" s="49" t="n"/>
+      <c r="R5" s="49" t="n"/>
+      <c r="S5" s="49" t="n"/>
+      <c r="T5" s="49" t="n"/>
+      <c r="X5" s="26" t="n"/>
+      <c r="Y5" s="49" t="n"/>
+      <c r="Z5" s="49" t="n"/>
+      <c r="AA5" s="49" t="n"/>
       <c r="AC5" s="1" t="n"/>
       <c r="AD5" s="11" t="n"/>
       <c r="AE5" s="11" t="n"/>
       <c r="AF5" s="1" t="n"/>
-      <c r="AG5" s="22" t="n"/>
-      <c r="AH5" s="22" t="n"/>
+      <c r="AG5" s="21" t="n"/>
+      <c r="AH5" s="21" t="n"/>
       <c r="AI5" s="1" t="n"/>
       <c r="AJ5" s="11" t="n"/>
       <c r="AK5" s="11" t="n"/>
     </row>
-    <row r="6" ht="15" customFormat="1" customHeight="1" s="17">
+    <row r="6" ht="15" customFormat="1" customHeight="1" s="16">
       <c r="C6" s="11" t="n"/>
-      <c r="D6" s="50" t="n"/>
-      <c r="E6" s="50" t="n"/>
+      <c r="D6" s="49" t="n"/>
+      <c r="E6" s="49" t="n"/>
       <c r="F6" s="1" t="n"/>
       <c r="G6" s="1" t="n"/>
-      <c r="H6" s="50" t="n"/>
-      <c r="I6" s="50" t="n"/>
-      <c r="J6" s="50" t="n"/>
-      <c r="K6" s="50" t="n"/>
-      <c r="L6" s="50" t="n"/>
+      <c r="H6" s="49" t="n"/>
+      <c r="I6" s="49" t="n"/>
+      <c r="J6" s="49" t="n"/>
+      <c r="K6" s="49" t="n"/>
+      <c r="L6" s="49" t="n"/>
       <c r="M6" s="11" t="n"/>
-      <c r="N6" s="50" t="n"/>
+      <c r="N6" s="49" t="n"/>
       <c r="O6" s="1" t="n"/>
-      <c r="P6" s="50" t="n"/>
-      <c r="Q6" s="50" t="n"/>
-      <c r="R6" s="50" t="n"/>
-      <c r="S6" s="50" t="n"/>
-      <c r="T6" s="50" t="n"/>
-      <c r="X6" s="27" t="n"/>
-      <c r="Y6" s="50" t="n"/>
-      <c r="Z6" s="50" t="n"/>
-      <c r="AA6" s="50" t="n"/>
+      <c r="P6" s="49" t="n"/>
+      <c r="Q6" s="49" t="n"/>
+      <c r="R6" s="49" t="n"/>
+      <c r="S6" s="49" t="n"/>
+      <c r="T6" s="49" t="n"/>
+      <c r="X6" s="26" t="n"/>
+      <c r="Y6" s="49" t="n"/>
+      <c r="Z6" s="49" t="n"/>
+      <c r="AA6" s="49" t="n"/>
       <c r="AC6" s="1" t="n"/>
       <c r="AD6" s="11" t="n"/>
       <c r="AE6" s="11" t="n"/>
       <c r="AF6" s="1" t="n"/>
-      <c r="AG6" s="22" t="n"/>
-      <c r="AH6" s="22" t="n"/>
+      <c r="AG6" s="21" t="n"/>
+      <c r="AH6" s="21" t="n"/>
       <c r="AI6" s="1" t="n"/>
       <c r="AJ6" s="11" t="n"/>
       <c r="AK6" s="11" t="n"/>
@@ -5274,8 +5313,8 @@
     <col width="17.7109375" customWidth="1" style="15" min="9" max="9"/>
     <col width="19.28515625" customWidth="1" style="15" min="10" max="10"/>
     <col width="34.42578125" customWidth="1" style="15" min="11" max="11"/>
-    <col width="20.85546875" customWidth="1" style="49" min="12" max="12"/>
-    <col width="21.140625" customWidth="1" style="49" min="13" max="14"/>
+    <col width="20.85546875" customWidth="1" style="48" min="12" max="12"/>
+    <col width="21.140625" customWidth="1" style="48" min="13" max="14"/>
     <col width="21.140625" customWidth="1" style="15" min="15" max="15"/>
     <col width="20.140625" customWidth="1" style="15" min="16" max="17"/>
     <col width="28.140625" customWidth="1" style="15" min="18" max="18"/>
@@ -5314,295 +5353,295 @@
     <col width="23.85546875" customWidth="1" style="11" min="55" max="64"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="25" thickBot="1">
-      <c r="A1" s="25" t="inlineStr">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="24" thickBot="1">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="25" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="21" t="inlineStr">
+      <c r="C1" s="20" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="25" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Facility_Type</t>
         </is>
       </c>
-      <c r="E1" s="21" t="inlineStr">
+      <c r="E1" s="20" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="F1" s="21" t="inlineStr">
+      <c r="F1" s="20" t="inlineStr">
         <is>
           <t>Facility_ProposedCmt</t>
         </is>
       </c>
-      <c r="G1" s="21" t="inlineStr">
+      <c r="G1" s="20" t="inlineStr">
         <is>
           <t>Repayment_RemainingPrincipal</t>
         </is>
       </c>
-      <c r="H1" s="21" t="inlineStr">
+      <c r="H1" s="20" t="inlineStr">
         <is>
           <t>Cashflows_HostBankTranAmount</t>
         </is>
       </c>
-      <c r="I1" s="21" t="inlineStr">
+      <c r="I1" s="20" t="inlineStr">
         <is>
           <t>Loan_Alias</t>
         </is>
       </c>
-      <c r="J1" s="25" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>Loan_PricingOption</t>
         </is>
       </c>
-      <c r="K1" s="21" t="inlineStr">
+      <c r="K1" s="20" t="inlineStr">
         <is>
           <t>UnscheduledPrincipal_PrincipalAmt</t>
         </is>
       </c>
-      <c r="L1" s="28" t="inlineStr">
+      <c r="L1" s="27" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="M1" s="28" t="inlineStr">
+      <c r="M1" s="27" t="inlineStr">
         <is>
           <t>Lender1_ShortName</t>
         </is>
       </c>
-      <c r="N1" s="28" t="inlineStr">
+      <c r="N1" s="27" t="inlineStr">
         <is>
           <t>Lender2_ShortName</t>
         </is>
       </c>
-      <c r="O1" s="21" t="inlineStr">
+      <c r="O1" s="20" t="inlineStr">
         <is>
           <t>Borrower_LegalName</t>
         </is>
       </c>
-      <c r="P1" s="21" t="inlineStr">
+      <c r="P1" s="20" t="inlineStr">
         <is>
           <t>Lender1_LegalName</t>
         </is>
       </c>
-      <c r="Q1" s="21" t="inlineStr">
+      <c r="Q1" s="20" t="inlineStr">
         <is>
           <t>Lender2_LegalName</t>
         </is>
       </c>
-      <c r="R1" s="21" t="inlineStr">
+      <c r="R1" s="20" t="inlineStr">
         <is>
           <t>Borrower_IntenNoticeContact</t>
         </is>
       </c>
-      <c r="S1" s="21" t="inlineStr">
+      <c r="S1" s="20" t="inlineStr">
         <is>
           <t>Lender1_IntenNoticeContact</t>
         </is>
       </c>
-      <c r="T1" s="21" t="inlineStr">
+      <c r="T1" s="20" t="inlineStr">
         <is>
           <t>Lender2_IntenNoticeContact</t>
         </is>
       </c>
-      <c r="U1" s="25" t="inlineStr">
+      <c r="U1" s="24" t="inlineStr">
         <is>
           <t>CycleNumber</t>
         </is>
       </c>
-      <c r="V1" s="21" t="inlineStr">
+      <c r="V1" s="20" t="inlineStr">
         <is>
           <t>Loan_CalculatedFixedPayment</t>
         </is>
       </c>
-      <c r="W1" s="21" t="inlineStr">
+      <c r="W1" s="20" t="inlineStr">
         <is>
           <t>HostBankSharePct</t>
         </is>
       </c>
-      <c r="X1" s="21" t="inlineStr">
+      <c r="X1" s="20" t="inlineStr">
         <is>
           <t>LenderSharePct1</t>
         </is>
       </c>
-      <c r="Y1" s="21" t="inlineStr">
+      <c r="Y1" s="20" t="inlineStr">
         <is>
           <t>LenderSharePct2</t>
         </is>
       </c>
-      <c r="Z1" s="25" t="inlineStr">
+      <c r="Z1" s="24" t="inlineStr">
         <is>
           <t>IntentNoticeStatus</t>
         </is>
       </c>
-      <c r="AA1" s="21" t="inlineStr">
+      <c r="AA1" s="20" t="inlineStr">
         <is>
           <t>Borrower_ContactEmail</t>
         </is>
       </c>
-      <c r="AB1" s="21" t="inlineStr">
+      <c r="AB1" s="20" t="inlineStr">
         <is>
           <t>Lender1_ContactEmail</t>
         </is>
       </c>
-      <c r="AC1" s="21" t="inlineStr">
+      <c r="AC1" s="20" t="inlineStr">
         <is>
           <t>Lender2_ContactEmail</t>
         </is>
       </c>
-      <c r="AD1" s="25" t="inlineStr">
+      <c r="AD1" s="24" t="inlineStr">
         <is>
           <t>Outstanding_Type</t>
         </is>
       </c>
-      <c r="AE1" s="25" t="inlineStr">
+      <c r="AE1" s="24" t="inlineStr">
         <is>
           <t>WIP_TransactionType</t>
         </is>
       </c>
-      <c r="AF1" s="25" t="inlineStr">
+      <c r="AF1" s="24" t="inlineStr">
         <is>
           <t>WIP_AwaitingApprovalStatus</t>
         </is>
       </c>
-      <c r="AG1" s="25" t="inlineStr">
+      <c r="AG1" s="24" t="inlineStr">
         <is>
           <t>WIP_PaymentType</t>
         </is>
       </c>
-      <c r="AH1" s="25" t="inlineStr">
+      <c r="AH1" s="24" t="inlineStr">
         <is>
           <t>WIP_AwaitingReleaseCashflowsStatus</t>
         </is>
       </c>
-      <c r="AI1" s="25" t="inlineStr">
+      <c r="AI1" s="24" t="inlineStr">
         <is>
           <t>WIP_AwaitingGenerateIntentNotices</t>
         </is>
       </c>
-      <c r="AJ1" s="25" t="inlineStr">
+      <c r="AJ1" s="24" t="inlineStr">
         <is>
           <t>WIP_AwaitingRelease</t>
         </is>
       </c>
-      <c r="AK1" s="25" t="inlineStr">
+      <c r="AK1" s="24" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="AL1" s="21" t="inlineStr">
+      <c r="AL1" s="20" t="inlineStr">
         <is>
           <t>HostBank_PrincipalGLAccount</t>
         </is>
       </c>
-      <c r="AM1" s="25" t="inlineStr">
+      <c r="AM1" s="24" t="inlineStr">
         <is>
           <t>ApproverUsername</t>
         </is>
       </c>
-      <c r="AN1" s="25" t="inlineStr">
+      <c r="AN1" s="24" t="inlineStr">
         <is>
           <t>ApproverPassword</t>
         </is>
       </c>
-      <c r="AO1" s="25" t="inlineStr">
+      <c r="AO1" s="24" t="inlineStr">
         <is>
           <t>UserName_Original</t>
         </is>
       </c>
-      <c r="AP1" s="25" t="inlineStr">
+      <c r="AP1" s="24" t="inlineStr">
         <is>
           <t>Password_Original</t>
         </is>
       </c>
-      <c r="AQ1" s="25" t="inlineStr">
+      <c r="AQ1" s="24" t="inlineStr">
         <is>
           <t>GlobalFacCommitmentAmount</t>
         </is>
       </c>
-      <c r="AR1" s="21" t="inlineStr">
+      <c r="AR1" s="20" t="inlineStr">
         <is>
           <t>GlobalFacOutstandingAmount</t>
         </is>
       </c>
-      <c r="AS1" s="21" t="inlineStr">
+      <c r="AS1" s="20" t="inlineStr">
         <is>
           <t>GlobalFacAvailtoDrawAmount</t>
         </is>
       </c>
-      <c r="AT1" s="21" t="inlineStr">
+      <c r="AT1" s="20" t="inlineStr">
         <is>
           <t>OldGlobalCurrentAmount</t>
         </is>
       </c>
-      <c r="AU1" s="21" t="inlineStr">
+      <c r="AU1" s="20" t="inlineStr">
         <is>
           <t>OldHostBankGross</t>
         </is>
       </c>
-      <c r="AV1" s="21" t="inlineStr">
+      <c r="AV1" s="20" t="inlineStr">
         <is>
           <t>Rate</t>
         </is>
       </c>
-      <c r="AW1" s="21" t="inlineStr">
+      <c r="AW1" s="20" t="inlineStr">
         <is>
           <t>RateBasis</t>
         </is>
       </c>
-      <c r="AX1" s="21" t="inlineStr">
+      <c r="AX1" s="20" t="inlineStr">
         <is>
           <t>StartDate</t>
         </is>
       </c>
-      <c r="AY1" s="21" t="inlineStr">
+      <c r="AY1" s="20" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="AZ1" s="21" t="inlineStr">
+      <c r="AZ1" s="20" t="inlineStr">
         <is>
           <t>Remittance1_Instruction</t>
         </is>
       </c>
-      <c r="BA1" s="21" t="inlineStr">
+      <c r="BA1" s="20" t="inlineStr">
         <is>
           <t>Remittance2_Instruction</t>
         </is>
       </c>
-      <c r="BB1" s="21" t="inlineStr">
+      <c r="BB1" s="20" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="BC1" s="21" t="inlineStr">
+      <c r="BC1" s="20" t="inlineStr">
         <is>
           <t>Remittance1_Description</t>
         </is>
       </c>
-      <c r="BD1" s="21" t="inlineStr">
+      <c r="BD1" s="20" t="inlineStr">
         <is>
           <t>Remittance2_Description</t>
         </is>
       </c>
-      <c r="BE1" s="21" t="n"/>
-      <c r="BF1" s="21" t="n"/>
-      <c r="BG1" s="21" t="n"/>
-      <c r="BH1" s="21" t="n"/>
-      <c r="BI1" s="21" t="n"/>
-      <c r="BJ1" s="21" t="n"/>
-      <c r="BK1" s="21" t="n"/>
-      <c r="BL1" s="21" t="n"/>
+      <c r="BE1" s="20" t="n"/>
+      <c r="BF1" s="20" t="n"/>
+      <c r="BG1" s="20" t="n"/>
+      <c r="BH1" s="20" t="n"/>
+      <c r="BI1" s="20" t="n"/>
+      <c r="BJ1" s="20" t="n"/>
+      <c r="BK1" s="20" t="n"/>
+      <c r="BL1" s="20" t="n"/>
     </row>
     <row r="2" ht="12.75" customFormat="1" customHeight="1" s="11">
       <c r="A2" s="11" t="inlineStr">
@@ -5620,7 +5659,7 @@
           <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
-      <c r="D2" s="50" t="inlineStr">
+      <c r="D2" s="49" t="inlineStr">
         <is>
           <t>Term</t>
         </is>
@@ -5630,7 +5669,7 @@
           <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
-      <c r="F2" s="50" t="inlineStr">
+      <c r="F2" s="49" t="inlineStr">
         <is>
           <t>100000000.00</t>
         </is>
@@ -5673,7 +5712,7 @@
           <t>LENDSHORT16107</t>
         </is>
       </c>
-      <c r="O2" s="49" t="inlineStr">
+      <c r="O2" s="48" t="inlineStr">
         <is>
           <t>ESPS11713819</t>
         </is>
@@ -5708,42 +5747,42 @@
           <t>1</t>
         </is>
       </c>
-      <c r="V2" s="50" t="inlineStr">
+      <c r="V2" s="49" t="inlineStr">
         <is>
           <t>6391.44</t>
         </is>
       </c>
-      <c r="W2" s="50" t="inlineStr">
+      <c r="W2" s="49" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="X2" s="50" t="inlineStr">
+      <c r="X2" s="49" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y2" s="50" t="inlineStr">
+      <c r="Y2" s="49" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z2" s="50" t="inlineStr">
+      <c r="Z2" s="49" t="inlineStr">
         <is>
           <t>Awaiting release</t>
         </is>
       </c>
-      <c r="AA2" s="29" t="inlineStr">
+      <c r="AA2" s="28" t="inlineStr">
         <is>
           <t>john.blogg@abc.com</t>
         </is>
       </c>
-      <c r="AB2" s="29" t="inlineStr">
+      <c r="AB2" s="28" t="inlineStr">
         <is>
           <t>john.blogg@abc.com</t>
         </is>
       </c>
-      <c r="AC2" s="29" t="inlineStr">
+      <c r="AC2" s="28" t="inlineStr">
         <is>
           <t>john.blogg@abc.com</t>
         </is>
@@ -5768,17 +5807,17 @@
           <t>Unscheduled Loan Principal Prepayment</t>
         </is>
       </c>
-      <c r="AH2" s="50" t="inlineStr">
+      <c r="AH2" s="49" t="inlineStr">
         <is>
           <t>Awaiting Release Cashflows</t>
         </is>
       </c>
-      <c r="AI2" s="50" t="inlineStr">
+      <c r="AI2" s="49" t="inlineStr">
         <is>
           <t>Awaiting Generate Intent Notices</t>
         </is>
       </c>
-      <c r="AJ2" s="50" t="inlineStr">
+      <c r="AJ2" s="49" t="inlineStr">
         <is>
           <t>Awaiting Release</t>
         </is>
@@ -5793,22 +5832,22 @@
           <t>12001001836</t>
         </is>
       </c>
-      <c r="AM2" s="50" t="inlineStr">
+      <c r="AM2" s="49" t="inlineStr">
         <is>
           <t>JCAPR01</t>
         </is>
       </c>
-      <c r="AN2" s="50" t="inlineStr">
+      <c r="AN2" s="49" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="AO2" s="50" t="inlineStr">
+      <c r="AO2" s="49" t="inlineStr">
         <is>
           <t>JCUSR01</t>
         </is>
       </c>
-      <c r="AP2" s="50" t="inlineStr">
+      <c r="AP2" s="49" t="inlineStr">
         <is>
           <t>password</t>
         </is>
@@ -5850,12 +5889,12 @@
           <t>DDA</t>
         </is>
       </c>
-      <c r="AZ2" s="22" t="inlineStr">
+      <c r="AZ2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="BA2" s="22" t="inlineStr">
+      <c r="BA2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
@@ -5865,24 +5904,24 @@
           <t>DDAAUD1-4344</t>
         </is>
       </c>
-      <c r="BC2" s="22" t="inlineStr">
+      <c r="BC2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="BD2" s="22" t="inlineStr">
+      <c r="BD2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="BE2" s="49" t="n"/>
-      <c r="BF2" s="49" t="n"/>
-      <c r="BG2" s="49" t="n"/>
-      <c r="BH2" s="49" t="n"/>
-      <c r="BI2" s="49" t="n"/>
-      <c r="BJ2" s="49" t="n"/>
-      <c r="BK2" s="49" t="n"/>
-      <c r="BL2" s="49" t="n"/>
+      <c r="BE2" s="48" t="n"/>
+      <c r="BF2" s="48" t="n"/>
+      <c r="BG2" s="48" t="n"/>
+      <c r="BH2" s="48" t="n"/>
+      <c r="BI2" s="48" t="n"/>
+      <c r="BJ2" s="48" t="n"/>
+      <c r="BK2" s="48" t="n"/>
+      <c r="BL2" s="48" t="n"/>
       <c r="BM2" s="1" t="inlineStr">
         <is>
           <t>ESPS11710749</t>
@@ -6040,7 +6079,7 @@
     <col width="17.85546875" customWidth="1" style="1" min="24" max="24"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="24" thickBot="1">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="23" thickBot="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
           <t>rowid</t>
@@ -6086,89 +6125,89 @@
           <t>EventFee_RequestedAmount</t>
         </is>
       </c>
-      <c r="J1" s="25" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>WIP_TransactionType</t>
         </is>
       </c>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>WIP_AwaitingCreateCashflowsStatus</t>
         </is>
       </c>
-      <c r="L1" s="25" t="inlineStr">
+      <c r="L1" s="24" t="inlineStr">
         <is>
           <t>WIP_AwaitingApprovalStatus</t>
         </is>
       </c>
-      <c r="M1" s="25" t="inlineStr">
+      <c r="M1" s="24" t="inlineStr">
         <is>
           <t>WIP_OutstandingType</t>
         </is>
       </c>
-      <c r="N1" s="25" t="inlineStr">
+      <c r="N1" s="24" t="inlineStr">
         <is>
           <t>WIP_AwaitingReleaseStatus</t>
         </is>
       </c>
-      <c r="O1" s="21" t="inlineStr">
+      <c r="O1" s="20" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="P1" s="21" t="inlineStr">
+      <c r="P1" s="20" t="inlineStr">
         <is>
           <t>Lender1_ShortName</t>
         </is>
       </c>
-      <c r="Q1" s="21" t="inlineStr">
+      <c r="Q1" s="20" t="inlineStr">
         <is>
           <t>Lender2_ShortName</t>
         </is>
       </c>
-      <c r="R1" s="21" t="inlineStr">
+      <c r="R1" s="20" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="S1" s="21" t="inlineStr">
+      <c r="S1" s="20" t="inlineStr">
         <is>
           <t>Remittance1_Instruction</t>
         </is>
       </c>
-      <c r="T1" s="21" t="inlineStr">
+      <c r="T1" s="20" t="inlineStr">
         <is>
           <t>Remittance2_Instruction</t>
         </is>
       </c>
-      <c r="U1" s="21" t="inlineStr">
+      <c r="U1" s="20" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="V1" s="21" t="inlineStr">
+      <c r="V1" s="20" t="inlineStr">
         <is>
           <t>Remittance1_Description</t>
         </is>
       </c>
-      <c r="W1" s="21" t="inlineStr">
+      <c r="W1" s="20" t="inlineStr">
         <is>
           <t>Remittance2_Description</t>
         </is>
       </c>
-      <c r="X1" s="21" t="inlineStr">
+      <c r="X1" s="20" t="inlineStr">
         <is>
           <t>LegalFee_Amount</t>
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="17">
-      <c r="A2" s="17" t="inlineStr">
+    <row r="2" customFormat="1" s="16">
+      <c r="A2" s="16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="17" t="inlineStr">
+      <c r="B2" s="16" t="inlineStr">
         <is>
           <t>EVG_PTYLIQ02 Scenario2 Baseline Agency (Syndicated)</t>
         </is>
@@ -6183,17 +6222,17 @@
           <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
-      <c r="E2" s="50" t="inlineStr">
+      <c r="E2" s="49" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="F2" s="50" t="inlineStr">
+      <c r="F2" s="49" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G2" s="50" t="inlineStr">
+      <c r="G2" s="49" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -6203,32 +6242,32 @@
           <t>CB001/Hold for Investment - Australia/NR_COL</t>
         </is>
       </c>
-      <c r="I2" s="17" t="inlineStr">
+      <c r="I2" s="16" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="J2" s="17" t="inlineStr">
+      <c r="J2" s="16" t="inlineStr">
         <is>
           <t>Payments</t>
         </is>
       </c>
-      <c r="K2" s="17" t="inlineStr">
+      <c r="K2" s="16" t="inlineStr">
         <is>
           <t>Awaiting Create Cashflows</t>
         </is>
       </c>
-      <c r="L2" s="17" t="inlineStr">
+      <c r="L2" s="16" t="inlineStr">
         <is>
           <t>Awaiting Approval</t>
         </is>
       </c>
-      <c r="M2" s="17" t="inlineStr">
+      <c r="M2" s="16" t="inlineStr">
         <is>
           <t>Free Form Event Fee</t>
         </is>
       </c>
-      <c r="N2" s="27" t="inlineStr">
+      <c r="N2" s="26" t="inlineStr">
         <is>
           <t>Awaiting Release</t>
         </is>
@@ -6248,37 +6287,37 @@
           <t>LENDSHORT16107</t>
         </is>
       </c>
-      <c r="R2" s="22" t="inlineStr">
+      <c r="R2" s="21" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="S2" s="22" t="inlineStr">
+      <c r="S2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="T2" s="22" t="inlineStr">
+      <c r="T2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="U2" s="22" t="inlineStr">
+      <c r="U2" s="21" t="inlineStr">
         <is>
           <t>DDAAUD1-4344</t>
         </is>
       </c>
-      <c r="V2" s="22" t="inlineStr">
+      <c r="V2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="W2" s="22" t="inlineStr">
+      <c r="W2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="X2" s="17" t="inlineStr">
+      <c r="X2" s="16" t="inlineStr">
         <is>
           <t>100.00</t>
         </is>
@@ -6343,14 +6382,14 @@
     <col width="30.5703125" customWidth="1" style="15" min="41" max="42"/>
     <col width="27.5703125" customWidth="1" style="15" min="43" max="43"/>
     <col width="29" customWidth="1" style="15" min="44" max="44"/>
-    <col width="29.42578125" customWidth="1" style="49" min="45" max="45"/>
-    <col width="28.7109375" customWidth="1" style="49" min="46" max="46"/>
-    <col width="28.85546875" customWidth="1" style="49" min="47" max="47"/>
-    <col width="17.85546875" customWidth="1" style="49" min="48" max="48"/>
-    <col width="15.7109375" customWidth="1" style="49" min="49" max="49"/>
+    <col width="29.42578125" customWidth="1" style="48" min="45" max="45"/>
+    <col width="28.7109375" customWidth="1" style="48" min="46" max="46"/>
+    <col width="28.85546875" customWidth="1" style="48" min="47" max="47"/>
+    <col width="17.85546875" customWidth="1" style="48" min="48" max="48"/>
+    <col width="15.7109375" customWidth="1" style="48" min="49" max="49"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="30" thickBot="1">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="29" thickBot="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
           <t>rowid</t>
@@ -6376,12 +6415,12 @@
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="F1" s="21" t="inlineStr">
+      <c r="F1" s="20" t="inlineStr">
         <is>
           <t>ScheduledActivity_FromDate</t>
         </is>
       </c>
-      <c r="G1" s="21" t="inlineStr">
+      <c r="G1" s="20" t="inlineStr">
         <is>
           <t>ScheduledActivity_ThruDate</t>
         </is>
@@ -6396,32 +6435,32 @@
           <t>Loan_PricingOption</t>
         </is>
       </c>
-      <c r="J1" s="21" t="inlineStr">
+      <c r="J1" s="20" t="inlineStr">
         <is>
           <t>ScheduledActivityReport_Date</t>
         </is>
       </c>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>ScheduledActivityReport_ActivityType</t>
         </is>
       </c>
-      <c r="L1" s="21" t="inlineStr">
+      <c r="L1" s="20" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="M1" s="21" t="inlineStr">
+      <c r="M1" s="20" t="inlineStr">
         <is>
           <t>Borrower_LegalName</t>
         </is>
       </c>
-      <c r="N1" s="21" t="inlineStr">
+      <c r="N1" s="20" t="inlineStr">
         <is>
           <t>Lender1_ShortName</t>
         </is>
       </c>
-      <c r="O1" s="21" t="inlineStr">
+      <c r="O1" s="20" t="inlineStr">
         <is>
           <t>Lender2_ShortName</t>
         </is>
@@ -6486,87 +6525,87 @@
           <t>LenderSharePct2</t>
         </is>
       </c>
-      <c r="AB1" s="25" t="inlineStr">
+      <c r="AB1" s="24" t="inlineStr">
         <is>
           <t>Outstanding_Type</t>
         </is>
       </c>
-      <c r="AC1" s="25" t="inlineStr">
+      <c r="AC1" s="24" t="inlineStr">
         <is>
           <t>WIP_TransactionType</t>
         </is>
       </c>
-      <c r="AD1" s="25" t="inlineStr">
+      <c r="AD1" s="24" t="inlineStr">
         <is>
           <t>WIP_AwaitingApprovalStatus</t>
         </is>
       </c>
-      <c r="AE1" s="25" t="inlineStr">
+      <c r="AE1" s="24" t="inlineStr">
         <is>
           <t>WIP_PaymentType</t>
         </is>
       </c>
-      <c r="AF1" s="25" t="inlineStr">
+      <c r="AF1" s="24" t="inlineStr">
         <is>
           <t>WIP_AwaitingReleaseCashflowsStatus</t>
         </is>
       </c>
-      <c r="AG1" s="25" t="inlineStr">
+      <c r="AG1" s="24" t="inlineStr">
         <is>
           <t>WIP_AwaitingRelease</t>
         </is>
       </c>
-      <c r="AH1" s="21" t="inlineStr">
+      <c r="AH1" s="20" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="AI1" s="21" t="inlineStr">
+      <c r="AI1" s="20" t="inlineStr">
         <is>
           <t>Remittance1_Instruction</t>
         </is>
       </c>
-      <c r="AJ1" s="21" t="inlineStr">
+      <c r="AJ1" s="20" t="inlineStr">
         <is>
           <t>Remittance2_Instruction</t>
         </is>
       </c>
-      <c r="AK1" s="25" t="inlineStr">
+      <c r="AK1" s="24" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="AL1" s="21" t="inlineStr">
+      <c r="AL1" s="20" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="AM1" s="21" t="inlineStr">
+      <c r="AM1" s="20" t="inlineStr">
         <is>
           <t>Remittance1_Description</t>
         </is>
       </c>
-      <c r="AN1" s="21" t="inlineStr">
+      <c r="AN1" s="20" t="inlineStr">
         <is>
           <t>Remittance2_Description</t>
         </is>
       </c>
-      <c r="AO1" s="21" t="inlineStr">
+      <c r="AO1" s="20" t="inlineStr">
         <is>
           <t>Lender1_RemittanceDescription</t>
         </is>
       </c>
-      <c r="AP1" s="21" t="inlineStr">
+      <c r="AP1" s="20" t="inlineStr">
         <is>
           <t>Lender2_RemittanceDescription</t>
         </is>
       </c>
-      <c r="AQ1" s="21" t="inlineStr">
+      <c r="AQ1" s="20" t="inlineStr">
         <is>
           <t>HostBank_InterestGLAccount</t>
         </is>
       </c>
-      <c r="AR1" s="21" t="inlineStr">
+      <c r="AR1" s="20" t="inlineStr">
         <is>
           <t>HostBank_PrincipalGLAccount</t>
         </is>
@@ -6598,7 +6637,7 @@
       </c>
     </row>
     <row r="2" ht="12.75" customFormat="1" customHeight="1" s="11">
-      <c r="A2" s="50" t="inlineStr">
+      <c r="A2" s="49" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6613,7 +6652,7 @@
           <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
-      <c r="D2" s="50" t="inlineStr">
+      <c r="D2" s="49" t="inlineStr">
         <is>
           <t>Term</t>
         </is>
@@ -6673,7 +6712,7 @@
           <t>LENDSHORT04114</t>
         </is>
       </c>
-      <c r="P2" s="50" t="inlineStr">
+      <c r="P2" s="49" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -6711,51 +6750,51 @@
           <t>19-Mar-2019</t>
         </is>
       </c>
-      <c r="X2" s="31" t="inlineStr">
+      <c r="X2" s="30" t="inlineStr">
         <is>
           <t>79185.32</t>
         </is>
       </c>
-      <c r="Y2" s="50" t="n">
+      <c r="Y2" s="49" t="n">
         <v>60</v>
       </c>
-      <c r="Z2" s="50" t="n">
+      <c r="Z2" s="49" t="n">
         <v>10</v>
       </c>
-      <c r="AA2" s="50" t="n">
+      <c r="AA2" s="49" t="n">
         <v>30</v>
       </c>
-      <c r="AB2" s="50" t="inlineStr">
+      <c r="AB2" s="49" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="AC2" s="50" t="inlineStr">
+      <c r="AC2" s="49" t="inlineStr">
         <is>
           <t>Payments</t>
         </is>
       </c>
-      <c r="AD2" s="50" t="inlineStr">
+      <c r="AD2" s="49" t="inlineStr">
         <is>
           <t>Awaiting Approval</t>
         </is>
       </c>
-      <c r="AE2" s="50" t="inlineStr">
+      <c r="AE2" s="49" t="inlineStr">
         <is>
           <t>Repayment Paper Clip</t>
         </is>
       </c>
-      <c r="AF2" s="50" t="inlineStr">
+      <c r="AF2" s="49" t="inlineStr">
         <is>
           <t>Awaiting Release Cashflows</t>
         </is>
       </c>
-      <c r="AG2" s="50" t="inlineStr">
+      <c r="AG2" s="49" t="inlineStr">
         <is>
           <t>Awaiting Release</t>
         </is>
       </c>
-      <c r="AH2" s="50" t="inlineStr">
+      <c r="AH2" s="49" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
@@ -6770,7 +6809,7 @@
           <t>RTGS</t>
         </is>
       </c>
-      <c r="AK2" s="50" t="inlineStr">
+      <c r="AK2" s="49" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
@@ -6790,17 +6829,17 @@
           <t>RTGSAUD1-5940</t>
         </is>
       </c>
-      <c r="AO2" s="50" t="inlineStr">
+      <c r="AO2" s="49" t="inlineStr">
         <is>
           <t>RTGS1</t>
         </is>
       </c>
-      <c r="AP2" s="50" t="inlineStr">
+      <c r="AP2" s="49" t="inlineStr">
         <is>
           <t>RTGS1</t>
         </is>
       </c>
-      <c r="AQ2" s="50" t="inlineStr">
+      <c r="AQ2" s="49" t="inlineStr">
         <is>
           <t>18001001836</t>
         </is>
@@ -6878,83 +6917,83 @@
     <col width="16.85546875" customWidth="1" style="1" min="16" max="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="30" thickBot="1">
-      <c r="A1" s="37" t="inlineStr">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="29" thickBot="1">
+      <c r="A1" s="36" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="37" t="inlineStr">
+      <c r="B1" s="36" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="38" t="inlineStr">
+      <c r="C1" s="37" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="38" t="inlineStr">
+      <c r="D1" s="37" t="inlineStr">
         <is>
           <t>AdminFee_DueDate</t>
         </is>
       </c>
-      <c r="E1" s="38" t="inlineStr">
+      <c r="E1" s="37" t="inlineStr">
         <is>
           <t>ScheduledActivityFilter_FromDate</t>
         </is>
       </c>
-      <c r="F1" s="38" t="inlineStr">
+      <c r="F1" s="37" t="inlineStr">
         <is>
           <t>ScheduledActivityFilter_ThruDate</t>
         </is>
       </c>
-      <c r="G1" s="28" t="inlineStr">
+      <c r="G1" s="27" t="inlineStr">
         <is>
           <t>AdminFeePayment_EffectiveDate</t>
         </is>
       </c>
-      <c r="H1" s="30" t="inlineStr">
+      <c r="H1" s="29" t="inlineStr">
         <is>
           <t>AdminFeePayment_Comment</t>
         </is>
       </c>
-      <c r="I1" s="28" t="inlineStr">
+      <c r="I1" s="27" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="J1" s="28" t="inlineStr">
+      <c r="J1" s="27" t="inlineStr">
         <is>
           <t>Customer_LegalName</t>
         </is>
       </c>
-      <c r="K1" s="28" t="inlineStr">
+      <c r="K1" s="27" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="L1" s="28" t="inlineStr">
+      <c r="L1" s="27" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="M1" s="28" t="inlineStr">
+      <c r="M1" s="27" t="inlineStr">
         <is>
           <t>Borrower_IntenNoticeContact</t>
         </is>
       </c>
-      <c r="N1" s="38" t="inlineStr">
+      <c r="N1" s="37" t="inlineStr">
         <is>
           <t>IntentNoticeStatus</t>
         </is>
       </c>
-      <c r="O1" s="28" t="inlineStr">
+      <c r="O1" s="27" t="inlineStr">
         <is>
           <t>Borrower_ContactEmail</t>
         </is>
       </c>
-      <c r="P1" s="28" t="inlineStr">
+      <c r="P1" s="27" t="inlineStr">
         <is>
           <t>AdminFee_Alias</t>
         </is>
@@ -7092,7 +7131,7 @@
     <col width="18" bestFit="1" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="25" thickBot="1">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="24" thickBot="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
           <t>rowid</t>
@@ -7123,57 +7162,57 @@
           <t>EventFee_Type</t>
         </is>
       </c>
-      <c r="G1" s="25" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>EventFee</t>
         </is>
       </c>
-      <c r="H1" s="21" t="inlineStr">
+      <c r="H1" s="20" t="inlineStr">
         <is>
           <t>EventFee_Amount</t>
         </is>
       </c>
-      <c r="I1" s="25" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>RecurringEventFee_Amount</t>
         </is>
       </c>
-      <c r="J1" s="21" t="inlineStr">
+      <c r="J1" s="20" t="inlineStr">
         <is>
           <t>EventFee_EffectiveDate</t>
         </is>
       </c>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>EventFee_BillingDays</t>
         </is>
       </c>
-      <c r="L1" s="25" t="inlineStr">
+      <c r="L1" s="24" t="inlineStr">
         <is>
           <t>EventFee_Comment</t>
         </is>
       </c>
-      <c r="M1" s="25" t="inlineStr">
+      <c r="M1" s="24" t="inlineStr">
         <is>
           <t>EventFee_NoRecurrencesAfterDate</t>
         </is>
       </c>
-      <c r="N1" s="25" t="inlineStr">
+      <c r="N1" s="24" t="inlineStr">
         <is>
           <t>EventFee_Frequency</t>
         </is>
       </c>
-      <c r="O1" s="25" t="inlineStr">
+      <c r="O1" s="24" t="inlineStr">
         <is>
           <t>EventFee_NonBusinessDayRule</t>
         </is>
       </c>
-      <c r="P1" s="25" t="inlineStr">
+      <c r="P1" s="24" t="inlineStr">
         <is>
           <t>Inputter_Username</t>
         </is>
       </c>
-      <c r="Q1" s="25" t="inlineStr">
+      <c r="Q1" s="24" t="inlineStr">
         <is>
           <t>Inputter_Password</t>
         </is>
@@ -7210,17 +7249,17 @@
           <t>Flat Amount</t>
         </is>
       </c>
-      <c r="G2" s="50" t="inlineStr">
+      <c r="G2" s="49" t="inlineStr">
         <is>
           <t>Legal Fee</t>
         </is>
       </c>
-      <c r="H2" s="22" t="inlineStr">
+      <c r="H2" s="21" t="inlineStr">
         <is>
           <t>50,000.00</t>
         </is>
       </c>
-      <c r="I2" s="50" t="n">
+      <c r="I2" s="49" t="n">
         <v>100</v>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -7228,10 +7267,10 @@
           <t>22-Apr-2020</t>
         </is>
       </c>
-      <c r="K2" s="50" t="n">
+      <c r="K2" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="50" t="inlineStr">
+      <c r="L2" s="49" t="inlineStr">
         <is>
           <t>test</t>
         </is>
@@ -7241,22 +7280,22 @@
           <t>22-Apr-2021</t>
         </is>
       </c>
-      <c r="N2" s="50" t="inlineStr">
+      <c r="N2" s="49" t="inlineStr">
         <is>
           <t>Daily</t>
         </is>
       </c>
-      <c r="O2" s="50" t="inlineStr">
+      <c r="O2" s="49" t="inlineStr">
         <is>
           <t>Next Business Day</t>
         </is>
       </c>
-      <c r="P2" s="18" t="inlineStr">
+      <c r="P2" s="17" t="inlineStr">
         <is>
           <t>SAPUSR01</t>
         </is>
       </c>
-      <c r="Q2" s="18" t="inlineStr">
+      <c r="Q2" s="17" t="inlineStr">
         <is>
           <t>1UQQH5YK</t>
         </is>
@@ -7282,105 +7321,105 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="49" min="1" max="1"/>
-    <col width="50.140625" customWidth="1" style="49" min="2" max="2"/>
-    <col width="26.42578125" customWidth="1" style="49" min="3" max="3"/>
-    <col width="25.140625" customWidth="1" style="49" min="4" max="4"/>
-    <col width="22.140625" customWidth="1" style="49" min="5" max="5"/>
-    <col width="19.7109375" customWidth="1" style="49" min="6" max="6"/>
-    <col width="23.5703125" customWidth="1" style="49" min="7" max="7"/>
-    <col width="27.42578125" customWidth="1" style="49" min="8" max="8"/>
-    <col width="25.140625" customWidth="1" style="49" min="9" max="9"/>
-    <col width="27.42578125" customWidth="1" style="49" min="10" max="10"/>
-    <col width="23.42578125" customWidth="1" style="49" min="11" max="11"/>
-    <col width="34.85546875" customWidth="1" style="49" min="12" max="13"/>
-    <col width="28.28515625" customWidth="1" style="49" min="14" max="14"/>
-    <col width="24.140625" customWidth="1" style="49" min="15" max="16"/>
-    <col width="16.85546875" customWidth="1" style="49" min="17" max="17"/>
+    <col width="6.140625" customWidth="1" style="48" min="1" max="1"/>
+    <col width="50.140625" customWidth="1" style="48" min="2" max="2"/>
+    <col width="26.42578125" customWidth="1" style="48" min="3" max="3"/>
+    <col width="25.140625" customWidth="1" style="48" min="4" max="4"/>
+    <col width="22.140625" customWidth="1" style="48" min="5" max="5"/>
+    <col width="19.7109375" customWidth="1" style="48" min="6" max="6"/>
+    <col width="23.5703125" customWidth="1" style="48" min="7" max="7"/>
+    <col width="27.42578125" customWidth="1" style="48" min="8" max="8"/>
+    <col width="25.140625" customWidth="1" style="48" min="9" max="9"/>
+    <col width="27.42578125" customWidth="1" style="48" min="10" max="10"/>
+    <col width="23.42578125" customWidth="1" style="48" min="11" max="11"/>
+    <col width="34.85546875" customWidth="1" style="48" min="12" max="13"/>
+    <col width="28.28515625" customWidth="1" style="48" min="14" max="14"/>
+    <col width="24.140625" customWidth="1" style="48" min="15" max="16"/>
+    <col width="16.85546875" customWidth="1" style="48" min="17" max="17"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="30" thickBot="1">
-      <c r="A1" s="37" t="inlineStr">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="29" thickBot="1">
+      <c r="A1" s="36" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="37" t="inlineStr">
+      <c r="B1" s="36" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="38" t="inlineStr">
+      <c r="C1" s="37" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="30" t="inlineStr">
+      <c r="D1" s="29" t="inlineStr">
         <is>
           <t>AdminFee_IncomeMethod</t>
         </is>
       </c>
-      <c r="E1" s="28" t="inlineStr">
+      <c r="E1" s="27" t="inlineStr">
         <is>
           <t>AdminFee_FlatAmount</t>
         </is>
       </c>
-      <c r="F1" s="30" t="inlineStr">
+      <c r="F1" s="29" t="inlineStr">
         <is>
           <t>AdminFee_Currency</t>
         </is>
       </c>
-      <c r="G1" s="28" t="inlineStr">
+      <c r="G1" s="27" t="inlineStr">
         <is>
           <t>AdminFee_EffectiveDate</t>
         </is>
       </c>
-      <c r="H1" s="30" t="inlineStr">
+      <c r="H1" s="29" t="inlineStr">
         <is>
           <t>AdminFee_PeriodFrequency</t>
         </is>
       </c>
-      <c r="I1" s="28" t="inlineStr">
+      <c r="I1" s="27" t="inlineStr">
         <is>
           <t>AdminFee_ActualDueDate</t>
         </is>
       </c>
-      <c r="J1" s="28" t="inlineStr">
+      <c r="J1" s="27" t="inlineStr">
         <is>
           <t>AdminFee_AdjustedDueDate</t>
         </is>
       </c>
-      <c r="K1" s="30" t="inlineStr">
+      <c r="K1" s="29" t="inlineStr">
         <is>
           <t>AdminFee_BillNoOfDays</t>
         </is>
       </c>
-      <c r="L1" s="30" t="inlineStr">
+      <c r="L1" s="29" t="inlineStr">
         <is>
           <t>AdminFee_Customer</t>
         </is>
       </c>
-      <c r="M1" s="28" t="inlineStr">
+      <c r="M1" s="27" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="N1" s="30" t="inlineStr">
+      <c r="N1" s="29" t="inlineStr">
         <is>
           <t>AdminFee_CustomerLocation</t>
         </is>
       </c>
-      <c r="O1" s="30" t="inlineStr">
+      <c r="O1" s="29" t="inlineStr">
         <is>
           <t>AdminFee_ExpenseCode</t>
         </is>
       </c>
-      <c r="P1" s="30" t="inlineStr">
+      <c r="P1" s="29" t="inlineStr">
         <is>
           <t>AdminFee_PercentOfFee</t>
         </is>
       </c>
-      <c r="Q1" s="30" t="inlineStr">
+      <c r="Q1" s="29" t="inlineStr">
         <is>
           <t>AdminFee_Alias</t>
         </is>
@@ -7402,23 +7441,23 @@
           <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
-      <c r="D2" s="23" t="inlineStr">
+      <c r="D2" s="22" t="inlineStr">
         <is>
           <t>Amortize</t>
         </is>
       </c>
-      <c r="E2" s="23" t="inlineStr">
+      <c r="E2" s="22" t="inlineStr">
         <is>
           <t>50,000</t>
         </is>
       </c>
-      <c r="F2" s="23" t="n"/>
+      <c r="F2" s="22" t="n"/>
       <c r="G2" s="1" t="inlineStr">
         <is>
           <t>07-Jul-2020</t>
         </is>
       </c>
-      <c r="H2" s="50" t="inlineStr">
+      <c r="H2" s="49" t="inlineStr">
         <is>
           <t>Annually</t>
         </is>
@@ -7428,37 +7467,37 @@
           <t>06-Aug-2020</t>
         </is>
       </c>
-      <c r="J2" s="23" t="inlineStr">
+      <c r="J2" s="22" t="inlineStr">
         <is>
           <t>12-Jun-2018</t>
         </is>
       </c>
-      <c r="K2" s="50" t="inlineStr">
+      <c r="K2" s="49" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="L2" s="23" t="inlineStr">
+      <c r="L2" s="22" t="inlineStr">
         <is>
           <t>COMMONWEALTH BANK AUST -DBU</t>
         </is>
       </c>
-      <c r="M2" s="49" t="inlineStr">
+      <c r="M2" s="48" t="inlineStr">
         <is>
           <t>ESPS11413431</t>
         </is>
       </c>
-      <c r="N2" s="50" t="inlineStr">
+      <c r="N2" s="49" t="inlineStr">
         <is>
           <t>Sydney, NSW,Australia</t>
         </is>
       </c>
-      <c r="O2" s="18" t="inlineStr">
+      <c r="O2" s="17" t="inlineStr">
         <is>
           <t>BG_COL</t>
         </is>
       </c>
-      <c r="P2" s="50" t="n">
+      <c r="P2" s="49" t="n">
         <v>100</v>
       </c>
       <c r="Q2" s="1" t="inlineStr">
@@ -7491,29 +7530,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="49" min="1" max="1"/>
-    <col width="50.140625" customWidth="1" style="49" min="2" max="2"/>
-    <col width="21.7109375" customWidth="1" style="49" min="3" max="3"/>
-    <col width="19.5703125" customWidth="1" style="49" min="4" max="4"/>
-    <col width="26.5703125" customWidth="1" style="49" min="5" max="5"/>
-    <col width="26" customWidth="1" style="49" min="6" max="6"/>
-    <col width="14.42578125" customWidth="1" style="49" min="7" max="7"/>
-    <col width="13.140625" customWidth="1" style="49" min="8" max="8"/>
-    <col width="24.7109375" customWidth="1" style="49" min="9" max="9"/>
-    <col width="16.85546875" customWidth="1" style="49" min="10" max="10"/>
-    <col width="23.140625" customWidth="1" style="49" min="11" max="11"/>
-    <col width="20.7109375" customWidth="1" style="49" min="12" max="12"/>
-    <col width="18.7109375" customWidth="1" style="49" min="13" max="13"/>
-    <col width="20.28515625" customWidth="1" style="49" min="14" max="14"/>
-    <col width="18" customWidth="1" style="49" min="15" max="15"/>
-    <col width="21.5703125" customWidth="1" style="49" min="16" max="16"/>
-    <col width="21.7109375" customWidth="1" style="49" min="17" max="17"/>
-    <col width="25.5703125" customWidth="1" style="49" min="18" max="18"/>
-    <col width="18" customWidth="1" style="49" min="19" max="20"/>
-    <col width="20" customWidth="1" style="49" min="21" max="21"/>
+    <col width="6.140625" customWidth="1" style="48" min="1" max="1"/>
+    <col width="50.140625" customWidth="1" style="48" min="2" max="2"/>
+    <col width="21.7109375" customWidth="1" style="48" min="3" max="3"/>
+    <col width="19.5703125" customWidth="1" style="48" min="4" max="4"/>
+    <col width="26.5703125" customWidth="1" style="48" min="5" max="5"/>
+    <col width="26" customWidth="1" style="48" min="6" max="6"/>
+    <col width="14.42578125" customWidth="1" style="48" min="7" max="7"/>
+    <col width="13.140625" customWidth="1" style="48" min="8" max="8"/>
+    <col width="24.7109375" customWidth="1" style="48" min="9" max="9"/>
+    <col width="16.85546875" customWidth="1" style="48" min="10" max="10"/>
+    <col width="23.140625" customWidth="1" style="48" min="11" max="11"/>
+    <col width="20.7109375" customWidth="1" style="48" min="12" max="12"/>
+    <col width="18.7109375" customWidth="1" style="48" min="13" max="13"/>
+    <col width="20.28515625" customWidth="1" style="48" min="14" max="14"/>
+    <col width="18" customWidth="1" style="48" min="15" max="15"/>
+    <col width="21.5703125" customWidth="1" style="48" min="16" max="16"/>
+    <col width="21.7109375" customWidth="1" style="48" min="17" max="17"/>
+    <col width="25.5703125" customWidth="1" style="48" min="18" max="18"/>
+    <col width="18" customWidth="1" style="48" min="19" max="20"/>
+    <col width="20" customWidth="1" style="48" min="21" max="21"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="30" thickBot="1">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="29" thickBot="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
           <t>rowid</t>
@@ -7534,107 +7573,107 @@
           <t>Facility_NamePrefix</t>
         </is>
       </c>
-      <c r="E1" s="28" t="inlineStr">
+      <c r="E1" s="27" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="F1" s="28" t="inlineStr">
+      <c r="F1" s="27" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="G1" s="30" t="inlineStr">
+      <c r="G1" s="29" t="inlineStr">
         <is>
           <t>Deal_Currency</t>
         </is>
       </c>
-      <c r="H1" s="30" t="inlineStr">
+      <c r="H1" s="29" t="inlineStr">
         <is>
           <t>Facility_Type</t>
         </is>
       </c>
-      <c r="I1" s="30" t="inlineStr">
+      <c r="I1" s="29" t="inlineStr">
         <is>
           <t>Facility_ProposedCmtAmt</t>
         </is>
       </c>
-      <c r="J1" s="30" t="inlineStr">
+      <c r="J1" s="29" t="inlineStr">
         <is>
           <t>Facility_Currency</t>
         </is>
       </c>
-      <c r="K1" s="28" t="inlineStr">
+      <c r="K1" s="27" t="inlineStr">
         <is>
           <t>Facility_AgreementDate</t>
         </is>
       </c>
-      <c r="L1" s="28" t="inlineStr">
+      <c r="L1" s="27" t="inlineStr">
         <is>
           <t>Facility_EffectiveDate</t>
         </is>
       </c>
-      <c r="M1" s="28" t="inlineStr">
+      <c r="M1" s="27" t="inlineStr">
         <is>
           <t>Facility_ExpiryDate</t>
         </is>
       </c>
-      <c r="N1" s="28" t="inlineStr">
+      <c r="N1" s="27" t="inlineStr">
         <is>
           <t>Facility_MaturityDate</t>
         </is>
       </c>
-      <c r="O1" s="30" t="inlineStr">
+      <c r="O1" s="29" t="inlineStr">
         <is>
           <t>Facility_RiskType1</t>
         </is>
       </c>
-      <c r="P1" s="30" t="inlineStr">
+      <c r="P1" s="29" t="inlineStr">
         <is>
           <t>Facility_RiskType2</t>
         </is>
       </c>
-      <c r="Q1" s="30" t="inlineStr">
+      <c r="Q1" s="29" t="inlineStr">
         <is>
           <t>Facility_RiskTypeLimit</t>
         </is>
       </c>
-      <c r="R1" s="30" t="inlineStr">
+      <c r="R1" s="29" t="inlineStr">
         <is>
           <t>Facility_LoanPurposeType</t>
         </is>
       </c>
-      <c r="S1" s="30" t="inlineStr">
+      <c r="S1" s="29" t="inlineStr">
         <is>
           <t>Facility_Currency1</t>
         </is>
       </c>
-      <c r="T1" s="30" t="inlineStr">
+      <c r="T1" s="29" t="inlineStr">
         <is>
           <t>Facility_Currency2</t>
         </is>
       </c>
-      <c r="U1" s="28" t="inlineStr">
+      <c r="U1" s="27" t="inlineStr">
         <is>
           <t>Facility_Borrower</t>
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="49">
-      <c r="A2" s="49" t="inlineStr">
+    <row r="2" customFormat="1" s="48">
+      <c r="A2" s="48" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="49" t="inlineStr">
+      <c r="B2" s="48" t="inlineStr">
         <is>
           <t>EVG_PTYLIQ02 Scenario2 Baseline Agency (Syndicated)</t>
         </is>
       </c>
-      <c r="C2" s="49" t="n">
+      <c r="C2" s="48" t="n">
         <v>365</v>
       </c>
-      <c r="D2" s="49" t="inlineStr">
+      <c r="D2" s="48" t="inlineStr">
         <is>
           <t>S2TERM</t>
         </is>
@@ -7649,22 +7688,22 @@
           <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
-      <c r="G2" s="49" t="inlineStr">
+      <c r="G2" s="48" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="H2" s="23" t="inlineStr">
+      <c r="H2" s="22" t="inlineStr">
         <is>
           <t>Term</t>
         </is>
       </c>
-      <c r="I2" s="49" t="inlineStr">
+      <c r="I2" s="48" t="inlineStr">
         <is>
           <t>100,000,000.00</t>
         </is>
       </c>
-      <c r="J2" s="23" t="inlineStr">
+      <c r="J2" s="22" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
@@ -7679,12 +7718,12 @@
           <t>07-Jul-2020</t>
         </is>
       </c>
-      <c r="M2" s="23" t="inlineStr">
+      <c r="M2" s="22" t="inlineStr">
         <is>
           <t>12-Jun-2019</t>
         </is>
       </c>
-      <c r="N2" s="23" t="inlineStr">
+      <c r="N2" s="22" t="inlineStr">
         <is>
           <t>12-Jun-2019</t>
         </is>
@@ -7699,17 +7738,17 @@
           <t>Financial Letter of Credit</t>
         </is>
       </c>
-      <c r="Q2" s="23" t="inlineStr">
+      <c r="Q2" s="22" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="R2" s="23" t="inlineStr">
+      <c r="R2" s="22" t="inlineStr">
         <is>
           <t>Acquisition</t>
         </is>
       </c>
-      <c r="S2" s="23" t="inlineStr">
+      <c r="S2" s="22" t="inlineStr">
         <is>
           <t>Australian Dollar</t>
         </is>
@@ -7746,81 +7785,81 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="49" min="1" max="1"/>
-    <col width="60.28515625" customWidth="1" style="49" min="2" max="2"/>
-    <col width="15.42578125" customWidth="1" style="49" min="3" max="3"/>
-    <col width="5.85546875" customWidth="1" style="49" min="4" max="4"/>
-    <col width="31.28515625" customWidth="1" style="49" min="5" max="5"/>
-    <col width="15.28515625" customWidth="1" style="49" min="6" max="6"/>
-    <col width="14.85546875" customWidth="1" style="49" min="7" max="7"/>
-    <col width="21.140625" customWidth="1" style="49" min="8" max="8"/>
-    <col width="20.7109375" customWidth="1" style="49" min="9" max="9"/>
-    <col width="16.28515625" customWidth="1" style="49" min="10" max="10"/>
-    <col width="24.140625" customWidth="1" style="49" min="11" max="11"/>
-    <col width="16.7109375" customWidth="1" style="49" min="12" max="12"/>
-    <col width="35" customWidth="1" style="49" min="13" max="13"/>
-    <col width="16.7109375" customWidth="1" style="49" min="14" max="15"/>
-    <col width="20" customWidth="1" style="49" min="16" max="16"/>
-    <col width="15.140625" customWidth="1" style="49" min="17" max="17"/>
-    <col width="28.5703125" customWidth="1" style="49" min="18" max="18"/>
-    <col width="15.28515625" customWidth="1" style="49" min="19" max="19"/>
-    <col width="14.42578125" customWidth="1" style="49" min="20" max="20"/>
-    <col width="15.5703125" customWidth="1" style="49" min="21" max="21"/>
-    <col width="21.7109375" customWidth="1" style="49" min="22" max="22"/>
-    <col width="13.7109375" customWidth="1" style="49" min="23" max="23"/>
-    <col width="10.5703125" customWidth="1" style="49" min="24" max="24"/>
-    <col width="15.5703125" customWidth="1" style="49" min="25" max="28"/>
-    <col width="19.28515625" customWidth="1" style="49" min="29" max="29"/>
-    <col width="15.28515625" customWidth="1" style="49" min="30" max="30"/>
-    <col width="24" customWidth="1" style="49" min="31" max="31"/>
-    <col width="21.5703125" customWidth="1" style="49" min="32" max="32"/>
-    <col width="15.28515625" customWidth="1" style="49" min="33" max="33"/>
-    <col width="21.140625" customWidth="1" style="49" min="34" max="35"/>
-    <col width="59.5703125" customWidth="1" style="49" min="36" max="36"/>
-    <col width="54.28515625" customWidth="1" style="49" min="37" max="37"/>
-    <col width="59.42578125" customWidth="1" style="49" min="38" max="38"/>
-    <col width="48.28515625" customWidth="1" style="49" min="39" max="39"/>
-    <col width="28.42578125" customWidth="1" style="49" min="40" max="40"/>
-    <col width="24.7109375" customWidth="1" style="49" min="41" max="41"/>
-    <col width="35.140625" customWidth="1" style="49" min="42" max="42"/>
-    <col width="20.42578125" customWidth="1" style="49" min="43" max="43"/>
-    <col width="28.42578125" customWidth="1" style="49" min="44" max="44"/>
-    <col width="24.7109375" customWidth="1" style="49" min="45" max="45"/>
-    <col width="25" customWidth="1" style="49" min="46" max="46"/>
-    <col width="24.42578125" customWidth="1" style="49" min="47" max="47"/>
-    <col width="30.42578125" customWidth="1" style="49" min="48" max="48"/>
-    <col width="36" customWidth="1" style="49" min="49" max="49"/>
-    <col width="34.42578125" customWidth="1" style="49" min="50" max="50"/>
-    <col width="26.7109375" customWidth="1" style="49" min="51" max="51"/>
-    <col width="17.28515625" customWidth="1" style="49" min="52" max="53"/>
-    <col width="34.140625" customWidth="1" style="49" min="54" max="54"/>
-    <col width="28.42578125" customWidth="1" style="49" min="55" max="55"/>
-    <col width="24.7109375" customWidth="1" style="49" min="56" max="56"/>
-    <col width="30.28515625" customWidth="1" style="49" min="57" max="57"/>
-    <col width="17.5703125" customWidth="1" style="49" min="58" max="58"/>
-    <col width="20.28515625" customWidth="1" style="49" min="59" max="59"/>
-    <col width="12.140625" customWidth="1" style="49" min="60" max="60"/>
-    <col width="21.42578125" customWidth="1" style="49" min="61" max="61"/>
-    <col width="24.140625" customWidth="1" style="49" min="62" max="62"/>
-    <col width="16" customWidth="1" style="49" min="63" max="63"/>
-    <col width="14" customWidth="1" style="49" min="64" max="64"/>
-    <col width="16.7109375" customWidth="1" style="49" min="65" max="65"/>
-    <col width="10.42578125" customWidth="1" style="49" min="66" max="66"/>
-    <col width="37.7109375" customWidth="1" style="49" min="67" max="67"/>
-    <col width="16.7109375" customWidth="1" style="49" min="68" max="69"/>
-    <col width="20.140625" customWidth="1" style="49" min="70" max="72"/>
-    <col width="17.7109375" customWidth="1" style="49" min="73" max="73"/>
-    <col width="24.5703125" customWidth="1" style="49" min="74" max="74"/>
-    <col width="19.42578125" customWidth="1" style="49" min="75" max="77"/>
-    <col width="21.140625" customWidth="1" style="49" min="78" max="78"/>
-    <col width="32.42578125" customWidth="1" style="49" min="79" max="79"/>
-    <col width="17.28515625" customWidth="1" style="49" min="80" max="81"/>
-    <col width="17.5703125" customWidth="1" style="49" min="82" max="84"/>
-    <col width="26.28515625" customWidth="1" style="49" min="85" max="85"/>
-    <col width="35" customWidth="1" style="49" min="86" max="86"/>
-    <col width="26.5703125" customWidth="1" style="49" min="87" max="87"/>
-    <col width="24.85546875" customWidth="1" style="49" min="88" max="88"/>
-    <col width="20" customWidth="1" style="49" min="89" max="89"/>
+    <col width="6.140625" customWidth="1" style="48" min="1" max="1"/>
+    <col width="60.28515625" customWidth="1" style="48" min="2" max="2"/>
+    <col width="15.42578125" customWidth="1" style="48" min="3" max="3"/>
+    <col width="5.85546875" customWidth="1" style="48" min="4" max="4"/>
+    <col width="31.28515625" customWidth="1" style="48" min="5" max="5"/>
+    <col width="15.28515625" customWidth="1" style="48" min="6" max="6"/>
+    <col width="14.85546875" customWidth="1" style="48" min="7" max="7"/>
+    <col width="21.140625" customWidth="1" style="48" min="8" max="8"/>
+    <col width="20.7109375" customWidth="1" style="48" min="9" max="9"/>
+    <col width="16.28515625" customWidth="1" style="48" min="10" max="10"/>
+    <col width="24.140625" customWidth="1" style="48" min="11" max="11"/>
+    <col width="16.7109375" customWidth="1" style="48" min="12" max="12"/>
+    <col width="35" customWidth="1" style="48" min="13" max="13"/>
+    <col width="16.7109375" customWidth="1" style="48" min="14" max="15"/>
+    <col width="20" customWidth="1" style="48" min="16" max="16"/>
+    <col width="15.140625" customWidth="1" style="48" min="17" max="17"/>
+    <col width="28.5703125" customWidth="1" style="48" min="18" max="18"/>
+    <col width="15.28515625" customWidth="1" style="48" min="19" max="19"/>
+    <col width="14.42578125" customWidth="1" style="48" min="20" max="20"/>
+    <col width="15.5703125" customWidth="1" style="48" min="21" max="21"/>
+    <col width="21.7109375" customWidth="1" style="48" min="22" max="22"/>
+    <col width="13.7109375" customWidth="1" style="48" min="23" max="23"/>
+    <col width="10.5703125" customWidth="1" style="48" min="24" max="24"/>
+    <col width="15.5703125" customWidth="1" style="48" min="25" max="28"/>
+    <col width="19.28515625" customWidth="1" style="48" min="29" max="29"/>
+    <col width="15.28515625" customWidth="1" style="48" min="30" max="30"/>
+    <col width="24" customWidth="1" style="48" min="31" max="31"/>
+    <col width="21.5703125" customWidth="1" style="48" min="32" max="32"/>
+    <col width="15.28515625" customWidth="1" style="48" min="33" max="33"/>
+    <col width="21.140625" customWidth="1" style="48" min="34" max="35"/>
+    <col width="59.5703125" customWidth="1" style="48" min="36" max="36"/>
+    <col width="54.28515625" customWidth="1" style="48" min="37" max="37"/>
+    <col width="59.42578125" customWidth="1" style="48" min="38" max="38"/>
+    <col width="48.28515625" customWidth="1" style="48" min="39" max="39"/>
+    <col width="28.42578125" customWidth="1" style="48" min="40" max="40"/>
+    <col width="24.7109375" customWidth="1" style="48" min="41" max="41"/>
+    <col width="35.140625" customWidth="1" style="48" min="42" max="42"/>
+    <col width="20.42578125" customWidth="1" style="48" min="43" max="43"/>
+    <col width="28.42578125" customWidth="1" style="48" min="44" max="44"/>
+    <col width="24.7109375" customWidth="1" style="48" min="45" max="45"/>
+    <col width="25" customWidth="1" style="48" min="46" max="46"/>
+    <col width="24.42578125" customWidth="1" style="48" min="47" max="47"/>
+    <col width="30.42578125" customWidth="1" style="48" min="48" max="48"/>
+    <col width="36" customWidth="1" style="48" min="49" max="49"/>
+    <col width="34.42578125" customWidth="1" style="48" min="50" max="50"/>
+    <col width="26.7109375" customWidth="1" style="48" min="51" max="51"/>
+    <col width="17.28515625" customWidth="1" style="48" min="52" max="53"/>
+    <col width="34.140625" customWidth="1" style="48" min="54" max="54"/>
+    <col width="28.42578125" customWidth="1" style="48" min="55" max="55"/>
+    <col width="24.7109375" customWidth="1" style="48" min="56" max="56"/>
+    <col width="30.28515625" customWidth="1" style="48" min="57" max="57"/>
+    <col width="17.5703125" customWidth="1" style="48" min="58" max="58"/>
+    <col width="20.28515625" customWidth="1" style="48" min="59" max="59"/>
+    <col width="12.140625" customWidth="1" style="48" min="60" max="60"/>
+    <col width="21.42578125" customWidth="1" style="48" min="61" max="61"/>
+    <col width="24.140625" customWidth="1" style="48" min="62" max="62"/>
+    <col width="16" customWidth="1" style="48" min="63" max="63"/>
+    <col width="14" customWidth="1" style="48" min="64" max="64"/>
+    <col width="16.7109375" customWidth="1" style="48" min="65" max="65"/>
+    <col width="10.42578125" customWidth="1" style="48" min="66" max="66"/>
+    <col width="37.7109375" customWidth="1" style="48" min="67" max="67"/>
+    <col width="16.7109375" customWidth="1" style="48" min="68" max="69"/>
+    <col width="20.140625" customWidth="1" style="48" min="70" max="72"/>
+    <col width="17.7109375" customWidth="1" style="48" min="73" max="73"/>
+    <col width="24.5703125" customWidth="1" style="48" min="74" max="74"/>
+    <col width="19.42578125" customWidth="1" style="48" min="75" max="77"/>
+    <col width="21.140625" customWidth="1" style="48" min="78" max="78"/>
+    <col width="32.42578125" customWidth="1" style="48" min="79" max="79"/>
+    <col width="17.28515625" customWidth="1" style="48" min="80" max="81"/>
+    <col width="17.5703125" customWidth="1" style="48" min="82" max="84"/>
+    <col width="26.28515625" customWidth="1" style="48" min="85" max="85"/>
+    <col width="35" customWidth="1" style="48" min="86" max="86"/>
+    <col width="26.5703125" customWidth="1" style="48" min="87" max="87"/>
+    <col width="24.85546875" customWidth="1" style="48" min="88" max="88"/>
+    <col width="20" customWidth="1" style="48" min="89" max="89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="2">
@@ -7834,167 +7873,167 @@
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="46" t="inlineStr">
+      <c r="C1" s="45" t="inlineStr">
         <is>
           <t>User_Link</t>
         </is>
       </c>
-      <c r="D1" s="46" t="inlineStr">
+      <c r="D1" s="45" t="inlineStr">
         <is>
           <t>Port</t>
         </is>
       </c>
-      <c r="E1" s="46" t="inlineStr">
+      <c r="E1" s="45" t="inlineStr">
         <is>
           <t>Party_URL</t>
         </is>
       </c>
-      <c r="F1" s="46" t="inlineStr">
+      <c r="F1" s="45" t="inlineStr">
         <is>
           <t>User_Username</t>
         </is>
       </c>
-      <c r="G1" s="46" t="inlineStr">
+      <c r="G1" s="45" t="inlineStr">
         <is>
           <t>User_Password</t>
         </is>
       </c>
-      <c r="H1" s="46" t="inlineStr">
+      <c r="H1" s="45" t="inlineStr">
         <is>
           <t>Supervisor_Username</t>
         </is>
       </c>
-      <c r="I1" s="46" t="inlineStr">
+      <c r="I1" s="45" t="inlineStr">
         <is>
           <t>Supervisor_Password</t>
         </is>
       </c>
-      <c r="J1" s="46" t="inlineStr">
+      <c r="J1" s="45" t="inlineStr">
         <is>
           <t>Party_ID</t>
         </is>
       </c>
-      <c r="K1" s="47" t="inlineStr">
+      <c r="K1" s="46" t="inlineStr">
         <is>
           <t>Enterprise_Name</t>
         </is>
       </c>
-      <c r="L1" s="47" t="inlineStr">
+      <c r="L1" s="46" t="inlineStr">
         <is>
           <t>Branch_Code</t>
         </is>
       </c>
-      <c r="M1" s="47" t="inlineStr">
+      <c r="M1" s="46" t="inlineStr">
         <is>
           <t>Branch_Name</t>
         </is>
       </c>
-      <c r="N1" s="47" t="inlineStr">
+      <c r="N1" s="46" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="O1" s="47" t="inlineStr">
+      <c r="O1" s="46" t="inlineStr">
         <is>
           <t>New_Status</t>
         </is>
       </c>
-      <c r="P1" s="47" t="inlineStr">
+      <c r="P1" s="46" t="inlineStr">
         <is>
           <t>Preferred_Language</t>
         </is>
       </c>
-      <c r="Q1" s="47" t="inlineStr">
+      <c r="Q1" s="46" t="inlineStr">
         <is>
           <t>Industry_Sector</t>
         </is>
       </c>
-      <c r="R1" s="47" t="inlineStr">
+      <c r="R1" s="46" t="inlineStr">
         <is>
           <t>Business_Activity</t>
         </is>
       </c>
-      <c r="S1" s="47" t="inlineStr">
+      <c r="S1" s="46" t="inlineStr">
         <is>
           <t>Business_Focus</t>
         </is>
       </c>
-      <c r="T1" s="47" t="inlineStr">
+      <c r="T1" s="46" t="inlineStr">
         <is>
           <t>Business_Type</t>
         </is>
       </c>
-      <c r="U1" s="47" t="inlineStr">
+      <c r="U1" s="46" t="inlineStr">
         <is>
           <t>Is_Main_Activity</t>
         </is>
       </c>
-      <c r="V1" s="47" t="inlineStr">
+      <c r="V1" s="46" t="inlineStr">
         <is>
           <t>Is_Main_Activity_False</t>
         </is>
       </c>
-      <c r="W1" s="47" t="inlineStr">
+      <c r="W1" s="46" t="inlineStr">
         <is>
           <t>Address_Type</t>
         </is>
       </c>
-      <c r="X1" s="47" t="inlineStr">
+      <c r="X1" s="46" t="inlineStr">
         <is>
           <t>Post_Code</t>
         </is>
       </c>
-      <c r="Y1" s="47" t="inlineStr">
+      <c r="Y1" s="46" t="inlineStr">
         <is>
           <t>Country_Region</t>
         </is>
       </c>
-      <c r="Z1" s="47" t="inlineStr">
+      <c r="Z1" s="46" t="inlineStr">
         <is>
           <t>Valid_To</t>
         </is>
       </c>
-      <c r="AA1" s="47" t="inlineStr">
+      <c r="AA1" s="46" t="inlineStr">
         <is>
           <t>State_Province</t>
         </is>
       </c>
-      <c r="AB1" s="47" t="inlineStr">
+      <c r="AB1" s="46" t="inlineStr">
         <is>
           <t>Town_City</t>
         </is>
       </c>
-      <c r="AC1" s="47" t="inlineStr">
+      <c r="AC1" s="46" t="inlineStr">
         <is>
           <t>Address_Line_1</t>
         </is>
       </c>
-      <c r="AD1" s="47" t="inlineStr">
+      <c r="AD1" s="46" t="inlineStr">
         <is>
           <t>Address_Line_2</t>
         </is>
       </c>
-      <c r="AE1" s="47" t="inlineStr">
+      <c r="AE1" s="46" t="inlineStr">
         <is>
           <t>Address_Line_3</t>
         </is>
       </c>
-      <c r="AF1" s="47" t="inlineStr">
+      <c r="AF1" s="46" t="inlineStr">
         <is>
           <t>Address_Line_4</t>
         </is>
       </c>
-      <c r="AG1" s="47" t="inlineStr">
+      <c r="AG1" s="46" t="inlineStr">
         <is>
           <t>Address_Line_5</t>
         </is>
       </c>
-      <c r="AH1" s="47" t="inlineStr">
+      <c r="AH1" s="46" t="inlineStr">
         <is>
           <t>Selected_Module</t>
         </is>
       </c>
-      <c r="AI1" s="47" t="inlineStr">
+      <c r="AI1" s="46" t="inlineStr">
         <is>
           <t>Selected_Module_2</t>
         </is>
@@ -8086,12 +8125,12 @@
       <c r="CK1" s="4" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="49" t="inlineStr">
+      <c r="A2" s="48" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="49" t="inlineStr">
+      <c r="B2" s="48" t="inlineStr">
         <is>
           <t>EVG_PTYLIQ02 Scenario2 Baseline Agency (Syndicated)</t>
         </is>
@@ -8136,7 +8175,7 @@
           <t>60</t>
         </is>
       </c>
-      <c r="K2" s="49" t="inlineStr">
+      <c r="K2" s="48" t="inlineStr">
         <is>
           <t>NewEnterpriseName</t>
         </is>
@@ -8161,7 +8200,7 @@
           <t>Inactive</t>
         </is>
       </c>
-      <c r="P2" s="49" t="inlineStr">
+      <c r="P2" s="48" t="inlineStr">
         <is>
           <t>Spanish</t>
         </is>
@@ -8211,7 +8250,7 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="Z2" s="49" t="inlineStr">
+      <c r="Z2" s="48" t="inlineStr">
         <is>
           <t>2019-11-01</t>
         </is>
@@ -8304,7 +8343,7 @@
     <col width="18" customWidth="1" style="11" min="17" max="17"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="25" thickBot="1">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="24" thickBot="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
           <t>rowid</t>
@@ -8335,57 +8374,57 @@
           <t>EventFee_Type</t>
         </is>
       </c>
-      <c r="G1" s="25" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>EventFee</t>
         </is>
       </c>
-      <c r="H1" s="21" t="inlineStr">
+      <c r="H1" s="20" t="inlineStr">
         <is>
           <t>EventFee_Amount</t>
         </is>
       </c>
-      <c r="I1" s="25" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>RecurringEventFee_Amount</t>
         </is>
       </c>
-      <c r="J1" s="21" t="inlineStr">
+      <c r="J1" s="20" t="inlineStr">
         <is>
           <t>EventFee_EffectiveDate</t>
         </is>
       </c>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>EventFee_BillingDays</t>
         </is>
       </c>
-      <c r="L1" s="25" t="inlineStr">
+      <c r="L1" s="24" t="inlineStr">
         <is>
           <t>EventFee_Comment</t>
         </is>
       </c>
-      <c r="M1" s="25" t="inlineStr">
+      <c r="M1" s="24" t="inlineStr">
         <is>
           <t>EventFee_NoRecurrencesAfterDate</t>
         </is>
       </c>
-      <c r="N1" s="25" t="inlineStr">
+      <c r="N1" s="24" t="inlineStr">
         <is>
           <t>EventFee_Frequency</t>
         </is>
       </c>
-      <c r="O1" s="25" t="inlineStr">
+      <c r="O1" s="24" t="inlineStr">
         <is>
           <t>EventFee_NonBusinessDayRule</t>
         </is>
       </c>
-      <c r="P1" s="25" t="inlineStr">
+      <c r="P1" s="24" t="inlineStr">
         <is>
           <t>Inputter_Username</t>
         </is>
       </c>
-      <c r="Q1" s="25" t="inlineStr">
+      <c r="Q1" s="24" t="inlineStr">
         <is>
           <t>Inputter_Password</t>
         </is>
@@ -8422,17 +8461,17 @@
           <t>Flat Amount</t>
         </is>
       </c>
-      <c r="G2" s="50" t="inlineStr">
+      <c r="G2" s="49" t="inlineStr">
         <is>
           <t>Legal Fee</t>
         </is>
       </c>
-      <c r="H2" s="22" t="inlineStr">
+      <c r="H2" s="21" t="inlineStr">
         <is>
           <t>50,000.00</t>
         </is>
       </c>
-      <c r="I2" s="50" t="n">
+      <c r="I2" s="49" t="n">
         <v>100</v>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -8440,10 +8479,10 @@
           <t>07-Jul-2020</t>
         </is>
       </c>
-      <c r="K2" s="50" t="n">
+      <c r="K2" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="50" t="inlineStr">
+      <c r="L2" s="49" t="inlineStr">
         <is>
           <t>test</t>
         </is>
@@ -8453,22 +8492,22 @@
           <t>07-Jul-2021</t>
         </is>
       </c>
-      <c r="N2" s="50" t="inlineStr">
+      <c r="N2" s="49" t="inlineStr">
         <is>
           <t>Daily</t>
         </is>
       </c>
-      <c r="O2" s="50" t="inlineStr">
+      <c r="O2" s="49" t="inlineStr">
         <is>
           <t>Next Business Day</t>
         </is>
       </c>
-      <c r="P2" s="18" t="inlineStr">
+      <c r="P2" s="17" t="inlineStr">
         <is>
           <t>SAPUSR01</t>
         </is>
       </c>
-      <c r="Q2" s="18" t="inlineStr">
+      <c r="Q2" s="17" t="inlineStr">
         <is>
           <t>1UQQH5YK</t>
         </is>
@@ -8498,209 +8537,209 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="49" min="1" max="1"/>
-    <col width="50.140625" customWidth="1" style="49" min="2" max="2"/>
-    <col width="26.7109375" customWidth="1" style="49" min="3" max="3"/>
-    <col width="22.7109375" customWidth="1" style="49" min="4" max="5"/>
-    <col width="27.140625" customWidth="1" style="49" min="6" max="6"/>
-    <col width="18.85546875" customWidth="1" style="49" min="7" max="7"/>
-    <col width="24.5703125" customWidth="1" style="49" min="8" max="8"/>
-    <col width="19.7109375" customWidth="1" style="49" min="9" max="9"/>
-    <col width="23.42578125" customWidth="1" style="49" min="10" max="10"/>
-    <col width="21.85546875" customWidth="1" style="49" min="11" max="11"/>
-    <col width="26.42578125" customWidth="1" style="49" min="12" max="12"/>
-    <col width="23.5703125" customWidth="1" style="49" min="13" max="14"/>
-    <col width="25.7109375" customWidth="1" style="49" min="15" max="16"/>
-    <col width="24.7109375" customWidth="1" style="49" min="17" max="17"/>
-    <col width="16.42578125" customWidth="1" style="49" min="18" max="18"/>
-    <col width="21.42578125" customWidth="1" style="49" min="19" max="21"/>
-    <col width="17.85546875" customWidth="1" style="49" min="22" max="22"/>
-    <col width="21" customWidth="1" style="49" min="23" max="24"/>
-    <col width="22" customWidth="1" style="49" min="25" max="26"/>
-    <col width="20.140625" customWidth="1" style="49" min="27" max="28"/>
-    <col width="23.42578125" customWidth="1" style="49" min="29" max="30"/>
-    <col width="44.85546875" customWidth="1" style="49" min="31" max="31"/>
-    <col width="23.42578125" customWidth="1" style="49" min="32" max="32"/>
-    <col width="26.7109375" customWidth="1" style="49" min="33" max="36"/>
+    <col width="6.140625" customWidth="1" style="48" min="1" max="1"/>
+    <col width="50.140625" customWidth="1" style="48" min="2" max="2"/>
+    <col width="26.7109375" customWidth="1" style="48" min="3" max="3"/>
+    <col width="22.7109375" customWidth="1" style="48" min="4" max="5"/>
+    <col width="27.140625" customWidth="1" style="48" min="6" max="6"/>
+    <col width="18.85546875" customWidth="1" style="48" min="7" max="7"/>
+    <col width="24.5703125" customWidth="1" style="48" min="8" max="8"/>
+    <col width="19.7109375" customWidth="1" style="48" min="9" max="9"/>
+    <col width="23.42578125" customWidth="1" style="48" min="10" max="10"/>
+    <col width="21.85546875" customWidth="1" style="48" min="11" max="11"/>
+    <col width="26.42578125" customWidth="1" style="48" min="12" max="12"/>
+    <col width="23.5703125" customWidth="1" style="48" min="13" max="14"/>
+    <col width="25.7109375" customWidth="1" style="48" min="15" max="16"/>
+    <col width="24.7109375" customWidth="1" style="48" min="17" max="17"/>
+    <col width="16.42578125" customWidth="1" style="48" min="18" max="18"/>
+    <col width="21.42578125" customWidth="1" style="48" min="19" max="21"/>
+    <col width="17.85546875" customWidth="1" style="48" min="22" max="22"/>
+    <col width="21" customWidth="1" style="48" min="23" max="24"/>
+    <col width="22" customWidth="1" style="48" min="25" max="26"/>
+    <col width="20.140625" customWidth="1" style="48" min="27" max="28"/>
+    <col width="23.42578125" customWidth="1" style="48" min="29" max="30"/>
+    <col width="44.85546875" customWidth="1" style="48" min="31" max="31"/>
+    <col width="23.42578125" customWidth="1" style="48" min="32" max="32"/>
+    <col width="26.7109375" customWidth="1" style="48" min="33" max="36"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="44" thickBot="1">
-      <c r="A1" s="19" t="inlineStr">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="43" thickBot="1">
+      <c r="A1" s="18" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="19" t="inlineStr">
+      <c r="B1" s="18" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="45" t="inlineStr">
+      <c r="C1" s="44" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="D1" s="44" t="inlineStr">
+      <c r="D1" s="43" t="inlineStr">
         <is>
           <t>OngoingFee_Category1</t>
         </is>
       </c>
-      <c r="E1" s="44" t="inlineStr">
+      <c r="E1" s="43" t="inlineStr">
         <is>
           <t>OngoingFee_Category2</t>
         </is>
       </c>
-      <c r="F1" s="44" t="inlineStr">
+      <c r="F1" s="43" t="inlineStr">
         <is>
           <t>OngoingFee_Type1</t>
         </is>
       </c>
-      <c r="G1" s="44" t="inlineStr">
+      <c r="G1" s="43" t="inlineStr">
         <is>
           <t>OngoingFee_Type2</t>
         </is>
       </c>
-      <c r="H1" s="44" t="inlineStr">
+      <c r="H1" s="43" t="inlineStr">
         <is>
           <t>OngoingFee_Type3</t>
         </is>
       </c>
-      <c r="I1" s="44" t="inlineStr">
+      <c r="I1" s="43" t="inlineStr">
         <is>
           <t>OngoingFee_Type4</t>
         </is>
       </c>
-      <c r="J1" s="44" t="inlineStr">
+      <c r="J1" s="43" t="inlineStr">
         <is>
           <t>OngoingFee_RateBasis1</t>
         </is>
       </c>
-      <c r="K1" s="44" t="inlineStr">
+      <c r="K1" s="43" t="inlineStr">
         <is>
           <t>OngoingFee_AfterItem</t>
         </is>
       </c>
-      <c r="L1" s="44" t="inlineStr">
+      <c r="L1" s="43" t="inlineStr">
         <is>
           <t>OngoingFee_AfterItemType</t>
         </is>
       </c>
-      <c r="M1" s="44" t="inlineStr">
+      <c r="M1" s="43" t="inlineStr">
         <is>
           <t>FormulaCategory_Type1</t>
         </is>
       </c>
-      <c r="N1" s="44" t="inlineStr">
+      <c r="N1" s="43" t="inlineStr">
         <is>
           <t>FormulaCategory_Type2</t>
         </is>
       </c>
-      <c r="O1" s="44" t="inlineStr">
+      <c r="O1" s="43" t="inlineStr">
         <is>
           <t>OngoingFee_SpreadType1</t>
         </is>
       </c>
-      <c r="P1" s="44" t="inlineStr">
+      <c r="P1" s="43" t="inlineStr">
         <is>
           <t>OngoingFee_SpreadType2</t>
         </is>
       </c>
-      <c r="Q1" s="44" t="inlineStr">
+      <c r="Q1" s="43" t="inlineStr">
         <is>
           <t>OngoingFee_SpreadAmt1</t>
         </is>
       </c>
-      <c r="R1" s="44" t="inlineStr">
+      <c r="R1" s="43" t="inlineStr">
         <is>
           <t>Interest_AddItem</t>
         </is>
       </c>
-      <c r="S1" s="44" t="inlineStr">
+      <c r="S1" s="43" t="inlineStr">
         <is>
           <t>Interest_OptionName1</t>
         </is>
       </c>
-      <c r="T1" s="44" t="inlineStr">
+      <c r="T1" s="43" t="inlineStr">
         <is>
           <t>Interest_OptionName2</t>
         </is>
       </c>
-      <c r="U1" s="44" t="inlineStr">
+      <c r="U1" s="43" t="inlineStr">
         <is>
           <t>Interest_OptionName3</t>
         </is>
       </c>
-      <c r="V1" s="44" t="inlineStr">
+      <c r="V1" s="43" t="inlineStr">
         <is>
           <t>Interest_RateBasis</t>
         </is>
       </c>
-      <c r="W1" s="44" t="inlineStr">
+      <c r="W1" s="43" t="inlineStr">
         <is>
           <t>Interest_SpreadType1</t>
         </is>
       </c>
-      <c r="X1" s="44" t="inlineStr">
+      <c r="X1" s="43" t="inlineStr">
         <is>
           <t>Interest_SpreadType2</t>
         </is>
       </c>
-      <c r="Y1" s="44" t="inlineStr">
+      <c r="Y1" s="43" t="inlineStr">
         <is>
           <t>Interest_SpreadValue1</t>
         </is>
       </c>
-      <c r="Z1" s="44" t="inlineStr">
+      <c r="Z1" s="43" t="inlineStr">
         <is>
           <t>Interest_SpreadValue2</t>
         </is>
       </c>
-      <c r="AA1" s="44" t="inlineStr">
+      <c r="AA1" s="43" t="inlineStr">
         <is>
           <t>Interest_SpreadAmt1</t>
         </is>
       </c>
-      <c r="AB1" s="44" t="inlineStr">
+      <c r="AB1" s="43" t="inlineStr">
         <is>
           <t>Interest_SpreadAmt2</t>
         </is>
       </c>
-      <c r="AC1" s="44" t="inlineStr">
+      <c r="AC1" s="43" t="inlineStr">
         <is>
           <t>Interest_BaseRateCode1</t>
         </is>
       </c>
-      <c r="AD1" s="44" t="inlineStr">
+      <c r="AD1" s="43" t="inlineStr">
         <is>
           <t>Interest_BaseRateCode2</t>
         </is>
       </c>
-      <c r="AE1" s="44" t="inlineStr">
+      <c r="AE1" s="43" t="inlineStr">
         <is>
           <t>Interest_BaseRateCode3</t>
         </is>
       </c>
-      <c r="AF1" s="44" t="inlineStr">
+      <c r="AF1" s="43" t="inlineStr">
         <is>
           <t>Interest_BaseRateCode4</t>
         </is>
       </c>
-      <c r="AG1" s="44" t="inlineStr">
+      <c r="AG1" s="43" t="inlineStr">
         <is>
           <t>Facility_PricingRuleOption1</t>
         </is>
       </c>
-      <c r="AH1" s="44" t="inlineStr">
+      <c r="AH1" s="43" t="inlineStr">
         <is>
           <t>Facility_PricingRuleOption2</t>
         </is>
       </c>
-      <c r="AI1" s="44" t="inlineStr">
+      <c r="AI1" s="43" t="inlineStr">
         <is>
           <t>Facility_PricingRuleOption3</t>
         </is>
       </c>
-      <c r="AJ1" s="44" t="inlineStr">
+      <c r="AJ1" s="43" t="inlineStr">
         <is>
           <t>Facility_PricingRuleOption4</t>
         </is>
@@ -8722,67 +8761,67 @@
           <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
-      <c r="D2" s="23" t="inlineStr">
+      <c r="D2" s="22" t="inlineStr">
         <is>
           <t>Facility Ongoing Fee</t>
         </is>
       </c>
-      <c r="E2" s="50" t="inlineStr">
+      <c r="E2" s="49" t="inlineStr">
         <is>
           <t>Fee on Lender Shares</t>
         </is>
       </c>
-      <c r="F2" s="23" t="inlineStr">
+      <c r="F2" s="22" t="inlineStr">
         <is>
           <t>Indemnity Fee - Usage (SFBG)</t>
         </is>
       </c>
-      <c r="G2" s="50" t="inlineStr">
+      <c r="G2" s="49" t="inlineStr">
         <is>
           <t>Commitment Fee</t>
         </is>
       </c>
-      <c r="H2" s="50" t="inlineStr">
+      <c r="H2" s="49" t="inlineStr">
         <is>
           <t>Fronting Usage Fee (SFBG)</t>
         </is>
       </c>
-      <c r="I2" s="50" t="inlineStr">
+      <c r="I2" s="49" t="inlineStr">
         <is>
           <t>Issuance Fee (BG/LC)</t>
         </is>
       </c>
-      <c r="J2" s="50" t="inlineStr">
+      <c r="J2" s="49" t="inlineStr">
         <is>
           <t>Actual/365</t>
         </is>
       </c>
-      <c r="K2" s="50" t="inlineStr">
+      <c r="K2" s="49" t="inlineStr">
         <is>
           <t>FormulaCategory</t>
         </is>
       </c>
-      <c r="L2" s="23" t="inlineStr">
+      <c r="L2" s="22" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="M2" s="23" t="inlineStr">
+      <c r="M2" s="22" t="inlineStr">
         <is>
           <t>Formula</t>
         </is>
       </c>
-      <c r="N2" s="23" t="inlineStr">
+      <c r="N2" s="22" t="inlineStr">
         <is>
           <t>Flat Amount</t>
         </is>
       </c>
-      <c r="O2" s="50" t="inlineStr">
+      <c r="O2" s="49" t="inlineStr">
         <is>
           <t>Percent</t>
         </is>
       </c>
-      <c r="P2" s="50" t="inlineStr">
+      <c r="P2" s="49" t="inlineStr">
         <is>
           <t>Basis Points</t>
         </is>
@@ -8797,17 +8836,17 @@
           <t>Option</t>
         </is>
       </c>
-      <c r="S2" s="23" t="inlineStr">
+      <c r="S2" s="22" t="inlineStr">
         <is>
           <t>BBSW - Mid</t>
         </is>
       </c>
-      <c r="T2" s="50" t="inlineStr">
+      <c r="T2" s="49" t="inlineStr">
         <is>
           <t>BBSY - Bid</t>
         </is>
       </c>
-      <c r="U2" s="50" t="inlineStr">
+      <c r="U2" s="49" t="inlineStr">
         <is>
           <t>USD LIBOR Option</t>
         </is>
@@ -8817,64 +8856,64 @@
           <t>Actual/365</t>
         </is>
       </c>
-      <c r="W2" s="50" t="inlineStr">
+      <c r="W2" s="49" t="inlineStr">
         <is>
           <t>Percent</t>
         </is>
       </c>
-      <c r="X2" s="50" t="n"/>
-      <c r="Y2" s="23" t="inlineStr">
+      <c r="X2" s="49" t="n"/>
+      <c r="Y2" s="22" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z2" s="23" t="inlineStr">
+      <c r="Z2" s="22" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AA2" s="23" t="inlineStr">
+      <c r="AA2" s="22" t="inlineStr">
         <is>
           <t>BBSW</t>
         </is>
       </c>
-      <c r="AB2" s="50" t="inlineStr">
+      <c r="AB2" s="49" t="inlineStr">
         <is>
           <t>BBSY</t>
         </is>
       </c>
-      <c r="AC2" s="50" t="inlineStr">
+      <c r="AC2" s="49" t="inlineStr">
         <is>
           <t>ULIBO</t>
         </is>
       </c>
-      <c r="AD2" s="50" t="n"/>
-      <c r="AE2" s="23" t="inlineStr">
+      <c r="AD2" s="49" t="n"/>
+      <c r="AE2" s="22" t="inlineStr">
         <is>
           <t>Bank Guarantee/Letter of Credit/Synd Fronted Bank</t>
         </is>
       </c>
-      <c r="AF2" s="50" t="inlineStr">
+      <c r="AF2" s="49" t="inlineStr">
         <is>
           <t>BBSW - Mid</t>
         </is>
       </c>
-      <c r="AG2" s="50" t="inlineStr">
+      <c r="AG2" s="49" t="inlineStr">
         <is>
           <t>BBSY - Bid</t>
         </is>
       </c>
-      <c r="AH2" s="50" t="inlineStr">
+      <c r="AH2" s="49" t="inlineStr">
         <is>
           <t>USD LIBOR Option</t>
         </is>
       </c>
-      <c r="AI2" s="49" t="inlineStr">
+      <c r="AI2" s="48" t="inlineStr">
         <is>
           <t>Bank Guarantee/Letter of Credit/Synd Fronted Bank</t>
         </is>
       </c>
-      <c r="AJ2" s="49" t="inlineStr">
+      <c r="AJ2" s="48" t="inlineStr">
         <is>
           <t>BBSW - Mid</t>
         </is>
@@ -8902,13 +8941,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="49" min="1" max="1"/>
-    <col width="39.28515625" customWidth="1" style="49" min="2" max="2"/>
-    <col width="23.5703125" customWidth="1" style="49" min="3" max="3"/>
-    <col width="21.140625" customWidth="1" style="49" min="4" max="4"/>
-    <col width="36.28515625" bestFit="1" customWidth="1" style="49" min="5" max="5"/>
+    <col width="6.140625" customWidth="1" style="48" min="1" max="1"/>
+    <col width="39.28515625" customWidth="1" style="48" min="2" max="2"/>
+    <col width="23.5703125" customWidth="1" style="48" min="3" max="3"/>
+    <col width="21.140625" customWidth="1" style="48" min="4" max="4"/>
+    <col width="36.28515625" bestFit="1" customWidth="1" style="48" min="5" max="5"/>
     <col width="21.140625" customWidth="1" style="11" min="6" max="7"/>
-    <col width="21" customWidth="1" style="49" min="8" max="8"/>
+    <col width="21" customWidth="1" style="48" min="8" max="8"/>
     <col width="22" customWidth="1" style="11" min="9" max="10"/>
     <col width="17.7109375" customWidth="1" style="11" min="11" max="11"/>
     <col width="24.5703125" customWidth="1" style="11" min="12" max="12"/>
@@ -8929,342 +8968,342 @@
     <col width="18.140625" bestFit="1" customWidth="1" style="11" min="32" max="32"/>
     <col width="19.42578125" customWidth="1" style="11" min="33" max="33"/>
     <col width="19" customWidth="1" style="11" min="34" max="34"/>
-    <col width="36.7109375" customWidth="1" style="27" min="35" max="35"/>
-    <col width="18.140625" customWidth="1" style="27" min="36" max="36"/>
-    <col width="15.5703125" customWidth="1" style="27" min="37" max="37"/>
-    <col width="23.28515625" customWidth="1" style="27" min="38" max="38"/>
-    <col width="11.28515625" customWidth="1" style="27" min="39" max="39"/>
-    <col width="8.7109375" customWidth="1" style="27" min="40" max="40"/>
-    <col width="18.7109375" customWidth="1" style="27" min="41" max="41"/>
-    <col width="18" customWidth="1" style="27" min="42" max="42"/>
-    <col width="17.7109375" customWidth="1" style="49" min="43" max="43"/>
-    <col width="26.28515625" customWidth="1" style="49" min="44" max="44"/>
-    <col width="18.140625" customWidth="1" style="49" min="45" max="45"/>
-    <col width="29.140625" customWidth="1" style="49" min="46" max="46"/>
-    <col width="17.5703125" customWidth="1" style="49" min="47" max="47"/>
-    <col width="26.28515625" customWidth="1" style="49" min="48" max="48"/>
-    <col width="34.85546875" customWidth="1" style="49" min="49" max="49"/>
-    <col width="26.5703125" customWidth="1" style="49" min="50" max="50"/>
-    <col width="26.42578125" customWidth="1" style="49" min="51" max="51"/>
-    <col width="27.28515625" customWidth="1" style="49" min="52" max="52"/>
-    <col width="20" customWidth="1" style="49" min="53" max="53"/>
-    <col width="11.85546875" customWidth="1" style="49" min="54" max="54"/>
-    <col width="36.140625" customWidth="1" style="49" min="55" max="55"/>
-    <col width="18.140625" customWidth="1" style="49" min="56" max="56"/>
-    <col width="12.7109375" customWidth="1" style="27" min="57" max="57"/>
-    <col width="11.140625" customWidth="1" style="27" min="58" max="58"/>
-    <col width="31.140625" customWidth="1" style="49" min="59" max="60"/>
+    <col width="36.7109375" customWidth="1" style="26" min="35" max="35"/>
+    <col width="18.140625" customWidth="1" style="26" min="36" max="36"/>
+    <col width="15.5703125" customWidth="1" style="26" min="37" max="37"/>
+    <col width="23.28515625" customWidth="1" style="26" min="38" max="38"/>
+    <col width="11.28515625" customWidth="1" style="26" min="39" max="39"/>
+    <col width="8.7109375" customWidth="1" style="26" min="40" max="40"/>
+    <col width="18.7109375" customWidth="1" style="26" min="41" max="41"/>
+    <col width="18" customWidth="1" style="26" min="42" max="42"/>
+    <col width="17.7109375" customWidth="1" style="48" min="43" max="43"/>
+    <col width="26.28515625" customWidth="1" style="48" min="44" max="44"/>
+    <col width="18.140625" customWidth="1" style="48" min="45" max="45"/>
+    <col width="29.140625" customWidth="1" style="48" min="46" max="46"/>
+    <col width="17.5703125" customWidth="1" style="48" min="47" max="47"/>
+    <col width="26.28515625" customWidth="1" style="48" min="48" max="48"/>
+    <col width="34.85546875" customWidth="1" style="48" min="49" max="49"/>
+    <col width="26.5703125" customWidth="1" style="48" min="50" max="50"/>
+    <col width="26.42578125" customWidth="1" style="48" min="51" max="51"/>
+    <col width="27.28515625" customWidth="1" style="48" min="52" max="52"/>
+    <col width="20" customWidth="1" style="48" min="53" max="53"/>
+    <col width="11.85546875" customWidth="1" style="48" min="54" max="54"/>
+    <col width="36.140625" customWidth="1" style="48" min="55" max="55"/>
+    <col width="18.140625" customWidth="1" style="48" min="56" max="56"/>
+    <col width="12.7109375" customWidth="1" style="26" min="57" max="57"/>
+    <col width="11.140625" customWidth="1" style="26" min="58" max="58"/>
+    <col width="31.140625" customWidth="1" style="48" min="59" max="60"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customFormat="1" customHeight="1" s="55" thickBot="1">
-      <c r="A1" s="51" t="inlineStr">
+    <row r="1" ht="15" customFormat="1" customHeight="1" s="54" thickBot="1">
+      <c r="A1" s="50" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="52" t="inlineStr">
+      <c r="B1" s="51" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="53" t="inlineStr">
+      <c r="C1" s="52" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="53" t="inlineStr">
+      <c r="D1" s="52" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="E1" s="56" t="inlineStr">
+      <c r="E1" s="55" t="inlineStr">
         <is>
           <t>Primary_Lender1</t>
         </is>
       </c>
-      <c r="F1" s="21" t="inlineStr">
+      <c r="F1" s="20" t="inlineStr">
         <is>
           <t>Primary_Lender2</t>
         </is>
       </c>
-      <c r="G1" s="21" t="inlineStr">
+      <c r="G1" s="20" t="inlineStr">
         <is>
           <t>Primary_Lender3</t>
         </is>
       </c>
-      <c r="H1" s="48" t="inlineStr">
+      <c r="H1" s="47" t="inlineStr">
         <is>
           <t>Primary_LenderLoc1</t>
         </is>
       </c>
-      <c r="I1" s="57" t="inlineStr">
+      <c r="I1" s="56" t="inlineStr">
         <is>
           <t>Primary_LenderLoc2</t>
         </is>
       </c>
-      <c r="J1" s="57" t="inlineStr">
+      <c r="J1" s="56" t="inlineStr">
         <is>
           <t>Primary_LenderLoc3</t>
         </is>
       </c>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Primary_RiskBook</t>
         </is>
       </c>
-      <c r="L1" s="25" t="inlineStr">
+      <c r="L1" s="24" t="inlineStr">
         <is>
           <t>Primary_TransactionType</t>
         </is>
       </c>
-      <c r="M1" s="25" t="inlineStr">
+      <c r="M1" s="24" t="inlineStr">
         <is>
           <t>Primary_PctOfDeal1</t>
         </is>
       </c>
-      <c r="N1" s="25" t="inlineStr">
+      <c r="N1" s="24" t="inlineStr">
         <is>
           <t>Primary_PctOfDeal2</t>
         </is>
       </c>
-      <c r="O1" s="25" t="inlineStr">
+      <c r="O1" s="24" t="inlineStr">
         <is>
           <t>Primary_PctOfDeal3</t>
         </is>
       </c>
-      <c r="P1" s="25" t="inlineStr">
+      <c r="P1" s="24" t="inlineStr">
         <is>
           <t>Primary_BuySellPrice</t>
         </is>
       </c>
-      <c r="Q1" s="21" t="inlineStr">
+      <c r="Q1" s="20" t="inlineStr">
         <is>
           <t>Primary_Contact1</t>
         </is>
       </c>
-      <c r="R1" s="21" t="inlineStr">
+      <c r="R1" s="20" t="inlineStr">
         <is>
           <t>Primary_Contact2</t>
         </is>
       </c>
-      <c r="S1" s="21" t="inlineStr">
+      <c r="S1" s="20" t="inlineStr">
         <is>
           <t>Primary_Contact3</t>
         </is>
       </c>
-      <c r="T1" s="21" t="inlineStr">
+      <c r="T1" s="20" t="inlineStr">
         <is>
           <t>Primary_SGAlias1</t>
         </is>
       </c>
-      <c r="U1" s="21" t="inlineStr">
+      <c r="U1" s="20" t="inlineStr">
         <is>
           <t>Primary_SGAlias2</t>
         </is>
       </c>
-      <c r="V1" s="21" t="inlineStr">
+      <c r="V1" s="20" t="inlineStr">
         <is>
           <t>Primary_SGAlias3</t>
         </is>
       </c>
-      <c r="W1" s="21" t="inlineStr">
+      <c r="W1" s="20" t="inlineStr">
         <is>
           <t>AdminAgent_SGAlias</t>
         </is>
       </c>
-      <c r="X1" s="21" t="inlineStr">
+      <c r="X1" s="20" t="inlineStr">
         <is>
           <t>AdminAgent_SGAlias_Secondary</t>
         </is>
       </c>
-      <c r="Y1" s="21" t="inlineStr">
+      <c r="Y1" s="20" t="inlineStr">
         <is>
           <t>AdminAgent_SGAlias_Third</t>
         </is>
       </c>
-      <c r="Z1" s="25" t="inlineStr">
+      <c r="Z1" s="24" t="inlineStr">
         <is>
           <t>Deal_ExpenseCode</t>
         </is>
       </c>
-      <c r="AA1" s="25" t="inlineStr">
+      <c r="AA1" s="24" t="inlineStr">
         <is>
           <t>Primary_Portfolio</t>
         </is>
       </c>
-      <c r="AB1" s="25" t="inlineStr">
+      <c r="AB1" s="24" t="inlineStr">
         <is>
           <t>Primary_PortfolioBranch</t>
         </is>
       </c>
-      <c r="AC1" s="25" t="inlineStr">
+      <c r="AC1" s="24" t="inlineStr">
         <is>
           <t>Primary_PortfolioAllocation</t>
         </is>
       </c>
-      <c r="AD1" s="21" t="inlineStr">
+      <c r="AD1" s="20" t="inlineStr">
         <is>
           <t>Primary_PortfolioExpiryDate</t>
         </is>
       </c>
-      <c r="AE1" s="25" t="inlineStr">
+      <c r="AE1" s="24" t="inlineStr">
         <is>
           <t>Primary_CircledDate</t>
         </is>
       </c>
-      <c r="AF1" s="25" t="inlineStr">
+      <c r="AF1" s="24" t="inlineStr">
         <is>
           <t>Expiry_Date</t>
         </is>
       </c>
-      <c r="AG1" s="39" t="inlineStr">
+      <c r="AG1" s="38" t="inlineStr">
         <is>
           <t>PortfolioBranch</t>
         </is>
       </c>
-      <c r="AH1" s="39" t="inlineStr">
+      <c r="AH1" s="38" t="inlineStr">
         <is>
           <t>PortfolioAllocation</t>
         </is>
       </c>
-      <c r="AI1" s="39" t="inlineStr">
+      <c r="AI1" s="38" t="inlineStr">
         <is>
           <t>DefaultCurrency</t>
         </is>
       </c>
-      <c r="AJ1" s="39" t="inlineStr">
+      <c r="AJ1" s="38" t="inlineStr">
         <is>
           <t>BorrowerServicingGroup</t>
         </is>
       </c>
-      <c r="AK1" s="39" t="inlineStr">
+      <c r="AK1" s="38" t="inlineStr">
         <is>
           <t>GlobalLimit</t>
         </is>
       </c>
-      <c r="AL1" s="39" t="inlineStr">
+      <c r="AL1" s="38" t="inlineStr">
         <is>
           <t>Maturity</t>
         </is>
       </c>
-      <c r="AM1" s="39" t="inlineStr">
+      <c r="AM1" s="38" t="inlineStr">
         <is>
           <t>BorrowerPercent</t>
         </is>
       </c>
-      <c r="AN1" s="39" t="inlineStr">
+      <c r="AN1" s="38" t="inlineStr">
         <is>
           <t>CustomerServicingGroupCurrency</t>
         </is>
       </c>
-      <c r="AO1" s="39" t="inlineStr">
+      <c r="AO1" s="38" t="inlineStr">
         <is>
           <t>ApproveDate</t>
         </is>
       </c>
-      <c r="AP1" s="39" t="inlineStr">
+      <c r="AP1" s="38" t="inlineStr">
         <is>
           <t>CloseDate</t>
         </is>
       </c>
-      <c r="AQ1" s="48" t="inlineStr">
+      <c r="AQ1" s="47" t="inlineStr">
         <is>
           <t>Primary_RiskBook</t>
         </is>
       </c>
-      <c r="AR1" s="52" t="inlineStr">
+      <c r="AR1" s="51" t="inlineStr">
         <is>
           <t>Primaries_TransactionType</t>
         </is>
       </c>
-      <c r="AS1" s="48" t="inlineStr">
+      <c r="AS1" s="47" t="inlineStr">
         <is>
           <t>Primary_Comment</t>
         </is>
       </c>
-      <c r="AT1" s="48" t="inlineStr">
+      <c r="AT1" s="47" t="inlineStr">
         <is>
           <t>Primary_Contact1</t>
         </is>
       </c>
-      <c r="AU1" s="48" t="inlineStr">
+      <c r="AU1" s="47" t="inlineStr">
         <is>
           <t>Primary_SGAlias1</t>
         </is>
       </c>
-      <c r="AV1" s="48" t="inlineStr">
+      <c r="AV1" s="47" t="inlineStr">
         <is>
           <t>Primary_Portfolio</t>
         </is>
       </c>
-      <c r="AW1" s="48" t="inlineStr">
+      <c r="AW1" s="47" t="inlineStr">
         <is>
           <t>Primary_PortfolioBranch</t>
         </is>
       </c>
-      <c r="AX1" s="48" t="inlineStr">
+      <c r="AX1" s="47" t="inlineStr">
         <is>
           <t>Primary_PortfolioAllocation</t>
         </is>
       </c>
-      <c r="AY1" s="48" t="inlineStr">
+      <c r="AY1" s="47" t="inlineStr">
         <is>
           <t>PrimaryFacility1_Allocation</t>
         </is>
       </c>
-      <c r="AZ1" s="48" t="inlineStr">
+      <c r="AZ1" s="47" t="inlineStr">
         <is>
           <t>Primary_PortfolioExpiryDate</t>
         </is>
       </c>
-      <c r="BA1" s="48" t="inlineStr">
+      <c r="BA1" s="47" t="inlineStr">
         <is>
           <t>Primary_CircledDate</t>
         </is>
       </c>
-      <c r="BB1" s="48" t="inlineStr">
+      <c r="BB1" s="47" t="inlineStr">
         <is>
           <t>Expiry_Date</t>
         </is>
       </c>
-      <c r="BC1" s="52" t="inlineStr">
+      <c r="BC1" s="51" t="inlineStr">
         <is>
           <t>PortfolioBranch</t>
         </is>
       </c>
-      <c r="BD1" s="52" t="inlineStr">
+      <c r="BD1" s="51" t="inlineStr">
         <is>
           <t>PortfolioAllocation</t>
         </is>
       </c>
-      <c r="BE1" s="54" t="inlineStr">
+      <c r="BE1" s="53" t="inlineStr">
         <is>
           <t>ApproveDate</t>
         </is>
       </c>
-      <c r="BF1" s="54" t="inlineStr">
+      <c r="BF1" s="53" t="inlineStr">
         <is>
           <t>CloseDate</t>
         </is>
       </c>
-      <c r="BG1" s="52" t="inlineStr">
+      <c r="BG1" s="51" t="inlineStr">
         <is>
           <t>FundReceiverDetailCustomer</t>
         </is>
       </c>
-      <c r="BH1" s="52" t="inlineStr">
+      <c r="BH1" s="51" t="inlineStr">
         <is>
           <t>servicingGroupMember</t>
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="49">
-      <c r="A2" s="49" t="inlineStr">
+    <row r="2" customFormat="1" s="48">
+      <c r="A2" s="48" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="49" t="inlineStr">
+      <c r="B2" s="48" t="inlineStr">
         <is>
           <t>EVG_PTYLIQ01 Scenario1 Baseline Bilateral</t>
         </is>
@@ -9279,7 +9318,7 @@
           <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
-      <c r="E2" s="49" t="inlineStr">
+      <c r="E2" s="48" t="inlineStr">
         <is>
           <t>COMMONWEALTHBANKOFAUSTCB001</t>
         </is>
@@ -9294,17 +9333,17 @@
           <t>LENDSHORT0414</t>
         </is>
       </c>
-      <c r="H2" s="50" t="inlineStr">
+      <c r="H2" s="49" t="inlineStr">
         <is>
           <t>Sydney, NSW,Australia</t>
         </is>
       </c>
-      <c r="I2" s="50" t="inlineStr">
+      <c r="I2" s="49" t="inlineStr">
         <is>
           <t>Sydney, NSW,Australia</t>
         </is>
       </c>
-      <c r="J2" s="50" t="inlineStr">
+      <c r="J2" s="49" t="inlineStr">
         <is>
           <t>Melbourne, VIC,Australia</t>
         </is>
@@ -9314,79 +9353,79 @@
           <t>BP_CML</t>
         </is>
       </c>
-      <c r="L2" s="23" t="inlineStr">
+      <c r="L2" s="22" t="inlineStr">
         <is>
           <t>Origination</t>
         </is>
       </c>
-      <c r="M2" s="41" t="n">
+      <c r="M2" s="40" t="n">
         <v>60</v>
       </c>
-      <c r="N2" s="41" t="n">
+      <c r="N2" s="40" t="n">
         <v>30</v>
       </c>
-      <c r="O2" s="41" t="n">
+      <c r="O2" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="P2" s="41" t="n">
+      <c r="P2" s="40" t="n">
         <v>100</v>
       </c>
-      <c r="Q2" s="50" t="inlineStr">
+      <c r="Q2" s="49" t="inlineStr">
         <is>
           <t>Business Verification,  BVT</t>
         </is>
       </c>
-      <c r="R2" s="50" t="inlineStr">
+      <c r="R2" s="49" t="inlineStr">
         <is>
           <t>KESO, MR KUYA</t>
         </is>
       </c>
-      <c r="S2" s="50" t="inlineStr">
+      <c r="S2" s="49" t="inlineStr">
         <is>
           <t>NHB,  Lending</t>
         </is>
       </c>
-      <c r="T2" s="49" t="inlineStr">
+      <c r="T2" s="48" t="inlineStr">
         <is>
           <t>LENDING</t>
         </is>
       </c>
-      <c r="U2" s="50" t="inlineStr">
+      <c r="U2" s="49" t="inlineStr">
         <is>
           <t>KK</t>
         </is>
       </c>
-      <c r="V2" s="50" t="inlineStr">
+      <c r="V2" s="49" t="inlineStr">
         <is>
           <t>LN</t>
         </is>
       </c>
-      <c r="W2" s="27" t="inlineStr">
+      <c r="W2" s="26" t="inlineStr">
         <is>
           <t>BUSINESS VERIFICATION</t>
         </is>
       </c>
-      <c r="X2" s="50" t="inlineStr">
+      <c r="X2" s="49" t="inlineStr">
         <is>
           <t>KK</t>
         </is>
       </c>
-      <c r="Y2" s="50" t="inlineStr">
+      <c r="Y2" s="49" t="inlineStr">
         <is>
           <t>LN</t>
         </is>
       </c>
-      <c r="Z2" s="50" t="inlineStr">
+      <c r="Z2" s="49" t="inlineStr">
         <is>
           <t>BP_CML</t>
         </is>
       </c>
-      <c r="AA2" s="50" t="inlineStr">
+      <c r="AA2" s="49" t="inlineStr">
         <is>
           <t>Hold for Investment - Australia</t>
         </is>
       </c>
-      <c r="AB2" s="50" t="inlineStr">
+      <c r="AB2" s="49" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - DBU</t>
         </is>
@@ -9407,38 +9446,38 @@
         </is>
       </c>
       <c r="AF2" s="11" t="n"/>
-      <c r="AG2" s="27" t="inlineStr">
+      <c r="AG2" s="26" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - OBU</t>
         </is>
       </c>
-      <c r="AH2" s="27" t="n"/>
-      <c r="AI2" s="27" t="inlineStr">
+      <c r="AH2" s="26" t="n"/>
+      <c r="AI2" s="26" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="AJ2" s="27" t="inlineStr">
+      <c r="AJ2" s="26" t="inlineStr">
         <is>
           <t>ZOE</t>
         </is>
       </c>
-      <c r="AK2" s="27" t="inlineStr">
+      <c r="AK2" s="26" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="AL2" s="27" t="inlineStr">
+      <c r="AL2" s="26" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="AM2" s="27" t="inlineStr">
+      <c r="AM2" s="26" t="inlineStr">
         <is>
           <t>100.000000%</t>
         </is>
       </c>
-      <c r="AN2" s="27" t="inlineStr">
+      <c r="AN2" s="26" t="inlineStr">
         <is>
           <t>Commonwealth Bank Australia - OBU</t>
         </is>
@@ -9453,67 +9492,67 @@
           <t>07-Jul-2020</t>
         </is>
       </c>
-      <c r="AQ2" s="50" t="inlineStr">
+      <c r="AQ2" s="49" t="inlineStr">
         <is>
           <t>BP_CML</t>
         </is>
       </c>
-      <c r="AR2" s="27" t="inlineStr">
+      <c r="AR2" s="26" t="inlineStr">
         <is>
           <t>Origination</t>
         </is>
       </c>
-      <c r="AS2" s="49" t="inlineStr">
+      <c r="AS2" s="48" t="inlineStr">
         <is>
           <t>Add Comment</t>
         </is>
       </c>
-      <c r="AT2" s="50" t="inlineStr">
+      <c r="AT2" s="49" t="inlineStr">
         <is>
           <t>Business Verification,  BVT</t>
         </is>
       </c>
-      <c r="AU2" s="49" t="inlineStr">
+      <c r="AU2" s="48" t="inlineStr">
         <is>
           <t>LENDING</t>
         </is>
       </c>
-      <c r="AV2" s="50" t="inlineStr">
+      <c r="AV2" s="49" t="inlineStr">
         <is>
           <t>Hold for Investment - Australia</t>
         </is>
       </c>
-      <c r="AW2" s="50" t="inlineStr">
+      <c r="AW2" s="49" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - DBU</t>
         </is>
       </c>
-      <c r="AX2" s="58" t="inlineStr">
+      <c r="AX2" s="57" t="inlineStr">
         <is>
           <t>60,000,000.00</t>
         </is>
       </c>
-      <c r="AY2" s="50" t="inlineStr">
+      <c r="AY2" s="49" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="AZ2" s="49" t="inlineStr">
+      <c r="AZ2" s="48" t="inlineStr">
         <is>
           <t>22-Apr-2021</t>
         </is>
       </c>
-      <c r="BA2" s="49" t="inlineStr">
+      <c r="BA2" s="48" t="inlineStr">
         <is>
           <t>22-Apr-2020</t>
         </is>
       </c>
-      <c r="BC2" s="27" t="inlineStr">
+      <c r="BC2" s="26" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia -DBU</t>
         </is>
       </c>
-      <c r="BD2" s="27" t="inlineStr">
+      <c r="BD2" s="26" t="inlineStr">
         <is>
           <t>100,000.00</t>
         </is>
@@ -9528,12 +9567,12 @@
           <t>07-Jul-2020</t>
         </is>
       </c>
-      <c r="BG2" s="27" t="inlineStr">
+      <c r="BG2" s="26" t="inlineStr">
         <is>
           <t>COMMONWEALTHBANKOFAUSTCB001</t>
         </is>
       </c>
-      <c r="BH2" s="27" t="inlineStr">
+      <c r="BH2" s="26" t="inlineStr">
         <is>
           <t>Loan,  Operations</t>
         </is>
@@ -9560,58 +9599,58 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="49" min="1" max="1"/>
-    <col width="50.140625" customWidth="1" style="49" min="2" max="2"/>
-    <col width="25.7109375" customWidth="1" style="49" min="3" max="4"/>
-    <col width="16.85546875" customWidth="1" style="49" min="5" max="5"/>
-    <col width="30.85546875" customWidth="1" style="49" min="6" max="6"/>
-    <col width="25.7109375" customWidth="1" style="49" min="7" max="7"/>
+    <col width="6.140625" customWidth="1" style="48" min="1" max="1"/>
+    <col width="50.140625" customWidth="1" style="48" min="2" max="2"/>
+    <col width="25.7109375" customWidth="1" style="48" min="3" max="4"/>
+    <col width="16.85546875" customWidth="1" style="48" min="5" max="5"/>
+    <col width="30.85546875" customWidth="1" style="48" min="6" max="6"/>
+    <col width="25.7109375" customWidth="1" style="48" min="7" max="7"/>
     <col width="22.140625" bestFit="1" customWidth="1" min="8" max="8"/>
     <col width="22.85546875" bestFit="1" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="33" thickBot="1">
-      <c r="A1" s="42" t="inlineStr">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="32" thickBot="1">
+      <c r="A1" s="41" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="42" t="inlineStr">
+      <c r="B1" s="41" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="43" t="inlineStr">
+      <c r="C1" s="42" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="43" t="inlineStr">
+      <c r="D1" s="42" t="inlineStr">
         <is>
           <t>Deal_Alias</t>
         </is>
       </c>
-      <c r="E1" s="43" t="inlineStr">
+      <c r="E1" s="42" t="inlineStr">
         <is>
           <t>AdminFee_Alias</t>
         </is>
       </c>
-      <c r="F1" s="42" t="inlineStr">
+      <c r="F1" s="41" t="inlineStr">
         <is>
           <t>AdminFeeChange_EffectiveDate</t>
         </is>
       </c>
-      <c r="G1" s="33" t="inlineStr">
+      <c r="G1" s="32" t="inlineStr">
         <is>
           <t>AdminFee_NewExpiryDate</t>
         </is>
       </c>
-      <c r="H1" s="33" t="inlineStr">
+      <c r="H1" s="32" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="I1" s="33" t="inlineStr">
+      <c r="I1" s="32" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
@@ -9680,246 +9719,246 @@
   <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col width="6.140625" customWidth="1" style="11" min="1" max="1"/>
-    <col width="50.140625" customWidth="1" style="49" min="2" max="2"/>
-    <col width="25.7109375" customWidth="1" style="49" min="3" max="3"/>
-    <col width="16.85546875" customWidth="1" style="49" min="4" max="4"/>
-    <col width="27.140625" customWidth="1" style="49" min="5" max="5"/>
-    <col width="17.5703125" customWidth="1" style="49" min="6" max="6"/>
-    <col width="17.7109375" customWidth="1" style="49" min="7" max="7"/>
-    <col width="19.28515625" customWidth="1" style="49" min="8" max="8"/>
-    <col width="14.85546875" customWidth="1" style="49" min="9" max="9"/>
-    <col width="23.5703125" customWidth="1" style="49" min="10" max="10"/>
-    <col width="18.7109375" customWidth="1" style="49" min="11" max="11"/>
-    <col width="18.28515625" customWidth="1" style="49" min="12" max="12"/>
-    <col width="25.28515625" customWidth="1" style="49" min="13" max="13"/>
-    <col width="23.85546875" customWidth="1" style="49" min="14" max="14"/>
-    <col width="19.28515625" customWidth="1" style="49" min="15" max="15"/>
-    <col width="31.140625" customWidth="1" style="49" min="16" max="16"/>
-    <col width="27.85546875" customWidth="1" style="49" min="17" max="17"/>
-    <col width="23.42578125" customWidth="1" style="49" min="18" max="18"/>
-    <col width="27.28515625" customWidth="1" style="49" min="19" max="19"/>
-    <col width="16.5703125" customWidth="1" style="49" min="20" max="20"/>
-    <col width="18.140625" customWidth="1" style="49" min="21" max="21"/>
-    <col width="14.85546875" customWidth="1" style="49" min="22" max="22"/>
-    <col width="20.85546875" customWidth="1" style="49" min="23" max="23"/>
-    <col width="40.7109375" customWidth="1" style="49" min="24" max="24"/>
-    <col width="21.140625" customWidth="1" style="49" min="25" max="26"/>
-    <col width="22.140625" customWidth="1" style="49" min="27" max="27"/>
-    <col width="23.140625" customWidth="1" style="49" min="28" max="29"/>
-    <col width="22.85546875" customWidth="1" style="49" min="30" max="30"/>
-    <col width="23.85546875" customWidth="1" style="49" min="31" max="32"/>
-    <col width="18" customWidth="1" style="49" min="33" max="33"/>
-    <col width="16.85546875" customWidth="1" style="49" min="34" max="35"/>
-    <col width="22.42578125" customWidth="1" style="49" min="36" max="36"/>
-    <col width="14.7109375" customWidth="1" style="49" min="37" max="37"/>
-    <col width="18.7109375" customWidth="1" style="49" min="38" max="38"/>
+    <col width="50.140625" customWidth="1" style="48" min="2" max="2"/>
+    <col width="25.7109375" customWidth="1" style="48" min="3" max="3"/>
+    <col width="16.85546875" customWidth="1" style="48" min="4" max="4"/>
+    <col width="27.140625" customWidth="1" style="48" min="5" max="5"/>
+    <col width="17.5703125" customWidth="1" style="48" min="6" max="6"/>
+    <col width="17.7109375" customWidth="1" style="48" min="7" max="7"/>
+    <col width="19.28515625" customWidth="1" style="48" min="8" max="8"/>
+    <col width="14.85546875" customWidth="1" style="48" min="9" max="9"/>
+    <col width="23.5703125" customWidth="1" style="48" min="10" max="10"/>
+    <col width="18.7109375" customWidth="1" style="48" min="11" max="11"/>
+    <col width="18.28515625" customWidth="1" style="48" min="12" max="12"/>
+    <col width="25.28515625" customWidth="1" style="48" min="13" max="13"/>
+    <col width="23.85546875" customWidth="1" style="48" min="14" max="14"/>
+    <col width="19.28515625" customWidth="1" style="48" min="15" max="15"/>
+    <col width="31.140625" customWidth="1" style="48" min="16" max="16"/>
+    <col width="27.85546875" customWidth="1" style="48" min="17" max="17"/>
+    <col width="23.42578125" customWidth="1" style="48" min="18" max="18"/>
+    <col width="27.28515625" customWidth="1" style="48" min="19" max="19"/>
+    <col width="16.5703125" customWidth="1" style="48" min="20" max="20"/>
+    <col width="18.140625" customWidth="1" style="48" min="21" max="21"/>
+    <col width="14.85546875" customWidth="1" style="48" min="22" max="22"/>
+    <col width="20.85546875" customWidth="1" style="48" min="23" max="23"/>
+    <col width="40.7109375" customWidth="1" style="48" min="24" max="24"/>
+    <col width="21.140625" customWidth="1" style="48" min="25" max="26"/>
+    <col width="22.140625" customWidth="1" style="48" min="27" max="27"/>
+    <col width="23.140625" customWidth="1" style="48" min="28" max="29"/>
+    <col width="22.85546875" customWidth="1" style="48" min="30" max="30"/>
+    <col width="23.85546875" customWidth="1" style="48" min="31" max="32"/>
+    <col width="18" customWidth="1" style="48" min="33" max="33"/>
+    <col width="16.85546875" customWidth="1" style="48" min="34" max="35"/>
+    <col width="22.42578125" customWidth="1" style="48" min="36" max="36"/>
+    <col width="14.7109375" customWidth="1" style="48" min="37" max="37"/>
+    <col width="18.7109375" customWidth="1" style="48" min="38" max="38"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="33" thickBot="1">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="32" thickBot="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="33" t="inlineStr">
+      <c r="B1" s="32" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="32" t="inlineStr">
+      <c r="C1" s="31" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="33" t="inlineStr">
+      <c r="D1" s="32" t="inlineStr">
         <is>
           <t>Facility_Currency</t>
         </is>
       </c>
-      <c r="E1" s="32" t="inlineStr">
+      <c r="E1" s="31" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="F1" s="33" t="inlineStr">
+      <c r="F1" s="32" t="inlineStr">
         <is>
           <t>Outstanding_Type</t>
         </is>
       </c>
-      <c r="G1" s="32" t="inlineStr">
+      <c r="G1" s="31" t="inlineStr">
         <is>
           <t>Loan_Alias</t>
         </is>
       </c>
-      <c r="H1" s="33" t="inlineStr">
+      <c r="H1" s="32" t="inlineStr">
         <is>
           <t>Loan_PricingOption</t>
         </is>
       </c>
-      <c r="I1" s="33" t="inlineStr">
+      <c r="I1" s="32" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="J1" s="32" t="inlineStr">
+      <c r="J1" s="31" t="inlineStr">
         <is>
           <t>Loan_RequestedAmount</t>
         </is>
       </c>
-      <c r="K1" s="32" t="inlineStr">
+      <c r="K1" s="31" t="inlineStr">
         <is>
           <t>Loan_EffectiveDate</t>
         </is>
       </c>
-      <c r="L1" s="32" t="inlineStr">
+      <c r="L1" s="31" t="inlineStr">
         <is>
           <t>Loan_MaturityDate</t>
         </is>
       </c>
-      <c r="M1" s="33" t="inlineStr">
+      <c r="M1" s="32" t="inlineStr">
         <is>
           <t>Loan_RepricingFrequency</t>
         </is>
       </c>
-      <c r="N1" s="33" t="inlineStr">
+      <c r="N1" s="32" t="inlineStr">
         <is>
           <t>Loan_IntCycleFrequency</t>
         </is>
       </c>
-      <c r="O1" s="33" t="inlineStr">
+      <c r="O1" s="32" t="inlineStr">
         <is>
           <t>Borrower_BaseRate</t>
         </is>
       </c>
-      <c r="P1" s="33" t="inlineStr">
+      <c r="P1" s="32" t="inlineStr">
         <is>
           <t>Repayment_ScheduleFrequency</t>
         </is>
       </c>
-      <c r="Q1" s="33" t="inlineStr">
+      <c r="Q1" s="32" t="inlineStr">
         <is>
           <t>Repayment_NumberOfCycles</t>
         </is>
       </c>
-      <c r="R1" s="33" t="inlineStr">
+      <c r="R1" s="32" t="inlineStr">
         <is>
           <t>Repayment_TriggerDate</t>
         </is>
       </c>
-      <c r="S1" s="33" t="inlineStr">
+      <c r="S1" s="32" t="inlineStr">
         <is>
           <t>Repayment_NonBusDayRule</t>
         </is>
       </c>
-      <c r="T1" s="33" t="inlineStr">
+      <c r="T1" s="32" t="inlineStr">
         <is>
           <t>Borrower_Profile</t>
         </is>
       </c>
-      <c r="U1" s="33" t="inlineStr">
+      <c r="U1" s="32" t="inlineStr">
         <is>
           <t>Remittance_Status</t>
         </is>
       </c>
-      <c r="V1" s="33" t="inlineStr">
+      <c r="V1" s="32" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="W1" s="32" t="inlineStr">
+      <c r="W1" s="31" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="X1" s="32" t="inlineStr">
+      <c r="X1" s="31" t="inlineStr">
         <is>
           <t>Host_Bank</t>
         </is>
       </c>
-      <c r="Y1" s="32" t="inlineStr">
+      <c r="Y1" s="31" t="inlineStr">
         <is>
           <t>Lender1_ShortName</t>
         </is>
       </c>
-      <c r="Z1" s="32" t="inlineStr">
+      <c r="Z1" s="31" t="inlineStr">
         <is>
           <t>Lender2_ShortName</t>
         </is>
       </c>
-      <c r="AA1" s="33" t="inlineStr">
+      <c r="AA1" s="32" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="AB1" s="33" t="inlineStr">
+      <c r="AB1" s="32" t="inlineStr">
         <is>
           <t>Remittance2_Instruction</t>
         </is>
       </c>
-      <c r="AC1" s="33" t="inlineStr">
+      <c r="AC1" s="32" t="inlineStr">
         <is>
           <t>Remittance3_Instruction</t>
         </is>
       </c>
-      <c r="AD1" s="32" t="inlineStr">
+      <c r="AD1" s="31" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="AE1" s="32" t="inlineStr">
+      <c r="AE1" s="31" t="inlineStr">
         <is>
           <t>Remittance2_Description</t>
         </is>
       </c>
-      <c r="AF1" s="32" t="inlineStr">
+      <c r="AF1" s="31" t="inlineStr">
         <is>
           <t>Remittance3_Description</t>
         </is>
       </c>
-      <c r="AG1" s="32" t="inlineStr">
+      <c r="AG1" s="31" t="inlineStr">
         <is>
           <t>HostBankSharePct</t>
         </is>
       </c>
-      <c r="AH1" s="32" t="inlineStr">
+      <c r="AH1" s="31" t="inlineStr">
         <is>
           <t>LenderSharePct1</t>
         </is>
       </c>
-      <c r="AI1" s="32" t="inlineStr">
+      <c r="AI1" s="31" t="inlineStr">
         <is>
           <t>LenderSharePct2</t>
         </is>
       </c>
-      <c r="AJ1" s="32" t="inlineStr">
+      <c r="AJ1" s="31" t="inlineStr">
         <is>
           <t>Customer_Legal_Name</t>
         </is>
       </c>
-      <c r="AK1" s="33" t="inlineStr">
+      <c r="AK1" s="32" t="inlineStr">
         <is>
           <t>NoticeStatus</t>
         </is>
       </c>
-      <c r="AL1" s="32" t="inlineStr">
+      <c r="AL1" s="31" t="inlineStr">
         <is>
           <t>Contact_Email</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customFormat="1" customHeight="1" s="22">
-      <c r="A2" s="35" t="inlineStr">
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="21">
+      <c r="A2" s="34" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="22" t="inlineStr">
+      <c r="B2" s="21" t="inlineStr">
         <is>
           <t>EVG_PTYLIQ02 Scenario2 Baseline Agency (Syndicated)</t>
         </is>
@@ -9929,7 +9968,7 @@
           <t>BNS2SYN_10082020000318AFD</t>
         </is>
       </c>
-      <c r="D2" s="36" t="inlineStr">
+      <c r="D2" s="35" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
@@ -9939,7 +9978,7 @@
           <t>S2TERM10082020001922ALF</t>
         </is>
       </c>
-      <c r="F2" s="36" t="inlineStr">
+      <c r="F2" s="35" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
@@ -9949,17 +9988,17 @@
           <t>60000127</t>
         </is>
       </c>
-      <c r="H2" s="36" t="inlineStr">
+      <c r="H2" s="35" t="inlineStr">
         <is>
           <t>BBSY - Bid</t>
         </is>
       </c>
-      <c r="I2" s="36" t="inlineStr">
+      <c r="I2" s="35" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="J2" s="36" t="inlineStr">
+      <c r="J2" s="35" t="inlineStr">
         <is>
           <t>1,000,000.00</t>
         </is>
@@ -9974,52 +10013,52 @@
           <t>06-Aug-2021</t>
         </is>
       </c>
-      <c r="M2" s="36" t="inlineStr">
+      <c r="M2" s="35" t="inlineStr">
         <is>
           <t>1 Months</t>
         </is>
       </c>
-      <c r="N2" s="36" t="inlineStr">
+      <c r="N2" s="35" t="inlineStr">
         <is>
           <t>Weekly</t>
         </is>
       </c>
-      <c r="O2" s="36" t="inlineStr">
+      <c r="O2" s="35" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P2" s="36" t="inlineStr">
+      <c r="P2" s="35" t="inlineStr">
         <is>
           <t>Weeks</t>
         </is>
       </c>
-      <c r="Q2" s="36" t="inlineStr">
+      <c r="Q2" s="35" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="R2" s="22" t="inlineStr">
+      <c r="R2" s="21" t="inlineStr">
         <is>
           <t>11-Jul-2018</t>
         </is>
       </c>
-      <c r="S2" s="36" t="inlineStr">
+      <c r="S2" s="35" t="inlineStr">
         <is>
           <t>Next Business Day</t>
         </is>
       </c>
-      <c r="T2" s="36" t="inlineStr">
+      <c r="T2" s="35" t="inlineStr">
         <is>
           <t>Borrower</t>
         </is>
       </c>
-      <c r="U2" s="22" t="inlineStr">
+      <c r="U2" s="21" t="inlineStr">
         <is>
           <t>DOIT</t>
         </is>
       </c>
-      <c r="V2" s="22" t="inlineStr">
+      <c r="V2" s="21" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
@@ -10044,45 +10083,45 @@
           <t>LENDSHORT0414</t>
         </is>
       </c>
-      <c r="AA2" s="22" t="inlineStr">
+      <c r="AA2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="AB2" s="22" t="inlineStr">
+      <c r="AB2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="AC2" s="22" t="inlineStr">
+      <c r="AC2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="AD2" s="22" t="inlineStr">
+      <c r="AD2" s="21" t="inlineStr">
         <is>
           <t>RTGS1</t>
         </is>
       </c>
-      <c r="AE2" s="22" t="inlineStr">
+      <c r="AE2" s="21" t="inlineStr">
         <is>
           <t>RTGS1</t>
         </is>
       </c>
-      <c r="AF2" s="22" t="inlineStr">
+      <c r="AF2" s="21" t="inlineStr">
         <is>
           <t>RTGS1</t>
         </is>
       </c>
-      <c r="AG2" s="22" t="n">
+      <c r="AG2" s="21" t="n">
         <v>60</v>
       </c>
-      <c r="AH2" s="22" t="inlineStr">
+      <c r="AH2" s="21" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AI2" s="22" t="inlineStr">
+      <c r="AI2" s="21" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -10092,7 +10131,7 @@
           <t>CUSTLEGAL39121</t>
         </is>
       </c>
-      <c r="AK2" s="22" t="inlineStr">
+      <c r="AK2" s="21" t="inlineStr">
         <is>
           <t>Awaiting release</t>
         </is>
@@ -10119,15 +10158,15 @@
       <c r="BA2" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="AB13" s="34" t="n"/>
+      <c r="AB13" s="33" t="n"/>
     </row>
     <row r="14">
-      <c r="AA14" s="34" t="n"/>
-      <c r="AB14" s="34" t="n"/>
+      <c r="AA14" s="33" t="n"/>
+      <c r="AB14" s="33" t="n"/>
     </row>
     <row r="15">
-      <c r="AA15" s="34" t="n"/>
-      <c r="AB15" s="34" t="n"/>
+      <c r="AA15" s="33" t="n"/>
+      <c r="AB15" s="33" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -10144,37 +10183,37 @@
   </sheetPr>
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="49" min="1" max="1"/>
-    <col width="50.140625" customWidth="1" style="49" min="2" max="2"/>
-    <col width="26.42578125" customWidth="1" style="49" min="3" max="3"/>
-    <col width="26.5703125" customWidth="1" style="49" min="4" max="4"/>
-    <col width="21" customWidth="1" style="49" min="5" max="5"/>
-    <col width="9.140625" customWidth="1" style="49" min="6" max="6"/>
-    <col width="14" customWidth="1" style="49" min="7" max="7"/>
-    <col width="12.7109375" customWidth="1" style="49" min="8" max="8"/>
-    <col width="22.28515625" customWidth="1" style="49" min="9" max="9"/>
-    <col width="34.85546875" customWidth="1" style="49" min="10" max="10"/>
-    <col width="21.140625" customWidth="1" style="49" min="11" max="12"/>
-    <col width="23.28515625" customWidth="1" style="49" min="13" max="13"/>
-    <col width="22.28515625" customWidth="1" style="49" min="14" max="15"/>
-    <col width="20.85546875" customWidth="1" style="49" min="16" max="16"/>
-    <col width="19.85546875" customWidth="1" style="49" min="17" max="18"/>
-    <col width="23.28515625" customWidth="1" style="49" min="19" max="19"/>
-    <col width="34.85546875" customWidth="1" style="49" min="20" max="20"/>
-    <col width="40.7109375" customWidth="1" style="49" min="21" max="21"/>
-    <col width="21" customWidth="1" style="49" min="22" max="22"/>
-    <col width="17.28515625" customWidth="1" style="49" min="23" max="23"/>
-    <col width="22.85546875" customWidth="1" style="49" min="24" max="24"/>
-    <col width="22.140625" customWidth="1" style="49" min="25" max="25"/>
+    <col width="6.140625" customWidth="1" style="48" min="1" max="1"/>
+    <col width="50.140625" customWidth="1" style="48" min="2" max="2"/>
+    <col width="26.42578125" customWidth="1" style="48" min="3" max="3"/>
+    <col width="26.5703125" customWidth="1" style="48" min="4" max="4"/>
+    <col width="21" customWidth="1" style="48" min="5" max="5"/>
+    <col width="9.140625" customWidth="1" style="48" min="6" max="6"/>
+    <col width="14" customWidth="1" style="48" min="7" max="7"/>
+    <col width="12.7109375" customWidth="1" style="48" min="8" max="8"/>
+    <col width="22.28515625" customWidth="1" style="48" min="9" max="9"/>
+    <col width="34.85546875" customWidth="1" style="48" min="10" max="10"/>
+    <col width="21.140625" customWidth="1" style="48" min="11" max="12"/>
+    <col width="23.28515625" customWidth="1" style="48" min="13" max="13"/>
+    <col width="22.28515625" customWidth="1" style="48" min="14" max="15"/>
+    <col width="20.85546875" customWidth="1" style="48" min="16" max="16"/>
+    <col width="19.85546875" customWidth="1" style="48" min="17" max="18"/>
+    <col width="23.28515625" customWidth="1" style="48" min="19" max="19"/>
+    <col width="34.85546875" customWidth="1" style="48" min="20" max="20"/>
+    <col width="40.7109375" customWidth="1" style="48" min="21" max="21"/>
+    <col width="21" customWidth="1" style="48" min="22" max="22"/>
+    <col width="17.28515625" customWidth="1" style="48" min="23" max="23"/>
+    <col width="22.85546875" customWidth="1" style="48" min="24" max="24"/>
+    <col width="22.140625" customWidth="1" style="48" min="25" max="25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="25" thickBot="1">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="24" thickBot="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
           <t>rowid</t>
@@ -10190,112 +10229,112 @@
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="21" t="inlineStr">
+      <c r="D1" s="20" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="E1" s="25" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Facility_ProposedCmt</t>
         </is>
       </c>
-      <c r="F1" s="25" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Currency</t>
         </is>
       </c>
-      <c r="G1" s="21" t="inlineStr">
+      <c r="G1" s="20" t="inlineStr">
         <is>
           <t>Effective_Date</t>
         </is>
       </c>
-      <c r="H1" s="25" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>BuySellPrice</t>
         </is>
       </c>
-      <c r="I1" s="25" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="J1" s="21" t="inlineStr">
+      <c r="J1" s="20" t="inlineStr">
         <is>
           <t>Host_Bank</t>
         </is>
       </c>
-      <c r="K1" s="21" t="inlineStr">
+      <c r="K1" s="20" t="inlineStr">
         <is>
           <t>Lender_Name1</t>
         </is>
       </c>
-      <c r="L1" s="21" t="inlineStr">
+      <c r="L1" s="20" t="inlineStr">
         <is>
           <t>Lender_Name2</t>
         </is>
       </c>
-      <c r="M1" s="25" t="inlineStr">
+      <c r="M1" s="24" t="inlineStr">
         <is>
           <t>HostBank_ShareAmount</t>
         </is>
       </c>
-      <c r="N1" s="25" t="inlineStr">
+      <c r="N1" s="24" t="inlineStr">
         <is>
           <t>Lender_ShareAmount1</t>
         </is>
       </c>
-      <c r="O1" s="25" t="inlineStr">
+      <c r="O1" s="24" t="inlineStr">
         <is>
           <t>Lender_ShareAmount2</t>
         </is>
       </c>
-      <c r="P1" s="25" t="inlineStr">
+      <c r="P1" s="24" t="inlineStr">
         <is>
           <t>HostBank_Adjustment</t>
         </is>
       </c>
-      <c r="Q1" s="25" t="inlineStr">
+      <c r="Q1" s="24" t="inlineStr">
         <is>
           <t>Lender_Adjustment1</t>
         </is>
       </c>
-      <c r="R1" s="25" t="inlineStr">
+      <c r="R1" s="24" t="inlineStr">
         <is>
           <t>Lender_Adjustment2</t>
         </is>
       </c>
-      <c r="S1" s="21" t="inlineStr">
+      <c r="S1" s="20" t="inlineStr">
         <is>
           <t>HostBank_ExpenseCode</t>
         </is>
       </c>
-      <c r="T1" s="21" t="inlineStr">
+      <c r="T1" s="20" t="inlineStr">
         <is>
           <t>HostBank_Branch</t>
         </is>
       </c>
-      <c r="U1" s="21" t="inlineStr">
+      <c r="U1" s="20" t="inlineStr">
         <is>
           <t>HostBank_Portfolio</t>
         </is>
       </c>
-      <c r="V1" s="25" t="inlineStr">
+      <c r="V1" s="24" t="inlineStr">
         <is>
           <t>Outstandings_Amount</t>
         </is>
       </c>
-      <c r="W1" s="25" t="inlineStr">
+      <c r="W1" s="24" t="inlineStr">
         <is>
           <t>Lender_RIMethod</t>
         </is>
       </c>
-      <c r="X1" s="25" t="inlineStr">
+      <c r="X1" s="24" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="Y1" s="25" t="inlineStr">
+      <c r="Y1" s="24" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
@@ -10314,12 +10353,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS2SYN_10082020000318AFD</t>
+          <t xml:space="preserve">BNS2SYN_15092020054146CUT </t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>S2TERM10082020001922ALF</t>
+          <t>S2TERM15092020055702LAL</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -10332,9 +10371,9 @@
           <t>AUD</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>07-Jul-2020</t>
+      <c r="G2" s="11" t="inlineStr">
+        <is>
+          <t>25-Nov-2020</t>
         </is>
       </c>
       <c r="H2" s="11" t="n">
@@ -10345,7 +10384,7 @@
           <t>Facility share adjustment</t>
         </is>
       </c>
-      <c r="J2" s="27" t="inlineStr">
+      <c r="J2" s="26" t="inlineStr">
         <is>
           <t>COMMONWEALTHBANKOFAUSTCB001</t>
         </is>
@@ -10393,7 +10432,7 @@
           <t>BP_CML</t>
         </is>
       </c>
-      <c r="T2" s="50" t="inlineStr">
+      <c r="T2" s="49" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - DBU</t>
         </is>
@@ -10405,7 +10444,7 @@
       </c>
       <c r="V2" s="1" t="inlineStr">
         <is>
-          <t>1,000,000.00</t>
+          <t>14,307,692.31</t>
         </is>
       </c>
       <c r="W2" s="11" t="inlineStr">
@@ -10413,7 +10452,7 @@
           <t>RTGS</t>
         </is>
       </c>
-      <c r="X2" s="22" t="inlineStr">
+      <c r="X2" s="21" t="inlineStr">
         <is>
           <t>RTGS1</t>
         </is>
@@ -10440,78 +10479,78 @@
   <dimension ref="A1:BU19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="49" min="1" max="1"/>
-    <col width="50.140625" customWidth="1" style="49" min="2" max="2"/>
-    <col width="26.5703125" customWidth="1" style="49" min="3" max="3"/>
-    <col width="27.140625" customWidth="1" style="49" min="4" max="4"/>
-    <col width="29.42578125" customWidth="1" style="49" min="5" max="5"/>
-    <col width="34.85546875" customWidth="1" style="49" min="6" max="6"/>
-    <col width="25.28515625" customWidth="1" style="49" min="7" max="7"/>
-    <col width="26.7109375" customWidth="1" style="49" min="8" max="8"/>
-    <col width="22.85546875" customWidth="1" style="49" min="9" max="9"/>
-    <col width="23.85546875" customWidth="1" style="49" min="10" max="11"/>
-    <col width="18.42578125" customWidth="1" style="49" min="12" max="12"/>
-    <col width="22.140625" customWidth="1" style="49" min="13" max="13"/>
-    <col width="23.140625" customWidth="1" style="49" min="14" max="15"/>
-    <col width="18.140625" customWidth="1" style="49" min="16" max="16"/>
-    <col width="20.85546875" customWidth="1" style="49" min="17" max="17"/>
-    <col width="21.140625" customWidth="1" style="49" min="18" max="19"/>
+    <col width="6.140625" customWidth="1" style="48" min="1" max="1"/>
+    <col width="50.140625" customWidth="1" style="48" min="2" max="2"/>
+    <col width="26.5703125" customWidth="1" style="48" min="3" max="3"/>
+    <col width="27.140625" customWidth="1" style="48" min="4" max="4"/>
+    <col width="29.42578125" customWidth="1" style="48" min="5" max="5"/>
+    <col width="34.85546875" customWidth="1" style="48" min="6" max="6"/>
+    <col width="25.28515625" customWidth="1" style="48" min="7" max="7"/>
+    <col width="26.7109375" customWidth="1" style="48" min="8" max="8"/>
+    <col width="22.85546875" customWidth="1" style="48" min="9" max="9"/>
+    <col width="23.85546875" customWidth="1" style="48" min="10" max="11"/>
+    <col width="18.42578125" customWidth="1" style="48" min="12" max="12"/>
+    <col width="22.140625" customWidth="1" style="48" min="13" max="13"/>
+    <col width="23.140625" customWidth="1" style="48" min="14" max="15"/>
+    <col width="18.140625" customWidth="1" style="48" min="16" max="16"/>
+    <col width="20.85546875" customWidth="1" style="48" min="17" max="17"/>
+    <col width="21.140625" customWidth="1" style="48" min="18" max="19"/>
     <col width="21.140625" customWidth="1" style="15" min="20" max="20"/>
-    <col width="18" customWidth="1" style="49" min="21" max="21"/>
-    <col width="16.85546875" customWidth="1" style="49" min="22" max="23"/>
-    <col width="40.7109375" customWidth="1" style="49" min="24" max="24"/>
-    <col width="14.85546875" customWidth="1" style="49" min="25" max="25"/>
-    <col width="15.7109375" customWidth="1" style="49" min="26" max="26"/>
-    <col width="16.5703125" customWidth="1" style="49" min="27" max="27"/>
-    <col width="17.85546875" customWidth="1" style="49" min="28" max="29"/>
-    <col width="19.42578125" customWidth="1" style="49" min="30" max="30"/>
-    <col width="19" customWidth="1" style="49" min="31" max="31"/>
-    <col width="21.140625" customWidth="1" style="49" min="32" max="32"/>
-    <col width="20.7109375" customWidth="1" style="49" min="33" max="33"/>
-    <col width="18.42578125" customWidth="1" style="49" min="34" max="34"/>
-    <col width="18" customWidth="1" style="49" min="35" max="35"/>
-    <col width="26.85546875" customWidth="1" style="49" min="36" max="36"/>
-    <col width="17.42578125" customWidth="1" style="49" min="37" max="37"/>
-    <col width="15.42578125" customWidth="1" style="49" min="38" max="38"/>
-    <col width="27.140625" customWidth="1" style="49" min="39" max="39"/>
-    <col width="17.5703125" customWidth="1" style="49" min="40" max="40"/>
-    <col width="18.5703125" customWidth="1" style="49" min="41" max="41"/>
-    <col width="23" customWidth="1" style="49" min="42" max="42"/>
-    <col width="24" customWidth="1" style="49" min="43" max="43"/>
-    <col width="25.85546875" customWidth="1" style="49" min="44" max="44"/>
-    <col width="26.85546875" customWidth="1" style="49" min="45" max="45"/>
-    <col width="10.42578125" customWidth="1" style="49" min="46" max="46"/>
-    <col width="29.140625" customWidth="1" style="49" min="47" max="47"/>
-    <col width="30.28515625" customWidth="1" style="49" min="48" max="48"/>
-    <col width="18.85546875" customWidth="1" style="49" min="49" max="50"/>
-    <col width="16.28515625" customWidth="1" style="49" min="51" max="51"/>
-    <col width="17.42578125" customWidth="1" style="49" min="52" max="52"/>
-    <col width="9.85546875" customWidth="1" style="49" min="53" max="53"/>
-    <col width="10.85546875" customWidth="1" style="49" min="54" max="54"/>
-    <col width="13.28515625" customWidth="1" style="49" min="55" max="55"/>
-    <col width="14.28515625" customWidth="1" style="49" min="56" max="56"/>
-    <col width="20.5703125" customWidth="1" style="49" min="57" max="58"/>
-    <col width="21.7109375" customWidth="1" style="49" min="59" max="59"/>
-    <col width="13.5703125" customWidth="1" style="49" min="60" max="60"/>
-    <col width="13.28515625" customWidth="1" style="49" min="61" max="61"/>
-    <col width="18.7109375" customWidth="1" style="49" min="62" max="62"/>
-    <col width="29" customWidth="1" style="49" min="63" max="63"/>
-    <col width="20" customWidth="1" style="49" min="64" max="64"/>
-    <col width="17.5703125" customWidth="1" style="49" min="65" max="65"/>
-    <col width="14.7109375" customWidth="1" style="49" min="66" max="66"/>
-    <col width="21" customWidth="1" style="49" min="67" max="67"/>
-    <col width="36.5703125" customWidth="1" style="49" min="68" max="68"/>
-    <col width="21.42578125" customWidth="1" style="49" min="69" max="69"/>
-    <col width="23.5703125" customWidth="1" style="49" min="70" max="70"/>
+    <col width="18" customWidth="1" style="48" min="21" max="21"/>
+    <col width="16.85546875" customWidth="1" style="48" min="22" max="23"/>
+    <col width="40.7109375" customWidth="1" style="48" min="24" max="24"/>
+    <col width="14.85546875" customWidth="1" style="48" min="25" max="25"/>
+    <col width="15.7109375" customWidth="1" style="48" min="26" max="26"/>
+    <col width="16.5703125" customWidth="1" style="48" min="27" max="27"/>
+    <col width="17.85546875" customWidth="1" style="48" min="28" max="29"/>
+    <col width="19.42578125" customWidth="1" style="48" min="30" max="30"/>
+    <col width="19" customWidth="1" style="48" min="31" max="31"/>
+    <col width="21.140625" customWidth="1" style="48" min="32" max="32"/>
+    <col width="20.7109375" customWidth="1" style="48" min="33" max="33"/>
+    <col width="18.42578125" customWidth="1" style="48" min="34" max="34"/>
+    <col width="18" customWidth="1" style="48" min="35" max="35"/>
+    <col width="26.85546875" customWidth="1" style="48" min="36" max="36"/>
+    <col width="17.42578125" customWidth="1" style="48" min="37" max="37"/>
+    <col width="15.42578125" customWidth="1" style="48" min="38" max="38"/>
+    <col width="27.140625" customWidth="1" style="48" min="39" max="39"/>
+    <col width="17.5703125" customWidth="1" style="48" min="40" max="40"/>
+    <col width="18.5703125" customWidth="1" style="48" min="41" max="41"/>
+    <col width="23" customWidth="1" style="48" min="42" max="42"/>
+    <col width="24" customWidth="1" style="48" min="43" max="43"/>
+    <col width="25.85546875" customWidth="1" style="48" min="44" max="44"/>
+    <col width="26.85546875" customWidth="1" style="48" min="45" max="45"/>
+    <col width="10.42578125" customWidth="1" style="48" min="46" max="46"/>
+    <col width="29.140625" customWidth="1" style="48" min="47" max="47"/>
+    <col width="30.28515625" customWidth="1" style="48" min="48" max="48"/>
+    <col width="18.85546875" customWidth="1" style="48" min="49" max="50"/>
+    <col width="16.28515625" customWidth="1" style="48" min="51" max="51"/>
+    <col width="17.42578125" customWidth="1" style="48" min="52" max="52"/>
+    <col width="9.85546875" customWidth="1" style="48" min="53" max="53"/>
+    <col width="10.85546875" customWidth="1" style="48" min="54" max="54"/>
+    <col width="13.28515625" customWidth="1" style="48" min="55" max="55"/>
+    <col width="14.28515625" customWidth="1" style="48" min="56" max="56"/>
+    <col width="20.5703125" customWidth="1" style="48" min="57" max="58"/>
+    <col width="21.7109375" customWidth="1" style="48" min="59" max="59"/>
+    <col width="13.5703125" customWidth="1" style="48" min="60" max="60"/>
+    <col width="13.28515625" customWidth="1" style="48" min="61" max="61"/>
+    <col width="18.7109375" customWidth="1" style="48" min="62" max="62"/>
+    <col width="29" customWidth="1" style="48" min="63" max="63"/>
+    <col width="20" customWidth="1" style="48" min="64" max="64"/>
+    <col width="17.5703125" customWidth="1" style="48" min="65" max="65"/>
+    <col width="14.7109375" customWidth="1" style="48" min="66" max="66"/>
+    <col width="21" customWidth="1" style="48" min="67" max="67"/>
+    <col width="36.5703125" customWidth="1" style="48" min="68" max="68"/>
+    <col width="21.42578125" customWidth="1" style="48" min="69" max="69"/>
+    <col width="23.5703125" customWidth="1" style="48" min="70" max="70"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="25" thickBot="1">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="24" thickBot="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
           <t>rowid</t>
@@ -10522,167 +10561,167 @@
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="21" t="inlineStr">
+      <c r="C1" s="20" t="inlineStr">
         <is>
           <t>ScheduleActivity_FromDate</t>
         </is>
       </c>
-      <c r="D1" s="21" t="inlineStr">
+      <c r="D1" s="20" t="inlineStr">
         <is>
           <t>ScheduledActivity_ThruDate</t>
         </is>
       </c>
-      <c r="E1" s="25" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>ScheduledActivity_Department</t>
         </is>
       </c>
-      <c r="F1" s="21" t="inlineStr">
+      <c r="F1" s="20" t="inlineStr">
         <is>
           <t>ScheduledActivity_Branch</t>
         </is>
       </c>
-      <c r="G1" s="21" t="inlineStr">
+      <c r="G1" s="20" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="H1" s="25" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>ScheduledActivity_FeeAlias</t>
         </is>
       </c>
-      <c r="I1" s="21" t="inlineStr">
+      <c r="I1" s="20" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="J1" s="21" t="inlineStr">
+      <c r="J1" s="20" t="inlineStr">
         <is>
           <t>Remittance_Description2</t>
         </is>
       </c>
-      <c r="K1" s="21" t="inlineStr">
+      <c r="K1" s="20" t="inlineStr">
         <is>
           <t>Remittance_Description3</t>
         </is>
       </c>
-      <c r="L1" s="21" t="inlineStr">
+      <c r="L1" s="20" t="inlineStr">
         <is>
           <t>Loan_Alias</t>
         </is>
       </c>
-      <c r="M1" s="21" t="inlineStr">
+      <c r="M1" s="20" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="N1" s="21" t="inlineStr">
+      <c r="N1" s="20" t="inlineStr">
         <is>
           <t>Remittance_Instruction2</t>
         </is>
       </c>
-      <c r="O1" s="21" t="inlineStr">
+      <c r="O1" s="20" t="inlineStr">
         <is>
           <t>Remittance_Instruction3</t>
         </is>
       </c>
-      <c r="P1" s="25" t="inlineStr">
+      <c r="P1" s="24" t="inlineStr">
         <is>
           <t>Remittance_Status</t>
         </is>
       </c>
-      <c r="Q1" s="21" t="inlineStr">
+      <c r="Q1" s="20" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="R1" s="21" t="inlineStr">
+      <c r="R1" s="20" t="inlineStr">
         <is>
           <t>Lender1_ShortName</t>
         </is>
       </c>
-      <c r="S1" s="21" t="inlineStr">
+      <c r="S1" s="20" t="inlineStr">
         <is>
           <t>Lender2_ShortName</t>
         </is>
       </c>
-      <c r="T1" s="28" t="inlineStr">
+      <c r="T1" s="27" t="inlineStr">
         <is>
           <t>Borrower_LegalName</t>
         </is>
       </c>
-      <c r="U1" s="25" t="inlineStr">
+      <c r="U1" s="24" t="inlineStr">
         <is>
           <t>HostBankSharePct</t>
         </is>
       </c>
-      <c r="V1" s="25" t="inlineStr">
+      <c r="V1" s="24" t="inlineStr">
         <is>
           <t>LenderSharePct1</t>
         </is>
       </c>
-      <c r="W1" s="25" t="inlineStr">
+      <c r="W1" s="24" t="inlineStr">
         <is>
           <t>LenderSharePct2</t>
         </is>
       </c>
-      <c r="X1" s="21" t="inlineStr">
+      <c r="X1" s="20" t="inlineStr">
         <is>
           <t>Host_Bank</t>
         </is>
       </c>
-      <c r="Y1" s="25" t="inlineStr">
+      <c r="Y1" s="24" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="Z1" s="21" t="inlineStr">
+      <c r="Z1" s="20" t="inlineStr">
         <is>
           <t>LIQCustomer_ID</t>
         </is>
       </c>
-      <c r="AA1" s="25" t="inlineStr">
+      <c r="AA1" s="24" t="inlineStr">
         <is>
           <t>Borrower_Profile</t>
         </is>
       </c>
-      <c r="AB1" s="25" t="inlineStr">
+      <c r="AB1" s="24" t="inlineStr">
         <is>
           <t>Customer_Profile2</t>
         </is>
       </c>
-      <c r="AC1" s="25" t="inlineStr">
+      <c r="AC1" s="24" t="inlineStr">
         <is>
           <t>Customer_Profile3</t>
         </is>
       </c>
-      <c r="AD1" s="25" t="inlineStr">
+      <c r="AD1" s="24" t="inlineStr">
         <is>
           <t>Manager_Username</t>
         </is>
       </c>
-      <c r="AE1" s="25" t="inlineStr">
+      <c r="AE1" s="24" t="inlineStr">
         <is>
           <t>Manager_Password</t>
         </is>
       </c>
-      <c r="AF1" s="25" t="inlineStr">
+      <c r="AF1" s="24" t="inlineStr">
         <is>
           <t>Supervisor_Username</t>
         </is>
       </c>
-      <c r="AG1" s="25" t="inlineStr">
+      <c r="AG1" s="24" t="inlineStr">
         <is>
           <t>Supervisor_Password</t>
         </is>
       </c>
-      <c r="AH1" s="25" t="inlineStr">
+      <c r="AH1" s="24" t="inlineStr">
         <is>
           <t>Inputter_Username</t>
         </is>
       </c>
-      <c r="AI1" s="25" t="inlineStr">
+      <c r="AI1" s="24" t="inlineStr">
         <is>
           <t>Inputter_Password</t>
         </is>
@@ -10742,137 +10781,137 @@
           <t>Fee_Cycle</t>
         </is>
       </c>
-      <c r="AU1" s="21" t="inlineStr">
+      <c r="AU1" s="20" t="inlineStr">
         <is>
           <t>Computed_ProjectedCycleDue</t>
         </is>
       </c>
-      <c r="AV1" s="21" t="inlineStr">
+      <c r="AV1" s="20" t="inlineStr">
         <is>
           <t>Computed_ProjectedCycleDue2</t>
         </is>
       </c>
-      <c r="AW1" s="25" t="inlineStr">
+      <c r="AW1" s="24" t="inlineStr">
         <is>
           <t>RequestedAmount1</t>
         </is>
       </c>
-      <c r="AX1" s="25" t="inlineStr">
+      <c r="AX1" s="24" t="inlineStr">
         <is>
           <t>RequestedAmount2</t>
         </is>
       </c>
-      <c r="AY1" s="25" t="inlineStr">
+      <c r="AY1" s="24" t="inlineStr">
         <is>
           <t>PrincipalAmount</t>
         </is>
       </c>
-      <c r="AZ1" s="25" t="inlineStr">
+      <c r="AZ1" s="24" t="inlineStr">
         <is>
           <t>PrincipalAmount2</t>
         </is>
       </c>
-      <c r="BA1" s="25" t="inlineStr">
+      <c r="BA1" s="24" t="inlineStr">
         <is>
           <t>RateBasis</t>
         </is>
       </c>
-      <c r="BB1" s="25" t="inlineStr">
+      <c r="BB1" s="24" t="inlineStr">
         <is>
           <t>RateBasis2</t>
         </is>
       </c>
-      <c r="BC1" s="25" t="inlineStr">
+      <c r="BC1" s="24" t="inlineStr">
         <is>
           <t>CycleNumber</t>
         </is>
       </c>
-      <c r="BD1" s="25" t="inlineStr">
+      <c r="BD1" s="24" t="inlineStr">
         <is>
           <t>CycleNumber2</t>
         </is>
       </c>
-      <c r="BE1" s="25" t="inlineStr">
+      <c r="BE1" s="24" t="inlineStr">
         <is>
           <t>HostBank_GLAccount</t>
         </is>
       </c>
-      <c r="BF1" s="25" t="inlineStr">
+      <c r="BF1" s="24" t="inlineStr">
         <is>
           <t>Borrower_GLAccount</t>
         </is>
       </c>
-      <c r="BG1" s="25" t="inlineStr">
+      <c r="BG1" s="24" t="inlineStr">
         <is>
           <t>Borrower_GLAccount2</t>
         </is>
       </c>
-      <c r="BH1" s="25" t="inlineStr">
+      <c r="BH1" s="24" t="inlineStr">
         <is>
           <t>FeeType1</t>
         </is>
       </c>
-      <c r="BI1" s="25" t="inlineStr">
+      <c r="BI1" s="24" t="inlineStr">
         <is>
           <t>FeeType2</t>
         </is>
       </c>
-      <c r="BJ1" s="21" t="inlineStr">
+      <c r="BJ1" s="20" t="inlineStr">
         <is>
           <t>Contact_Email</t>
         </is>
       </c>
-      <c r="BK1" s="25" t="inlineStr">
+      <c r="BK1" s="24" t="inlineStr">
         <is>
           <t>ScheduledActivityReport_Date</t>
         </is>
       </c>
-      <c r="BL1" s="25" t="inlineStr">
+      <c r="BL1" s="24" t="inlineStr">
         <is>
           <t>Customer_Borrower</t>
         </is>
       </c>
-      <c r="BM1" s="25" t="inlineStr">
+      <c r="BM1" s="24" t="inlineStr">
         <is>
           <t>Borrower_Contact</t>
         </is>
       </c>
-      <c r="BN1" s="25" t="inlineStr">
+      <c r="BN1" s="24" t="inlineStr">
         <is>
           <t>NoticeStatus</t>
         </is>
       </c>
-      <c r="BO1" s="25" t="inlineStr">
+      <c r="BO1" s="24" t="inlineStr">
         <is>
           <t>WIP_TransactionType</t>
         </is>
       </c>
-      <c r="BP1" s="25" t="inlineStr">
+      <c r="BP1" s="24" t="inlineStr">
         <is>
           <t>WIP_AwaitingReleaseCashflowsStatus</t>
         </is>
       </c>
-      <c r="BQ1" s="25" t="inlineStr">
+      <c r="BQ1" s="24" t="inlineStr">
         <is>
           <t>WIP_OutstandingType</t>
         </is>
       </c>
-      <c r="BR1" s="25" t="inlineStr">
+      <c r="BR1" s="24" t="inlineStr">
         <is>
           <t>Loan_RequestedAmount</t>
         </is>
       </c>
-      <c r="BS1" s="30" t="inlineStr">
+      <c r="BS1" s="29" t="inlineStr">
         <is>
           <t>Cashflow_DataType</t>
         </is>
       </c>
-      <c r="BT1" s="25" t="inlineStr">
+      <c r="BT1" s="24" t="inlineStr">
         <is>
           <t>NoticeMethod</t>
         </is>
       </c>
-      <c r="BU1" s="25" t="inlineStr">
+      <c r="BU1" s="24" t="inlineStr">
         <is>
           <t>days</t>
         </is>
@@ -10899,12 +10938,12 @@
           <t>06-Aug-2020</t>
         </is>
       </c>
-      <c r="E2" s="50" t="inlineStr">
+      <c r="E2" s="49" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
       </c>
-      <c r="F2" s="50" t="inlineStr">
+      <c r="F2" s="49" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - DBU</t>
         </is>
@@ -10934,17 +10973,17 @@
           <t>60000127</t>
         </is>
       </c>
-      <c r="M2" s="22" t="inlineStr">
+      <c r="M2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="N2" s="22" t="inlineStr">
+      <c r="N2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="O2" s="22" t="inlineStr">
+      <c r="O2" s="21" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
@@ -11049,7 +11088,7 @@
           <t>password</t>
         </is>
       </c>
-      <c r="AJ2" s="49" t="inlineStr">
+      <c r="AJ2" s="48" t="inlineStr">
         <is>
           <t>S2TERM06082020202350MQX</t>
         </is>
@@ -11160,7 +11199,7 @@
           <t>UNUT Fee Due</t>
         </is>
       </c>
-      <c r="BI2" s="23" t="inlineStr">
+      <c r="BI2" s="22" t="inlineStr">
         <is>
           <t>IPFEI Fee Due</t>
         </is>
@@ -11208,7 +11247,7 @@
       <c r="BR2" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="BS2" s="49" t="inlineStr">
+      <c r="BS2" s="48" t="inlineStr">
         <is>
           <t>default</t>
         </is>
@@ -11228,17 +11267,17 @@
       <c r="BL14" s="13" t="n"/>
     </row>
     <row r="15">
-      <c r="BO15" s="34" t="n"/>
+      <c r="BO15" s="33" t="n"/>
     </row>
     <row r="16">
-      <c r="BP16" s="34" t="n"/>
+      <c r="BP16" s="33" t="n"/>
     </row>
     <row r="18">
-      <c r="BP18" s="34" t="n"/>
+      <c r="BP18" s="33" t="n"/>
     </row>
     <row r="19">
-      <c r="BO19" s="34" t="n"/>
-      <c r="BP19" s="34" t="n"/>
+      <c r="BO19" s="33" t="n"/>
+      <c r="BP19" s="33" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
